--- a/TS Jatai Working/Padam Input Templates/TS 1.2 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 1.2 Padam Input Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\Raja Files\Padam Inputs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F7D471C-9F5C-44BE-8B11-A460D8130B5B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B4968B5-8487-424A-8F8F-305AD3C7FE76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -4336,9 +4336,6 @@
     <t>dhUqrq.ShAqhAqviti# dhUH - sAqhauq</t>
   </si>
   <si>
-    <t>SB &amp;  etc'</t>
-  </si>
-  <si>
     <t>PS-5.17</t>
   </si>
   <si>
@@ -4394,6 +4391,9 @@
   </si>
   <si>
     <t>dura#H</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SB </t>
   </si>
 </sst>
 </file>
@@ -5014,7 +5014,7 @@
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N1467" sqref="N1467"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5046,7 +5046,7 @@
         <v>62</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>1435</v>
+        <v>1454</v>
       </c>
       <c r="C1" s="40" t="s">
         <v>0</v>
@@ -5100,7 +5100,7 @@
         <v>189</v>
       </c>
       <c r="T1" s="68" t="s">
-        <v>1453</v>
+        <v>1452</v>
       </c>
       <c r="U1" s="63" t="s">
         <v>16</v>
@@ -10983,7 +10983,7 @@
       <c r="E184" s="12"/>
       <c r="F184" s="12"/>
       <c r="G184" s="12" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="H184" s="12" t="s">
         <v>1391</v>
@@ -11014,7 +11014,7 @@
       <c r="E185" s="12"/>
       <c r="F185" s="12"/>
       <c r="G185" s="12" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="H185" s="12" t="s">
         <v>1391</v>
@@ -11045,7 +11045,7 @@
       <c r="E186" s="12"/>
       <c r="F186" s="12"/>
       <c r="G186" s="12" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="H186" s="12" t="s">
         <v>1391</v>
@@ -13361,7 +13361,7 @@
     </row>
     <row r="267" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E267" s="76" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="F267" s="12"/>
       <c r="G267" s="12"/>
@@ -13390,7 +13390,7 @@
     </row>
     <row r="268" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E268" s="76" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="F268" s="12"/>
       <c r="G268" s="12"/>
@@ -13793,7 +13793,7 @@
     <row r="282" spans="4:23" ht="18" x14ac:dyDescent="0.25">
       <c r="E282" s="12"/>
       <c r="F282" s="12" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="G282" s="12"/>
       <c r="H282" s="12"/>
@@ -13825,7 +13825,7 @@
     <row r="283" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E283" s="12"/>
       <c r="F283" s="12" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="G283" s="12"/>
       <c r="H283" s="12"/>
@@ -17743,7 +17743,7 @@
     <row r="421" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E421" s="12"/>
       <c r="F421" s="12" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="G421" s="12"/>
       <c r="H421" s="12"/>
@@ -17772,7 +17772,7 @@
     <row r="422" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E422" s="12"/>
       <c r="F422" s="12" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="G422" s="12"/>
       <c r="H422" s="12"/>
@@ -22128,7 +22128,7 @@
     </row>
     <row r="577" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E577" s="12" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="F577" s="12"/>
       <c r="G577" s="12"/>
@@ -22157,7 +22157,7 @@
     </row>
     <row r="578" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E578" s="12" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="F578" s="12"/>
       <c r="G578" s="12"/>
@@ -22794,7 +22794,7 @@
       <c r="E600" s="12"/>
       <c r="F600" s="12"/>
       <c r="G600" s="12" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="H600" s="74" t="s">
         <v>1404</v>
@@ -22829,7 +22829,7 @@
       <c r="E601" s="12"/>
       <c r="F601" s="12"/>
       <c r="G601" s="12" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="H601" s="74" t="s">
         <v>1404</v>
@@ -26506,10 +26506,10 @@
     </row>
     <row r="728" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E728" s="12" t="s">
+        <v>1437</v>
+      </c>
+      <c r="F728" s="12" t="s">
         <v>1438</v>
-      </c>
-      <c r="F728" s="12" t="s">
-        <v>1439</v>
       </c>
       <c r="G728" s="12"/>
       <c r="H728" s="74" t="s">
@@ -26541,10 +26541,10 @@
     </row>
     <row r="729" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E729" s="12" t="s">
+        <v>1437</v>
+      </c>
+      <c r="F729" s="12" t="s">
         <v>1438</v>
-      </c>
-      <c r="F729" s="12" t="s">
-        <v>1439</v>
       </c>
       <c r="G729" s="12"/>
       <c r="H729" s="74" t="s">
@@ -26574,10 +26574,10 @@
     </row>
     <row r="730" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E730" s="12" t="s">
+        <v>1437</v>
+      </c>
+      <c r="F730" s="12" t="s">
         <v>1438</v>
-      </c>
-      <c r="F730" s="12" t="s">
-        <v>1439</v>
       </c>
       <c r="G730" s="12"/>
       <c r="H730" s="74" t="s">
@@ -26611,10 +26611,10 @@
     </row>
     <row r="731" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E731" s="12" t="s">
+        <v>1437</v>
+      </c>
+      <c r="F731" s="12" t="s">
         <v>1438</v>
-      </c>
-      <c r="F731" s="12" t="s">
-        <v>1439</v>
       </c>
       <c r="G731" s="12"/>
       <c r="H731" s="74" t="s">
@@ -28608,12 +28608,12 @@
     </row>
     <row r="800" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B800" s="4" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="E800" s="12"/>
       <c r="F800" s="12"/>
       <c r="G800" s="12" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="H800" s="74" t="s">
         <v>1411</v>
@@ -28646,12 +28646,12 @@
     </row>
     <row r="801" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B801" s="4" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="E801" s="12"/>
       <c r="F801" s="12"/>
       <c r="G801" s="12" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="H801" s="74" t="s">
         <v>1411</v>
@@ -28684,12 +28684,12 @@
     </row>
     <row r="802" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B802" s="4" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="E802" s="12"/>
       <c r="F802" s="12"/>
       <c r="G802" s="12" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="H802" s="31"/>
       <c r="I802" s="47" t="s">
@@ -29765,7 +29765,7 @@
         <v>810</v>
       </c>
       <c r="O839" s="13" t="s">
-        <v>1452</v>
+        <v>1451</v>
       </c>
       <c r="V839" s="23"/>
       <c r="W839" s="4"/>
@@ -35641,7 +35641,7 @@
         <v>180</v>
       </c>
       <c r="E1049" s="12" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="F1049" s="12"/>
       <c r="G1049" s="12"/>
@@ -35674,7 +35674,7 @@
         <v>180</v>
       </c>
       <c r="E1050" s="12" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="F1050" s="12"/>
       <c r="G1050" s="12"/>
@@ -48011,7 +48011,7 @@
         <v>116</v>
       </c>
       <c r="N1466" s="25" t="s">
-        <v>1454</v>
+        <v>1453</v>
       </c>
       <c r="O1466" s="13"/>
       <c r="V1466" s="23"/>
@@ -48095,7 +48095,7 @@
         <v>64</v>
       </c>
       <c r="D1469" s="11" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="E1469" s="12"/>
       <c r="F1469" s="12"/>
@@ -51847,7 +51847,7 @@
         <v>180</v>
       </c>
       <c r="E1586" s="4" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="I1586" s="47" t="s">
         <v>57</v>
@@ -51880,7 +51880,7 @@
         <v>180</v>
       </c>
       <c r="E1587" s="4" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="I1587" s="47" t="s">
         <v>57</v>
@@ -52214,7 +52214,7 @@
         <v>64</v>
       </c>
       <c r="G1598" s="4" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="H1598" s="74" t="s">
         <v>1425</v>
@@ -52243,13 +52243,13 @@
     </row>
     <row r="1599" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1599" s="4" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="C1599" s="4" t="s">
         <v>64</v>
       </c>
       <c r="G1599" s="4" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="H1599" s="74" t="s">
         <v>1425</v>
@@ -52284,7 +52284,7 @@
         <v>64</v>
       </c>
       <c r="G1600" s="4" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="H1600" s="74" t="s">
         <v>1425</v>
@@ -52798,7 +52798,7 @@
         <v>180</v>
       </c>
       <c r="E1618" s="4" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="H1618" s="74" t="s">
         <v>1426</v>
@@ -52834,7 +52834,7 @@
         <v>180</v>
       </c>
       <c r="E1619" s="4" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="H1619" s="74" t="s">
         <v>1426</v>
@@ -54363,10 +54363,10 @@
         <v>64</v>
       </c>
       <c r="D1674" s="11" t="s">
+        <v>1441</v>
+      </c>
+      <c r="G1674" s="4" t="s">
         <v>1442</v>
-      </c>
-      <c r="G1674" s="4" t="s">
-        <v>1443</v>
       </c>
       <c r="I1674" s="47" t="s">
         <v>59</v>
@@ -54395,10 +54395,10 @@
         <v>64</v>
       </c>
       <c r="D1675" s="11" t="s">
+        <v>1441</v>
+      </c>
+      <c r="G1675" s="4" t="s">
         <v>1442</v>
-      </c>
-      <c r="G1675" s="4" t="s">
-        <v>1443</v>
       </c>
       <c r="I1675" s="47" t="s">
         <v>59</v>
@@ -54430,10 +54430,10 @@
         <v>64</v>
       </c>
       <c r="D1676" s="11" t="s">
+        <v>1441</v>
+      </c>
+      <c r="G1676" s="4" t="s">
         <v>1442</v>
-      </c>
-      <c r="G1676" s="4" t="s">
-        <v>1443</v>
       </c>
       <c r="I1676" s="4" t="s">
         <v>59</v>
@@ -54902,7 +54902,6 @@
       <c r="W1691" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V1691" xr:uid="{89ADA671-A008-49FA-997E-3118EBC45351}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/TS Jatai Working/Padam Input Templates/TS 1.2 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 1.2 Padam Input Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92685299-EE71-43FC-8CD0-6A23192C3A28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D93AC50-1E43-46B4-8FCD-B47904F367DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4960" uniqueCount="1453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4959" uniqueCount="1453">
   <si>
     <t>Passage</t>
   </si>
@@ -5021,9 +5021,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W1691"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1563" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="T1564" sqref="T1564"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1593" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="O1557" sqref="O1557"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -50951,9 +50951,7 @@
       <c r="N1557" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="O1557" s="13" t="s">
-        <v>21</v>
-      </c>
+      <c r="O1557" s="79"/>
       <c r="V1557" s="23"/>
       <c r="W1557" s="4"/>
     </row>

--- a/TS Jatai Working/Padam Input Templates/TS 1.2 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 1.2 Padam Input Template.xlsx
@@ -3846,12 +3846,6 @@
     <t>tvotA$H</t>
   </si>
   <si>
-    <t>praNI#ti</t>
-  </si>
-  <si>
-    <t>praNIqtitiq pra - nIqtiq</t>
-  </si>
-  <si>
     <t>aqSyAqmaq</t>
   </si>
   <si>
@@ -4113,9 +4107,6 @@
     <t>uqkthaiH</t>
   </si>
   <si>
-    <t>iqShtiH</t>
-  </si>
-  <si>
     <t>gIH</t>
   </si>
   <si>
@@ -4387,6 +4378,15 @@
   </si>
   <si>
     <t>dveShTi#</t>
+  </si>
+  <si>
+    <t>iqShTiH</t>
+  </si>
+  <si>
+    <t>praNI#tI</t>
+  </si>
+  <si>
+    <t>praNIqtItiq pra - nIqtIq</t>
   </si>
 </sst>
 </file>
@@ -5020,9 +5020,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W1691"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A554" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N562" sqref="N562"/>
+    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1598" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N1607" sqref="N1607"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5054,7 +5054,7 @@
         <v>62</v>
       </c>
       <c r="B1" s="42" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="C1" s="40" t="s">
         <v>0</v>
@@ -5108,7 +5108,7 @@
         <v>188</v>
       </c>
       <c r="T1" s="68" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="U1" s="63" t="s">
         <v>16</v>
@@ -8274,7 +8274,7 @@
       <c r="F90" s="12"/>
       <c r="G90" s="12"/>
       <c r="H90" s="12" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="I90" s="47" t="s">
         <v>27</v>
@@ -8317,7 +8317,7 @@
       <c r="F91" s="7"/>
       <c r="G91" s="7"/>
       <c r="H91" s="12" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="I91" s="47" t="s">
         <v>27</v>
@@ -8357,7 +8357,7 @@
       <c r="F92" s="7"/>
       <c r="G92" s="7"/>
       <c r="H92" s="12" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="I92" s="47" t="s">
         <v>27</v>
@@ -8391,7 +8391,7 @@
       <c r="F93" s="12"/>
       <c r="G93" s="12"/>
       <c r="H93" s="12" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="I93" s="47" t="s">
         <v>27</v>
@@ -8702,7 +8702,7 @@
       <c r="F104" s="12"/>
       <c r="G104" s="12"/>
       <c r="H104" s="12" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="I104" s="47" t="s">
         <v>27</v>
@@ -8735,7 +8735,7 @@
       <c r="F105" s="12"/>
       <c r="G105" s="12"/>
       <c r="H105" s="12" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="I105" s="47" t="s">
         <v>27</v>
@@ -8764,7 +8764,7 @@
       <c r="F106" s="12"/>
       <c r="G106" s="12"/>
       <c r="H106" s="12" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="I106" s="47" t="s">
         <v>27</v>
@@ -8793,7 +8793,7 @@
       <c r="F107" s="12"/>
       <c r="G107" s="12"/>
       <c r="H107" s="12" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="I107" s="47" t="s">
         <v>27</v>
@@ -8822,7 +8822,7 @@
       <c r="F108" s="12"/>
       <c r="G108" s="12"/>
       <c r="H108" s="12" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="I108" s="47" t="s">
         <v>27</v>
@@ -8851,7 +8851,7 @@
       <c r="F109" s="12"/>
       <c r="G109" s="12"/>
       <c r="H109" s="12" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="I109" s="47" t="s">
         <v>27</v>
@@ -9998,7 +9998,7 @@
       <c r="F150" s="12"/>
       <c r="G150" s="12"/>
       <c r="H150" s="12" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="I150" s="47" t="s">
         <v>28</v>
@@ -10027,7 +10027,7 @@
       <c r="F151" s="12"/>
       <c r="G151" s="12"/>
       <c r="H151" s="12" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="I151" s="47" t="s">
         <v>28</v>
@@ -10062,7 +10062,7 @@
       <c r="F152" s="12"/>
       <c r="G152" s="12"/>
       <c r="H152" s="12" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="I152" s="47" t="s">
         <v>28</v>
@@ -10095,7 +10095,7 @@
       <c r="F153" s="12"/>
       <c r="G153" s="12"/>
       <c r="H153" s="12" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="I153" s="47" t="s">
         <v>28</v>
@@ -10124,7 +10124,7 @@
       <c r="F154" s="12"/>
       <c r="G154" s="12"/>
       <c r="H154" s="12" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="I154" s="47" t="s">
         <v>28</v>
@@ -10157,7 +10157,7 @@
       <c r="F155" s="12"/>
       <c r="G155" s="12"/>
       <c r="H155" s="12" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="I155" s="47" t="s">
         <v>28</v>
@@ -10186,7 +10186,7 @@
       <c r="F156" s="12"/>
       <c r="G156" s="12"/>
       <c r="H156" s="12" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="I156" s="47" t="s">
         <v>28</v>
@@ -10217,7 +10217,7 @@
       <c r="F157" s="12"/>
       <c r="G157" s="12"/>
       <c r="H157" s="12" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="I157" s="47" t="s">
         <v>28</v>
@@ -10246,7 +10246,7 @@
       <c r="F158" s="12"/>
       <c r="G158" s="12"/>
       <c r="H158" s="12" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="I158" s="47" t="s">
         <v>28</v>
@@ -10279,7 +10279,7 @@
       <c r="F159" s="12"/>
       <c r="G159" s="12"/>
       <c r="H159" s="12" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="I159" s="47" t="s">
         <v>28</v>
@@ -10308,7 +10308,7 @@
       <c r="F160" s="12"/>
       <c r="G160" s="12"/>
       <c r="H160" s="12" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="I160" s="47" t="s">
         <v>29</v>
@@ -10337,7 +10337,7 @@
       <c r="F161" s="12"/>
       <c r="G161" s="12"/>
       <c r="H161" s="12" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="I161" s="47" t="s">
         <v>29</v>
@@ -10368,7 +10368,7 @@
       <c r="F162" s="12"/>
       <c r="G162" s="12"/>
       <c r="H162" s="12" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="I162" s="47" t="s">
         <v>29</v>
@@ -10397,7 +10397,7 @@
       <c r="F163" s="12"/>
       <c r="G163" s="12"/>
       <c r="H163" s="12" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="I163" s="47" t="s">
         <v>29</v>
@@ -10426,7 +10426,7 @@
       <c r="F164" s="12"/>
       <c r="G164" s="12"/>
       <c r="H164" s="12" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="I164" s="47" t="s">
         <v>29</v>
@@ -10459,7 +10459,7 @@
       <c r="F165" s="12"/>
       <c r="G165" s="12"/>
       <c r="H165" s="12" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="I165" s="47" t="s">
         <v>29</v>
@@ -10934,7 +10934,7 @@
       <c r="F182" s="12"/>
       <c r="G182" s="12"/>
       <c r="H182" s="12" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="I182" s="47" t="s">
         <v>29</v>
@@ -10963,7 +10963,7 @@
       <c r="F183" s="12"/>
       <c r="G183" s="12"/>
       <c r="H183" s="12" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="I183" s="47" t="s">
         <v>29</v>
@@ -10991,10 +10991,10 @@
       <c r="E184" s="12"/>
       <c r="F184" s="12"/>
       <c r="G184" s="12" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="H184" s="12" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="I184" s="47" t="s">
         <v>29</v>
@@ -11022,10 +11022,10 @@
       <c r="E185" s="12"/>
       <c r="F185" s="12"/>
       <c r="G185" s="12" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="H185" s="12" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="I185" s="47" t="s">
         <v>29</v>
@@ -11053,10 +11053,10 @@
       <c r="E186" s="12"/>
       <c r="F186" s="12"/>
       <c r="G186" s="12" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="H186" s="12" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="I186" s="47" t="s">
         <v>29</v>
@@ -11089,7 +11089,7 @@
       <c r="F187" s="12"/>
       <c r="G187" s="12"/>
       <c r="H187" s="12" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="I187" s="47" t="s">
         <v>29</v>
@@ -11118,7 +11118,7 @@
       <c r="F188" s="12"/>
       <c r="G188" s="12"/>
       <c r="H188" s="12" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="I188" s="47" t="s">
         <v>29</v>
@@ -11147,7 +11147,7 @@
       <c r="F189" s="12"/>
       <c r="G189" s="12"/>
       <c r="H189" s="12" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="I189" s="47" t="s">
         <v>29</v>
@@ -12052,7 +12052,7 @@
       <c r="F221" s="12"/>
       <c r="G221" s="12"/>
       <c r="H221" s="74" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="I221" s="47" t="s">
         <v>30</v>
@@ -12081,7 +12081,7 @@
       <c r="F222" s="12"/>
       <c r="G222" s="12"/>
       <c r="H222" s="74" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="I222" s="47" t="s">
         <v>30</v>
@@ -12110,7 +12110,7 @@
       <c r="F223" s="12"/>
       <c r="G223" s="12"/>
       <c r="H223" s="74" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="I223" s="47" t="s">
         <v>30</v>
@@ -12139,7 +12139,7 @@
       <c r="F224" s="12"/>
       <c r="G224" s="12"/>
       <c r="H224" s="74" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="I224" s="47" t="s">
         <v>30</v>
@@ -12168,7 +12168,7 @@
       <c r="F225" s="12"/>
       <c r="G225" s="12"/>
       <c r="H225" s="74" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="I225" s="47" t="s">
         <v>30</v>
@@ -12199,7 +12199,7 @@
       <c r="F226" s="12"/>
       <c r="G226" s="12"/>
       <c r="H226" s="74" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="I226" s="47" t="s">
         <v>30</v>
@@ -12233,7 +12233,7 @@
       <c r="F227" s="12"/>
       <c r="G227" s="12"/>
       <c r="H227" s="74" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="I227" s="47" t="s">
         <v>30</v>
@@ -12908,7 +12908,7 @@
         <v>11</v>
       </c>
       <c r="N250" s="25" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="O250" s="13"/>
       <c r="P250" s="21" t="s">
@@ -13369,7 +13369,7 @@
     </row>
     <row r="267" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E267" s="76" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="F267" s="12"/>
       <c r="G267" s="12"/>
@@ -13398,7 +13398,7 @@
     </row>
     <row r="268" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E268" s="76" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="F268" s="12"/>
       <c r="G268" s="12"/>
@@ -13759,7 +13759,7 @@
         <v>41</v>
       </c>
       <c r="N280" s="25" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="O280" s="13"/>
       <c r="P280" s="21" t="s">
@@ -13801,7 +13801,7 @@
     <row r="282" spans="4:23" ht="18" x14ac:dyDescent="0.25">
       <c r="E282" s="12"/>
       <c r="F282" s="12" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="G282" s="12"/>
       <c r="H282" s="12"/>
@@ -13833,7 +13833,7 @@
     <row r="283" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E283" s="12"/>
       <c r="F283" s="12" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="G283" s="12"/>
       <c r="H283" s="12"/>
@@ -14080,7 +14080,7 @@
         <v>52</v>
       </c>
       <c r="N291" s="26" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="O291" s="13"/>
       <c r="P291" s="21" t="s">
@@ -14496,7 +14496,7 @@
       <c r="F306" s="12"/>
       <c r="G306" s="12"/>
       <c r="H306" s="74" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="I306" s="47" t="s">
         <v>32</v>
@@ -14525,7 +14525,7 @@
       <c r="F307" s="12"/>
       <c r="G307" s="12"/>
       <c r="H307" s="74" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="I307" s="47" t="s">
         <v>32</v>
@@ -14554,7 +14554,7 @@
       <c r="F308" s="12"/>
       <c r="G308" s="12"/>
       <c r="H308" s="74" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="I308" s="47" t="s">
         <v>32</v>
@@ -14583,7 +14583,7 @@
       <c r="F309" s="12"/>
       <c r="G309" s="12"/>
       <c r="H309" s="74" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="I309" s="47" t="s">
         <v>32</v>
@@ -14614,7 +14614,7 @@
       <c r="F310" s="12"/>
       <c r="G310" s="12"/>
       <c r="H310" s="74" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="I310" s="47" t="s">
         <v>32</v>
@@ -14643,7 +14643,7 @@
       <c r="F311" s="12"/>
       <c r="G311" s="12"/>
       <c r="H311" s="74" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="I311" s="47" t="s">
         <v>32</v>
@@ -14753,7 +14753,7 @@
       <c r="F315" s="12"/>
       <c r="G315" s="12"/>
       <c r="H315" s="74" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="I315" s="47" t="s">
         <v>32</v>
@@ -14784,7 +14784,7 @@
       <c r="F316" s="12"/>
       <c r="G316" s="12"/>
       <c r="H316" s="74" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="I316" s="47" t="s">
         <v>32</v>
@@ -14813,7 +14813,7 @@
       <c r="F317" s="12"/>
       <c r="G317" s="12"/>
       <c r="H317" s="74" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="I317" s="47" t="s">
         <v>32</v>
@@ -14842,7 +14842,7 @@
       <c r="F318" s="12"/>
       <c r="G318" s="12"/>
       <c r="H318" s="74" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="I318" s="47" t="s">
         <v>32</v>
@@ -14871,7 +14871,7 @@
       <c r="F319" s="12"/>
       <c r="G319" s="12"/>
       <c r="H319" s="74" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="I319" s="47" t="s">
         <v>32</v>
@@ -15930,7 +15930,7 @@
       <c r="F358" s="12"/>
       <c r="G358" s="12"/>
       <c r="H358" s="74" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="I358" s="47" t="s">
         <v>33</v>
@@ -15959,7 +15959,7 @@
       <c r="F359" s="12"/>
       <c r="G359" s="12"/>
       <c r="H359" s="74" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="I359" s="47" t="s">
         <v>33</v>
@@ -15990,7 +15990,7 @@
       <c r="F360" s="12"/>
       <c r="G360" s="12"/>
       <c r="H360" s="74" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="I360" s="47" t="s">
         <v>33</v>
@@ -16023,7 +16023,7 @@
       <c r="F361" s="12"/>
       <c r="G361" s="12"/>
       <c r="H361" s="74" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="I361" s="47" t="s">
         <v>33</v>
@@ -16052,7 +16052,7 @@
       <c r="F362" s="12"/>
       <c r="G362" s="12"/>
       <c r="H362" s="74" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="I362" s="47" t="s">
         <v>33</v>
@@ -16197,7 +16197,7 @@
       <c r="F367" s="12"/>
       <c r="G367" s="12"/>
       <c r="H367" s="74" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="I367" s="47" t="s">
         <v>33</v>
@@ -16226,7 +16226,7 @@
       <c r="F368" s="12"/>
       <c r="G368" s="12"/>
       <c r="H368" s="74" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="I368" s="47" t="s">
         <v>33</v>
@@ -16255,7 +16255,7 @@
       <c r="F369" s="12"/>
       <c r="G369" s="12"/>
       <c r="H369" s="74" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="I369" s="47" t="s">
         <v>33</v>
@@ -16284,7 +16284,7 @@
       <c r="F370" s="12"/>
       <c r="G370" s="12"/>
       <c r="H370" s="74" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="I370" s="47" t="s">
         <v>33</v>
@@ -16315,7 +16315,7 @@
       <c r="F371" s="12"/>
       <c r="G371" s="12"/>
       <c r="H371" s="74" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="I371" s="47" t="s">
         <v>33</v>
@@ -16344,7 +16344,7 @@
       <c r="F372" s="12"/>
       <c r="G372" s="12"/>
       <c r="H372" s="74" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="I372" s="47" t="s">
         <v>33</v>
@@ -16650,7 +16650,7 @@
       <c r="F383" s="12"/>
       <c r="G383" s="12"/>
       <c r="H383" s="74" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="I383" s="47" t="s">
         <v>33</v>
@@ -16683,7 +16683,7 @@
       <c r="F384" s="12"/>
       <c r="G384" s="12"/>
       <c r="H384" s="74" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="I384" s="47" t="s">
         <v>33</v>
@@ -16715,7 +16715,7 @@
       <c r="F385" s="12"/>
       <c r="G385" s="12"/>
       <c r="H385" s="74" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="I385" s="47" t="s">
         <v>33</v>
@@ -16747,7 +16747,7 @@
       <c r="F386" s="12"/>
       <c r="G386" s="12"/>
       <c r="H386" s="74" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="I386" s="47" t="s">
         <v>33</v>
@@ -16776,7 +16776,7 @@
       <c r="F387" s="12"/>
       <c r="G387" s="12"/>
       <c r="H387" s="74" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="I387" s="47" t="s">
         <v>33</v>
@@ -16805,7 +16805,7 @@
       <c r="F388" s="12"/>
       <c r="G388" s="12"/>
       <c r="H388" s="74" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="I388" s="47" t="s">
         <v>33</v>
@@ -16836,7 +16836,7 @@
       <c r="F389" s="12"/>
       <c r="G389" s="12"/>
       <c r="H389" s="74" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="I389" s="47" t="s">
         <v>33</v>
@@ -16865,7 +16865,7 @@
       <c r="F390" s="12"/>
       <c r="G390" s="12"/>
       <c r="H390" s="74" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="I390" s="47" t="s">
         <v>33</v>
@@ -16894,7 +16894,7 @@
       <c r="F391" s="12"/>
       <c r="G391" s="12"/>
       <c r="H391" s="74" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="I391" s="47" t="s">
         <v>33</v>
@@ -16925,7 +16925,7 @@
       <c r="F392" s="12"/>
       <c r="G392" s="12"/>
       <c r="H392" s="74" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="I392" s="47" t="s">
         <v>33</v>
@@ -17070,7 +17070,7 @@
       <c r="F397" s="12"/>
       <c r="G397" s="12"/>
       <c r="H397" s="74" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="I397" s="47" t="s">
         <v>33</v>
@@ -17101,7 +17101,7 @@
       <c r="F398" s="12"/>
       <c r="G398" s="12"/>
       <c r="H398" s="74" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="I398" s="47" t="s">
         <v>33</v>
@@ -17130,7 +17130,7 @@
       <c r="F399" s="12"/>
       <c r="G399" s="12"/>
       <c r="H399" s="74" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="I399" s="47" t="s">
         <v>33</v>
@@ -17159,7 +17159,7 @@
       <c r="F400" s="12"/>
       <c r="G400" s="12"/>
       <c r="H400" s="74" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="I400" s="47" t="s">
         <v>33</v>
@@ -17575,7 +17575,7 @@
         <v>175</v>
       </c>
       <c r="N414" s="25" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="O414" s="13"/>
       <c r="P414" s="21" t="s">
@@ -17751,7 +17751,7 @@
     <row r="421" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E421" s="12"/>
       <c r="F421" s="12" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="G421" s="12"/>
       <c r="H421" s="12"/>
@@ -17780,7 +17780,7 @@
     <row r="422" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E422" s="12"/>
       <c r="F422" s="12" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="G422" s="12"/>
       <c r="H422" s="12"/>
@@ -18536,7 +18536,7 @@
       <c r="F449" s="12"/>
       <c r="G449" s="12"/>
       <c r="H449" s="74" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="I449" s="47" t="s">
         <v>34</v>
@@ -18568,7 +18568,7 @@
       <c r="F450" s="12"/>
       <c r="G450" s="12"/>
       <c r="H450" s="74" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="I450" s="47" t="s">
         <v>34</v>
@@ -18599,7 +18599,7 @@
       <c r="F451" s="12"/>
       <c r="G451" s="12"/>
       <c r="H451" s="74" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="I451" s="47" t="s">
         <v>34</v>
@@ -18628,7 +18628,7 @@
       <c r="F452" s="12"/>
       <c r="G452" s="12"/>
       <c r="H452" s="74" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="I452" s="47" t="s">
         <v>34</v>
@@ -19089,7 +19089,7 @@
       <c r="F469" s="12"/>
       <c r="G469" s="12"/>
       <c r="H469" s="74" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="I469" s="47" t="s">
         <v>35</v>
@@ -19118,7 +19118,7 @@
       <c r="F470" s="12"/>
       <c r="G470" s="12"/>
       <c r="H470" s="74" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="I470" s="47" t="s">
         <v>35</v>
@@ -19147,7 +19147,7 @@
       <c r="F471" s="12"/>
       <c r="G471" s="12"/>
       <c r="H471" s="74" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="I471" s="47" t="s">
         <v>35</v>
@@ -19176,7 +19176,7 @@
       <c r="F472" s="12"/>
       <c r="G472" s="12"/>
       <c r="H472" s="74" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="I472" s="47" t="s">
         <v>35</v>
@@ -19209,7 +19209,7 @@
       <c r="F473" s="12"/>
       <c r="G473" s="12"/>
       <c r="H473" s="74" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="I473" s="47" t="s">
         <v>35</v>
@@ -19238,7 +19238,7 @@
       <c r="F474" s="12"/>
       <c r="G474" s="12"/>
       <c r="H474" s="74" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="I474" s="47" t="s">
         <v>35</v>
@@ -20026,7 +20026,7 @@
       <c r="F502" s="12"/>
       <c r="G502" s="12"/>
       <c r="H502" s="74" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="I502" s="47" t="s">
         <v>35</v>
@@ -20055,7 +20055,7 @@
       <c r="F503" s="12"/>
       <c r="G503" s="12"/>
       <c r="H503" s="74" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="I503" s="47" t="s">
         <v>35</v>
@@ -20084,7 +20084,7 @@
       <c r="F504" s="12"/>
       <c r="G504" s="12"/>
       <c r="H504" s="74" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="I504" s="47" t="s">
         <v>35</v>
@@ -20113,7 +20113,7 @@
       <c r="F505" s="12"/>
       <c r="G505" s="12"/>
       <c r="H505" s="74" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="I505" s="47" t="s">
         <v>35</v>
@@ -20142,7 +20142,7 @@
       <c r="F506" s="12"/>
       <c r="G506" s="12"/>
       <c r="H506" s="74" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="I506" s="47" t="s">
         <v>35</v>
@@ -20396,7 +20396,7 @@
       <c r="F515" s="12"/>
       <c r="G515" s="12"/>
       <c r="H515" s="74" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="I515" s="47" t="s">
         <v>35</v>
@@ -20431,7 +20431,7 @@
       <c r="F516" s="12"/>
       <c r="G516" s="12"/>
       <c r="H516" s="74" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="I516" s="47" t="s">
         <v>35</v>
@@ -20462,7 +20462,7 @@
       <c r="F517" s="12"/>
       <c r="G517" s="12"/>
       <c r="H517" s="74" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="I517" s="47" t="s">
         <v>35</v>
@@ -20491,7 +20491,7 @@
       <c r="F518" s="12"/>
       <c r="G518" s="12"/>
       <c r="H518" s="74" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="I518" s="47" t="s">
         <v>35</v>
@@ -20520,7 +20520,7 @@
       <c r="F519" s="12"/>
       <c r="G519" s="12"/>
       <c r="H519" s="74" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="I519" s="47" t="s">
         <v>35</v>
@@ -20538,7 +20538,7 @@
         <v>105</v>
       </c>
       <c r="N519" s="25" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="O519" s="13"/>
       <c r="P519" s="21" t="s">
@@ -21736,7 +21736,7 @@
         <v>43</v>
       </c>
       <c r="N562" s="25" t="s">
-        <v>1452</v>
+        <v>1449</v>
       </c>
       <c r="O562" s="13"/>
       <c r="V562" s="23"/>
@@ -22136,7 +22136,7 @@
     </row>
     <row r="577" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E577" s="12" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="F577" s="12"/>
       <c r="G577" s="12"/>
@@ -22165,12 +22165,12 @@
     </row>
     <row r="578" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E578" s="12" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="F578" s="12"/>
       <c r="G578" s="12"/>
       <c r="H578" s="74" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="I578" s="47" t="s">
         <v>37</v>
@@ -22201,7 +22201,7 @@
       <c r="F579" s="12"/>
       <c r="G579" s="12"/>
       <c r="H579" s="74" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="I579" s="47" t="s">
         <v>37</v>
@@ -22230,7 +22230,7 @@
       <c r="F580" s="12"/>
       <c r="G580" s="12"/>
       <c r="H580" s="74" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="I580" s="47" t="s">
         <v>37</v>
@@ -22259,7 +22259,7 @@
       <c r="F581" s="12"/>
       <c r="G581" s="12"/>
       <c r="H581" s="74" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="I581" s="47" t="s">
         <v>37</v>
@@ -22288,7 +22288,7 @@
       <c r="F582" s="12"/>
       <c r="G582" s="12"/>
       <c r="H582" s="74" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="I582" s="47" t="s">
         <v>37</v>
@@ -22754,7 +22754,7 @@
         <v>79</v>
       </c>
       <c r="N598" s="25" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="O598" s="13"/>
       <c r="P598" s="21" t="s">
@@ -22770,7 +22770,7 @@
       <c r="F599" s="12"/>
       <c r="G599" s="12"/>
       <c r="H599" s="74" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="I599" s="47" t="s">
         <v>38</v>
@@ -22802,10 +22802,10 @@
       <c r="E600" s="12"/>
       <c r="F600" s="12"/>
       <c r="G600" s="12" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="H600" s="74" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="I600" s="47" t="s">
         <v>38</v>
@@ -22837,10 +22837,10 @@
       <c r="E601" s="12"/>
       <c r="F601" s="12"/>
       <c r="G601" s="12" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="H601" s="74" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="I601" s="47" t="s">
         <v>38</v>
@@ -23065,7 +23065,7 @@
       <c r="F609" s="12"/>
       <c r="G609" s="12"/>
       <c r="H609" s="74" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="I609" s="47" t="s">
         <v>38</v>
@@ -23094,7 +23094,7 @@
       <c r="F610" s="12"/>
       <c r="G610" s="12"/>
       <c r="H610" s="74" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="I610" s="47" t="s">
         <v>38</v>
@@ -23128,7 +23128,7 @@
       <c r="F611" s="12"/>
       <c r="G611" s="12"/>
       <c r="H611" s="74" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="I611" s="4" t="s">
         <v>38</v>
@@ -23164,7 +23164,7 @@
       <c r="F612" s="12"/>
       <c r="G612" s="12"/>
       <c r="H612" s="74" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="I612" s="47" t="s">
         <v>38</v>
@@ -23193,7 +23193,7 @@
       <c r="F613" s="12"/>
       <c r="G613" s="12"/>
       <c r="H613" s="74" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="I613" s="47" t="s">
         <v>38</v>
@@ -23951,7 +23951,7 @@
         <v>41</v>
       </c>
       <c r="N639" s="25" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="O639" s="13"/>
       <c r="P639" s="21" t="s">
@@ -24141,7 +24141,7 @@
       <c r="F646" s="12"/>
       <c r="G646" s="12"/>
       <c r="H646" s="74" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="I646" s="47" t="s">
         <v>38</v>
@@ -24174,7 +24174,7 @@
       <c r="F647" s="12"/>
       <c r="G647" s="12"/>
       <c r="H647" s="74" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="I647" s="47" t="s">
         <v>38</v>
@@ -24207,7 +24207,7 @@
       <c r="F648" s="12"/>
       <c r="G648" s="12"/>
       <c r="H648" s="74" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="I648" s="47" t="s">
         <v>38</v>
@@ -24245,7 +24245,7 @@
       <c r="F649" s="12"/>
       <c r="G649" s="12"/>
       <c r="H649" s="74" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="I649" s="47" t="s">
         <v>38</v>
@@ -24279,7 +24279,7 @@
       <c r="F650" s="12"/>
       <c r="G650" s="12"/>
       <c r="H650" s="74" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="I650" s="47" t="s">
         <v>38</v>
@@ -24457,7 +24457,7 @@
         <v>57</v>
       </c>
       <c r="N655" s="25" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="O655" s="13"/>
       <c r="P655" s="21" t="s">
@@ -25819,7 +25819,7 @@
       <c r="F704" s="12"/>
       <c r="G704" s="12"/>
       <c r="H704" s="74" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="I704" s="47" t="s">
         <v>39</v>
@@ -25848,7 +25848,7 @@
       <c r="F705" s="12"/>
       <c r="G705" s="12"/>
       <c r="H705" s="74" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="I705" s="47" t="s">
         <v>39</v>
@@ -25877,7 +25877,7 @@
       <c r="F706" s="12"/>
       <c r="G706" s="12"/>
       <c r="H706" s="74" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="I706" s="47" t="s">
         <v>39</v>
@@ -25908,7 +25908,7 @@
       <c r="F707" s="12"/>
       <c r="G707" s="12"/>
       <c r="H707" s="74" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="I707" s="47" t="s">
         <v>39</v>
@@ -25937,7 +25937,7 @@
       <c r="F708" s="12"/>
       <c r="G708" s="12"/>
       <c r="H708" s="74" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="I708" s="47" t="s">
         <v>39</v>
@@ -26327,7 +26327,7 @@
       <c r="F722" s="12"/>
       <c r="G722" s="12"/>
       <c r="H722" s="74" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="I722" s="47" t="s">
         <v>39</v>
@@ -26360,7 +26360,7 @@
       <c r="F723" s="12"/>
       <c r="G723" s="12"/>
       <c r="H723" s="74" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="I723" s="47" t="s">
         <v>39</v>
@@ -26385,7 +26385,7 @@
         <v>95</v>
       </c>
       <c r="T723" s="78" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="V723" s="23"/>
       <c r="W723" s="4"/>
@@ -26395,7 +26395,7 @@
       <c r="F724" s="12"/>
       <c r="G724" s="12"/>
       <c r="H724" s="74" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="I724" s="47" t="s">
         <v>39</v>
@@ -26424,7 +26424,7 @@
       <c r="F725" s="12"/>
       <c r="G725" s="12"/>
       <c r="H725" s="74" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="I725" s="47" t="s">
         <v>39</v>
@@ -26500,7 +26500,7 @@
         <v>72</v>
       </c>
       <c r="N727" s="25" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="O727" s="13"/>
       <c r="P727" s="21" t="s">
@@ -26514,14 +26514,14 @@
     </row>
     <row r="728" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E728" s="12" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="F728" s="12" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="G728" s="12"/>
       <c r="H728" s="74" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="I728" s="47" t="s">
         <v>40</v>
@@ -26549,14 +26549,14 @@
     </row>
     <row r="729" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E729" s="12" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="F729" s="12" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="G729" s="12"/>
       <c r="H729" s="74" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="I729" s="47" t="s">
         <v>40</v>
@@ -26582,14 +26582,14 @@
     </row>
     <row r="730" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E730" s="12" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="F730" s="12" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="G730" s="12"/>
       <c r="H730" s="74" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="I730" s="47" t="s">
         <v>40</v>
@@ -26619,14 +26619,14 @@
     </row>
     <row r="731" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E731" s="12" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="F731" s="12" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="G731" s="12"/>
       <c r="H731" s="74" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="I731" s="47" t="s">
         <v>40</v>
@@ -26657,7 +26657,7 @@
       <c r="F732" s="12"/>
       <c r="G732" s="12"/>
       <c r="H732" s="74" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="I732" s="47" t="s">
         <v>40</v>
@@ -27552,7 +27552,7 @@
       <c r="F763" s="12"/>
       <c r="G763" s="12"/>
       <c r="H763" s="74" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="I763" s="47" t="s">
         <v>40</v>
@@ -27585,7 +27585,7 @@
       <c r="F764" s="12"/>
       <c r="G764" s="12"/>
       <c r="H764" s="74" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="I764" s="47" t="s">
         <v>40</v>
@@ -27614,7 +27614,7 @@
       <c r="F765" s="12"/>
       <c r="G765" s="12"/>
       <c r="H765" s="74" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="I765" s="47" t="s">
         <v>40</v>
@@ -27643,7 +27643,7 @@
       <c r="F766" s="12"/>
       <c r="G766" s="12"/>
       <c r="H766" s="74" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="I766" s="47" t="s">
         <v>40</v>
@@ -27672,7 +27672,7 @@
       <c r="F767" s="12"/>
       <c r="G767" s="12"/>
       <c r="H767" s="74" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="I767" s="47" t="s">
         <v>40</v>
@@ -28428,7 +28428,7 @@
         <v>66</v>
       </c>
       <c r="N793" s="25" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="O793" s="13"/>
       <c r="P793" s="21" t="s">
@@ -28530,7 +28530,7 @@
       <c r="F797" s="12"/>
       <c r="G797" s="12"/>
       <c r="H797" s="74" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="I797" s="47" t="s">
         <v>41</v>
@@ -28559,7 +28559,7 @@
       <c r="F798" s="12"/>
       <c r="G798" s="12"/>
       <c r="H798" s="74" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="I798" s="47" t="s">
         <v>41</v>
@@ -28590,7 +28590,7 @@
       <c r="F799" s="12"/>
       <c r="G799" s="12"/>
       <c r="H799" s="74" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="I799" s="47" t="s">
         <v>41</v>
@@ -28616,15 +28616,15 @@
     </row>
     <row r="800" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B800" s="4" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="E800" s="12"/>
       <c r="F800" s="12"/>
       <c r="G800" s="12" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="H800" s="74" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="I800" s="47" t="s">
         <v>41</v>
@@ -28642,27 +28642,27 @@
         <v>73</v>
       </c>
       <c r="N800" s="26" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="O800" s="13" t="s">
         <v>21</v>
       </c>
       <c r="V800" s="23" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="W800" s="4"/>
     </row>
     <row r="801" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B801" s="4" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="E801" s="12"/>
       <c r="F801" s="12"/>
       <c r="G801" s="12" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="H801" s="74" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="I801" s="47" t="s">
         <v>41</v>
@@ -28692,12 +28692,12 @@
     </row>
     <row r="802" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B802" s="4" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="E802" s="12"/>
       <c r="F802" s="12"/>
       <c r="G802" s="12" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="H802" s="31"/>
       <c r="I802" s="47" t="s">
@@ -29002,7 +29002,7 @@
         <v>85</v>
       </c>
       <c r="N812" s="25" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="O812" s="13"/>
       <c r="P812" s="21" t="s">
@@ -29773,7 +29773,7 @@
         <v>808</v>
       </c>
       <c r="O839" s="13" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="V839" s="23"/>
       <c r="W839" s="4"/>
@@ -31051,7 +31051,7 @@
         <v>73</v>
       </c>
       <c r="N885" s="25" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="O885" s="13"/>
       <c r="P885" s="21" t="s">
@@ -33876,7 +33876,7 @@
         <v>101</v>
       </c>
       <c r="N986" s="25" t="s">
-        <v>1341</v>
+        <v>1339</v>
       </c>
       <c r="O986" s="13"/>
       <c r="P986" s="21" t="s">
@@ -34079,7 +34079,7 @@
       <c r="F993" s="12"/>
       <c r="G993" s="12"/>
       <c r="H993" s="74" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="I993" s="24" t="s">
         <v>45</v>
@@ -34108,7 +34108,7 @@
       <c r="F994" s="12"/>
       <c r="G994" s="12"/>
       <c r="H994" s="74" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="I994" s="24" t="s">
         <v>45</v>
@@ -34141,7 +34141,7 @@
       <c r="F995" s="12"/>
       <c r="G995" s="12"/>
       <c r="H995" s="74" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="I995" s="24" t="s">
         <v>45</v>
@@ -34172,7 +34172,7 @@
       <c r="F996" s="12"/>
       <c r="G996" s="12"/>
       <c r="H996" s="74" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="I996" s="24" t="s">
         <v>45</v>
@@ -34201,7 +34201,7 @@
       <c r="F997" s="12"/>
       <c r="G997" s="12"/>
       <c r="H997" s="74" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="I997" s="24" t="s">
         <v>45</v>
@@ -34703,7 +34703,7 @@
         <v>94</v>
       </c>
       <c r="T1014" s="21" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="V1014" s="23"/>
       <c r="W1014" s="4"/>
@@ -35651,7 +35651,7 @@
         <v>179</v>
       </c>
       <c r="E1049" s="12" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="F1049" s="12"/>
       <c r="G1049" s="12"/>
@@ -35684,7 +35684,7 @@
         <v>179</v>
       </c>
       <c r="E1050" s="12" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="F1050" s="12"/>
       <c r="G1050" s="12"/>
@@ -35935,7 +35935,7 @@
       <c r="F1059" s="12"/>
       <c r="G1059" s="12"/>
       <c r="H1059" s="74" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="I1059" s="47" t="s">
         <v>46</v>
@@ -35964,7 +35964,7 @@
       <c r="F1060" s="12"/>
       <c r="G1060" s="12"/>
       <c r="H1060" s="74" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="I1060" s="47" t="s">
         <v>46</v>
@@ -35996,7 +35996,7 @@
       <c r="F1061" s="12"/>
       <c r="G1061" s="12"/>
       <c r="H1061" s="74" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="I1061" s="47" t="s">
         <v>46</v>
@@ -36028,7 +36028,7 @@
       <c r="F1062" s="12"/>
       <c r="G1062" s="12"/>
       <c r="H1062" s="74" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="I1062" s="47" t="s">
         <v>46</v>
@@ -36061,7 +36061,7 @@
       <c r="F1063" s="12"/>
       <c r="G1063" s="12"/>
       <c r="H1063" s="74" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="I1063" s="47" t="s">
         <v>46</v>
@@ -36097,7 +36097,7 @@
       <c r="F1064" s="12"/>
       <c r="G1064" s="12"/>
       <c r="H1064" s="74" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="I1064" s="47" t="s">
         <v>46</v>
@@ -38050,7 +38050,7 @@
       <c r="F1132" s="12"/>
       <c r="G1132" s="12"/>
       <c r="H1132" s="74" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="I1132" s="47" t="s">
         <v>48</v>
@@ -38079,7 +38079,7 @@
       <c r="F1133" s="12"/>
       <c r="G1133" s="12"/>
       <c r="H1133" s="74" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="I1133" s="47" t="s">
         <v>48</v>
@@ -38108,7 +38108,7 @@
       <c r="F1134" s="12"/>
       <c r="G1134" s="12"/>
       <c r="H1134" s="74" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="I1134" s="47" t="s">
         <v>48</v>
@@ -38140,7 +38140,7 @@
       <c r="F1135" s="12"/>
       <c r="G1135" s="12"/>
       <c r="H1135" s="74" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="I1135" s="47" t="s">
         <v>48</v>
@@ -38173,7 +38173,7 @@
       <c r="F1136" s="12"/>
       <c r="G1136" s="12"/>
       <c r="H1136" s="74" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="I1136" s="47" t="s">
         <v>48</v>
@@ -38202,7 +38202,7 @@
       <c r="F1137" s="12"/>
       <c r="G1137" s="12"/>
       <c r="H1137" s="74" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="I1137" s="47" t="s">
         <v>48</v>
@@ -38231,7 +38231,7 @@
       <c r="F1138" s="12"/>
       <c r="G1138" s="12"/>
       <c r="H1138" s="74" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="I1138" s="47" t="s">
         <v>48</v>
@@ -39531,7 +39531,7 @@
       <c r="F1184" s="12"/>
       <c r="G1184" s="12"/>
       <c r="H1184" s="74" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="I1184" s="47" t="s">
         <v>49</v>
@@ -39560,7 +39560,7 @@
       <c r="F1185" s="12"/>
       <c r="G1185" s="12"/>
       <c r="H1185" s="74" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="I1185" s="47" t="s">
         <v>49</v>
@@ -39589,7 +39589,7 @@
       <c r="F1186" s="12"/>
       <c r="G1186" s="12"/>
       <c r="H1186" s="74" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="I1186" s="47" t="s">
         <v>49</v>
@@ -39620,7 +39620,7 @@
       <c r="F1187" s="12"/>
       <c r="G1187" s="12"/>
       <c r="H1187" s="74" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="I1187" s="47" t="s">
         <v>49</v>
@@ -39652,7 +39652,7 @@
       <c r="F1188" s="12"/>
       <c r="G1188" s="12"/>
       <c r="H1188" s="74" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="I1188" s="47" t="s">
         <v>49</v>
@@ -39682,7 +39682,7 @@
       <c r="F1189" s="12"/>
       <c r="G1189" s="12"/>
       <c r="H1189" s="74" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="I1189" s="47" t="s">
         <v>49</v>
@@ -39795,7 +39795,7 @@
     </row>
     <row r="1193" spans="2:23" ht="18" x14ac:dyDescent="0.25">
       <c r="C1193" s="4" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="E1193" s="12"/>
       <c r="F1193" s="12"/>
@@ -39832,7 +39832,7 @@
         <v>170</v>
       </c>
       <c r="C1194" s="4" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="E1194" s="12"/>
       <c r="F1194" s="12"/>
@@ -39865,7 +39865,7 @@
         <v>94</v>
       </c>
       <c r="T1194" s="21" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="V1194" s="23" t="s">
         <v>1013</v>
@@ -40583,7 +40583,7 @@
         <v>9</v>
       </c>
       <c r="N1220" s="25" t="s">
-        <v>1342</v>
+        <v>1340</v>
       </c>
       <c r="O1220" s="13"/>
       <c r="P1220" s="21" t="s">
@@ -40713,7 +40713,7 @@
       <c r="F1225" s="12"/>
       <c r="G1225" s="12"/>
       <c r="H1225" s="74" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="I1225" s="47" t="s">
         <v>50</v>
@@ -40742,7 +40742,7 @@
       <c r="F1226" s="12"/>
       <c r="G1226" s="12"/>
       <c r="H1226" s="74" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="I1226" s="47" t="s">
         <v>50</v>
@@ -40771,7 +40771,7 @@
       <c r="F1227" s="12"/>
       <c r="G1227" s="12"/>
       <c r="H1227" s="74" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="I1227" s="47" t="s">
         <v>50</v>
@@ -40800,7 +40800,7 @@
       <c r="F1228" s="12"/>
       <c r="G1228" s="12"/>
       <c r="H1228" s="74" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="I1228" s="47" t="s">
         <v>50</v>
@@ -40878,7 +40878,7 @@
         <v>19</v>
       </c>
       <c r="N1230" s="26" t="s">
-        <v>1343</v>
+        <v>1341</v>
       </c>
       <c r="O1230" s="13" t="s">
         <v>21</v>
@@ -40887,7 +40887,7 @@
         <v>66</v>
       </c>
       <c r="V1230" s="23" t="s">
-        <v>1344</v>
+        <v>1342</v>
       </c>
       <c r="W1230" s="4"/>
     </row>
@@ -41476,7 +41476,7 @@
         <v>40</v>
       </c>
       <c r="N1251" s="25" t="s">
-        <v>1345</v>
+        <v>1343</v>
       </c>
       <c r="O1251" s="13"/>
       <c r="P1251" s="21" t="s">
@@ -41701,7 +41701,7 @@
         <v>48</v>
       </c>
       <c r="N1259" s="25" t="s">
-        <v>1346</v>
+        <v>1344</v>
       </c>
       <c r="O1259" s="13"/>
       <c r="P1259" s="21" t="s">
@@ -41992,7 +41992,7 @@
         <v>58</v>
       </c>
       <c r="N1269" s="26" t="s">
-        <v>1347</v>
+        <v>1345</v>
       </c>
       <c r="O1269" s="13" t="s">
         <v>23</v>
@@ -42254,7 +42254,7 @@
         <v>67</v>
       </c>
       <c r="N1278" s="25" t="s">
-        <v>1348</v>
+        <v>1346</v>
       </c>
       <c r="O1278" s="13"/>
       <c r="P1278" s="21" t="s">
@@ -43107,7 +43107,7 @@
       <c r="F1309" s="12"/>
       <c r="G1309" s="12"/>
       <c r="H1309" s="74" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="I1309" s="47" t="s">
         <v>51</v>
@@ -43136,7 +43136,7 @@
       <c r="F1310" s="12"/>
       <c r="G1310" s="12"/>
       <c r="H1310" s="74" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="I1310" s="47" t="s">
         <v>51</v>
@@ -43167,7 +43167,7 @@
       <c r="F1311" s="12"/>
       <c r="G1311" s="12"/>
       <c r="H1311" s="74" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="I1311" s="47" t="s">
         <v>51</v>
@@ -43196,7 +43196,7 @@
       <c r="F1312" s="12"/>
       <c r="G1312" s="12"/>
       <c r="H1312" s="74" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="I1312" s="47" t="s">
         <v>52</v>
@@ -43225,7 +43225,7 @@
       <c r="F1313" s="12"/>
       <c r="G1313" s="12"/>
       <c r="H1313" s="74" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="I1313" s="47" t="s">
         <v>52</v>
@@ -43256,7 +43256,7 @@
       <c r="F1314" s="12"/>
       <c r="G1314" s="12"/>
       <c r="H1314" s="74" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="I1314" s="47" t="s">
         <v>52</v>
@@ -43285,7 +43285,7 @@
       <c r="F1315" s="12"/>
       <c r="G1315" s="12"/>
       <c r="H1315" s="74" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="I1315" s="47" t="s">
         <v>52</v>
@@ -43303,7 +43303,7 @@
         <v>104</v>
       </c>
       <c r="N1315" s="25" t="s">
-        <v>1349</v>
+        <v>1347</v>
       </c>
       <c r="O1315" s="13"/>
       <c r="P1315" s="21" t="s">
@@ -44304,7 +44304,7 @@
       <c r="F1351" s="12"/>
       <c r="G1351" s="12"/>
       <c r="H1351" s="73" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="I1351" s="47" t="s">
         <v>53</v>
@@ -44336,7 +44336,7 @@
       <c r="F1352" s="12"/>
       <c r="G1352" s="12"/>
       <c r="H1352" s="73" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="I1352" s="47" t="s">
         <v>53</v>
@@ -44619,7 +44619,7 @@
         <v>10</v>
       </c>
       <c r="N1360" s="25" t="s">
-        <v>1350</v>
+        <v>1348</v>
       </c>
       <c r="O1360" s="13"/>
       <c r="P1360" s="21" t="s">
@@ -44764,7 +44764,7 @@
       <c r="F1365" s="12"/>
       <c r="G1365" s="12"/>
       <c r="H1365" s="73" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="I1365" s="47" t="s">
         <v>53</v>
@@ -44796,7 +44796,7 @@
       <c r="F1366" s="12"/>
       <c r="G1366" s="12"/>
       <c r="H1366" s="73" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="I1366" s="47" t="s">
         <v>53</v>
@@ -44828,7 +44828,7 @@
       <c r="F1367" s="12"/>
       <c r="G1367" s="12"/>
       <c r="H1367" s="73" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="I1367" s="47" t="s">
         <v>53</v>
@@ -44860,7 +44860,7 @@
       <c r="F1368" s="12"/>
       <c r="G1368" s="12"/>
       <c r="H1368" s="73" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="I1368" s="47" t="s">
         <v>53</v>
@@ -44892,7 +44892,7 @@
       <c r="F1369" s="12"/>
       <c r="G1369" s="12"/>
       <c r="H1369" s="73" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="I1369" s="47" t="s">
         <v>53</v>
@@ -44910,7 +44910,7 @@
         <v>19</v>
       </c>
       <c r="N1369" s="25" t="s">
-        <v>1351</v>
+        <v>1349</v>
       </c>
       <c r="O1369" s="13"/>
       <c r="P1369" s="21" t="s">
@@ -45157,7 +45157,7 @@
         <v>27</v>
       </c>
       <c r="N1377" s="25" t="s">
-        <v>1352</v>
+        <v>1350</v>
       </c>
       <c r="O1377" s="13"/>
       <c r="P1377" s="21" t="s">
@@ -45448,7 +45448,7 @@
         <v>36</v>
       </c>
       <c r="N1386" s="25" t="s">
-        <v>1353</v>
+        <v>1351</v>
       </c>
       <c r="O1386" s="13"/>
       <c r="P1386" s="21" t="s">
@@ -45769,7 +45769,7 @@
         <v>46</v>
       </c>
       <c r="N1396" s="25" t="s">
-        <v>1354</v>
+        <v>1352</v>
       </c>
       <c r="O1396" s="13"/>
       <c r="P1396" s="21" t="s">
@@ -45920,7 +45920,7 @@
       <c r="F1401" s="12"/>
       <c r="G1401" s="12"/>
       <c r="H1401" s="73" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="I1401" s="47" t="s">
         <v>54</v>
@@ -45953,7 +45953,7 @@
       <c r="F1402" s="12"/>
       <c r="G1402" s="12"/>
       <c r="H1402" s="73" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="I1402" s="47" t="s">
         <v>54</v>
@@ -45988,7 +45988,7 @@
       <c r="F1403" s="12"/>
       <c r="G1403" s="12"/>
       <c r="H1403" s="73" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="I1403" s="47" t="s">
         <v>54</v>
@@ -46020,7 +46020,7 @@
       <c r="F1404" s="12"/>
       <c r="G1404" s="12"/>
       <c r="H1404" s="73" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="I1404" s="47" t="s">
         <v>54</v>
@@ -46045,7 +46045,7 @@
         <v>94</v>
       </c>
       <c r="T1404" s="69" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="V1404" s="23"/>
       <c r="W1404" s="4"/>
@@ -46166,7 +46166,7 @@
         <v>58</v>
       </c>
       <c r="N1408" s="25" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="O1408" s="13"/>
       <c r="P1408" s="21" t="s">
@@ -46502,7 +46502,7 @@
         <v>68</v>
       </c>
       <c r="N1418" s="26" t="s">
-        <v>1355</v>
+        <v>1353</v>
       </c>
       <c r="O1418" s="13" t="s">
         <v>21</v>
@@ -46511,7 +46511,7 @@
         <v>66</v>
       </c>
       <c r="V1418" s="23" t="s">
-        <v>1356</v>
+        <v>1354</v>
       </c>
       <c r="W1418" s="4"/>
     </row>
@@ -46846,7 +46846,7 @@
         <v>79</v>
       </c>
       <c r="N1429" s="25" t="s">
-        <v>1357</v>
+        <v>1355</v>
       </c>
       <c r="O1429" s="13"/>
       <c r="P1429" s="21" t="s">
@@ -46925,7 +46925,7 @@
       <c r="F1432" s="12"/>
       <c r="G1432" s="12"/>
       <c r="H1432" s="74" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="I1432" s="47" t="s">
         <v>54</v>
@@ -46959,7 +46959,7 @@
       <c r="F1433" s="12"/>
       <c r="G1433" s="12"/>
       <c r="H1433" s="74" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="I1433" s="47" t="s">
         <v>54</v>
@@ -46991,7 +46991,7 @@
       <c r="F1434" s="12"/>
       <c r="G1434" s="12"/>
       <c r="H1434" s="74" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="I1434" s="47" t="s">
         <v>54</v>
@@ -47025,7 +47025,7 @@
       <c r="F1435" s="12"/>
       <c r="G1435" s="12"/>
       <c r="H1435" s="74" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="I1435" s="47" t="s">
         <v>54</v>
@@ -47057,7 +47057,7 @@
       <c r="F1436" s="12"/>
       <c r="G1436" s="12"/>
       <c r="H1436" s="74" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="I1436" s="47" t="s">
         <v>54</v>
@@ -47095,7 +47095,7 @@
       <c r="F1437" s="12"/>
       <c r="G1437" s="12"/>
       <c r="H1437" s="74" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="I1437" s="47" t="s">
         <v>54</v>
@@ -47767,7 +47767,7 @@
         <v>108</v>
       </c>
       <c r="N1458" s="25" t="s">
-        <v>1358</v>
+        <v>1356</v>
       </c>
       <c r="O1458" s="13"/>
       <c r="P1458" s="21" t="s">
@@ -48021,7 +48021,7 @@
         <v>116</v>
       </c>
       <c r="N1466" s="25" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="O1466" s="13"/>
       <c r="V1466" s="23"/>
@@ -48086,7 +48086,7 @@
         <v>118</v>
       </c>
       <c r="N1468" s="25" t="s">
-        <v>1359</v>
+        <v>1357</v>
       </c>
       <c r="O1468" s="13"/>
       <c r="P1468" s="21" t="s">
@@ -48105,7 +48105,7 @@
         <v>64</v>
       </c>
       <c r="D1469" s="11" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="E1469" s="12"/>
       <c r="F1469" s="12"/>
@@ -48479,7 +48479,7 @@
         <v>130</v>
       </c>
       <c r="N1480" s="25" t="s">
-        <v>1360</v>
+        <v>1358</v>
       </c>
       <c r="O1480" s="13"/>
       <c r="P1480" s="21" t="s">
@@ -48821,8 +48821,8 @@
       <c r="M1491" s="8">
         <v>141</v>
       </c>
-      <c r="N1491" s="25" t="s">
-        <v>1361</v>
+      <c r="N1491" s="26" t="s">
+        <v>1450</v>
       </c>
       <c r="O1491" s="13"/>
       <c r="P1491" s="21" t="s">
@@ -49170,7 +49170,7 @@
         <v>152</v>
       </c>
       <c r="N1502" s="25" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="O1502" s="13"/>
       <c r="P1502" s="21" t="s">
@@ -49463,7 +49463,7 @@
         <v>161</v>
       </c>
       <c r="N1511" s="25" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="O1511" s="13"/>
       <c r="P1511" s="21" t="s">
@@ -49634,7 +49634,7 @@
       <c r="F1517" s="12"/>
       <c r="G1517" s="12"/>
       <c r="H1517" s="74" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="I1517" s="47" t="s">
         <v>56</v>
@@ -49668,7 +49668,7 @@
       <c r="F1518" s="12"/>
       <c r="G1518" s="12"/>
       <c r="H1518" s="74" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="I1518" s="47" t="s">
         <v>56</v>
@@ -49701,7 +49701,7 @@
       <c r="F1519" s="12"/>
       <c r="G1519" s="12"/>
       <c r="H1519" s="74" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="I1519" s="47" t="s">
         <v>56</v>
@@ -49743,7 +49743,7 @@
       <c r="F1520" s="12"/>
       <c r="G1520" s="12"/>
       <c r="H1520" s="74" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="I1520" s="47" t="s">
         <v>56</v>
@@ -49775,7 +49775,7 @@
       <c r="F1521" s="12"/>
       <c r="G1521" s="12"/>
       <c r="H1521" s="74" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="I1521" s="47" t="s">
         <v>56</v>
@@ -49809,7 +49809,7 @@
       <c r="F1522" s="12"/>
       <c r="G1522" s="12"/>
       <c r="H1522" s="74" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="I1522" s="47" t="s">
         <v>56</v>
@@ -49827,7 +49827,7 @@
         <v>172</v>
       </c>
       <c r="N1522" s="25" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="O1522" s="13"/>
       <c r="P1522" s="21" t="s">
@@ -49939,7 +49939,7 @@
         <v>64</v>
       </c>
       <c r="D1526" s="11" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="E1526" s="12"/>
       <c r="F1526" s="12"/>
@@ -49980,7 +49980,7 @@
         <v>64</v>
       </c>
       <c r="D1527" s="11" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="E1527" s="12"/>
       <c r="F1527" s="12"/>
@@ -50099,7 +50099,7 @@
         <v>180</v>
       </c>
       <c r="N1530" s="25" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="O1530" s="13"/>
       <c r="P1530" s="21" t="s">
@@ -50364,7 +50364,7 @@
         <v>188</v>
       </c>
       <c r="N1538" s="25" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="O1538" s="13"/>
       <c r="P1538" s="21" t="s">
@@ -50669,7 +50669,7 @@
         <v>198</v>
       </c>
       <c r="N1548" s="25" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="O1548" s="13"/>
       <c r="P1548" s="21" t="s">
@@ -50978,7 +50978,7 @@
         <v>208</v>
       </c>
       <c r="N1558" s="25" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="O1558" s="13"/>
       <c r="P1558" s="21" t="s">
@@ -51279,7 +51279,7 @@
         <v>217</v>
       </c>
       <c r="N1567" s="25" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="O1567" s="13"/>
       <c r="P1567" s="21" t="s">
@@ -51482,7 +51482,7 @@
         <v>223</v>
       </c>
       <c r="N1573" s="25" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="O1573" s="13"/>
       <c r="P1573" s="21" t="s">
@@ -51591,7 +51591,7 @@
       <c r="F1577" s="12"/>
       <c r="G1577" s="12"/>
       <c r="H1577" s="74" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="I1577" s="47" t="s">
         <v>57</v>
@@ -51624,7 +51624,7 @@
         <v>64</v>
       </c>
       <c r="H1578" s="74" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="I1578" s="47" t="s">
         <v>57</v>
@@ -51653,7 +51653,7 @@
         <v>64</v>
       </c>
       <c r="H1579" s="74" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="I1579" s="47" t="s">
         <v>57</v>
@@ -51682,7 +51682,7 @@
         <v>64</v>
       </c>
       <c r="H1580" s="74" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="I1580" s="47" t="s">
         <v>57</v>
@@ -51711,7 +51711,7 @@
         <v>64</v>
       </c>
       <c r="H1581" s="74" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="I1581" s="47" t="s">
         <v>57</v>
@@ -51740,7 +51740,7 @@
         <v>64</v>
       </c>
       <c r="H1582" s="74" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="I1582" s="47" t="s">
         <v>57</v>
@@ -51758,7 +51758,7 @@
         <v>232</v>
       </c>
       <c r="N1582" s="25" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="O1582" s="13"/>
       <c r="P1582" s="21" t="s">
@@ -51855,7 +51855,7 @@
         <v>179</v>
       </c>
       <c r="E1586" s="4" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="I1586" s="47" t="s">
         <v>57</v>
@@ -51888,7 +51888,7 @@
         <v>179</v>
       </c>
       <c r="E1587" s="4" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="I1587" s="47" t="s">
         <v>57</v>
@@ -52020,7 +52020,7 @@
         <v>241</v>
       </c>
       <c r="N1591" s="25" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="O1591" s="13"/>
       <c r="P1591" s="21" t="s">
@@ -52037,7 +52037,7 @@
         <v>64</v>
       </c>
       <c r="H1592" s="74" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="I1592" s="47" t="s">
         <v>57</v>
@@ -52066,10 +52066,10 @@
         <v>64</v>
       </c>
       <c r="D1593" s="11" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="H1593" s="4" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="I1593" s="47" t="s">
         <v>57</v>
@@ -52094,7 +52094,7 @@
         <v>95</v>
       </c>
       <c r="T1593" s="21" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="V1593" s="23"/>
       <c r="W1593" s="4"/>
@@ -52104,7 +52104,7 @@
         <v>64</v>
       </c>
       <c r="H1594" s="74" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="I1594" s="47" t="s">
         <v>57</v>
@@ -52193,7 +52193,7 @@
         <v>64</v>
       </c>
       <c r="H1597" s="74" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="I1597" s="47" t="s">
         <v>57</v>
@@ -52222,10 +52222,10 @@
         <v>64</v>
       </c>
       <c r="G1598" s="4" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="H1598" s="74" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="I1598" s="47" t="s">
         <v>57</v>
@@ -52251,16 +52251,16 @@
     </row>
     <row r="1599" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1599" s="4" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="C1599" s="4" t="s">
         <v>64</v>
       </c>
       <c r="G1599" s="4" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="H1599" s="74" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="I1599" s="47" t="s">
         <v>57</v>
@@ -52292,10 +52292,10 @@
         <v>64</v>
       </c>
       <c r="G1600" s="4" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="H1600" s="74" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="I1600" s="47" t="s">
         <v>57</v>
@@ -52324,7 +52324,7 @@
         <v>64</v>
       </c>
       <c r="H1601" s="74" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="I1601" s="47" t="s">
         <v>58</v>
@@ -52342,7 +52342,7 @@
         <v>251</v>
       </c>
       <c r="N1601" s="25" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="O1601" s="13"/>
       <c r="P1601" s="21" t="s">
@@ -52507,13 +52507,13 @@
         <v>257</v>
       </c>
       <c r="N1607" s="26" t="s">
-        <v>1272</v>
+        <v>1451</v>
       </c>
       <c r="O1607" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="V1607" s="23" t="s">
-        <v>1273</v>
+      <c r="V1607" s="24" t="s">
+        <v>1452</v>
       </c>
       <c r="W1607" s="4"/>
     </row>
@@ -52537,7 +52537,7 @@
         <v>258</v>
       </c>
       <c r="N1608" s="25" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="O1608" s="13"/>
       <c r="V1608" s="23"/>
@@ -52566,7 +52566,7 @@
         <v>259</v>
       </c>
       <c r="N1609" s="25" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="O1609" s="13"/>
       <c r="P1609" s="21" t="s">
@@ -52598,7 +52598,7 @@
         <v>260</v>
       </c>
       <c r="N1610" s="25" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="O1610" s="13"/>
       <c r="V1610" s="23"/>
@@ -52624,7 +52624,7 @@
         <v>261</v>
       </c>
       <c r="N1611" s="25" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="O1611" s="13"/>
       <c r="V1611" s="23"/>
@@ -52650,7 +52650,7 @@
         <v>262</v>
       </c>
       <c r="N1612" s="25" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="O1612" s="13"/>
       <c r="V1612" s="23"/>
@@ -52676,13 +52676,13 @@
         <v>263</v>
       </c>
       <c r="N1613" s="26" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="O1613" s="13" t="s">
         <v>21</v>
       </c>
       <c r="V1613" s="23" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="W1613" s="4"/>
     </row>
@@ -52706,7 +52706,7 @@
         <v>264</v>
       </c>
       <c r="N1614" s="25" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="O1614" s="13"/>
       <c r="V1614" s="23"/>
@@ -52758,7 +52758,7 @@
         <v>266</v>
       </c>
       <c r="N1616" s="25" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="O1616" s="13"/>
       <c r="P1616" s="21" t="s">
@@ -52774,7 +52774,7 @@
         <v>64</v>
       </c>
       <c r="H1617" s="74" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="I1617" s="47" t="s">
         <v>58</v>
@@ -52792,7 +52792,7 @@
         <v>267</v>
       </c>
       <c r="N1617" s="25" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="O1617" s="13"/>
       <c r="V1617" s="23"/>
@@ -52806,10 +52806,10 @@
         <v>179</v>
       </c>
       <c r="E1618" s="4" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="H1618" s="74" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="I1618" s="47" t="s">
         <v>58</v>
@@ -52842,10 +52842,10 @@
         <v>179</v>
       </c>
       <c r="E1619" s="4" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="H1619" s="74" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="I1619" s="47" t="s">
         <v>58</v>
@@ -52877,7 +52877,7 @@
         <v>64</v>
       </c>
       <c r="H1620" s="74" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="I1620" s="47" t="s">
         <v>58</v>
@@ -52895,13 +52895,13 @@
         <v>270</v>
       </c>
       <c r="N1620" s="26" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="O1620" s="13" t="s">
         <v>21</v>
       </c>
       <c r="V1620" s="23" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="W1620" s="4"/>
     </row>
@@ -52925,7 +52925,7 @@
         <v>271</v>
       </c>
       <c r="N1621" s="25" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="O1621" s="13"/>
       <c r="V1621" s="23"/>
@@ -52979,7 +52979,7 @@
         <v>273</v>
       </c>
       <c r="N1623" s="25" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="O1623" s="13"/>
       <c r="V1623" s="23"/>
@@ -53005,7 +53005,7 @@
         <v>274</v>
       </c>
       <c r="N1624" s="25" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="O1624" s="13"/>
       <c r="V1624" s="23"/>
@@ -53031,7 +53031,7 @@
         <v>275</v>
       </c>
       <c r="N1625" s="25" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="O1625" s="13"/>
       <c r="P1625" s="21" t="s">
@@ -53062,7 +53062,7 @@
         <v>276</v>
       </c>
       <c r="N1626" s="25" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="O1626" s="13"/>
       <c r="U1626" s="60"/>
@@ -53089,7 +53089,7 @@
         <v>277</v>
       </c>
       <c r="N1627" s="25" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="O1627" s="13"/>
       <c r="U1627" s="60" t="s">
@@ -53199,7 +53199,7 @@
         <v>281</v>
       </c>
       <c r="N1631" s="25" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="O1631" s="13"/>
       <c r="V1631" s="23"/>
@@ -53225,7 +53225,7 @@
         <v>282</v>
       </c>
       <c r="N1632" s="25" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="O1632" s="13"/>
       <c r="V1632" s="23"/>
@@ -53251,14 +53251,14 @@
         <v>283</v>
       </c>
       <c r="N1633" s="26" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="O1633" s="13" t="s">
         <v>21</v>
       </c>
       <c r="U1633" s="60"/>
       <c r="V1633" s="23" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="W1633" s="4"/>
     </row>
@@ -53282,7 +53282,7 @@
         <v>284</v>
       </c>
       <c r="N1634" s="25" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="O1634" s="13"/>
       <c r="P1634" s="21" t="s">
@@ -53316,13 +53316,13 @@
         <v>285</v>
       </c>
       <c r="N1635" s="26" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="O1635" s="13" t="s">
         <v>21</v>
       </c>
       <c r="V1635" s="23" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="W1635" s="4"/>
     </row>
@@ -53346,7 +53346,7 @@
         <v>286</v>
       </c>
       <c r="N1636" s="25" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="O1636" s="13"/>
       <c r="V1636" s="23"/>
@@ -53426,7 +53426,7 @@
         <v>289</v>
       </c>
       <c r="N1639" s="25" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="O1639" s="13"/>
       <c r="V1639" s="23"/>
@@ -53452,7 +53452,7 @@
         <v>290</v>
       </c>
       <c r="N1640" s="25" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="O1640" s="13"/>
       <c r="V1640" s="23"/>
@@ -53506,7 +53506,7 @@
         <v>292</v>
       </c>
       <c r="N1642" s="25" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="O1642" s="13"/>
       <c r="V1642" s="23"/>
@@ -53563,7 +53563,7 @@
         <v>294</v>
       </c>
       <c r="N1644" s="25" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="O1644" s="13"/>
       <c r="U1644" s="60"/>
@@ -53619,13 +53619,13 @@
         <v>296</v>
       </c>
       <c r="N1646" s="26" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="O1646" s="13" t="s">
         <v>21</v>
       </c>
       <c r="V1646" s="23" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="W1646" s="4"/>
     </row>
@@ -53649,13 +53649,13 @@
         <v>297</v>
       </c>
       <c r="N1647" s="26" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="O1647" s="13" t="s">
         <v>21</v>
       </c>
       <c r="V1647" s="23" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="W1647" s="4"/>
     </row>
@@ -53731,7 +53731,7 @@
         <v>300</v>
       </c>
       <c r="N1650" s="25" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="O1650" s="13"/>
       <c r="V1650" s="23"/>
@@ -53783,7 +53783,7 @@
         <v>302</v>
       </c>
       <c r="N1652" s="25" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="O1652" s="13"/>
       <c r="V1652" s="23"/>
@@ -53835,7 +53835,7 @@
         <v>304</v>
       </c>
       <c r="N1654" s="25" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="O1654" s="13"/>
       <c r="P1654" s="21" t="s">
@@ -53894,7 +53894,7 @@
         <v>306</v>
       </c>
       <c r="N1656" s="25" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="O1656" s="13"/>
       <c r="V1656" s="23"/>
@@ -53920,7 +53920,7 @@
         <v>307</v>
       </c>
       <c r="N1657" s="25" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="O1657" s="13"/>
       <c r="V1657" s="23"/>
@@ -53946,7 +53946,7 @@
         <v>308</v>
       </c>
       <c r="N1658" s="25" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="O1658" s="13"/>
       <c r="V1658" s="23"/>
@@ -54050,7 +54050,7 @@
         <v>312</v>
       </c>
       <c r="N1662" s="25" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="O1662" s="13"/>
       <c r="V1662" s="23"/>
@@ -54076,7 +54076,7 @@
         <v>313</v>
       </c>
       <c r="N1663" s="26" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="O1663" s="13" t="s">
         <v>21</v>
@@ -54085,7 +54085,7 @@
         <v>66</v>
       </c>
       <c r="V1663" s="23" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="W1663" s="4"/>
     </row>
@@ -54137,7 +54137,7 @@
         <v>315</v>
       </c>
       <c r="N1665" s="25" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="O1665" s="13"/>
       <c r="V1665" s="23"/>
@@ -54163,7 +54163,7 @@
         <v>316</v>
       </c>
       <c r="N1666" s="25" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="O1666" s="13"/>
       <c r="V1666" s="23"/>
@@ -54189,7 +54189,7 @@
         <v>317</v>
       </c>
       <c r="N1667" s="25" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="O1667" s="13"/>
       <c r="V1667" s="23"/>
@@ -54215,13 +54215,13 @@
         <v>318</v>
       </c>
       <c r="N1668" s="26" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="O1668" s="13" t="s">
         <v>21</v>
       </c>
       <c r="V1668" s="23" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="W1668" s="4"/>
     </row>
@@ -54245,7 +54245,7 @@
         <v>319</v>
       </c>
       <c r="N1669" s="25" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="O1669" s="13"/>
       <c r="V1669" s="23"/>
@@ -54271,7 +54271,7 @@
         <v>320</v>
       </c>
       <c r="N1670" s="26" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="O1670" s="13" t="s">
         <v>23</v>
@@ -54301,7 +54301,7 @@
         <v>321</v>
       </c>
       <c r="N1671" s="25" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="O1671" s="13"/>
       <c r="V1671" s="23"/>
@@ -54327,7 +54327,7 @@
         <v>322</v>
       </c>
       <c r="N1672" s="26" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="O1672" s="13" t="s">
         <v>21</v>
@@ -54336,7 +54336,7 @@
         <v>66</v>
       </c>
       <c r="V1672" s="23" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="W1672" s="4"/>
     </row>
@@ -54371,10 +54371,10 @@
         <v>64</v>
       </c>
       <c r="D1674" s="11" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="G1674" s="4" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="I1674" s="47" t="s">
         <v>59</v>
@@ -54392,7 +54392,7 @@
         <v>324</v>
       </c>
       <c r="N1674" s="25" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="O1674" s="13"/>
       <c r="V1674" s="23"/>
@@ -54403,10 +54403,10 @@
         <v>64</v>
       </c>
       <c r="D1675" s="11" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="G1675" s="4" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="I1675" s="47" t="s">
         <v>59</v>
@@ -54438,10 +54438,10 @@
         <v>64</v>
       </c>
       <c r="D1676" s="11" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="G1676" s="4" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="I1676" s="4" t="s">
         <v>59</v>
@@ -54459,7 +54459,7 @@
         <v>326</v>
       </c>
       <c r="N1676" s="25" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="O1676" s="13"/>
       <c r="S1676" s="2" t="s">
@@ -54517,13 +54517,13 @@
         <v>328</v>
       </c>
       <c r="N1678" s="26" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="O1678" s="13" t="s">
         <v>21</v>
       </c>
       <c r="V1678" s="23" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="W1678" s="4"/>
     </row>
@@ -54532,7 +54532,7 @@
         <v>64</v>
       </c>
       <c r="H1679" s="74" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="I1679" s="47" t="s">
         <v>59</v>
@@ -54550,7 +54550,7 @@
         <v>329</v>
       </c>
       <c r="N1679" s="25" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="O1679" s="13"/>
       <c r="V1679" s="23"/>
@@ -54561,7 +54561,7 @@
         <v>64</v>
       </c>
       <c r="H1680" s="74" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="I1680" s="47" t="s">
         <v>59</v>
@@ -54579,7 +54579,7 @@
         <v>330</v>
       </c>
       <c r="N1680" s="25" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="O1680" s="13"/>
       <c r="V1680" s="23"/>
@@ -54590,7 +54590,7 @@
         <v>64</v>
       </c>
       <c r="H1681" s="74" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="I1681" s="47" t="s">
         <v>59</v>
@@ -54624,7 +54624,7 @@
         <v>64</v>
       </c>
       <c r="H1682" s="74" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="I1682" s="47" t="s">
         <v>59</v>
@@ -54642,7 +54642,7 @@
         <v>332</v>
       </c>
       <c r="N1682" s="25" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="O1682" s="13"/>
       <c r="V1682" s="23"/>
@@ -54653,7 +54653,7 @@
         <v>64</v>
       </c>
       <c r="H1683" s="74" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="I1683" s="47" t="s">
         <v>59</v>
@@ -54671,7 +54671,7 @@
         <v>333</v>
       </c>
       <c r="N1683" s="25" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="O1683" s="13"/>
       <c r="V1683" s="23"/>
@@ -54682,7 +54682,7 @@
         <v>64</v>
       </c>
       <c r="H1684" s="74" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="I1684" s="47" t="s">
         <v>59</v>
@@ -54711,7 +54711,7 @@
         <v>64</v>
       </c>
       <c r="H1685" s="74" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="I1685" s="47" t="s">
         <v>59</v>
@@ -54742,7 +54742,7 @@
         <v>64</v>
       </c>
       <c r="H1686" s="74" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="I1686" s="47" t="s">
         <v>59</v>
@@ -54760,7 +54760,7 @@
         <v>336</v>
       </c>
       <c r="N1686" s="25" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="O1686" s="13"/>
       <c r="V1686" s="23"/>
@@ -54786,7 +54786,7 @@
         <v>337</v>
       </c>
       <c r="N1687" s="25" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="O1687" s="13"/>
       <c r="V1687" s="23"/>
@@ -54838,7 +54838,7 @@
         <v>339</v>
       </c>
       <c r="N1689" s="25" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="O1689" s="13"/>
       <c r="V1689" s="23"/>
@@ -54864,14 +54864,14 @@
         <v>340</v>
       </c>
       <c r="N1690" s="26" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="O1690" s="13" t="s">
         <v>21</v>
       </c>
       <c r="U1690" s="25"/>
       <c r="V1690" s="23" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="W1690" s="4"/>
     </row>
@@ -54895,7 +54895,7 @@
         <v>341</v>
       </c>
       <c r="N1691" s="25" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="O1691" s="13"/>
       <c r="P1691" s="21" t="s">

--- a/TS Jatai Working/Padam Input Templates/TS 1.2 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 1.2 Padam Input Template.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4959" uniqueCount="1453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4960" uniqueCount="1453">
   <si>
     <t>Passage</t>
   </si>
@@ -4510,7 +4510,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4737,6 +4737,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5020,9 +5023,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W1691"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1598" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N1607" sqref="N1607"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A261" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U267" sqref="U267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -13393,6 +13396,9 @@
         <v>415</v>
       </c>
       <c r="O267" s="13"/>
+      <c r="U267" s="81" t="s">
+        <v>70</v>
+      </c>
       <c r="V267" s="23"/>
       <c r="W267" s="4"/>
     </row>

--- a/TS Jatai Working/Padam Input Templates/TS 1.2 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 1.2 Padam Input Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A014231B-9DD7-4BE7-B647-27516B32C463}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825E51F1-10D5-4426-B7FD-BAA92AA43D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5022,8 +5022,8 @@
   <dimension ref="A1:W1691"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O1" sqref="O1"/>
+      <pane ySplit="1" topLeftCell="A1673" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N1675" sqref="N1675"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -54916,6 +54916,7 @@
       <c r="W1691" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:V1691" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/TS Jatai Working/Padam Input Templates/TS 1.2 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 1.2 Padam Input Template.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{825E51F1-10D5-4426-B7FD-BAA92AA43D06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="TS 1.2" sheetId="1" r:id="rId1"/>
@@ -19,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'TS 1.2'!$A$1:$V$1691</definedName>
     <definedName name="_xlnm.Extract" localSheetId="0">'TS 1.2'!$V$10:$V$1690</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4961" uniqueCount="1452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4963" uniqueCount="1452">
   <si>
     <t>Passage</t>
   </si>
@@ -4390,7 +4389,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -4443,7 +4442,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4480,6 +4479,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -4508,7 +4513,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="83">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -4738,6 +4743,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5018,12 +5026,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W1691"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1673" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N1675" sqref="N1675"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N1696" sqref="N1696"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -14000,7 +14008,9 @@
       <c r="N288" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="O288" s="13"/>
+      <c r="O288" s="82" t="s">
+        <v>22</v>
+      </c>
       <c r="P288" s="21" t="s">
         <v>66</v>
       </c>
@@ -43131,7 +43141,9 @@
       <c r="N1309" s="26" t="s">
         <v>19</v>
       </c>
-      <c r="O1309" s="13"/>
+      <c r="O1309" s="82" t="s">
+        <v>22</v>
+      </c>
       <c r="V1309" s="23"/>
       <c r="W1309" s="4"/>
     </row>
@@ -54916,7 +54928,7 @@
       <c r="W1691" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V1691" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="A1:V1691"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/TS Jatai Working/Padam Input Templates/TS 1.2 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 1.2 Padam Input Template.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7CB51EB-BB6A-4B5C-BBC1-B5D4EF1F2C2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TS 1.2" sheetId="1" r:id="rId1"/>
@@ -4389,7 +4390,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -5026,11 +5027,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W1691"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="I1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A1404" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="N1696" sqref="N1696"/>
     </sheetView>
   </sheetViews>
@@ -54928,7 +54929,7 @@
       <c r="W1691" s="4"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:V1691"/>
+  <autoFilter ref="A1:V1691" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/TS Jatai Working/Padam Input Templates/TS 1.2 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 1.2 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{810642BC-D80A-4C3A-A255-AA33913B143F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3F60D5-13A1-45A8-AAC1-F8FDC6171591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2947,9 +2947,6 @@
     <t>iqndraqGoqShaH</t>
   </si>
   <si>
-    <t>iqndraqGoqSha iti$ndra - GoqShaH</t>
-  </si>
-  <si>
     <t>puqrastA$t</t>
   </si>
   <si>
@@ -4566,6 +4563,28 @@
         <family val="2"/>
       </rPr>
       <t>ya#syAm</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">iqndraqGoqSha </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>itI$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ndra - GoqShaH</t>
     </r>
   </si>
 </sst>
@@ -5191,9 +5210,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W1691"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1109" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N1116" sqref="N1116"/>
+    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1145" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V1148" sqref="V1148"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5225,7 +5244,7 @@
         <v>62</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="C1" s="33" t="s">
         <v>0</v>
@@ -5279,7 +5298,7 @@
         <v>188</v>
       </c>
       <c r="T1" s="56" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="U1" s="51" t="s">
         <v>16</v>
@@ -5939,7 +5958,7 @@
         <v>18</v>
       </c>
       <c r="N19" s="70" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>21</v>
@@ -8324,7 +8343,7 @@
     </row>
     <row r="90" spans="1:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H90" s="4" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="I90" s="4" t="s">
         <v>27</v>
@@ -8367,7 +8386,7 @@
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
       <c r="H91" s="4" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="I91" s="4" t="s">
         <v>27</v>
@@ -8407,7 +8426,7 @@
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
       <c r="H92" s="4" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="I92" s="4" t="s">
         <v>27</v>
@@ -8438,7 +8457,7 @@
     </row>
     <row r="93" spans="1:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H93" s="4" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="I93" s="4" t="s">
         <v>27</v>
@@ -8578,7 +8597,7 @@
         <v>20</v>
       </c>
       <c r="V98" s="71" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="W98" s="4"/>
     </row>
@@ -8700,7 +8719,7 @@
     </row>
     <row r="104" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H104" s="4" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="I104" s="4" t="s">
         <v>27</v>
@@ -8730,7 +8749,7 @@
     </row>
     <row r="105" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H105" s="4" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="I105" s="4" t="s">
         <v>27</v>
@@ -8755,7 +8774,7 @@
     </row>
     <row r="106" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H106" s="4" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="I106" s="4" t="s">
         <v>27</v>
@@ -8780,7 +8799,7 @@
     </row>
     <row r="107" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H107" s="4" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="I107" s="4" t="s">
         <v>27</v>
@@ -8805,7 +8824,7 @@
     </row>
     <row r="108" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H108" s="4" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="I108" s="4" t="s">
         <v>27</v>
@@ -8830,7 +8849,7 @@
     </row>
     <row r="109" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H109" s="4" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="I109" s="4" t="s">
         <v>27</v>
@@ -9782,7 +9801,7 @@
     </row>
     <row r="150" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H150" s="4" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="I150" s="4" t="s">
         <v>28</v>
@@ -9807,7 +9826,7 @@
     </row>
     <row r="151" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H151" s="4" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="I151" s="4" t="s">
         <v>28</v>
@@ -9839,7 +9858,7 @@
     </row>
     <row r="152" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H152" s="4" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="I152" s="4" t="s">
         <v>28</v>
@@ -9869,7 +9888,7 @@
     </row>
     <row r="153" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H153" s="4" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="I153" s="4" t="s">
         <v>28</v>
@@ -9894,7 +9913,7 @@
     </row>
     <row r="154" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H154" s="4" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="I154" s="4" t="s">
         <v>28</v>
@@ -9924,7 +9943,7 @@
     </row>
     <row r="155" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H155" s="4" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="I155" s="4" t="s">
         <v>28</v>
@@ -9949,7 +9968,7 @@
     </row>
     <row r="156" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H156" s="4" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="I156" s="4" t="s">
         <v>28</v>
@@ -9977,7 +9996,7 @@
     </row>
     <row r="157" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H157" s="4" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="I157" s="4" t="s">
         <v>28</v>
@@ -10002,7 +10021,7 @@
     </row>
     <row r="158" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H158" s="4" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="I158" s="4" t="s">
         <v>28</v>
@@ -10032,7 +10051,7 @@
     </row>
     <row r="159" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H159" s="4" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="I159" s="4" t="s">
         <v>28</v>
@@ -10057,7 +10076,7 @@
     </row>
     <row r="160" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H160" s="4" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="I160" s="4" t="s">
         <v>29</v>
@@ -10082,7 +10101,7 @@
     </row>
     <row r="161" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H161" s="4" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="I161" s="4" t="s">
         <v>29</v>
@@ -10110,7 +10129,7 @@
     </row>
     <row r="162" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H162" s="4" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="I162" s="4" t="s">
         <v>29</v>
@@ -10135,7 +10154,7 @@
     </row>
     <row r="163" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H163" s="4" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="I163" s="4" t="s">
         <v>29</v>
@@ -10160,7 +10179,7 @@
     </row>
     <row r="164" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H164" s="4" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="I164" s="4" t="s">
         <v>29</v>
@@ -10190,7 +10209,7 @@
     </row>
     <row r="165" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H165" s="4" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="I165" s="4" t="s">
         <v>29</v>
@@ -10591,7 +10610,7 @@
     </row>
     <row r="182" spans="7:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H182" s="4" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="I182" s="4" t="s">
         <v>29</v>
@@ -10616,7 +10635,7 @@
     </row>
     <row r="183" spans="7:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H183" s="4" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="I183" s="4" t="s">
         <v>29</v>
@@ -10641,10 +10660,10 @@
     </row>
     <row r="184" spans="7:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G184" s="4" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="I184" s="4" t="s">
         <v>29</v>
@@ -10669,10 +10688,10 @@
     </row>
     <row r="185" spans="7:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G185" s="4" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="I185" s="4" t="s">
         <v>29</v>
@@ -10697,10 +10716,10 @@
     </row>
     <row r="186" spans="7:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G186" s="4" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="I186" s="4" t="s">
         <v>29</v>
@@ -10730,7 +10749,7 @@
     </row>
     <row r="187" spans="7:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H187" s="4" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="I187" s="4" t="s">
         <v>29</v>
@@ -10755,7 +10774,7 @@
     </row>
     <row r="188" spans="7:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H188" s="4" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="I188" s="4" t="s">
         <v>29</v>
@@ -10780,7 +10799,7 @@
     </row>
     <row r="189" spans="7:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H189" s="4" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="I189" s="4" t="s">
         <v>29</v>
@@ -11171,7 +11190,7 @@
         <v>96</v>
       </c>
       <c r="N205" s="71" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="V205" s="20"/>
       <c r="W205" s="4"/>
@@ -11538,7 +11557,7 @@
     </row>
     <row r="221" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H221" s="61" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="I221" s="4" t="s">
         <v>30</v>
@@ -11564,7 +11583,7 @@
     </row>
     <row r="222" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H222" s="61" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="I222" s="4" t="s">
         <v>30</v>
@@ -11590,7 +11609,7 @@
     </row>
     <row r="223" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H223" s="61" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="I223" s="4" t="s">
         <v>30</v>
@@ -11615,7 +11634,7 @@
     </row>
     <row r="224" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H224" s="61" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="I224" s="4" t="s">
         <v>30</v>
@@ -11640,7 +11659,7 @@
     </row>
     <row r="225" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H225" s="61" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="I225" s="4" t="s">
         <v>30</v>
@@ -11668,7 +11687,7 @@
     </row>
     <row r="226" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H226" s="61" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="I226" s="4" t="s">
         <v>30</v>
@@ -11699,7 +11718,7 @@
     <row r="227" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D227" s="12"/>
       <c r="H227" s="61" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="I227" s="4" t="s">
         <v>30</v>
@@ -12266,7 +12285,7 @@
         <v>11</v>
       </c>
       <c r="N250" s="20" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="P250" s="18" t="s">
         <v>66</v>
@@ -12650,7 +12669,7 @@
     </row>
     <row r="267" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E267" s="63" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="I267" s="4" t="s">
         <v>31</v>
@@ -12678,7 +12697,7 @@
     </row>
     <row r="268" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E268" s="63" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="I268" s="4" t="s">
         <v>31</v>
@@ -12981,7 +13000,7 @@
         <v>41</v>
       </c>
       <c r="N280" s="20" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="P280" s="18" t="s">
         <v>66</v>
@@ -13016,7 +13035,7 @@
     </row>
     <row r="282" spans="4:23" ht="18" x14ac:dyDescent="0.25">
       <c r="F282" s="4" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="I282" s="4" t="s">
         <v>31</v>
@@ -13045,7 +13064,7 @@
     </row>
     <row r="283" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F283" s="4" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="I283" s="4" t="s">
         <v>31</v>
@@ -13255,7 +13274,7 @@
         <v>52</v>
       </c>
       <c r="N291" s="21" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="P291" s="18" t="s">
         <v>66</v>
@@ -13609,7 +13628,7 @@
     </row>
     <row r="306" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H306" s="61" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I306" s="4" t="s">
         <v>32</v>
@@ -13635,7 +13654,7 @@
     </row>
     <row r="307" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H307" s="61" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I307" s="4" t="s">
         <v>32</v>
@@ -13660,7 +13679,7 @@
     </row>
     <row r="308" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H308" s="61" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I308" s="4" t="s">
         <v>32</v>
@@ -13685,7 +13704,7 @@
     </row>
     <row r="309" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H309" s="61" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I309" s="4" t="s">
         <v>32</v>
@@ -13713,7 +13732,7 @@
     </row>
     <row r="310" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H310" s="61" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I310" s="4" t="s">
         <v>32</v>
@@ -13738,7 +13757,7 @@
     </row>
     <row r="311" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H311" s="61" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I311" s="4" t="s">
         <v>32</v>
@@ -13831,7 +13850,7 @@
     </row>
     <row r="315" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H315" s="61" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="I315" s="4" t="s">
         <v>32</v>
@@ -13859,7 +13878,7 @@
     </row>
     <row r="316" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H316" s="61" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="I316" s="4" t="s">
         <v>32</v>
@@ -13885,7 +13904,7 @@
     </row>
     <row r="317" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H317" s="61" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="I317" s="4" t="s">
         <v>32</v>
@@ -13910,7 +13929,7 @@
     </row>
     <row r="318" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H318" s="61" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="I318" s="4" t="s">
         <v>32</v>
@@ -13935,7 +13954,7 @@
     </row>
     <row r="319" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H319" s="61" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="I319" s="4" t="s">
         <v>32</v>
@@ -14808,7 +14827,7 @@
     </row>
     <row r="358" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H358" s="61" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="I358" s="4" t="s">
         <v>33</v>
@@ -14833,7 +14852,7 @@
     </row>
     <row r="359" spans="2:23" ht="18" x14ac:dyDescent="0.25">
       <c r="H359" s="61" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="I359" s="4" t="s">
         <v>33</v>
@@ -14860,7 +14879,7 @@
     </row>
     <row r="360" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H360" s="61" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="I360" s="4" t="s">
         <v>33</v>
@@ -14889,7 +14908,7 @@
     </row>
     <row r="361" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H361" s="61" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="I361" s="4" t="s">
         <v>33</v>
@@ -14914,7 +14933,7 @@
     </row>
     <row r="362" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H362" s="61" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="I362" s="4" t="s">
         <v>33</v>
@@ -15009,7 +15028,7 @@
         <v>21</v>
       </c>
       <c r="V365" s="71" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="W365" s="4"/>
     </row>
@@ -15037,7 +15056,7 @@
     </row>
     <row r="367" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H367" s="61" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="I367" s="4" t="s">
         <v>33</v>
@@ -15062,7 +15081,7 @@
     </row>
     <row r="368" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H368" s="61" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="I368" s="4" t="s">
         <v>33</v>
@@ -15087,7 +15106,7 @@
     </row>
     <row r="369" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H369" s="61" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="I369" s="4" t="s">
         <v>33</v>
@@ -15112,7 +15131,7 @@
     </row>
     <row r="370" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H370" s="61" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="I370" s="4" t="s">
         <v>33</v>
@@ -15140,7 +15159,7 @@
     </row>
     <row r="371" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H371" s="61" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="I371" s="4" t="s">
         <v>33</v>
@@ -15165,7 +15184,7 @@
     </row>
     <row r="372" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H372" s="61" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="I372" s="4" t="s">
         <v>33</v>
@@ -15423,7 +15442,7 @@
     </row>
     <row r="383" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H383" s="61" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="I383" s="4" t="s">
         <v>33</v>
@@ -15453,7 +15472,7 @@
     </row>
     <row r="384" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H384" s="61" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="I384" s="4" t="s">
         <v>33</v>
@@ -15481,7 +15500,7 @@
         <v>180</v>
       </c>
       <c r="H385" s="61" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="I385" s="4" t="s">
         <v>33</v>
@@ -15509,7 +15528,7 @@
     </row>
     <row r="386" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H386" s="61" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="I386" s="4" t="s">
         <v>33</v>
@@ -15534,7 +15553,7 @@
     </row>
     <row r="387" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H387" s="61" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="I387" s="4" t="s">
         <v>33</v>
@@ -15559,7 +15578,7 @@
     </row>
     <row r="388" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H388" s="61" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="I388" s="4" t="s">
         <v>33</v>
@@ -15587,7 +15606,7 @@
     </row>
     <row r="389" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H389" s="61" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="I389" s="4" t="s">
         <v>33</v>
@@ -15612,7 +15631,7 @@
     </row>
     <row r="390" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H390" s="61" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="I390" s="4" t="s">
         <v>33</v>
@@ -15637,7 +15656,7 @@
     </row>
     <row r="391" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H391" s="61" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="I391" s="4" t="s">
         <v>33</v>
@@ -15665,7 +15684,7 @@
     </row>
     <row r="392" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H392" s="61" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="I392" s="4" t="s">
         <v>33</v>
@@ -15788,7 +15807,7 @@
     </row>
     <row r="397" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H397" s="61" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="I397" s="4" t="s">
         <v>33</v>
@@ -15816,7 +15835,7 @@
     </row>
     <row r="398" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H398" s="61" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="I398" s="4" t="s">
         <v>33</v>
@@ -15842,7 +15861,7 @@
     </row>
     <row r="399" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H399" s="61" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="I399" s="4" t="s">
         <v>33</v>
@@ -15867,7 +15886,7 @@
     </row>
     <row r="400" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H400" s="61" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="I400" s="4" t="s">
         <v>33</v>
@@ -16217,7 +16236,7 @@
         <v>175</v>
       </c>
       <c r="N414" s="20" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="P414" s="18" t="s">
         <v>66</v>
@@ -16361,7 +16380,7 @@
     </row>
     <row r="421" spans="6:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F421" s="4" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="I421" s="4" t="s">
         <v>34</v>
@@ -16386,7 +16405,7 @@
     </row>
     <row r="422" spans="6:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F422" s="4" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="I422" s="4" t="s">
         <v>34</v>
@@ -17013,7 +17032,7 @@
         <v>62</v>
       </c>
       <c r="H449" s="61" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I449" s="4" t="s">
         <v>34</v>
@@ -17041,7 +17060,7 @@
         <v>62</v>
       </c>
       <c r="H450" s="61" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I450" s="4" t="s">
         <v>34</v>
@@ -17069,7 +17088,7 @@
     </row>
     <row r="451" spans="1:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H451" s="61" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I451" s="4" t="s">
         <v>34</v>
@@ -17094,7 +17113,7 @@
     </row>
     <row r="452" spans="1:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H452" s="61" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I452" s="4" t="s">
         <v>34</v>
@@ -17473,7 +17492,7 @@
     </row>
     <row r="469" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H469" s="61" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="I469" s="4" t="s">
         <v>35</v>
@@ -17498,7 +17517,7 @@
     </row>
     <row r="470" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H470" s="61" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="I470" s="4" t="s">
         <v>35</v>
@@ -17524,7 +17543,7 @@
     </row>
     <row r="471" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H471" s="61" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="I471" s="4" t="s">
         <v>35</v>
@@ -17549,7 +17568,7 @@
     </row>
     <row r="472" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H472" s="61" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="I472" s="4" t="s">
         <v>35</v>
@@ -17579,7 +17598,7 @@
     </row>
     <row r="473" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H473" s="61" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="I473" s="4" t="s">
         <v>35</v>
@@ -17605,7 +17624,7 @@
     </row>
     <row r="474" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H474" s="61" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="I474" s="4" t="s">
         <v>35</v>
@@ -17645,7 +17664,7 @@
         <v>61</v>
       </c>
       <c r="N475" s="70" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="O475" s="11" t="s">
         <v>21</v>
@@ -17672,7 +17691,7 @@
         <v>62</v>
       </c>
       <c r="N476" s="70" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="O476" s="11" t="s">
         <v>21</v>
@@ -18264,7 +18283,7 @@
     </row>
     <row r="502" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H502" s="61" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="I502" s="4" t="s">
         <v>35</v>
@@ -18289,7 +18308,7 @@
     </row>
     <row r="503" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H503" s="61" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="I503" s="4" t="s">
         <v>35</v>
@@ -18314,7 +18333,7 @@
     </row>
     <row r="504" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H504" s="61" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="I504" s="4" t="s">
         <v>35</v>
@@ -18339,7 +18358,7 @@
     </row>
     <row r="505" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H505" s="61" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="I505" s="4" t="s">
         <v>35</v>
@@ -18364,7 +18383,7 @@
     </row>
     <row r="506" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H506" s="61" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="I506" s="4" t="s">
         <v>35</v>
@@ -18576,7 +18595,7 @@
         <v>181</v>
       </c>
       <c r="H515" s="61" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I515" s="4" t="s">
         <v>35</v>
@@ -18607,7 +18626,7 @@
     </row>
     <row r="516" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H516" s="61" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I516" s="4" t="s">
         <v>35</v>
@@ -18635,7 +18654,7 @@
     </row>
     <row r="517" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H517" s="61" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I517" s="4" t="s">
         <v>35</v>
@@ -18660,7 +18679,7 @@
     </row>
     <row r="518" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H518" s="61" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I518" s="4" t="s">
         <v>35</v>
@@ -18685,7 +18704,7 @@
     </row>
     <row r="519" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H519" s="61" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I519" s="4" t="s">
         <v>35</v>
@@ -18703,7 +18722,7 @@
         <v>105</v>
       </c>
       <c r="N519" s="20" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="P519" s="18" t="s">
         <v>66</v>
@@ -19694,7 +19713,7 @@
         <v>43</v>
       </c>
       <c r="N562" s="20" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="V562" s="20"/>
       <c r="W562" s="4"/>
@@ -20026,7 +20045,7 @@
     </row>
     <row r="577" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E577" s="4" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="I577" s="4" t="s">
         <v>37</v>
@@ -20051,10 +20070,10 @@
     </row>
     <row r="578" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E578" s="4" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="H578" s="61" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I578" s="4" t="s">
         <v>37</v>
@@ -20082,7 +20101,7 @@
     </row>
     <row r="579" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H579" s="61" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I579" s="4" t="s">
         <v>37</v>
@@ -20107,7 +20126,7 @@
     </row>
     <row r="580" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H580" s="61" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I580" s="4" t="s">
         <v>37</v>
@@ -20132,7 +20151,7 @@
     </row>
     <row r="581" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H581" s="61" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I581" s="4" t="s">
         <v>37</v>
@@ -20157,7 +20176,7 @@
     </row>
     <row r="582" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H582" s="61" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I582" s="4" t="s">
         <v>37</v>
@@ -20197,7 +20216,7 @@
         <v>64</v>
       </c>
       <c r="N583" s="70" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="V583" s="20"/>
       <c r="W583" s="4"/>
@@ -20546,7 +20565,7 @@
         <v>79</v>
       </c>
       <c r="N598" s="20" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="P598" s="18" t="s">
         <v>66</v>
@@ -20558,7 +20577,7 @@
     </row>
     <row r="599" spans="4:23" ht="18" x14ac:dyDescent="0.25">
       <c r="H599" s="61" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="I599" s="4" t="s">
         <v>38</v>
@@ -20587,10 +20606,10 @@
         <v>179</v>
       </c>
       <c r="G600" s="4" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="H600" s="61" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="I600" s="4" t="s">
         <v>38</v>
@@ -20619,10 +20638,10 @@
         <v>179</v>
       </c>
       <c r="G601" s="4" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="H601" s="61" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="I601" s="4" t="s">
         <v>38</v>
@@ -20808,7 +20827,7 @@
     </row>
     <row r="609" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H609" s="61" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="I609" s="4" t="s">
         <v>38</v>
@@ -20833,7 +20852,7 @@
     </row>
     <row r="610" spans="4:23" ht="18" x14ac:dyDescent="0.25">
       <c r="H610" s="61" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="I610" s="4" t="s">
         <v>38</v>
@@ -20863,7 +20882,7 @@
         <v>180</v>
       </c>
       <c r="H611" s="61" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="I611" s="4" t="s">
         <v>38</v>
@@ -20896,7 +20915,7 @@
     </row>
     <row r="612" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H612" s="61" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="I612" s="4" t="s">
         <v>38</v>
@@ -20921,7 +20940,7 @@
     </row>
     <row r="613" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H613" s="61" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="I613" s="4" t="s">
         <v>38</v>
@@ -21583,7 +21602,7 @@
         <v>41</v>
       </c>
       <c r="N639" s="20" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="P639" s="18" t="s">
         <v>66</v>
@@ -21748,7 +21767,7 @@
     </row>
     <row r="646" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H646" s="61" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="I646" s="4" t="s">
         <v>38</v>
@@ -21778,7 +21797,7 @@
     </row>
     <row r="647" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H647" s="61" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="I647" s="4" t="s">
         <v>38</v>
@@ -21807,7 +21826,7 @@
       </c>
       <c r="D648" s="62"/>
       <c r="H648" s="61" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="I648" s="4" t="s">
         <v>38</v>
@@ -21842,7 +21861,7 @@
     <row r="649" spans="2:23" ht="18" x14ac:dyDescent="0.25">
       <c r="D649" s="62"/>
       <c r="H649" s="61" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="I649" s="4" t="s">
         <v>38</v>
@@ -21873,7 +21892,7 @@
     <row r="650" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D650" s="62"/>
       <c r="H650" s="61" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="I650" s="4" t="s">
         <v>38</v>
@@ -22034,7 +22053,7 @@
         <v>57</v>
       </c>
       <c r="N655" s="20" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="P655" s="18" t="s">
         <v>66</v>
@@ -23210,7 +23229,7 @@
     </row>
     <row r="704" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H704" s="61" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I704" s="4" t="s">
         <v>39</v>
@@ -23235,7 +23254,7 @@
     </row>
     <row r="705" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H705" s="61" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I705" s="4" t="s">
         <v>39</v>
@@ -23260,7 +23279,7 @@
     </row>
     <row r="706" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H706" s="61" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I706" s="4" t="s">
         <v>39</v>
@@ -23288,7 +23307,7 @@
     </row>
     <row r="707" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H707" s="61" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I707" s="4" t="s">
         <v>39</v>
@@ -23313,7 +23332,7 @@
     </row>
     <row r="708" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H708" s="61" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I708" s="4" t="s">
         <v>39</v>
@@ -23649,7 +23668,7 @@
     </row>
     <row r="722" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H722" s="61" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I722" s="4" t="s">
         <v>39</v>
@@ -23679,7 +23698,7 @@
     </row>
     <row r="723" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H723" s="61" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I723" s="4" t="s">
         <v>39</v>
@@ -23703,14 +23722,14 @@
         <v>95</v>
       </c>
       <c r="T723" s="65" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="V723" s="20"/>
       <c r="W723" s="4"/>
     </row>
     <row r="724" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H724" s="61" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I724" s="4" t="s">
         <v>39</v>
@@ -23735,7 +23754,7 @@
     </row>
     <row r="725" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H725" s="61" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I725" s="4" t="s">
         <v>39</v>
@@ -23803,7 +23822,7 @@
         <v>72</v>
       </c>
       <c r="N727" s="20" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="P727" s="18" t="s">
         <v>66</v>
@@ -23816,13 +23835,13 @@
     </row>
     <row r="728" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E728" s="4" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F728" s="4" t="s">
         <v>1421</v>
       </c>
-      <c r="F728" s="4" t="s">
-        <v>1422</v>
-      </c>
       <c r="H728" s="61" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="I728" s="4" t="s">
         <v>40</v>
@@ -23850,13 +23869,13 @@
     </row>
     <row r="729" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E729" s="4" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F729" s="4" t="s">
         <v>1421</v>
       </c>
-      <c r="F729" s="4" t="s">
-        <v>1422</v>
-      </c>
       <c r="H729" s="61" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="I729" s="4" t="s">
         <v>40</v>
@@ -23881,13 +23900,13 @@
     </row>
     <row r="730" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E730" s="4" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F730" s="4" t="s">
         <v>1421</v>
       </c>
-      <c r="F730" s="4" t="s">
-        <v>1422</v>
-      </c>
       <c r="H730" s="61" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="I730" s="4" t="s">
         <v>40</v>
@@ -23917,13 +23936,13 @@
     </row>
     <row r="731" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E731" s="4" t="s">
+        <v>1420</v>
+      </c>
+      <c r="F731" s="4" t="s">
         <v>1421</v>
       </c>
-      <c r="F731" s="4" t="s">
-        <v>1422</v>
-      </c>
       <c r="H731" s="61" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="I731" s="4" t="s">
         <v>40</v>
@@ -23951,7 +23970,7 @@
     </row>
     <row r="732" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H732" s="61" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="I732" s="4" t="s">
         <v>40</v>
@@ -24728,7 +24747,7 @@
     </row>
     <row r="763" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H763" s="61" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I763" s="4" t="s">
         <v>40</v>
@@ -24758,7 +24777,7 @@
     </row>
     <row r="764" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H764" s="61" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I764" s="4" t="s">
         <v>40</v>
@@ -24783,7 +24802,7 @@
     </row>
     <row r="765" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H765" s="61" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I765" s="4" t="s">
         <v>40</v>
@@ -24808,7 +24827,7 @@
     </row>
     <row r="766" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H766" s="61" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I766" s="4" t="s">
         <v>40</v>
@@ -24833,7 +24852,7 @@
     </row>
     <row r="767" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H767" s="61" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I767" s="4" t="s">
         <v>40</v>
@@ -25490,7 +25509,7 @@
         <v>66</v>
       </c>
       <c r="N793" s="20" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="P793" s="18" t="s">
         <v>66</v>
@@ -25576,7 +25595,7 @@
     </row>
     <row r="797" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H797" s="61" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="I797" s="4" t="s">
         <v>41</v>
@@ -25601,7 +25620,7 @@
     </row>
     <row r="798" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H798" s="61" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="I798" s="4" t="s">
         <v>41</v>
@@ -25629,7 +25648,7 @@
     </row>
     <row r="799" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H799" s="61" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="I799" s="4" t="s">
         <v>41</v>
@@ -25654,13 +25673,13 @@
     </row>
     <row r="800" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B800" s="4" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="G800" s="4" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="H800" s="61" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="I800" s="4" t="s">
         <v>41</v>
@@ -25678,25 +25697,25 @@
         <v>73</v>
       </c>
       <c r="N800" s="21" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="O800" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V800" s="20" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="W800" s="4"/>
     </row>
     <row r="801" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B801" s="4" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="G801" s="4" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="H801" s="61" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="I801" s="4" t="s">
         <v>41</v>
@@ -25726,10 +25745,10 @@
     </row>
     <row r="802" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B802" s="4" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="G802" s="4" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="H802" s="26"/>
       <c r="I802" s="4" t="s">
@@ -25998,7 +26017,7 @@
         <v>85</v>
       </c>
       <c r="N812" s="20" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="P812" s="18" t="s">
         <v>66</v>
@@ -26852,7 +26871,7 @@
         <v>35</v>
       </c>
       <c r="N847" s="70" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="O847" s="11" t="s">
         <v>21</v>
@@ -27771,7 +27790,7 @@
         <v>73</v>
       </c>
       <c r="N885" s="20" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="P885" s="18" t="s">
         <v>66</v>
@@ -30215,7 +30234,7 @@
         <v>101</v>
       </c>
       <c r="N986" s="20" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="P986" s="18" t="s">
         <v>66</v>
@@ -30392,7 +30411,7 @@
     </row>
     <row r="993" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H993" s="61" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="I993" s="21" t="s">
         <v>45</v>
@@ -30417,7 +30436,7 @@
     </row>
     <row r="994" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H994" s="61" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="I994" s="21" t="s">
         <v>45</v>
@@ -30447,7 +30466,7 @@
     </row>
     <row r="995" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H995" s="61" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="I995" s="21" t="s">
         <v>45</v>
@@ -30475,7 +30494,7 @@
     </row>
     <row r="996" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H996" s="61" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="I996" s="21" t="s">
         <v>45</v>
@@ -30500,7 +30519,7 @@
     </row>
     <row r="997" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H997" s="61" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="I997" s="21" t="s">
         <v>45</v>
@@ -30935,7 +30954,7 @@
         <v>94</v>
       </c>
       <c r="T1014" s="18" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="V1014" s="20"/>
       <c r="W1014" s="4"/>
@@ -31752,7 +31771,7 @@
         <v>179</v>
       </c>
       <c r="E1049" s="4" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="H1049" s="26"/>
       <c r="I1049" s="4" t="s">
@@ -31782,7 +31801,7 @@
         <v>179</v>
       </c>
       <c r="E1050" s="4" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="H1050" s="26"/>
       <c r="I1050" s="4" t="s">
@@ -31995,7 +32014,7 @@
     </row>
     <row r="1059" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1059" s="61" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="I1059" s="4" t="s">
         <v>46</v>
@@ -32020,7 +32039,7 @@
     </row>
     <row r="1060" spans="2:23" ht="18" x14ac:dyDescent="0.25">
       <c r="H1060" s="61" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="I1060" s="4" t="s">
         <v>46</v>
@@ -32048,7 +32067,7 @@
         <v>179</v>
       </c>
       <c r="H1061" s="61" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="I1061" s="4" t="s">
         <v>46</v>
@@ -32076,7 +32095,7 @@
     </row>
     <row r="1062" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1062" s="61" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="I1062" s="4" t="s">
         <v>46</v>
@@ -32106,7 +32125,7 @@
     </row>
     <row r="1063" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1063" s="61" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="I1063" s="4" t="s">
         <v>46</v>
@@ -32139,7 +32158,7 @@
         <v>61</v>
       </c>
       <c r="H1064" s="61" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="I1064" s="4" t="s">
         <v>46</v>
@@ -33447,7 +33466,7 @@
         <v>39</v>
       </c>
       <c r="N1115" s="71" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="V1115" s="20"/>
       <c r="W1115" s="4"/>
@@ -33470,7 +33489,7 @@
         <v>40</v>
       </c>
       <c r="N1116" s="71" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="V1116" s="20"/>
       <c r="W1116" s="4"/>
@@ -33833,7 +33852,7 @@
     </row>
     <row r="1132" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1132" s="61" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="I1132" s="4" t="s">
         <v>48</v>
@@ -33858,7 +33877,7 @@
     </row>
     <row r="1133" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1133" s="61" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="I1133" s="4" t="s">
         <v>48</v>
@@ -33883,7 +33902,7 @@
     </row>
     <row r="1134" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1134" s="61" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="I1134" s="4" t="s">
         <v>48</v>
@@ -33911,7 +33930,7 @@
         <v>60</v>
       </c>
       <c r="H1135" s="61" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="I1135" s="4" t="s">
         <v>48</v>
@@ -33940,7 +33959,7 @@
         <v>60</v>
       </c>
       <c r="H1136" s="61" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="I1136" s="4" t="s">
         <v>48</v>
@@ -33965,7 +33984,7 @@
     </row>
     <row r="1137" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1137" s="61" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="I1137" s="4" t="s">
         <v>48</v>
@@ -33990,7 +34009,7 @@
     </row>
     <row r="1138" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1138" s="61" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="I1138" s="4" t="s">
         <v>48</v>
@@ -34248,8 +34267,8 @@
       <c r="O1148" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="V1148" s="20" t="s">
-        <v>972</v>
+      <c r="V1148" s="71" t="s">
+        <v>1451</v>
       </c>
       <c r="W1148" s="4"/>
     </row>
@@ -34322,7 +34341,7 @@
         <v>75</v>
       </c>
       <c r="N1151" s="20" t="s">
-        <v>973</v>
+        <v>972</v>
       </c>
       <c r="V1151" s="20"/>
       <c r="W1151" s="4"/>
@@ -34368,13 +34387,13 @@
         <v>77</v>
       </c>
       <c r="N1153" s="21" t="s">
-        <v>974</v>
+        <v>973</v>
       </c>
       <c r="O1153" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1153" s="20" t="s">
-        <v>975</v>
+        <v>974</v>
       </c>
       <c r="W1153" s="4"/>
     </row>
@@ -34419,13 +34438,13 @@
         <v>79</v>
       </c>
       <c r="N1155" s="21" t="s">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="O1155" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1155" s="20" t="s">
-        <v>977</v>
+        <v>976</v>
       </c>
       <c r="W1155" s="4"/>
     </row>
@@ -34447,7 +34466,7 @@
         <v>80</v>
       </c>
       <c r="N1156" s="20" t="s">
-        <v>978</v>
+        <v>977</v>
       </c>
       <c r="V1156" s="20"/>
       <c r="W1156" s="4"/>
@@ -34493,13 +34512,13 @@
         <v>82</v>
       </c>
       <c r="N1158" s="21" t="s">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="O1158" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1158" s="20" t="s">
-        <v>980</v>
+        <v>979</v>
       </c>
       <c r="W1158" s="4"/>
     </row>
@@ -34544,7 +34563,7 @@
         <v>84</v>
       </c>
       <c r="N1160" s="20" t="s">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="V1160" s="20"/>
       <c r="W1160" s="4"/>
@@ -34567,7 +34586,7 @@
         <v>85</v>
       </c>
       <c r="N1161" s="20" t="s">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="V1161" s="20"/>
       <c r="W1161" s="4"/>
@@ -34613,13 +34632,13 @@
         <v>87</v>
       </c>
       <c r="N1163" s="21" t="s">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="O1163" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1163" s="20" t="s">
-        <v>984</v>
+        <v>983</v>
       </c>
       <c r="W1163" s="4"/>
     </row>
@@ -34664,7 +34683,7 @@
         <v>89</v>
       </c>
       <c r="N1165" s="20" t="s">
-        <v>985</v>
+        <v>984</v>
       </c>
       <c r="V1165" s="20"/>
       <c r="W1165" s="4"/>
@@ -34687,13 +34706,13 @@
         <v>90</v>
       </c>
       <c r="N1166" s="21" t="s">
-        <v>986</v>
+        <v>985</v>
       </c>
       <c r="O1166" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1166" s="20" t="s">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="W1166" s="4"/>
     </row>
@@ -34784,13 +34803,13 @@
         <v>94</v>
       </c>
       <c r="N1170" s="21" t="s">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="O1170" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1170" s="20" t="s">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="W1170" s="4"/>
     </row>
@@ -34881,13 +34900,13 @@
         <v>98</v>
       </c>
       <c r="N1174" s="21" t="s">
-        <v>990</v>
+        <v>989</v>
       </c>
       <c r="O1174" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1174" s="20" t="s">
-        <v>991</v>
+        <v>990</v>
       </c>
       <c r="W1174" s="4"/>
     </row>
@@ -34982,7 +35001,7 @@
         <v>102</v>
       </c>
       <c r="N1178" s="21" t="s">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="O1178" s="11" t="s">
         <v>21</v>
@@ -34990,7 +35009,7 @@
       <c r="S1178" s="23"/>
       <c r="T1178" s="57"/>
       <c r="V1178" s="20" t="s">
-        <v>993</v>
+        <v>992</v>
       </c>
       <c r="W1178" s="4"/>
     </row>
@@ -35083,13 +35102,13 @@
         <v>106</v>
       </c>
       <c r="N1182" s="21" t="s">
-        <v>994</v>
+        <v>993</v>
       </c>
       <c r="O1182" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1182" s="20" t="s">
-        <v>995</v>
+        <v>994</v>
       </c>
       <c r="W1182" s="4"/>
     </row>
@@ -35118,7 +35137,7 @@
     </row>
     <row r="1184" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1184" s="61" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="I1184" s="4" t="s">
         <v>49</v>
@@ -35143,7 +35162,7 @@
     </row>
     <row r="1185" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1185" s="61" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="I1185" s="4" t="s">
         <v>49</v>
@@ -35168,7 +35187,7 @@
     </row>
     <row r="1186" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1186" s="61" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="I1186" s="4" t="s">
         <v>49</v>
@@ -35196,7 +35215,7 @@
     </row>
     <row r="1187" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1187" s="61" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="I1187" s="4" t="s">
         <v>49</v>
@@ -35214,7 +35233,7 @@
         <v>111</v>
       </c>
       <c r="N1187" s="20" t="s">
-        <v>996</v>
+        <v>995</v>
       </c>
       <c r="V1187" s="20"/>
       <c r="W1187" s="4"/>
@@ -35224,7 +35243,7 @@
         <v>61</v>
       </c>
       <c r="H1188" s="61" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="I1188" s="4" t="s">
         <v>49</v>
@@ -35242,7 +35261,7 @@
         <v>112</v>
       </c>
       <c r="N1188" s="20" t="s">
-        <v>997</v>
+        <v>996</v>
       </c>
       <c r="S1188" s="4"/>
       <c r="V1188" s="20"/>
@@ -35250,7 +35269,7 @@
     </row>
     <row r="1189" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1189" s="61" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="I1189" s="4" t="s">
         <v>49</v>
@@ -35268,13 +35287,13 @@
         <v>113</v>
       </c>
       <c r="N1189" s="21" t="s">
-        <v>998</v>
+        <v>997</v>
       </c>
       <c r="O1189" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1189" s="20" t="s">
-        <v>999</v>
+        <v>998</v>
       </c>
       <c r="W1189" s="4"/>
     </row>
@@ -35296,7 +35315,7 @@
         <v>114</v>
       </c>
       <c r="N1190" s="20" t="s">
-        <v>1000</v>
+        <v>999</v>
       </c>
       <c r="V1190" s="20"/>
       <c r="W1190" s="4"/>
@@ -35344,14 +35363,14 @@
         <v>116</v>
       </c>
       <c r="N1192" s="20" t="s">
-        <v>1001</v>
+        <v>1000</v>
       </c>
       <c r="V1192" s="20"/>
       <c r="W1192" s="4"/>
     </row>
     <row r="1193" spans="2:23" ht="18" x14ac:dyDescent="0.25">
       <c r="C1193" s="4" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="H1193" s="61" t="s">
         <v>87</v>
@@ -35384,7 +35403,7 @@
         <v>170</v>
       </c>
       <c r="C1194" s="4" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="H1194" s="50" t="s">
         <v>87</v>
@@ -35405,7 +35424,7 @@
         <v>118</v>
       </c>
       <c r="N1194" s="21" t="s">
-        <v>1002</v>
+        <v>1001</v>
       </c>
       <c r="O1194" s="11" t="s">
         <v>21</v>
@@ -35414,10 +35433,10 @@
         <v>94</v>
       </c>
       <c r="T1194" s="18" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="V1194" s="20" t="s">
-        <v>1003</v>
+        <v>1002</v>
       </c>
       <c r="W1194" s="4"/>
     </row>
@@ -35464,7 +35483,7 @@
         <v>120</v>
       </c>
       <c r="N1196" s="20" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="V1196" s="20"/>
       <c r="W1196" s="4"/>
@@ -35487,7 +35506,7 @@
         <v>121</v>
       </c>
       <c r="N1197" s="20" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="V1197" s="20"/>
       <c r="W1197" s="4"/>
@@ -35510,13 +35529,13 @@
         <v>122</v>
       </c>
       <c r="N1198" s="21" t="s">
-        <v>1006</v>
+        <v>1005</v>
       </c>
       <c r="O1198" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1198" s="20" t="s">
-        <v>1007</v>
+        <v>1006</v>
       </c>
       <c r="W1198" s="4"/>
     </row>
@@ -35584,7 +35603,7 @@
         <v>125</v>
       </c>
       <c r="N1201" s="20" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="V1201" s="20"/>
       <c r="W1201" s="4"/>
@@ -35607,13 +35626,13 @@
         <v>126</v>
       </c>
       <c r="N1202" s="21" t="s">
-        <v>1008</v>
+        <v>1007</v>
       </c>
       <c r="O1202" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1202" s="20" t="s">
-        <v>1009</v>
+        <v>1008</v>
       </c>
       <c r="W1202" s="4"/>
     </row>
@@ -35658,7 +35677,7 @@
         <v>128</v>
       </c>
       <c r="N1204" s="20" t="s">
-        <v>1010</v>
+        <v>1009</v>
       </c>
       <c r="V1204" s="20"/>
       <c r="W1204" s="4"/>
@@ -35681,7 +35700,7 @@
         <v>129</v>
       </c>
       <c r="N1205" s="20" t="s">
-        <v>1005</v>
+        <v>1004</v>
       </c>
       <c r="V1205" s="20"/>
       <c r="W1205" s="4"/>
@@ -35727,7 +35746,7 @@
         <v>131</v>
       </c>
       <c r="N1207" s="20" t="s">
-        <v>1011</v>
+        <v>1010</v>
       </c>
       <c r="V1207" s="20"/>
       <c r="W1207" s="4"/>
@@ -35796,7 +35815,7 @@
         <v>134</v>
       </c>
       <c r="N1210" s="20" t="s">
-        <v>1012</v>
+        <v>1011</v>
       </c>
       <c r="V1210" s="20"/>
       <c r="W1210" s="4"/>
@@ -35847,7 +35866,7 @@
         <v>1</v>
       </c>
       <c r="N1212" s="20" t="s">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="V1212" s="20"/>
       <c r="W1212" s="4"/>
@@ -35870,7 +35889,7 @@
         <v>2</v>
       </c>
       <c r="N1213" s="20" t="s">
-        <v>1014</v>
+        <v>1013</v>
       </c>
       <c r="V1213" s="20"/>
       <c r="W1213" s="4"/>
@@ -35893,7 +35912,7 @@
         <v>3</v>
       </c>
       <c r="N1214" s="20" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="V1214" s="20"/>
       <c r="W1214" s="4"/>
@@ -35916,7 +35935,7 @@
         <v>4</v>
       </c>
       <c r="N1215" s="20" t="s">
-        <v>1016</v>
+        <v>1015</v>
       </c>
       <c r="V1215" s="20"/>
       <c r="W1215" s="4"/>
@@ -35939,7 +35958,7 @@
         <v>5</v>
       </c>
       <c r="N1216" s="20" t="s">
-        <v>1017</v>
+        <v>1016</v>
       </c>
       <c r="V1216" s="20"/>
       <c r="W1216" s="4"/>
@@ -35962,7 +35981,7 @@
         <v>6</v>
       </c>
       <c r="N1217" s="20" t="s">
-        <v>1018</v>
+        <v>1017</v>
       </c>
       <c r="V1217" s="20"/>
       <c r="W1217" s="4"/>
@@ -35985,7 +36004,7 @@
         <v>7</v>
       </c>
       <c r="N1218" s="20" t="s">
-        <v>1019</v>
+        <v>1018</v>
       </c>
       <c r="V1218" s="20"/>
       <c r="W1218" s="4"/>
@@ -36008,7 +36027,7 @@
         <v>8</v>
       </c>
       <c r="N1219" s="20" t="s">
-        <v>1020</v>
+        <v>1019</v>
       </c>
       <c r="V1219" s="20"/>
       <c r="W1219" s="4"/>
@@ -36031,7 +36050,7 @@
         <v>9</v>
       </c>
       <c r="N1220" s="20" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="P1220" s="18" t="s">
         <v>66</v>
@@ -36085,7 +36104,7 @@
         <v>11</v>
       </c>
       <c r="N1222" s="20" t="s">
-        <v>1021</v>
+        <v>1020</v>
       </c>
       <c r="V1222" s="20"/>
       <c r="W1222" s="4"/>
@@ -36131,19 +36150,19 @@
         <v>13</v>
       </c>
       <c r="N1224" s="21" t="s">
-        <v>1022</v>
+        <v>1021</v>
       </c>
       <c r="O1224" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1224" s="20" t="s">
-        <v>1023</v>
+        <v>1022</v>
       </c>
       <c r="W1224" s="4"/>
     </row>
     <row r="1225" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1225" s="61" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="I1225" s="4" t="s">
         <v>50</v>
@@ -36161,14 +36180,14 @@
         <v>14</v>
       </c>
       <c r="N1225" s="20" t="s">
-        <v>1024</v>
+        <v>1023</v>
       </c>
       <c r="V1225" s="20"/>
       <c r="W1225" s="4"/>
     </row>
     <row r="1226" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1226" s="61" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="I1226" s="4" t="s">
         <v>50</v>
@@ -36193,7 +36212,7 @@
     </row>
     <row r="1227" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1227" s="61" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="I1227" s="4" t="s">
         <v>50</v>
@@ -36211,14 +36230,14 @@
         <v>16</v>
       </c>
       <c r="N1227" s="20" t="s">
-        <v>1025</v>
+        <v>1024</v>
       </c>
       <c r="V1227" s="20"/>
       <c r="W1227" s="4"/>
     </row>
     <row r="1228" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1228" s="61" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="I1228" s="4" t="s">
         <v>50</v>
@@ -36259,7 +36278,7 @@
         <v>18</v>
       </c>
       <c r="N1229" s="20" t="s">
-        <v>1026</v>
+        <v>1025</v>
       </c>
       <c r="S1229" s="2" t="s">
         <v>94</v>
@@ -36288,7 +36307,7 @@
         <v>19</v>
       </c>
       <c r="N1230" s="21" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="O1230" s="11" t="s">
         <v>21</v>
@@ -36297,7 +36316,7 @@
         <v>66</v>
       </c>
       <c r="V1230" s="20" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="W1230" s="4"/>
     </row>
@@ -36319,13 +36338,13 @@
         <v>20</v>
       </c>
       <c r="N1231" s="21" t="s">
-        <v>1027</v>
+        <v>1026</v>
       </c>
       <c r="O1231" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1231" s="20" t="s">
-        <v>1028</v>
+        <v>1027</v>
       </c>
       <c r="W1231" s="4"/>
     </row>
@@ -36425,7 +36444,7 @@
         <v>24</v>
       </c>
       <c r="N1235" s="20" t="s">
-        <v>1029</v>
+        <v>1028</v>
       </c>
       <c r="V1235" s="20"/>
       <c r="W1235" s="4"/>
@@ -36448,13 +36467,13 @@
         <v>25</v>
       </c>
       <c r="N1236" s="21" t="s">
-        <v>1030</v>
+        <v>1029</v>
       </c>
       <c r="O1236" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1236" s="20" t="s">
-        <v>1031</v>
+        <v>1030</v>
       </c>
       <c r="W1236" s="4"/>
     </row>
@@ -36476,7 +36495,7 @@
         <v>26</v>
       </c>
       <c r="N1237" s="20" t="s">
-        <v>1032</v>
+        <v>1031</v>
       </c>
       <c r="V1237" s="20"/>
       <c r="W1237" s="4"/>
@@ -36525,7 +36544,7 @@
         <v>28</v>
       </c>
       <c r="N1239" s="20" t="s">
-        <v>1033</v>
+        <v>1032</v>
       </c>
       <c r="V1239" s="20"/>
       <c r="W1239" s="4"/>
@@ -36597,7 +36616,7 @@
         <v>31</v>
       </c>
       <c r="N1242" s="20" t="s">
-        <v>1034</v>
+        <v>1033</v>
       </c>
       <c r="V1242" s="20"/>
       <c r="W1242" s="4"/>
@@ -36620,7 +36639,7 @@
         <v>32</v>
       </c>
       <c r="N1243" s="20" t="s">
-        <v>1035</v>
+        <v>1034</v>
       </c>
       <c r="V1243" s="20"/>
       <c r="W1243" s="4"/>
@@ -36643,7 +36662,7 @@
         <v>33</v>
       </c>
       <c r="N1244" s="20" t="s">
-        <v>1036</v>
+        <v>1035</v>
       </c>
       <c r="V1244" s="20"/>
       <c r="W1244" s="4"/>
@@ -36689,7 +36708,7 @@
         <v>35</v>
       </c>
       <c r="N1246" s="20" t="s">
-        <v>1037</v>
+        <v>1036</v>
       </c>
       <c r="V1246" s="20"/>
       <c r="W1246" s="4"/>
@@ -36712,13 +36731,13 @@
         <v>36</v>
       </c>
       <c r="N1247" s="21" t="s">
-        <v>1038</v>
+        <v>1037</v>
       </c>
       <c r="O1247" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1247" s="20" t="s">
-        <v>1039</v>
+        <v>1038</v>
       </c>
       <c r="W1247" s="4"/>
     </row>
@@ -36763,7 +36782,7 @@
         <v>38</v>
       </c>
       <c r="N1249" s="20" t="s">
-        <v>1040</v>
+        <v>1039</v>
       </c>
       <c r="V1249" s="20"/>
       <c r="W1249" s="4"/>
@@ -36786,7 +36805,7 @@
         <v>39</v>
       </c>
       <c r="N1250" s="20" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="V1250" s="20"/>
       <c r="W1250" s="4"/>
@@ -36809,7 +36828,7 @@
         <v>40</v>
       </c>
       <c r="N1251" s="20" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="P1251" s="18" t="s">
         <v>66</v>
@@ -36860,7 +36879,7 @@
         <v>42</v>
       </c>
       <c r="N1253" s="20" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="V1253" s="20"/>
       <c r="W1253" s="4"/>
@@ -36909,7 +36928,7 @@
         <v>44</v>
       </c>
       <c r="N1255" s="20" t="s">
-        <v>1043</v>
+        <v>1042</v>
       </c>
       <c r="V1255" s="20"/>
       <c r="W1255" s="4"/>
@@ -36932,7 +36951,7 @@
         <v>45</v>
       </c>
       <c r="N1256" s="20" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="V1256" s="20"/>
       <c r="W1256" s="4"/>
@@ -36955,7 +36974,7 @@
         <v>46</v>
       </c>
       <c r="N1257" s="20" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="O1257" s="11" t="s">
         <v>22</v>
@@ -37004,7 +37023,7 @@
         <v>48</v>
       </c>
       <c r="N1259" s="20" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="P1259" s="18" t="s">
         <v>66</v>
@@ -37032,13 +37051,13 @@
         <v>49</v>
       </c>
       <c r="N1260" s="21" t="s">
-        <v>1046</v>
+        <v>1045</v>
       </c>
       <c r="O1260" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1260" s="20" t="s">
-        <v>1047</v>
+        <v>1046</v>
       </c>
       <c r="W1260" s="4"/>
     </row>
@@ -37083,7 +37102,7 @@
         <v>51</v>
       </c>
       <c r="N1262" s="20" t="s">
-        <v>1048</v>
+        <v>1047</v>
       </c>
       <c r="V1262" s="20"/>
       <c r="W1262" s="4"/>
@@ -37106,13 +37125,13 @@
         <v>52</v>
       </c>
       <c r="N1263" s="21" t="s">
-        <v>1049</v>
+        <v>1048</v>
       </c>
       <c r="O1263" s="11" t="s">
         <v>20</v>
       </c>
       <c r="V1263" s="20" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="W1263" s="4"/>
     </row>
@@ -37134,13 +37153,13 @@
         <v>53</v>
       </c>
       <c r="N1264" s="21" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="O1264" s="11" t="s">
         <v>20</v>
       </c>
       <c r="V1264" s="20" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="W1264" s="4"/>
     </row>
@@ -37162,7 +37181,7 @@
         <v>54</v>
       </c>
       <c r="N1265" s="20" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="V1265" s="20"/>
       <c r="W1265" s="4"/>
@@ -37185,7 +37204,7 @@
         <v>55</v>
       </c>
       <c r="N1266" s="20" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="V1266" s="20"/>
       <c r="W1266" s="4"/>
@@ -37208,13 +37227,13 @@
         <v>56</v>
       </c>
       <c r="N1267" s="21" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="O1267" s="11" t="s">
         <v>20</v>
       </c>
       <c r="V1267" s="20" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="W1267" s="4"/>
     </row>
@@ -37236,7 +37255,7 @@
         <v>57</v>
       </c>
       <c r="N1268" s="20" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="V1268" s="20"/>
       <c r="W1268" s="4"/>
@@ -37259,7 +37278,7 @@
         <v>58</v>
       </c>
       <c r="N1269" s="21" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="O1269" s="11" t="s">
         <v>23</v>
@@ -37316,7 +37335,7 @@
         <v>60</v>
       </c>
       <c r="N1271" s="20" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="V1271" s="20"/>
       <c r="W1271" s="4"/>
@@ -37339,7 +37358,7 @@
         <v>61</v>
       </c>
       <c r="N1272" s="21" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="O1272" s="11" t="s">
         <v>23</v>
@@ -37369,7 +37388,7 @@
         <v>62</v>
       </c>
       <c r="N1273" s="20" t="s">
-        <v>1042</v>
+        <v>1041</v>
       </c>
       <c r="V1273" s="20"/>
       <c r="W1273" s="4"/>
@@ -37420,7 +37439,7 @@
         <v>64</v>
       </c>
       <c r="N1275" s="20" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="V1275" s="20"/>
       <c r="W1275" s="4"/>
@@ -37443,7 +37462,7 @@
         <v>65</v>
       </c>
       <c r="N1276" s="20" t="s">
-        <v>1004</v>
+        <v>1003</v>
       </c>
       <c r="V1276" s="20"/>
       <c r="W1276" s="4"/>
@@ -37466,7 +37485,7 @@
         <v>66</v>
       </c>
       <c r="N1277" s="20" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="V1277" s="20"/>
       <c r="W1277" s="4"/>
@@ -37489,7 +37508,7 @@
         <v>67</v>
       </c>
       <c r="N1278" s="20" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="P1278" s="18" t="s">
         <v>66</v>
@@ -37517,7 +37536,7 @@
         <v>68</v>
       </c>
       <c r="N1279" s="21" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="O1279" s="11" t="s">
         <v>23</v>
@@ -37594,7 +37613,7 @@
         <v>71</v>
       </c>
       <c r="N1282" s="20" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="V1282" s="20"/>
       <c r="W1282" s="4"/>
@@ -37617,7 +37636,7 @@
         <v>72</v>
       </c>
       <c r="N1283" s="21" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="O1283" s="11" t="s">
         <v>23</v>
@@ -37645,7 +37664,7 @@
         <v>73</v>
       </c>
       <c r="N1284" s="20" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="V1284" s="20"/>
       <c r="W1284" s="4"/>
@@ -37691,7 +37710,7 @@
         <v>75</v>
       </c>
       <c r="N1286" s="20" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="V1286" s="20"/>
       <c r="W1286" s="4"/>
@@ -37737,7 +37756,7 @@
         <v>77</v>
       </c>
       <c r="N1288" s="20" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="V1288" s="20"/>
       <c r="W1288" s="4"/>
@@ -37760,7 +37779,7 @@
         <v>78</v>
       </c>
       <c r="N1289" s="20" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="V1289" s="20"/>
       <c r="W1289" s="4"/>
@@ -37783,7 +37802,7 @@
         <v>79</v>
       </c>
       <c r="N1290" s="20" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="S1290" s="24"/>
       <c r="T1290" s="18"/>
@@ -37811,7 +37830,7 @@
         <v>80</v>
       </c>
       <c r="N1291" s="20" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="S1291" s="24"/>
       <c r="V1291" s="20"/>
@@ -37881,7 +37900,7 @@
         <v>83</v>
       </c>
       <c r="N1294" s="20" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="V1294" s="20"/>
       <c r="W1294" s="4"/>
@@ -37907,7 +37926,7 @@
         <v>84</v>
       </c>
       <c r="N1295" s="20" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="V1295" s="20"/>
       <c r="W1295" s="4"/>
@@ -37930,7 +37949,7 @@
         <v>85</v>
       </c>
       <c r="N1296" s="20" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="V1296" s="20"/>
       <c r="W1296" s="4"/>
@@ -37953,7 +37972,7 @@
         <v>86</v>
       </c>
       <c r="N1297" s="20" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="V1297" s="20"/>
       <c r="W1297" s="4"/>
@@ -38022,7 +38041,7 @@
         <v>89</v>
       </c>
       <c r="N1300" s="20" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="V1300" s="20"/>
       <c r="W1300" s="4"/>
@@ -38045,7 +38064,7 @@
         <v>90</v>
       </c>
       <c r="N1301" s="20" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="T1301" s="18"/>
       <c r="V1301" s="20"/>
@@ -38069,7 +38088,7 @@
         <v>91</v>
       </c>
       <c r="N1302" s="20" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="V1302" s="20"/>
       <c r="W1302" s="4"/>
@@ -38092,7 +38111,7 @@
         <v>92</v>
       </c>
       <c r="N1303" s="20" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="V1303" s="20"/>
       <c r="W1303" s="4"/>
@@ -38141,7 +38160,7 @@
         <v>94</v>
       </c>
       <c r="N1305" s="20" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="V1305" s="20"/>
       <c r="W1305" s="4"/>
@@ -38164,7 +38183,7 @@
         <v>95</v>
       </c>
       <c r="N1306" s="20" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="V1306" s="20"/>
       <c r="W1306" s="4"/>
@@ -38187,13 +38206,13 @@
         <v>96</v>
       </c>
       <c r="N1307" s="21" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="O1307" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1307" s="20" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="W1307" s="4"/>
     </row>
@@ -38215,14 +38234,14 @@
         <v>97</v>
       </c>
       <c r="N1308" s="20" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="V1308" s="20"/>
       <c r="W1308" s="4"/>
     </row>
     <row r="1309" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1309" s="61" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="I1309" s="4" t="s">
         <v>51</v>
@@ -38250,7 +38269,7 @@
     </row>
     <row r="1310" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1310" s="61" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="I1310" s="4" t="s">
         <v>51</v>
@@ -38278,7 +38297,7 @@
     </row>
     <row r="1311" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1311" s="61" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="I1311" s="4" t="s">
         <v>51</v>
@@ -38303,7 +38322,7 @@
     </row>
     <row r="1312" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1312" s="61" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="I1312" s="4" t="s">
         <v>52</v>
@@ -38321,14 +38340,14 @@
         <v>101</v>
       </c>
       <c r="N1312" s="20" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="V1312" s="20"/>
       <c r="W1312" s="4"/>
     </row>
     <row r="1313" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1313" s="61" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="I1313" s="4" t="s">
         <v>52</v>
@@ -38356,7 +38375,7 @@
     </row>
     <row r="1314" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1314" s="61" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="I1314" s="4" t="s">
         <v>52</v>
@@ -38374,14 +38393,14 @@
         <v>103</v>
       </c>
       <c r="N1314" s="20" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="V1314" s="20"/>
       <c r="W1314" s="4"/>
     </row>
     <row r="1315" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1315" s="61" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="I1315" s="4" t="s">
         <v>52</v>
@@ -38399,7 +38418,7 @@
         <v>104</v>
       </c>
       <c r="N1315" s="20" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="P1315" s="18" t="s">
         <v>66</v>
@@ -38450,7 +38469,7 @@
         <v>106</v>
       </c>
       <c r="N1317" s="20" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="V1317" s="20"/>
       <c r="W1317" s="4"/>
@@ -38473,7 +38492,7 @@
         <v>107</v>
       </c>
       <c r="N1318" s="20" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="V1318" s="21"/>
       <c r="W1318" s="4"/>
@@ -38522,7 +38541,7 @@
         <v>109</v>
       </c>
       <c r="N1320" s="20" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="V1320" s="20"/>
       <c r="W1320" s="4"/>
@@ -38568,7 +38587,7 @@
         <v>111</v>
       </c>
       <c r="N1322" s="20" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="V1322" s="20"/>
       <c r="W1322" s="4"/>
@@ -38591,13 +38610,13 @@
         <v>112</v>
       </c>
       <c r="N1323" s="21" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="O1323" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1323" s="20" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="W1323" s="4"/>
     </row>
@@ -38619,7 +38638,7 @@
         <v>113</v>
       </c>
       <c r="N1324" s="20" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="V1324" s="20"/>
       <c r="W1324" s="4"/>
@@ -38669,7 +38688,7 @@
         <v>115</v>
       </c>
       <c r="N1326" s="20" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="U1326" s="48" t="s">
         <v>68</v>
@@ -38695,13 +38714,13 @@
         <v>116</v>
       </c>
       <c r="N1327" s="21" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="O1327" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1327" s="20" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="W1327" s="4"/>
     </row>
@@ -38723,13 +38742,13 @@
         <v>117</v>
       </c>
       <c r="N1328" s="21" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="O1328" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1328" s="20" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="W1328" s="4"/>
     </row>
@@ -38751,13 +38770,13 @@
         <v>118</v>
       </c>
       <c r="N1329" s="21" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="O1329" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1329" s="20" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="W1329" s="4"/>
     </row>
@@ -38779,7 +38798,7 @@
         <v>119</v>
       </c>
       <c r="N1330" s="20" t="s">
-        <v>1044</v>
+        <v>1043</v>
       </c>
       <c r="V1330" s="20"/>
       <c r="W1330" s="4"/>
@@ -38802,13 +38821,13 @@
         <v>120</v>
       </c>
       <c r="N1331" s="21" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="O1331" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1331" s="20" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="W1331" s="4"/>
     </row>
@@ -38853,7 +38872,7 @@
         <v>122</v>
       </c>
       <c r="N1333" s="20" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="V1333" s="20"/>
       <c r="W1333" s="4"/>
@@ -38922,7 +38941,7 @@
         <v>125</v>
       </c>
       <c r="N1336" s="20" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="V1336" s="20"/>
       <c r="W1336" s="4"/>
@@ -38991,7 +39010,7 @@
         <v>128</v>
       </c>
       <c r="N1339" s="21" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="O1339" s="11" t="s">
         <v>23</v>
@@ -39065,7 +39084,7 @@
         <v>131</v>
       </c>
       <c r="N1342" s="20" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="V1342" s="20"/>
       <c r="W1342" s="4"/>
@@ -39134,7 +39153,7 @@
         <v>134</v>
       </c>
       <c r="N1345" s="20" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="V1345" s="20"/>
       <c r="W1345" s="4"/>
@@ -39180,7 +39199,7 @@
         <v>136</v>
       </c>
       <c r="N1347" s="20" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="V1347" s="20"/>
       <c r="W1347" s="4"/>
@@ -39264,7 +39283,7 @@
         <v>64</v>
       </c>
       <c r="H1351" s="21" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="I1351" s="4" t="s">
         <v>53</v>
@@ -39282,7 +39301,7 @@
         <v>1</v>
       </c>
       <c r="N1351" s="20" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="V1351" s="20"/>
       <c r="W1351" s="4"/>
@@ -39292,7 +39311,7 @@
         <v>64</v>
       </c>
       <c r="H1352" s="21" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="I1352" s="4" t="s">
         <v>53</v>
@@ -39310,7 +39329,7 @@
         <v>2</v>
       </c>
       <c r="N1352" s="20" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="V1352" s="20"/>
       <c r="W1352" s="4"/>
@@ -39336,13 +39355,13 @@
         <v>3</v>
       </c>
       <c r="N1353" s="21" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="O1353" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1353" s="20" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="W1353" s="4"/>
     </row>
@@ -39367,7 +39386,7 @@
         <v>4</v>
       </c>
       <c r="N1354" s="20" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="V1354" s="20"/>
       <c r="W1354" s="4"/>
@@ -39393,7 +39412,7 @@
         <v>5</v>
       </c>
       <c r="N1355" s="20" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="V1355" s="20"/>
       <c r="W1355" s="4"/>
@@ -39421,7 +39440,7 @@
         <v>6</v>
       </c>
       <c r="N1356" s="20" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="V1356" s="20"/>
       <c r="W1356" s="4"/>
@@ -39449,7 +39468,7 @@
         <v>7</v>
       </c>
       <c r="N1357" s="20" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="V1357" s="20"/>
       <c r="W1357" s="4"/>
@@ -39477,7 +39496,7 @@
         <v>8</v>
       </c>
       <c r="N1358" s="20" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="T1358" s="29"/>
       <c r="V1358" s="20"/>
@@ -39506,7 +39525,7 @@
         <v>9</v>
       </c>
       <c r="N1359" s="21" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="O1359" s="11" t="s">
         <v>21</v>
@@ -39518,7 +39537,7 @@
         <v>174</v>
       </c>
       <c r="V1359" s="20" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="W1359" s="4"/>
     </row>
@@ -39545,7 +39564,7 @@
         <v>10</v>
       </c>
       <c r="N1360" s="20" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="P1360" s="18" t="s">
         <v>66</v>
@@ -39576,7 +39595,7 @@
         <v>11</v>
       </c>
       <c r="N1361" s="20" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="V1361" s="20"/>
       <c r="W1361" s="4"/>
@@ -39631,13 +39650,13 @@
         <v>13</v>
       </c>
       <c r="N1363" s="21" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="O1363" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1363" s="20" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="W1363" s="4"/>
     </row>
@@ -39662,7 +39681,7 @@
         <v>14</v>
       </c>
       <c r="N1364" s="20" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="V1364" s="20"/>
       <c r="W1364" s="4"/>
@@ -39672,7 +39691,7 @@
         <v>64</v>
       </c>
       <c r="H1365" s="21" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="I1365" s="4" t="s">
         <v>53</v>
@@ -39690,7 +39709,7 @@
         <v>15</v>
       </c>
       <c r="N1365" s="20" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="V1365" s="20"/>
       <c r="W1365" s="4"/>
@@ -39700,7 +39719,7 @@
         <v>64</v>
       </c>
       <c r="H1366" s="21" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="I1366" s="4" t="s">
         <v>53</v>
@@ -39728,7 +39747,7 @@
         <v>64</v>
       </c>
       <c r="H1367" s="21" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="I1367" s="4" t="s">
         <v>53</v>
@@ -39746,7 +39765,7 @@
         <v>17</v>
       </c>
       <c r="N1367" s="20" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="V1367" s="20"/>
       <c r="W1367" s="4"/>
@@ -39756,7 +39775,7 @@
         <v>64</v>
       </c>
       <c r="H1368" s="21" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="I1368" s="4" t="s">
         <v>53</v>
@@ -39774,7 +39793,7 @@
         <v>18</v>
       </c>
       <c r="N1368" s="20" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="V1368" s="20"/>
       <c r="W1368" s="4"/>
@@ -39784,7 +39803,7 @@
         <v>64</v>
       </c>
       <c r="H1369" s="21" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="I1369" s="4" t="s">
         <v>53</v>
@@ -39802,7 +39821,7 @@
         <v>19</v>
       </c>
       <c r="N1369" s="20" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="P1369" s="18" t="s">
         <v>66</v>
@@ -39859,7 +39878,7 @@
         <v>21</v>
       </c>
       <c r="N1371" s="20" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="V1371" s="20"/>
       <c r="W1371" s="4"/>
@@ -39885,7 +39904,7 @@
         <v>22</v>
       </c>
       <c r="N1372" s="20" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="V1372" s="20"/>
       <c r="W1372" s="4"/>
@@ -39911,7 +39930,7 @@
         <v>23</v>
       </c>
       <c r="N1373" s="20" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="V1373" s="20"/>
       <c r="W1373" s="4"/>
@@ -39966,7 +39985,7 @@
         <v>25</v>
       </c>
       <c r="N1375" s="20" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="V1375" s="20"/>
       <c r="W1375" s="4"/>
@@ -39992,7 +40011,7 @@
         <v>26</v>
       </c>
       <c r="N1376" s="20" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="V1376" s="20"/>
       <c r="W1376" s="4"/>
@@ -40018,7 +40037,7 @@
         <v>27</v>
       </c>
       <c r="N1377" s="20" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="P1377" s="18" t="s">
         <v>66</v>
@@ -40049,7 +40068,7 @@
         <v>28</v>
       </c>
       <c r="N1378" s="20" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="O1378" s="2"/>
       <c r="T1378" s="29"/>
@@ -40106,7 +40125,7 @@
         <v>30</v>
       </c>
       <c r="N1380" s="20" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="V1380" s="20"/>
       <c r="W1380" s="4"/>
@@ -40132,7 +40151,7 @@
         <v>31</v>
       </c>
       <c r="N1381" s="20" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="S1381" s="23"/>
       <c r="T1381" s="29"/>
@@ -40160,7 +40179,7 @@
         <v>32</v>
       </c>
       <c r="N1382" s="21" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="O1382" s="11" t="s">
         <v>21</v>
@@ -40170,7 +40189,7 @@
         <v>70</v>
       </c>
       <c r="V1382" s="20" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="W1382" s="4"/>
     </row>
@@ -40224,7 +40243,7 @@
         <v>34</v>
       </c>
       <c r="N1384" s="20" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="V1384" s="20"/>
       <c r="W1384" s="4"/>
@@ -40250,7 +40269,7 @@
         <v>35</v>
       </c>
       <c r="N1385" s="20" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="V1385" s="20"/>
       <c r="W1385" s="4"/>
@@ -40276,7 +40295,7 @@
         <v>36</v>
       </c>
       <c r="N1386" s="20" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="P1386" s="18" t="s">
         <v>66</v>
@@ -40307,7 +40326,7 @@
         <v>37</v>
       </c>
       <c r="N1387" s="21" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="O1387" s="11" t="s">
         <v>22</v>
@@ -40336,7 +40355,7 @@
         <v>38</v>
       </c>
       <c r="N1388" s="20" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="V1388" s="20"/>
       <c r="W1388" s="4"/>
@@ -40391,7 +40410,7 @@
         <v>40</v>
       </c>
       <c r="N1390" s="20" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="V1390" s="20"/>
       <c r="W1390" s="4"/>
@@ -40417,13 +40436,13 @@
         <v>41</v>
       </c>
       <c r="N1391" s="21" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="O1391" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1391" s="20" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="W1391" s="4"/>
     </row>
@@ -40448,7 +40467,7 @@
         <v>42</v>
       </c>
       <c r="N1392" s="20" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="S1392" s="2" t="s">
         <v>63</v>
@@ -40477,7 +40496,7 @@
         <v>43</v>
       </c>
       <c r="N1393" s="20" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="V1393" s="20"/>
       <c r="W1393" s="4"/>
@@ -40503,7 +40522,7 @@
         <v>44</v>
       </c>
       <c r="N1394" s="20" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="T1394" s="29"/>
       <c r="V1394" s="20"/>
@@ -40530,7 +40549,7 @@
         <v>45</v>
       </c>
       <c r="N1395" s="20" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="T1395" s="29"/>
       <c r="U1395" s="32" t="s">
@@ -40560,7 +40579,7 @@
         <v>46</v>
       </c>
       <c r="N1396" s="20" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="P1396" s="18" t="s">
         <v>66</v>
@@ -40646,7 +40665,7 @@
         <v>49</v>
       </c>
       <c r="N1399" s="20" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="O1399" s="2"/>
       <c r="T1399" s="29"/>
@@ -40674,7 +40693,7 @@
         <v>50</v>
       </c>
       <c r="N1400" s="21" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="O1400" s="2" t="s">
         <v>21</v>
@@ -40684,7 +40703,7 @@
         <v>75</v>
       </c>
       <c r="V1400" s="20" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="W1400" s="4"/>
     </row>
@@ -40693,7 +40712,7 @@
         <v>64</v>
       </c>
       <c r="H1401" s="21" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="I1401" s="4" t="s">
         <v>54</v>
@@ -40722,7 +40741,7 @@
         <v>64</v>
       </c>
       <c r="H1402" s="21" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="I1402" s="4" t="s">
         <v>54</v>
@@ -40740,7 +40759,7 @@
         <v>52</v>
       </c>
       <c r="N1402" s="20" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="U1402" s="23" t="s">
         <v>91</v>
@@ -40753,7 +40772,7 @@
         <v>64</v>
       </c>
       <c r="H1403" s="21" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="I1403" s="4" t="s">
         <v>54</v>
@@ -40781,7 +40800,7 @@
         <v>64</v>
       </c>
       <c r="H1404" s="21" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="I1404" s="4" t="s">
         <v>54</v>
@@ -40799,13 +40818,13 @@
         <v>54</v>
       </c>
       <c r="N1404" s="21" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="S1404" s="23" t="s">
         <v>94</v>
       </c>
       <c r="T1404" s="57" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="V1404" s="20"/>
       <c r="W1404" s="4"/>
@@ -40857,7 +40876,7 @@
         <v>56</v>
       </c>
       <c r="N1406" s="20" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="V1406" s="20"/>
       <c r="W1406" s="4"/>
@@ -40912,7 +40931,7 @@
         <v>58</v>
       </c>
       <c r="N1408" s="20" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="P1408" s="18" t="s">
         <v>66</v>
@@ -41002,7 +41021,7 @@
         <v>61</v>
       </c>
       <c r="N1411" s="20" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="V1411" s="20"/>
       <c r="W1411" s="4"/>
@@ -41030,7 +41049,7 @@
         <v>62</v>
       </c>
       <c r="N1412" s="21" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="O1412" s="11" t="s">
         <v>22</v>
@@ -41092,7 +41111,7 @@
         <v>64</v>
       </c>
       <c r="N1414" s="20" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="V1414" s="20"/>
       <c r="W1414" s="4"/>
@@ -41120,7 +41139,7 @@
         <v>65</v>
       </c>
       <c r="N1415" s="20" t="s">
-        <v>1045</v>
+        <v>1044</v>
       </c>
       <c r="O1415" s="11" t="s">
         <v>22</v>
@@ -41151,7 +41170,7 @@
         <v>66</v>
       </c>
       <c r="N1416" s="20" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="S1416" s="45" t="s">
         <v>71</v>
@@ -41186,7 +41205,7 @@
         <v>67</v>
       </c>
       <c r="N1417" s="20" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="V1417" s="20"/>
       <c r="W1417" s="4"/>
@@ -41212,7 +41231,7 @@
         <v>68</v>
       </c>
       <c r="N1418" s="21" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="O1418" s="11" t="s">
         <v>21</v>
@@ -41221,7 +41240,7 @@
         <v>66</v>
       </c>
       <c r="V1418" s="20" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="W1418" s="4"/>
     </row>
@@ -41298,7 +41317,7 @@
         <v>71</v>
       </c>
       <c r="N1421" s="20" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="U1421" s="48" t="s">
         <v>68</v>
@@ -41327,13 +41346,13 @@
         <v>72</v>
       </c>
       <c r="N1422" s="21" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="O1422" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1422" s="20" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="W1422" s="4"/>
     </row>
@@ -41358,7 +41377,7 @@
         <v>73</v>
       </c>
       <c r="N1423" s="20" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="V1423" s="20"/>
       <c r="W1423" s="4"/>
@@ -41384,7 +41403,7 @@
         <v>74</v>
       </c>
       <c r="N1424" s="20" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="V1424" s="20"/>
       <c r="W1424" s="4"/>
@@ -41436,7 +41455,7 @@
         <v>76</v>
       </c>
       <c r="N1426" s="20" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="V1426" s="20"/>
       <c r="W1426" s="4"/>
@@ -41462,7 +41481,7 @@
         <v>77</v>
       </c>
       <c r="N1427" s="20" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="V1427" s="20"/>
       <c r="W1427" s="4"/>
@@ -41488,7 +41507,7 @@
         <v>78</v>
       </c>
       <c r="N1428" s="20" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="V1428" s="20"/>
       <c r="W1428" s="4"/>
@@ -41514,7 +41533,7 @@
         <v>79</v>
       </c>
       <c r="N1429" s="20" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="P1429" s="18" t="s">
         <v>66</v>
@@ -41581,7 +41600,7 @@
         <v>64</v>
       </c>
       <c r="H1432" s="61" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="I1432" s="4" t="s">
         <v>54</v>
@@ -41599,7 +41618,7 @@
         <v>82</v>
       </c>
       <c r="N1432" s="20" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="O1432" s="11" t="s">
         <v>22</v>
@@ -41612,7 +41631,7 @@
         <v>64</v>
       </c>
       <c r="H1433" s="61" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="I1433" s="4" t="s">
         <v>54</v>
@@ -41630,7 +41649,7 @@
         <v>83</v>
       </c>
       <c r="N1433" s="20" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="V1433" s="20"/>
       <c r="W1433" s="4"/>
@@ -41640,7 +41659,7 @@
         <v>64</v>
       </c>
       <c r="H1434" s="61" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="I1434" s="4" t="s">
         <v>54</v>
@@ -41671,7 +41690,7 @@
         <v>64</v>
       </c>
       <c r="H1435" s="61" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="I1435" s="4" t="s">
         <v>54</v>
@@ -41699,7 +41718,7 @@
         <v>64</v>
       </c>
       <c r="H1436" s="61" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="I1436" s="4" t="s">
         <v>54</v>
@@ -41717,7 +41736,7 @@
         <v>86</v>
       </c>
       <c r="N1436" s="20" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="S1436" s="23" t="s">
         <v>94</v>
@@ -41733,7 +41752,7 @@
         <v>64</v>
       </c>
       <c r="H1437" s="61" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="I1437" s="4" t="s">
         <v>54</v>
@@ -41751,7 +41770,7 @@
         <v>87</v>
       </c>
       <c r="N1437" s="20" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="T1437" s="29"/>
       <c r="V1437" s="20"/>
@@ -41778,7 +41797,7 @@
         <v>88</v>
       </c>
       <c r="N1438" s="20" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="V1438" s="20"/>
       <c r="W1438" s="4"/>
@@ -41867,7 +41886,7 @@
         <v>91</v>
       </c>
       <c r="N1441" s="20" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="V1441" s="20"/>
       <c r="W1441" s="4"/>
@@ -41893,7 +41912,7 @@
         <v>92</v>
       </c>
       <c r="N1442" s="20" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="V1442" s="20"/>
       <c r="W1442" s="4"/>
@@ -41919,7 +41938,7 @@
         <v>93</v>
       </c>
       <c r="N1443" s="20" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="V1443" s="20"/>
       <c r="W1443" s="4"/>
@@ -41945,7 +41964,7 @@
         <v>94</v>
       </c>
       <c r="N1444" s="20" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="V1444" s="20"/>
       <c r="W1444" s="4"/>
@@ -41971,7 +41990,7 @@
         <v>95</v>
       </c>
       <c r="N1445" s="20" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="V1445" s="20"/>
       <c r="W1445" s="4"/>
@@ -42026,7 +42045,7 @@
         <v>97</v>
       </c>
       <c r="N1447" s="20" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="S1447" s="4"/>
       <c r="V1447" s="20"/>
@@ -42085,7 +42104,7 @@
         <v>99</v>
       </c>
       <c r="N1449" s="20" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="V1449" s="20"/>
       <c r="W1449" s="4"/>
@@ -42137,7 +42156,7 @@
         <v>101</v>
       </c>
       <c r="N1451" s="20" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="V1451" s="20"/>
       <c r="W1451" s="4"/>
@@ -42163,13 +42182,13 @@
         <v>102</v>
       </c>
       <c r="N1452" s="21" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="O1452" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1452" s="20" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="W1452" s="4"/>
     </row>
@@ -42194,7 +42213,7 @@
         <v>103</v>
       </c>
       <c r="N1453" s="20" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="V1453" s="20"/>
       <c r="W1453" s="4"/>
@@ -42246,7 +42265,7 @@
         <v>105</v>
       </c>
       <c r="N1455" s="20" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="V1455" s="20"/>
       <c r="W1455" s="4"/>
@@ -42272,7 +42291,7 @@
         <v>106</v>
       </c>
       <c r="N1456" s="20" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="V1456" s="20"/>
       <c r="W1456" s="4"/>
@@ -42298,7 +42317,7 @@
         <v>107</v>
       </c>
       <c r="N1457" s="20" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="V1457" s="20"/>
       <c r="W1457" s="4"/>
@@ -42324,7 +42343,7 @@
         <v>108</v>
       </c>
       <c r="N1458" s="20" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="P1458" s="18" t="s">
         <v>66</v>
@@ -42381,7 +42400,7 @@
         <v>110</v>
       </c>
       <c r="N1460" s="20" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="V1460" s="20"/>
       <c r="W1460" s="4"/>
@@ -42407,13 +42426,13 @@
         <v>111</v>
       </c>
       <c r="N1461" s="21" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="O1461" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1461" s="20" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="W1461" s="4"/>
     </row>
@@ -42464,7 +42483,7 @@
         <v>113</v>
       </c>
       <c r="N1463" s="20" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="V1463" s="20"/>
       <c r="W1463" s="4"/>
@@ -42490,7 +42509,7 @@
         <v>114</v>
       </c>
       <c r="N1464" s="20" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="U1464" s="48" t="s">
         <v>70</v>
@@ -42548,7 +42567,7 @@
         <v>116</v>
       </c>
       <c r="N1466" s="20" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="V1466" s="20"/>
       <c r="W1466" s="4"/>
@@ -42606,7 +42625,7 @@
         <v>118</v>
       </c>
       <c r="N1468" s="20" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="P1468" s="18" t="s">
         <v>66</v>
@@ -42624,7 +42643,7 @@
         <v>64</v>
       </c>
       <c r="D1469" s="10" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="H1469" s="26"/>
       <c r="I1469" s="4" t="s">
@@ -42643,7 +42662,7 @@
         <v>119</v>
       </c>
       <c r="N1469" s="20" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="S1469" s="32" t="s">
         <v>73</v>
@@ -42761,13 +42780,13 @@
         <v>123</v>
       </c>
       <c r="N1473" s="21" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="O1473" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1473" s="20" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="W1473" s="4"/>
     </row>
@@ -42792,13 +42811,13 @@
         <v>124</v>
       </c>
       <c r="N1474" s="21" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="O1474" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1474" s="20" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="W1474" s="4"/>
     </row>
@@ -42875,7 +42894,7 @@
         <v>127</v>
       </c>
       <c r="N1477" s="20" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="V1477" s="20"/>
       <c r="W1477" s="4"/>
@@ -42953,7 +42972,7 @@
         <v>130</v>
       </c>
       <c r="N1480" s="20" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="P1480" s="18" t="s">
         <v>66</v>
@@ -42984,7 +43003,7 @@
         <v>131</v>
       </c>
       <c r="N1481" s="20" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="V1481" s="20"/>
       <c r="W1481" s="4"/>
@@ -43010,7 +43029,7 @@
         <v>132</v>
       </c>
       <c r="N1482" s="20" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="V1482" s="20"/>
       <c r="W1482" s="4"/>
@@ -43036,7 +43055,7 @@
         <v>133</v>
       </c>
       <c r="N1483" s="20" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="V1483" s="20"/>
       <c r="W1483" s="4"/>
@@ -43062,13 +43081,13 @@
         <v>134</v>
       </c>
       <c r="N1484" s="21" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="O1484" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1484" s="20" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="W1484" s="4"/>
     </row>
@@ -43145,7 +43164,7 @@
         <v>137</v>
       </c>
       <c r="N1487" s="20" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="V1487" s="20"/>
       <c r="W1487" s="4"/>
@@ -43171,13 +43190,13 @@
         <v>138</v>
       </c>
       <c r="N1488" s="21" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="O1488" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1488" s="20" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="W1488" s="4"/>
     </row>
@@ -43228,7 +43247,7 @@
         <v>140</v>
       </c>
       <c r="N1490" s="20" t="s">
-        <v>1041</v>
+        <v>1040</v>
       </c>
       <c r="V1490" s="20"/>
       <c r="W1490" s="4"/>
@@ -43254,7 +43273,7 @@
         <v>141</v>
       </c>
       <c r="N1491" s="21" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="P1491" s="18" t="s">
         <v>66</v>
@@ -43340,13 +43359,13 @@
         <v>144</v>
       </c>
       <c r="N1494" s="21" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="O1494" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1494" s="20" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="W1494" s="4"/>
     </row>
@@ -43371,7 +43390,7 @@
         <v>145</v>
       </c>
       <c r="N1495" s="20" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="V1495" s="20"/>
       <c r="W1495" s="4"/>
@@ -43400,7 +43419,7 @@
         <v>146</v>
       </c>
       <c r="N1496" s="20" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="S1496" s="4"/>
       <c r="V1496" s="20"/>
@@ -43482,7 +43501,7 @@
         <v>149</v>
       </c>
       <c r="N1499" s="20" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="V1499" s="20"/>
       <c r="W1499" s="4"/>
@@ -43508,7 +43527,7 @@
         <v>150</v>
       </c>
       <c r="N1500" s="20" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="V1500" s="20"/>
       <c r="W1500" s="4"/>
@@ -43560,7 +43579,7 @@
         <v>152</v>
       </c>
       <c r="N1502" s="20" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="P1502" s="18" t="s">
         <v>66</v>
@@ -43591,13 +43610,13 @@
         <v>153</v>
       </c>
       <c r="N1503" s="21" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="O1503" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1503" s="20" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="W1503" s="4"/>
     </row>
@@ -43648,13 +43667,13 @@
         <v>155</v>
       </c>
       <c r="N1505" s="21" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="O1505" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1505" s="20" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="W1505" s="4"/>
     </row>
@@ -43679,7 +43698,7 @@
         <v>156</v>
       </c>
       <c r="N1506" s="20" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="U1506" s="48"/>
       <c r="V1506" s="20"/>
@@ -43740,7 +43759,7 @@
         <v>158</v>
       </c>
       <c r="N1508" s="20" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="V1508" s="20"/>
       <c r="W1508" s="4"/>
@@ -43766,7 +43785,7 @@
         <v>159</v>
       </c>
       <c r="N1509" s="20" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="V1509" s="20"/>
       <c r="W1509" s="4"/>
@@ -43821,7 +43840,7 @@
         <v>161</v>
       </c>
       <c r="N1511" s="20" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="P1511" s="18" t="s">
         <v>66</v>
@@ -43904,7 +43923,7 @@
         <v>164</v>
       </c>
       <c r="N1514" s="20" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="V1514" s="20"/>
       <c r="W1514" s="4"/>
@@ -43959,7 +43978,7 @@
         <v>166</v>
       </c>
       <c r="N1516" s="20" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="V1516" s="20"/>
       <c r="W1516" s="4"/>
@@ -43969,7 +43988,7 @@
         <v>64</v>
       </c>
       <c r="H1517" s="61" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="I1517" s="4" t="s">
         <v>56</v>
@@ -44000,7 +44019,7 @@
         <v>64</v>
       </c>
       <c r="H1518" s="61" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="I1518" s="4" t="s">
         <v>56</v>
@@ -44018,7 +44037,7 @@
         <v>168</v>
       </c>
       <c r="N1518" s="21" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="V1518" s="20"/>
       <c r="W1518" s="4"/>
@@ -44029,7 +44048,7 @@
         <v>64</v>
       </c>
       <c r="H1519" s="61" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="I1519" s="4" t="s">
         <v>56</v>
@@ -44047,7 +44066,7 @@
         <v>169</v>
       </c>
       <c r="N1519" s="21" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="O1519" s="11" t="s">
         <v>21</v>
@@ -44059,7 +44078,7 @@
         <v>178</v>
       </c>
       <c r="V1519" s="20" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="W1519" s="4"/>
     </row>
@@ -44068,7 +44087,7 @@
         <v>64</v>
       </c>
       <c r="H1520" s="61" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="I1520" s="4" t="s">
         <v>56</v>
@@ -44086,7 +44105,7 @@
         <v>170</v>
       </c>
       <c r="N1520" s="20" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="V1520" s="20"/>
       <c r="W1520" s="4"/>
@@ -44096,7 +44115,7 @@
         <v>64</v>
       </c>
       <c r="H1521" s="61" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="I1521" s="4" t="s">
         <v>56</v>
@@ -44127,7 +44146,7 @@
         <v>64</v>
       </c>
       <c r="H1522" s="61" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="I1522" s="4" t="s">
         <v>56</v>
@@ -44145,7 +44164,7 @@
         <v>172</v>
       </c>
       <c r="N1522" s="20" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="P1522" s="18" t="s">
         <v>66</v>
@@ -44176,7 +44195,7 @@
         <v>173</v>
       </c>
       <c r="N1523" s="20" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="V1523" s="20"/>
       <c r="W1523" s="4"/>
@@ -44230,13 +44249,13 @@
         <v>175</v>
       </c>
       <c r="N1525" s="21" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="O1525" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1525" s="20" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="W1525" s="4"/>
     </row>
@@ -44245,7 +44264,7 @@
         <v>64</v>
       </c>
       <c r="D1526" s="10" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="H1526" s="50" t="s">
         <v>90</v>
@@ -44266,7 +44285,7 @@
         <v>176</v>
       </c>
       <c r="N1526" s="20" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="S1526" s="2" t="s">
         <v>97</v>
@@ -44282,7 +44301,7 @@
         <v>64</v>
       </c>
       <c r="D1527" s="10" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="H1527" s="50" t="s">
         <v>90</v>
@@ -44335,7 +44354,7 @@
         <v>178</v>
       </c>
       <c r="N1528" s="20" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="V1528" s="20"/>
       <c r="W1528" s="4"/>
@@ -44360,7 +44379,7 @@
         <v>179</v>
       </c>
       <c r="N1529" s="20" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="V1529" s="20"/>
       <c r="W1529" s="4"/>
@@ -44385,7 +44404,7 @@
         <v>180</v>
       </c>
       <c r="N1530" s="20" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="P1530" s="18" t="s">
         <v>66</v>
@@ -44465,13 +44484,13 @@
         <v>183</v>
       </c>
       <c r="N1533" s="21" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="O1533" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1533" s="20" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="W1533" s="4"/>
     </row>
@@ -44495,14 +44514,14 @@
         <v>184</v>
       </c>
       <c r="N1534" s="21" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="O1534" s="11" t="s">
         <v>21</v>
       </c>
       <c r="T1534" s="29"/>
       <c r="V1534" s="20" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="W1534" s="4"/>
     </row>
@@ -44554,13 +44573,13 @@
         <v>186</v>
       </c>
       <c r="N1536" s="21" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="O1536" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1536" s="20" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="W1536" s="4"/>
     </row>
@@ -44584,13 +44603,13 @@
         <v>187</v>
       </c>
       <c r="N1537" s="21" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="O1537" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1537" s="20" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="W1537" s="4"/>
     </row>
@@ -44614,7 +44633,7 @@
         <v>188</v>
       </c>
       <c r="N1538" s="20" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="P1538" s="18" t="s">
         <v>66</v>
@@ -44669,7 +44688,7 @@
         <v>190</v>
       </c>
       <c r="N1540" s="20" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="V1540" s="20"/>
       <c r="W1540" s="4"/>
@@ -44694,7 +44713,7 @@
         <v>191</v>
       </c>
       <c r="N1541" s="20" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="V1541" s="20"/>
       <c r="W1541" s="4"/>
@@ -44844,7 +44863,7 @@
         <v>197</v>
       </c>
       <c r="N1547" s="20" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="V1547" s="20"/>
       <c r="W1547" s="4"/>
@@ -44869,7 +44888,7 @@
         <v>198</v>
       </c>
       <c r="N1548" s="20" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="P1548" s="18" t="s">
         <v>66</v>
@@ -44924,7 +44943,7 @@
         <v>200</v>
       </c>
       <c r="N1550" s="20" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="V1550" s="20"/>
       <c r="W1550" s="4"/>
@@ -44949,7 +44968,7 @@
         <v>201</v>
       </c>
       <c r="N1551" s="20" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="V1551" s="20"/>
       <c r="W1551" s="4"/>
@@ -44974,13 +44993,13 @@
         <v>202</v>
       </c>
       <c r="N1552" s="21" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="O1552" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1552" s="20" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="W1552" s="4"/>
     </row>
@@ -45054,7 +45073,7 @@
         <v>205</v>
       </c>
       <c r="N1555" s="20" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="V1555" s="20"/>
       <c r="W1555" s="4"/>
@@ -45079,7 +45098,7 @@
         <v>206</v>
       </c>
       <c r="N1556" s="20" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="V1556" s="20"/>
       <c r="W1556" s="4"/>
@@ -45132,7 +45151,7 @@
         <v>208</v>
       </c>
       <c r="N1558" s="20" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="P1558" s="18" t="s">
         <v>66</v>
@@ -45252,7 +45271,7 @@
         <v>212</v>
       </c>
       <c r="N1562" s="20" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="V1562" s="20"/>
       <c r="W1562" s="4"/>
@@ -45277,7 +45296,7 @@
         <v>213</v>
       </c>
       <c r="N1563" s="20" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="V1563" s="20"/>
       <c r="W1563" s="4"/>
@@ -45305,7 +45324,7 @@
         <v>214</v>
       </c>
       <c r="N1564" s="20" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="S1564" s="2" t="s">
         <v>94</v>
@@ -45336,7 +45355,7 @@
         <v>215</v>
       </c>
       <c r="N1565" s="20" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="V1565" s="20"/>
       <c r="W1565" s="4"/>
@@ -45361,13 +45380,13 @@
         <v>216</v>
       </c>
       <c r="N1566" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="O1566" s="11" t="s">
         <v>20</v>
       </c>
       <c r="V1566" s="20" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="W1566" s="4"/>
     </row>
@@ -45391,7 +45410,7 @@
         <v>217</v>
       </c>
       <c r="N1567" s="20" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="P1567" s="18" t="s">
         <v>66</v>
@@ -45422,7 +45441,7 @@
         <v>218</v>
       </c>
       <c r="N1568" s="21" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="O1568" s="11" t="s">
         <v>21</v>
@@ -45432,7 +45451,7 @@
         <v>93</v>
       </c>
       <c r="V1568" s="20" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="W1568" s="4"/>
     </row>
@@ -45456,7 +45475,7 @@
         <v>219</v>
       </c>
       <c r="N1569" s="21" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="V1569" s="20"/>
       <c r="W1569" s="4"/>
@@ -45481,7 +45500,7 @@
         <v>220</v>
       </c>
       <c r="N1570" s="21" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="O1570" s="11" t="s">
         <v>21</v>
@@ -45489,7 +45508,7 @@
       <c r="T1570" s="29"/>
       <c r="U1570" s="20"/>
       <c r="V1570" s="20" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="W1570" s="4"/>
     </row>
@@ -45513,7 +45532,7 @@
         <v>221</v>
       </c>
       <c r="N1571" s="20" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="T1571" s="29"/>
       <c r="U1571" s="23" t="s">
@@ -45542,7 +45561,7 @@
         <v>222</v>
       </c>
       <c r="N1572" s="20" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="V1572" s="20"/>
       <c r="W1572" s="4"/>
@@ -45567,7 +45586,7 @@
         <v>223</v>
       </c>
       <c r="N1573" s="20" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="P1573" s="18" t="s">
         <v>66</v>
@@ -45622,7 +45641,7 @@
         <v>225</v>
       </c>
       <c r="N1575" s="20" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="V1575" s="20"/>
       <c r="W1575" s="4"/>
@@ -45647,7 +45666,7 @@
         <v>226</v>
       </c>
       <c r="N1576" s="20" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="V1576" s="20"/>
       <c r="W1576" s="4"/>
@@ -45657,7 +45676,7 @@
         <v>64</v>
       </c>
       <c r="H1577" s="61" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="I1577" s="4" t="s">
         <v>57</v>
@@ -45675,13 +45694,13 @@
         <v>227</v>
       </c>
       <c r="N1577" s="21" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="O1577" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1577" s="20" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="W1577" s="4"/>
     </row>
@@ -45690,7 +45709,7 @@
         <v>64</v>
       </c>
       <c r="H1578" s="61" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="I1578" s="4" t="s">
         <v>57</v>
@@ -45718,7 +45737,7 @@
         <v>64</v>
       </c>
       <c r="H1579" s="61" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="I1579" s="4" t="s">
         <v>57</v>
@@ -45746,7 +45765,7 @@
         <v>64</v>
       </c>
       <c r="H1580" s="61" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="I1580" s="4" t="s">
         <v>57</v>
@@ -45774,7 +45793,7 @@
         <v>64</v>
       </c>
       <c r="H1581" s="61" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="I1581" s="4" t="s">
         <v>57</v>
@@ -45802,7 +45821,7 @@
         <v>64</v>
       </c>
       <c r="H1582" s="61" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="I1582" s="4" t="s">
         <v>57</v>
@@ -45820,7 +45839,7 @@
         <v>232</v>
       </c>
       <c r="N1582" s="20" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="P1582" s="18" t="s">
         <v>66</v>
@@ -45875,7 +45894,7 @@
         <v>234</v>
       </c>
       <c r="N1584" s="20" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="V1584" s="20"/>
       <c r="W1584" s="4"/>
@@ -45900,7 +45919,7 @@
         <v>235</v>
       </c>
       <c r="N1585" s="20" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="V1585" s="20"/>
       <c r="W1585" s="4"/>
@@ -45913,7 +45932,7 @@
         <v>179</v>
       </c>
       <c r="E1586" s="4" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="I1586" s="4" t="s">
         <v>57</v>
@@ -45945,7 +45964,7 @@
         <v>179</v>
       </c>
       <c r="E1587" s="4" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="I1587" s="4" t="s">
         <v>57</v>
@@ -45991,7 +46010,7 @@
         <v>238</v>
       </c>
       <c r="N1588" s="20" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="V1588" s="20"/>
       <c r="W1588" s="4"/>
@@ -46016,7 +46035,7 @@
         <v>239</v>
       </c>
       <c r="N1589" s="20" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="U1589" s="32" t="s">
         <v>68</v>
@@ -46044,13 +46063,13 @@
         <v>240</v>
       </c>
       <c r="N1590" s="21" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="O1590" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1590" s="20" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="W1590" s="4"/>
     </row>
@@ -46074,7 +46093,7 @@
         <v>241</v>
       </c>
       <c r="N1591" s="20" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="P1591" s="18" t="s">
         <v>66</v>
@@ -46090,7 +46109,7 @@
         <v>64</v>
       </c>
       <c r="H1592" s="61" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="I1592" s="4" t="s">
         <v>57</v>
@@ -46108,7 +46127,7 @@
         <v>242</v>
       </c>
       <c r="N1592" s="20" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="V1592" s="20"/>
       <c r="W1592" s="4"/>
@@ -46118,10 +46137,10 @@
         <v>64</v>
       </c>
       <c r="D1593" s="10" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="H1593" s="4" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="I1593" s="4" t="s">
         <v>57</v>
@@ -46145,7 +46164,7 @@
         <v>95</v>
       </c>
       <c r="T1593" s="18" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="V1593" s="20"/>
       <c r="W1593" s="4"/>
@@ -46155,7 +46174,7 @@
         <v>64</v>
       </c>
       <c r="H1594" s="61" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="I1594" s="4" t="s">
         <v>57</v>
@@ -46173,13 +46192,13 @@
         <v>244</v>
       </c>
       <c r="N1594" s="21" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="O1594" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1594" s="20" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="W1594" s="4"/>
     </row>
@@ -46203,13 +46222,13 @@
         <v>245</v>
       </c>
       <c r="N1595" s="21" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="O1595" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1595" s="20" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="W1595" s="4"/>
     </row>
@@ -46233,7 +46252,7 @@
         <v>246</v>
       </c>
       <c r="N1596" s="20" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="V1596" s="20"/>
       <c r="W1596" s="4"/>
@@ -46243,7 +46262,7 @@
         <v>64</v>
       </c>
       <c r="H1597" s="61" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="I1597" s="4" t="s">
         <v>57</v>
@@ -46271,10 +46290,10 @@
         <v>64</v>
       </c>
       <c r="G1598" s="4" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="H1598" s="61" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="I1598" s="4" t="s">
         <v>57</v>
@@ -46292,23 +46311,23 @@
         <v>248</v>
       </c>
       <c r="N1598" s="20" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="V1598" s="20"/>
       <c r="W1598" s="4"/>
     </row>
     <row r="1599" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1599" s="4" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="C1599" s="4" t="s">
         <v>64</v>
       </c>
       <c r="G1599" s="4" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="H1599" s="61" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="I1599" s="4" t="s">
         <v>57</v>
@@ -46326,7 +46345,7 @@
         <v>249</v>
       </c>
       <c r="N1599" s="20" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="S1599" s="2" t="s">
         <v>63</v>
@@ -46339,10 +46358,10 @@
         <v>64</v>
       </c>
       <c r="G1600" s="4" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="H1600" s="61" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="I1600" s="4" t="s">
         <v>57</v>
@@ -46360,7 +46379,7 @@
         <v>250</v>
       </c>
       <c r="N1600" s="20" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="V1600" s="20"/>
       <c r="W1600" s="4"/>
@@ -46370,7 +46389,7 @@
         <v>64</v>
       </c>
       <c r="H1601" s="61" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="I1601" s="4" t="s">
         <v>58</v>
@@ -46388,7 +46407,7 @@
         <v>251</v>
       </c>
       <c r="N1601" s="20" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="P1601" s="18" t="s">
         <v>66</v>
@@ -46418,7 +46437,7 @@
         <v>252</v>
       </c>
       <c r="N1602" s="20" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="V1602" s="20"/>
       <c r="W1602" s="4"/>
@@ -46468,13 +46487,13 @@
         <v>254</v>
       </c>
       <c r="N1604" s="21" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="O1604" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1604" s="20" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="W1604" s="4"/>
     </row>
@@ -46498,7 +46517,7 @@
         <v>255</v>
       </c>
       <c r="N1605" s="20" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="V1605" s="20"/>
       <c r="W1605" s="4"/>
@@ -46548,13 +46567,13 @@
         <v>257</v>
       </c>
       <c r="N1607" s="21" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="O1607" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1607" s="21" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="W1607" s="4"/>
     </row>
@@ -46578,7 +46597,7 @@
         <v>258</v>
       </c>
       <c r="N1608" s="20" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="V1608" s="20"/>
       <c r="W1608" s="4"/>
@@ -46606,7 +46625,7 @@
         <v>259</v>
       </c>
       <c r="N1609" s="20" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="P1609" s="18" t="s">
         <v>66</v>
@@ -46637,7 +46656,7 @@
         <v>260</v>
       </c>
       <c r="N1610" s="20" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="V1610" s="20"/>
       <c r="W1610" s="4"/>
@@ -46662,7 +46681,7 @@
         <v>261</v>
       </c>
       <c r="N1611" s="20" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="V1611" s="20"/>
       <c r="W1611" s="4"/>
@@ -46687,7 +46706,7 @@
         <v>262</v>
       </c>
       <c r="N1612" s="20" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="V1612" s="20"/>
       <c r="W1612" s="4"/>
@@ -46712,13 +46731,13 @@
         <v>263</v>
       </c>
       <c r="N1613" s="21" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="O1613" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1613" s="20" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="W1613" s="4"/>
     </row>
@@ -46742,7 +46761,7 @@
         <v>264</v>
       </c>
       <c r="N1614" s="20" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="V1614" s="20"/>
       <c r="W1614" s="4"/>
@@ -46792,7 +46811,7 @@
         <v>266</v>
       </c>
       <c r="N1616" s="20" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="P1616" s="18" t="s">
         <v>66</v>
@@ -46807,7 +46826,7 @@
         <v>64</v>
       </c>
       <c r="H1617" s="61" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="I1617" s="4" t="s">
         <v>58</v>
@@ -46825,7 +46844,7 @@
         <v>267</v>
       </c>
       <c r="N1617" s="20" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="V1617" s="20"/>
       <c r="W1617" s="4"/>
@@ -46838,10 +46857,10 @@
         <v>179</v>
       </c>
       <c r="E1618" s="4" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="H1618" s="61" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="I1618" s="4" t="s">
         <v>58</v>
@@ -46873,10 +46892,10 @@
         <v>179</v>
       </c>
       <c r="E1619" s="4" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="H1619" s="61" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="I1619" s="4" t="s">
         <v>58</v>
@@ -46907,7 +46926,7 @@
         <v>64</v>
       </c>
       <c r="H1620" s="61" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="I1620" s="4" t="s">
         <v>58</v>
@@ -46925,13 +46944,13 @@
         <v>270</v>
       </c>
       <c r="N1620" s="21" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="O1620" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1620" s="20" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="W1620" s="4"/>
     </row>
@@ -46955,7 +46974,7 @@
         <v>271</v>
       </c>
       <c r="N1621" s="20" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="V1621" s="20"/>
       <c r="W1621" s="4"/>
@@ -46980,7 +46999,7 @@
         <v>272</v>
       </c>
       <c r="N1622" s="20" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="O1622" s="11" t="s">
         <v>22</v>
@@ -47008,7 +47027,7 @@
         <v>273</v>
       </c>
       <c r="N1623" s="20" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="V1623" s="20"/>
       <c r="W1623" s="4"/>
@@ -47033,7 +47052,7 @@
         <v>274</v>
       </c>
       <c r="N1624" s="20" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="V1624" s="20"/>
       <c r="W1624" s="4"/>
@@ -47058,7 +47077,7 @@
         <v>275</v>
       </c>
       <c r="N1625" s="20" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="P1625" s="18" t="s">
         <v>66</v>
@@ -47088,7 +47107,7 @@
         <v>276</v>
       </c>
       <c r="N1626" s="20" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="U1626" s="48"/>
       <c r="V1626" s="20"/>
@@ -47114,7 +47133,7 @@
         <v>277</v>
       </c>
       <c r="N1627" s="20" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="U1627" s="48" t="s">
         <v>93</v>
@@ -47142,7 +47161,7 @@
         <v>278</v>
       </c>
       <c r="N1628" s="20" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="V1628" s="20"/>
       <c r="W1628" s="4"/>
@@ -47220,7 +47239,7 @@
         <v>281</v>
       </c>
       <c r="N1631" s="20" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="V1631" s="20"/>
       <c r="W1631" s="4"/>
@@ -47245,7 +47264,7 @@
         <v>282</v>
       </c>
       <c r="N1632" s="20" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="V1632" s="20"/>
       <c r="W1632" s="4"/>
@@ -47270,14 +47289,14 @@
         <v>283</v>
       </c>
       <c r="N1633" s="21" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="O1633" s="11" t="s">
         <v>21</v>
       </c>
       <c r="U1633" s="48"/>
       <c r="V1633" s="20" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="W1633" s="4"/>
     </row>
@@ -47301,7 +47320,7 @@
         <v>284</v>
       </c>
       <c r="N1634" s="20" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="P1634" s="18" t="s">
         <v>66</v>
@@ -47334,13 +47353,13 @@
         <v>285</v>
       </c>
       <c r="N1635" s="21" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="O1635" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1635" s="20" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="W1635" s="4"/>
     </row>
@@ -47364,7 +47383,7 @@
         <v>286</v>
       </c>
       <c r="N1636" s="20" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="V1636" s="20"/>
       <c r="W1636" s="4"/>
@@ -47442,7 +47461,7 @@
         <v>289</v>
       </c>
       <c r="N1639" s="20" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="V1639" s="20"/>
       <c r="W1639" s="4"/>
@@ -47467,7 +47486,7 @@
         <v>290</v>
       </c>
       <c r="N1640" s="20" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="V1640" s="20"/>
       <c r="W1640" s="4"/>
@@ -47520,7 +47539,7 @@
         <v>292</v>
       </c>
       <c r="N1642" s="20" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="V1642" s="20"/>
       <c r="W1642" s="4"/>
@@ -47575,7 +47594,7 @@
         <v>294</v>
       </c>
       <c r="N1644" s="20" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="U1644" s="48"/>
       <c r="V1644" s="20"/>
@@ -47629,13 +47648,13 @@
         <v>296</v>
       </c>
       <c r="N1646" s="21" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="O1646" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1646" s="20" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="W1646" s="4"/>
     </row>
@@ -47659,13 +47678,13 @@
         <v>297</v>
       </c>
       <c r="N1647" s="21" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="O1647" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1647" s="20" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="W1647" s="4"/>
     </row>
@@ -47689,7 +47708,7 @@
         <v>298</v>
       </c>
       <c r="N1648" s="20" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="V1648" s="20"/>
       <c r="W1648" s="4"/>
@@ -47739,7 +47758,7 @@
         <v>300</v>
       </c>
       <c r="N1650" s="20" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="V1650" s="20"/>
       <c r="W1650" s="4"/>
@@ -47764,7 +47783,7 @@
         <v>301</v>
       </c>
       <c r="N1651" s="20" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="V1651" s="20"/>
       <c r="W1651" s="4"/>
@@ -47789,7 +47808,7 @@
         <v>302</v>
       </c>
       <c r="N1652" s="20" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="V1652" s="20"/>
       <c r="W1652" s="4"/>
@@ -47839,7 +47858,7 @@
         <v>304</v>
       </c>
       <c r="N1654" s="20" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="P1654" s="18" t="s">
         <v>66</v>
@@ -47897,7 +47916,7 @@
         <v>306</v>
       </c>
       <c r="N1656" s="20" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="V1656" s="20"/>
       <c r="W1656" s="4"/>
@@ -47922,7 +47941,7 @@
         <v>307</v>
       </c>
       <c r="N1657" s="20" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="V1657" s="20"/>
       <c r="W1657" s="4"/>
@@ -47947,7 +47966,7 @@
         <v>308</v>
       </c>
       <c r="N1658" s="20" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="V1658" s="20"/>
       <c r="W1658" s="4"/>
@@ -47997,7 +48016,7 @@
         <v>310</v>
       </c>
       <c r="N1660" s="20" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="V1660" s="20"/>
       <c r="W1660" s="4"/>
@@ -48047,7 +48066,7 @@
         <v>312</v>
       </c>
       <c r="N1662" s="20" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="V1662" s="20"/>
       <c r="W1662" s="4"/>
@@ -48072,7 +48091,7 @@
         <v>313</v>
       </c>
       <c r="N1663" s="21" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="O1663" s="11" t="s">
         <v>21</v>
@@ -48081,7 +48100,7 @@
         <v>66</v>
       </c>
       <c r="V1663" s="20" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="W1663" s="4"/>
     </row>
@@ -48133,7 +48152,7 @@
         <v>315</v>
       </c>
       <c r="N1665" s="20" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="V1665" s="20"/>
       <c r="W1665" s="4"/>
@@ -48158,7 +48177,7 @@
         <v>316</v>
       </c>
       <c r="N1666" s="20" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="V1666" s="20"/>
       <c r="W1666" s="4"/>
@@ -48183,7 +48202,7 @@
         <v>317</v>
       </c>
       <c r="N1667" s="20" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="V1667" s="20"/>
       <c r="W1667" s="4"/>
@@ -48208,13 +48227,13 @@
         <v>318</v>
       </c>
       <c r="N1668" s="21" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="O1668" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1668" s="20" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="W1668" s="4"/>
     </row>
@@ -48238,7 +48257,7 @@
         <v>319</v>
       </c>
       <c r="N1669" s="20" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="V1669" s="20"/>
       <c r="W1669" s="4"/>
@@ -48263,7 +48282,7 @@
         <v>320</v>
       </c>
       <c r="N1670" s="21" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="O1670" s="11" t="s">
         <v>23</v>
@@ -48293,7 +48312,7 @@
         <v>321</v>
       </c>
       <c r="N1671" s="20" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="V1671" s="20"/>
       <c r="W1671" s="4"/>
@@ -48318,7 +48337,7 @@
         <v>322</v>
       </c>
       <c r="N1672" s="21" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="O1672" s="11" t="s">
         <v>21</v>
@@ -48327,7 +48346,7 @@
         <v>66</v>
       </c>
       <c r="V1672" s="20" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="W1672" s="4"/>
     </row>
@@ -48351,7 +48370,7 @@
         <v>323</v>
       </c>
       <c r="N1673" s="20" t="s">
-        <v>1015</v>
+        <v>1014</v>
       </c>
       <c r="V1673" s="20"/>
       <c r="W1673" s="4"/>
@@ -48361,10 +48380,10 @@
         <v>64</v>
       </c>
       <c r="D1674" s="10" t="s">
+        <v>1424</v>
+      </c>
+      <c r="G1674" s="4" t="s">
         <v>1425</v>
-      </c>
-      <c r="G1674" s="4" t="s">
-        <v>1426</v>
       </c>
       <c r="I1674" s="4" t="s">
         <v>59</v>
@@ -48382,7 +48401,7 @@
         <v>324</v>
       </c>
       <c r="N1674" s="20" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="V1674" s="20"/>
       <c r="W1674" s="4"/>
@@ -48392,10 +48411,10 @@
         <v>64</v>
       </c>
       <c r="D1675" s="10" t="s">
+        <v>1424</v>
+      </c>
+      <c r="G1675" s="4" t="s">
         <v>1425</v>
-      </c>
-      <c r="G1675" s="4" t="s">
-        <v>1426</v>
       </c>
       <c r="I1675" s="4" t="s">
         <v>59</v>
@@ -48426,10 +48445,10 @@
         <v>64</v>
       </c>
       <c r="D1676" s="10" t="s">
+        <v>1424</v>
+      </c>
+      <c r="G1676" s="4" t="s">
         <v>1425</v>
-      </c>
-      <c r="G1676" s="4" t="s">
-        <v>1426</v>
       </c>
       <c r="I1676" s="4" t="s">
         <v>59</v>
@@ -48447,7 +48466,7 @@
         <v>326</v>
       </c>
       <c r="N1676" s="20" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="S1676" s="2" t="s">
         <v>97</v>
@@ -48503,13 +48522,13 @@
         <v>328</v>
       </c>
       <c r="N1678" s="21" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="O1678" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1678" s="20" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="W1678" s="4"/>
     </row>
@@ -48518,7 +48537,7 @@
         <v>64</v>
       </c>
       <c r="H1679" s="61" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="I1679" s="4" t="s">
         <v>59</v>
@@ -48536,7 +48555,7 @@
         <v>329</v>
       </c>
       <c r="N1679" s="20" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="V1679" s="20"/>
       <c r="W1679" s="4"/>
@@ -48546,7 +48565,7 @@
         <v>64</v>
       </c>
       <c r="H1680" s="61" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="I1680" s="4" t="s">
         <v>59</v>
@@ -48564,7 +48583,7 @@
         <v>330</v>
       </c>
       <c r="N1680" s="20" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="V1680" s="20"/>
       <c r="W1680" s="4"/>
@@ -48574,7 +48593,7 @@
         <v>64</v>
       </c>
       <c r="H1681" s="61" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="I1681" s="4" t="s">
         <v>59</v>
@@ -48607,7 +48626,7 @@
         <v>64</v>
       </c>
       <c r="H1682" s="61" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="I1682" s="4" t="s">
         <v>59</v>
@@ -48625,7 +48644,7 @@
         <v>332</v>
       </c>
       <c r="N1682" s="20" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="V1682" s="20"/>
       <c r="W1682" s="4"/>
@@ -48635,7 +48654,7 @@
         <v>64</v>
       </c>
       <c r="H1683" s="61" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="I1683" s="4" t="s">
         <v>59</v>
@@ -48653,7 +48672,7 @@
         <v>333</v>
       </c>
       <c r="N1683" s="20" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="V1683" s="20"/>
       <c r="W1683" s="4"/>
@@ -48663,7 +48682,7 @@
         <v>64</v>
       </c>
       <c r="H1684" s="61" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="I1684" s="4" t="s">
         <v>59</v>
@@ -48691,7 +48710,7 @@
         <v>64</v>
       </c>
       <c r="H1685" s="61" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="I1685" s="4" t="s">
         <v>59</v>
@@ -48722,7 +48741,7 @@
         <v>64</v>
       </c>
       <c r="H1686" s="61" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="I1686" s="4" t="s">
         <v>59</v>
@@ -48740,7 +48759,7 @@
         <v>336</v>
       </c>
       <c r="N1686" s="20" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="V1686" s="20"/>
       <c r="W1686" s="4"/>
@@ -48765,7 +48784,7 @@
         <v>337</v>
       </c>
       <c r="N1687" s="20" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="V1687" s="20"/>
       <c r="W1687" s="4"/>
@@ -48790,7 +48809,7 @@
         <v>338</v>
       </c>
       <c r="N1688" s="20" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="V1688" s="20"/>
       <c r="W1688" s="4"/>
@@ -48815,7 +48834,7 @@
         <v>339</v>
       </c>
       <c r="N1689" s="20" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="V1689" s="20"/>
       <c r="W1689" s="4"/>
@@ -48840,14 +48859,14 @@
         <v>340</v>
       </c>
       <c r="N1690" s="21" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="O1690" s="11" t="s">
         <v>21</v>
       </c>
       <c r="U1690" s="20"/>
       <c r="V1690" s="20" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="W1690" s="4"/>
     </row>
@@ -48871,7 +48890,7 @@
         <v>341</v>
       </c>
       <c r="N1691" s="20" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="P1691" s="18" t="s">
         <v>66</v>

--- a/TS Jatai Working/Padam Input Templates/TS 1.2 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 1.2 Padam Input Template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF3F60D5-13A1-45A8-AAC1-F8FDC6171591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238D72B1-55DD-41D4-BD44-8D0CDCEDE955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3499,9 +3499,6 @@
     <t>kRuqNuqShvaq</t>
   </si>
   <si>
-    <t>daivyA#nI</t>
-  </si>
-  <si>
     <t>sthiqrA</t>
   </si>
   <si>
@@ -3679,9 +3676,6 @@
     <t>uqpaqyAti#</t>
   </si>
   <si>
-    <t>uqpaqyAtityu#pa - yAti#</t>
-  </si>
-  <si>
     <t>vasu#matA</t>
   </si>
   <si>
@@ -4052,9 +4046,6 @@
   </si>
   <si>
     <t>uqlkAH</t>
-  </si>
-  <si>
-    <t>ada#bdaH</t>
   </si>
   <si>
     <t>tiqgmaqheqteq</t>
@@ -4585,6 +4576,64 @@
         <family val="2"/>
       </rPr>
       <t>ndra - GoqShaH</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>ada#b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>dha</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>H</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>daivyA#</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ni</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>uqpaqyA</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>tIt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>yu#pa - yAti#</t>
     </r>
   </si>
 </sst>
@@ -5210,9 +5259,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W1691"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="S1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1145" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V1148" sqref="V1148"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1527" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V1536" sqref="V1536"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5244,7 +5293,7 @@
         <v>62</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>1436</v>
+        <v>1433</v>
       </c>
       <c r="C1" s="33" t="s">
         <v>0</v>
@@ -5298,7 +5347,7 @@
         <v>188</v>
       </c>
       <c r="T1" s="56" t="s">
-        <v>1434</v>
+        <v>1431</v>
       </c>
       <c r="U1" s="51" t="s">
         <v>16</v>
@@ -5958,7 +6007,7 @@
         <v>18</v>
       </c>
       <c r="N19" s="70" t="s">
-        <v>1441</v>
+        <v>1438</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>21</v>
@@ -8343,7 +8392,7 @@
     </row>
     <row r="90" spans="1:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H90" s="4" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="I90" s="4" t="s">
         <v>27</v>
@@ -8386,7 +8435,7 @@
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
       <c r="H91" s="4" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="I91" s="4" t="s">
         <v>27</v>
@@ -8426,7 +8475,7 @@
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
       <c r="H92" s="4" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="I92" s="4" t="s">
         <v>27</v>
@@ -8457,7 +8506,7 @@
     </row>
     <row r="93" spans="1:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H93" s="4" t="s">
-        <v>1371</v>
+        <v>1368</v>
       </c>
       <c r="I93" s="4" t="s">
         <v>27</v>
@@ -8597,7 +8646,7 @@
         <v>20</v>
       </c>
       <c r="V98" s="71" t="s">
-        <v>1442</v>
+        <v>1439</v>
       </c>
       <c r="W98" s="4"/>
     </row>
@@ -8719,7 +8768,7 @@
     </row>
     <row r="104" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H104" s="4" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="I104" s="4" t="s">
         <v>27</v>
@@ -8749,7 +8798,7 @@
     </row>
     <row r="105" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H105" s="4" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="I105" s="4" t="s">
         <v>27</v>
@@ -8774,7 +8823,7 @@
     </row>
     <row r="106" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H106" s="4" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="I106" s="4" t="s">
         <v>27</v>
@@ -8799,7 +8848,7 @@
     </row>
     <row r="107" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H107" s="4" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="I107" s="4" t="s">
         <v>27</v>
@@ -8824,7 +8873,7 @@
     </row>
     <row r="108" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H108" s="4" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="I108" s="4" t="s">
         <v>27</v>
@@ -8849,7 +8898,7 @@
     </row>
     <row r="109" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H109" s="4" t="s">
-        <v>1372</v>
+        <v>1369</v>
       </c>
       <c r="I109" s="4" t="s">
         <v>27</v>
@@ -9801,7 +9850,7 @@
     </row>
     <row r="150" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H150" s="4" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="I150" s="4" t="s">
         <v>28</v>
@@ -9826,7 +9875,7 @@
     </row>
     <row r="151" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H151" s="4" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="I151" s="4" t="s">
         <v>28</v>
@@ -9858,7 +9907,7 @@
     </row>
     <row r="152" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H152" s="4" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="I152" s="4" t="s">
         <v>28</v>
@@ -9888,7 +9937,7 @@
     </row>
     <row r="153" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H153" s="4" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="I153" s="4" t="s">
         <v>28</v>
@@ -9913,7 +9962,7 @@
     </row>
     <row r="154" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H154" s="4" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="I154" s="4" t="s">
         <v>28</v>
@@ -9943,7 +9992,7 @@
     </row>
     <row r="155" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H155" s="4" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="I155" s="4" t="s">
         <v>28</v>
@@ -9968,7 +10017,7 @@
     </row>
     <row r="156" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H156" s="4" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="I156" s="4" t="s">
         <v>28</v>
@@ -9996,7 +10045,7 @@
     </row>
     <row r="157" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H157" s="4" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="I157" s="4" t="s">
         <v>28</v>
@@ -10021,7 +10070,7 @@
     </row>
     <row r="158" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H158" s="4" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="I158" s="4" t="s">
         <v>28</v>
@@ -10051,7 +10100,7 @@
     </row>
     <row r="159" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H159" s="4" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="I159" s="4" t="s">
         <v>28</v>
@@ -10076,7 +10125,7 @@
     </row>
     <row r="160" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H160" s="4" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="I160" s="4" t="s">
         <v>29</v>
@@ -10101,7 +10150,7 @@
     </row>
     <row r="161" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H161" s="4" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="I161" s="4" t="s">
         <v>29</v>
@@ -10129,7 +10178,7 @@
     </row>
     <row r="162" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H162" s="4" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="I162" s="4" t="s">
         <v>29</v>
@@ -10154,7 +10203,7 @@
     </row>
     <row r="163" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H163" s="4" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="I163" s="4" t="s">
         <v>29</v>
@@ -10179,7 +10228,7 @@
     </row>
     <row r="164" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H164" s="4" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="I164" s="4" t="s">
         <v>29</v>
@@ -10209,7 +10258,7 @@
     </row>
     <row r="165" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H165" s="4" t="s">
-        <v>1373</v>
+        <v>1370</v>
       </c>
       <c r="I165" s="4" t="s">
         <v>29</v>
@@ -10610,7 +10659,7 @@
     </row>
     <row r="182" spans="7:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H182" s="4" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="I182" s="4" t="s">
         <v>29</v>
@@ -10635,7 +10684,7 @@
     </row>
     <row r="183" spans="7:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H183" s="4" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="I183" s="4" t="s">
         <v>29</v>
@@ -10660,10 +10709,10 @@
     </row>
     <row r="184" spans="7:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G184" s="4" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="I184" s="4" t="s">
         <v>29</v>
@@ -10688,10 +10737,10 @@
     </row>
     <row r="185" spans="7:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G185" s="4" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="I185" s="4" t="s">
         <v>29</v>
@@ -10716,10 +10765,10 @@
     </row>
     <row r="186" spans="7:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G186" s="4" t="s">
-        <v>1428</v>
+        <v>1425</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="I186" s="4" t="s">
         <v>29</v>
@@ -10749,7 +10798,7 @@
     </row>
     <row r="187" spans="7:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H187" s="4" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="I187" s="4" t="s">
         <v>29</v>
@@ -10774,7 +10823,7 @@
     </row>
     <row r="188" spans="7:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H188" s="4" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="I188" s="4" t="s">
         <v>29</v>
@@ -10799,7 +10848,7 @@
     </row>
     <row r="189" spans="7:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H189" s="4" t="s">
-        <v>1374</v>
+        <v>1371</v>
       </c>
       <c r="I189" s="4" t="s">
         <v>29</v>
@@ -11190,7 +11239,7 @@
         <v>96</v>
       </c>
       <c r="N205" s="71" t="s">
-        <v>1443</v>
+        <v>1440</v>
       </c>
       <c r="V205" s="20"/>
       <c r="W205" s="4"/>
@@ -11557,7 +11606,7 @@
     </row>
     <row r="221" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H221" s="61" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="I221" s="4" t="s">
         <v>30</v>
@@ -11583,7 +11632,7 @@
     </row>
     <row r="222" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H222" s="61" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="I222" s="4" t="s">
         <v>30</v>
@@ -11609,7 +11658,7 @@
     </row>
     <row r="223" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H223" s="61" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="I223" s="4" t="s">
         <v>30</v>
@@ -11634,7 +11683,7 @@
     </row>
     <row r="224" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H224" s="61" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="I224" s="4" t="s">
         <v>30</v>
@@ -11659,7 +11708,7 @@
     </row>
     <row r="225" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H225" s="61" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="I225" s="4" t="s">
         <v>30</v>
@@ -11687,7 +11736,7 @@
     </row>
     <row r="226" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H226" s="61" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="I226" s="4" t="s">
         <v>30</v>
@@ -11718,7 +11767,7 @@
     <row r="227" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D227" s="12"/>
       <c r="H227" s="61" t="s">
-        <v>1375</v>
+        <v>1372</v>
       </c>
       <c r="I227" s="4" t="s">
         <v>30</v>
@@ -12285,7 +12334,7 @@
         <v>11</v>
       </c>
       <c r="N250" s="20" t="s">
-        <v>1317</v>
+        <v>1315</v>
       </c>
       <c r="P250" s="18" t="s">
         <v>66</v>
@@ -12669,7 +12718,7 @@
     </row>
     <row r="267" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E267" s="63" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="I267" s="4" t="s">
         <v>31</v>
@@ -12697,7 +12746,7 @@
     </row>
     <row r="268" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E268" s="63" t="s">
-        <v>1430</v>
+        <v>1427</v>
       </c>
       <c r="I268" s="4" t="s">
         <v>31</v>
@@ -13000,7 +13049,7 @@
         <v>41</v>
       </c>
       <c r="N280" s="20" t="s">
-        <v>1318</v>
+        <v>1316</v>
       </c>
       <c r="P280" s="18" t="s">
         <v>66</v>
@@ -13035,7 +13084,7 @@
     </row>
     <row r="282" spans="4:23" ht="18" x14ac:dyDescent="0.25">
       <c r="F282" s="4" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="I282" s="4" t="s">
         <v>31</v>
@@ -13064,7 +13113,7 @@
     </row>
     <row r="283" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F283" s="4" t="s">
-        <v>1432</v>
+        <v>1429</v>
       </c>
       <c r="I283" s="4" t="s">
         <v>31</v>
@@ -13274,7 +13323,7 @@
         <v>52</v>
       </c>
       <c r="N291" s="21" t="s">
-        <v>1319</v>
+        <v>1317</v>
       </c>
       <c r="P291" s="18" t="s">
         <v>66</v>
@@ -13628,7 +13677,7 @@
     </row>
     <row r="306" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H306" s="61" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="I306" s="4" t="s">
         <v>32</v>
@@ -13654,7 +13703,7 @@
     </row>
     <row r="307" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H307" s="61" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="I307" s="4" t="s">
         <v>32</v>
@@ -13679,7 +13728,7 @@
     </row>
     <row r="308" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H308" s="61" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="I308" s="4" t="s">
         <v>32</v>
@@ -13704,7 +13753,7 @@
     </row>
     <row r="309" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H309" s="61" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="I309" s="4" t="s">
         <v>32</v>
@@ -13732,7 +13781,7 @@
     </row>
     <row r="310" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H310" s="61" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="I310" s="4" t="s">
         <v>32</v>
@@ -13757,7 +13806,7 @@
     </row>
     <row r="311" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H311" s="61" t="s">
-        <v>1376</v>
+        <v>1373</v>
       </c>
       <c r="I311" s="4" t="s">
         <v>32</v>
@@ -13850,7 +13899,7 @@
     </row>
     <row r="315" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H315" s="61" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="I315" s="4" t="s">
         <v>32</v>
@@ -13878,7 +13927,7 @@
     </row>
     <row r="316" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H316" s="61" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="I316" s="4" t="s">
         <v>32</v>
@@ -13904,7 +13953,7 @@
     </row>
     <row r="317" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H317" s="61" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="I317" s="4" t="s">
         <v>32</v>
@@ -13929,7 +13978,7 @@
     </row>
     <row r="318" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H318" s="61" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="I318" s="4" t="s">
         <v>32</v>
@@ -13954,7 +14003,7 @@
     </row>
     <row r="319" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H319" s="61" t="s">
-        <v>1377</v>
+        <v>1374</v>
       </c>
       <c r="I319" s="4" t="s">
         <v>32</v>
@@ -14827,7 +14876,7 @@
     </row>
     <row r="358" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H358" s="61" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="I358" s="4" t="s">
         <v>33</v>
@@ -14852,7 +14901,7 @@
     </row>
     <row r="359" spans="2:23" ht="18" x14ac:dyDescent="0.25">
       <c r="H359" s="61" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="I359" s="4" t="s">
         <v>33</v>
@@ -14879,7 +14928,7 @@
     </row>
     <row r="360" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H360" s="61" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="I360" s="4" t="s">
         <v>33</v>
@@ -14908,7 +14957,7 @@
     </row>
     <row r="361" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H361" s="61" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="I361" s="4" t="s">
         <v>33</v>
@@ -14933,7 +14982,7 @@
     </row>
     <row r="362" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H362" s="61" t="s">
-        <v>1378</v>
+        <v>1375</v>
       </c>
       <c r="I362" s="4" t="s">
         <v>33</v>
@@ -15028,7 +15077,7 @@
         <v>21</v>
       </c>
       <c r="V365" s="71" t="s">
-        <v>1444</v>
+        <v>1441</v>
       </c>
       <c r="W365" s="4"/>
     </row>
@@ -15056,7 +15105,7 @@
     </row>
     <row r="367" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H367" s="61" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="I367" s="4" t="s">
         <v>33</v>
@@ -15081,7 +15130,7 @@
     </row>
     <row r="368" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H368" s="61" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="I368" s="4" t="s">
         <v>33</v>
@@ -15106,7 +15155,7 @@
     </row>
     <row r="369" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H369" s="61" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="I369" s="4" t="s">
         <v>33</v>
@@ -15131,7 +15180,7 @@
     </row>
     <row r="370" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H370" s="61" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="I370" s="4" t="s">
         <v>33</v>
@@ -15159,7 +15208,7 @@
     </row>
     <row r="371" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H371" s="61" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="I371" s="4" t="s">
         <v>33</v>
@@ -15184,7 +15233,7 @@
     </row>
     <row r="372" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H372" s="61" t="s">
-        <v>1379</v>
+        <v>1376</v>
       </c>
       <c r="I372" s="4" t="s">
         <v>33</v>
@@ -15442,7 +15491,7 @@
     </row>
     <row r="383" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H383" s="61" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="I383" s="4" t="s">
         <v>33</v>
@@ -15472,7 +15521,7 @@
     </row>
     <row r="384" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H384" s="61" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="I384" s="4" t="s">
         <v>33</v>
@@ -15500,7 +15549,7 @@
         <v>180</v>
       </c>
       <c r="H385" s="61" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="I385" s="4" t="s">
         <v>33</v>
@@ -15528,7 +15577,7 @@
     </row>
     <row r="386" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H386" s="61" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="I386" s="4" t="s">
         <v>33</v>
@@ -15553,7 +15602,7 @@
     </row>
     <row r="387" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H387" s="61" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="I387" s="4" t="s">
         <v>33</v>
@@ -15578,7 +15627,7 @@
     </row>
     <row r="388" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H388" s="61" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="I388" s="4" t="s">
         <v>33</v>
@@ -15606,7 +15655,7 @@
     </row>
     <row r="389" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H389" s="61" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="I389" s="4" t="s">
         <v>33</v>
@@ -15631,7 +15680,7 @@
     </row>
     <row r="390" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H390" s="61" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="I390" s="4" t="s">
         <v>33</v>
@@ -15656,7 +15705,7 @@
     </row>
     <row r="391" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H391" s="61" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="I391" s="4" t="s">
         <v>33</v>
@@ -15684,7 +15733,7 @@
     </row>
     <row r="392" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H392" s="61" t="s">
-        <v>1380</v>
+        <v>1377</v>
       </c>
       <c r="I392" s="4" t="s">
         <v>33</v>
@@ -15807,7 +15856,7 @@
     </row>
     <row r="397" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H397" s="61" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="I397" s="4" t="s">
         <v>33</v>
@@ -15835,7 +15884,7 @@
     </row>
     <row r="398" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H398" s="61" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="I398" s="4" t="s">
         <v>33</v>
@@ -15861,7 +15910,7 @@
     </row>
     <row r="399" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H399" s="61" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="I399" s="4" t="s">
         <v>33</v>
@@ -15886,7 +15935,7 @@
     </row>
     <row r="400" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H400" s="61" t="s">
-        <v>1381</v>
+        <v>1378</v>
       </c>
       <c r="I400" s="4" t="s">
         <v>33</v>
@@ -16236,7 +16285,7 @@
         <v>175</v>
       </c>
       <c r="N414" s="20" t="s">
-        <v>1320</v>
+        <v>1318</v>
       </c>
       <c r="P414" s="18" t="s">
         <v>66</v>
@@ -16380,7 +16429,7 @@
     </row>
     <row r="421" spans="6:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F421" s="4" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="I421" s="4" t="s">
         <v>34</v>
@@ -16405,7 +16454,7 @@
     </row>
     <row r="422" spans="6:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F422" s="4" t="s">
-        <v>1431</v>
+        <v>1428</v>
       </c>
       <c r="I422" s="4" t="s">
         <v>34</v>
@@ -17032,7 +17081,7 @@
         <v>62</v>
       </c>
       <c r="H449" s="61" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="I449" s="4" t="s">
         <v>34</v>
@@ -17060,7 +17109,7 @@
         <v>62</v>
       </c>
       <c r="H450" s="61" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="I450" s="4" t="s">
         <v>34</v>
@@ -17088,7 +17137,7 @@
     </row>
     <row r="451" spans="1:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H451" s="61" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="I451" s="4" t="s">
         <v>34</v>
@@ -17113,7 +17162,7 @@
     </row>
     <row r="452" spans="1:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H452" s="61" t="s">
-        <v>1382</v>
+        <v>1379</v>
       </c>
       <c r="I452" s="4" t="s">
         <v>34</v>
@@ -17492,7 +17541,7 @@
     </row>
     <row r="469" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H469" s="61" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="I469" s="4" t="s">
         <v>35</v>
@@ -17517,7 +17566,7 @@
     </row>
     <row r="470" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H470" s="61" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="I470" s="4" t="s">
         <v>35</v>
@@ -17543,7 +17592,7 @@
     </row>
     <row r="471" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H471" s="61" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="I471" s="4" t="s">
         <v>35</v>
@@ -17568,7 +17617,7 @@
     </row>
     <row r="472" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H472" s="61" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="I472" s="4" t="s">
         <v>35</v>
@@ -17598,7 +17647,7 @@
     </row>
     <row r="473" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H473" s="61" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="I473" s="4" t="s">
         <v>35</v>
@@ -17624,7 +17673,7 @@
     </row>
     <row r="474" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H474" s="61" t="s">
-        <v>1383</v>
+        <v>1380</v>
       </c>
       <c r="I474" s="4" t="s">
         <v>35</v>
@@ -17664,7 +17713,7 @@
         <v>61</v>
       </c>
       <c r="N475" s="70" t="s">
-        <v>1445</v>
+        <v>1442</v>
       </c>
       <c r="O475" s="11" t="s">
         <v>21</v>
@@ -17691,7 +17740,7 @@
         <v>62</v>
       </c>
       <c r="N476" s="70" t="s">
-        <v>1446</v>
+        <v>1443</v>
       </c>
       <c r="O476" s="11" t="s">
         <v>21</v>
@@ -18283,7 +18332,7 @@
     </row>
     <row r="502" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H502" s="61" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="I502" s="4" t="s">
         <v>35</v>
@@ -18308,7 +18357,7 @@
     </row>
     <row r="503" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H503" s="61" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="I503" s="4" t="s">
         <v>35</v>
@@ -18333,7 +18382,7 @@
     </row>
     <row r="504" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H504" s="61" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="I504" s="4" t="s">
         <v>35</v>
@@ -18358,7 +18407,7 @@
     </row>
     <row r="505" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H505" s="61" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="I505" s="4" t="s">
         <v>35</v>
@@ -18383,7 +18432,7 @@
     </row>
     <row r="506" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H506" s="61" t="s">
-        <v>1384</v>
+        <v>1381</v>
       </c>
       <c r="I506" s="4" t="s">
         <v>35</v>
@@ -18595,7 +18644,7 @@
         <v>181</v>
       </c>
       <c r="H515" s="61" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="I515" s="4" t="s">
         <v>35</v>
@@ -18626,7 +18675,7 @@
     </row>
     <row r="516" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H516" s="61" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="I516" s="4" t="s">
         <v>35</v>
@@ -18654,7 +18703,7 @@
     </row>
     <row r="517" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H517" s="61" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="I517" s="4" t="s">
         <v>35</v>
@@ -18679,7 +18728,7 @@
     </row>
     <row r="518" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H518" s="61" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="I518" s="4" t="s">
         <v>35</v>
@@ -18704,7 +18753,7 @@
     </row>
     <row r="519" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H519" s="61" t="s">
-        <v>1385</v>
+        <v>1382</v>
       </c>
       <c r="I519" s="4" t="s">
         <v>35</v>
@@ -18722,7 +18771,7 @@
         <v>105</v>
       </c>
       <c r="N519" s="20" t="s">
-        <v>1321</v>
+        <v>1319</v>
       </c>
       <c r="P519" s="18" t="s">
         <v>66</v>
@@ -19713,7 +19762,7 @@
         <v>43</v>
       </c>
       <c r="N562" s="20" t="s">
-        <v>1437</v>
+        <v>1434</v>
       </c>
       <c r="V562" s="20"/>
       <c r="W562" s="4"/>
@@ -20045,7 +20094,7 @@
     </row>
     <row r="577" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E577" s="4" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="I577" s="4" t="s">
         <v>37</v>
@@ -20070,10 +20119,10 @@
     </row>
     <row r="578" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E578" s="4" t="s">
-        <v>1419</v>
+        <v>1416</v>
       </c>
       <c r="H578" s="61" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="I578" s="4" t="s">
         <v>37</v>
@@ -20101,7 +20150,7 @@
     </row>
     <row r="579" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H579" s="61" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="I579" s="4" t="s">
         <v>37</v>
@@ -20126,7 +20175,7 @@
     </row>
     <row r="580" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H580" s="61" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="I580" s="4" t="s">
         <v>37</v>
@@ -20151,7 +20200,7 @@
     </row>
     <row r="581" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H581" s="61" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="I581" s="4" t="s">
         <v>37</v>
@@ -20176,7 +20225,7 @@
     </row>
     <row r="582" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H582" s="61" t="s">
-        <v>1386</v>
+        <v>1383</v>
       </c>
       <c r="I582" s="4" t="s">
         <v>37</v>
@@ -20216,7 +20265,7 @@
         <v>64</v>
       </c>
       <c r="N583" s="70" t="s">
-        <v>1447</v>
+        <v>1444</v>
       </c>
       <c r="V583" s="20"/>
       <c r="W583" s="4"/>
@@ -20565,7 +20614,7 @@
         <v>79</v>
       </c>
       <c r="N598" s="20" t="s">
-        <v>1322</v>
+        <v>1320</v>
       </c>
       <c r="P598" s="18" t="s">
         <v>66</v>
@@ -20577,7 +20626,7 @@
     </row>
     <row r="599" spans="4:23" ht="18" x14ac:dyDescent="0.25">
       <c r="H599" s="61" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="I599" s="4" t="s">
         <v>38</v>
@@ -20606,10 +20655,10 @@
         <v>179</v>
       </c>
       <c r="G600" s="4" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="H600" s="61" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="I600" s="4" t="s">
         <v>38</v>
@@ -20638,10 +20687,10 @@
         <v>179</v>
       </c>
       <c r="G601" s="4" t="s">
-        <v>1423</v>
+        <v>1420</v>
       </c>
       <c r="H601" s="61" t="s">
-        <v>1387</v>
+        <v>1384</v>
       </c>
       <c r="I601" s="4" t="s">
         <v>38</v>
@@ -20827,7 +20876,7 @@
     </row>
     <row r="609" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H609" s="61" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="I609" s="4" t="s">
         <v>38</v>
@@ -20852,7 +20901,7 @@
     </row>
     <row r="610" spans="4:23" ht="18" x14ac:dyDescent="0.25">
       <c r="H610" s="61" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="I610" s="4" t="s">
         <v>38</v>
@@ -20882,7 +20931,7 @@
         <v>180</v>
       </c>
       <c r="H611" s="61" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="I611" s="4" t="s">
         <v>38</v>
@@ -20915,7 +20964,7 @@
     </row>
     <row r="612" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H612" s="61" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="I612" s="4" t="s">
         <v>38</v>
@@ -20940,7 +20989,7 @@
     </row>
     <row r="613" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H613" s="61" t="s">
-        <v>1388</v>
+        <v>1385</v>
       </c>
       <c r="I613" s="4" t="s">
         <v>38</v>
@@ -21602,7 +21651,7 @@
         <v>41</v>
       </c>
       <c r="N639" s="20" t="s">
-        <v>1323</v>
+        <v>1321</v>
       </c>
       <c r="P639" s="18" t="s">
         <v>66</v>
@@ -21767,7 +21816,7 @@
     </row>
     <row r="646" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H646" s="61" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="I646" s="4" t="s">
         <v>38</v>
@@ -21797,7 +21846,7 @@
     </row>
     <row r="647" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H647" s="61" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="I647" s="4" t="s">
         <v>38</v>
@@ -21826,7 +21875,7 @@
       </c>
       <c r="D648" s="62"/>
       <c r="H648" s="61" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="I648" s="4" t="s">
         <v>38</v>
@@ -21861,7 +21910,7 @@
     <row r="649" spans="2:23" ht="18" x14ac:dyDescent="0.25">
       <c r="D649" s="62"/>
       <c r="H649" s="61" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="I649" s="4" t="s">
         <v>38</v>
@@ -21892,7 +21941,7 @@
     <row r="650" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D650" s="62"/>
       <c r="H650" s="61" t="s">
-        <v>1389</v>
+        <v>1386</v>
       </c>
       <c r="I650" s="4" t="s">
         <v>38</v>
@@ -22053,7 +22102,7 @@
         <v>57</v>
       </c>
       <c r="N655" s="20" t="s">
-        <v>1324</v>
+        <v>1322</v>
       </c>
       <c r="P655" s="18" t="s">
         <v>66</v>
@@ -23229,7 +23278,7 @@
     </row>
     <row r="704" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H704" s="61" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="I704" s="4" t="s">
         <v>39</v>
@@ -23254,7 +23303,7 @@
     </row>
     <row r="705" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H705" s="61" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="I705" s="4" t="s">
         <v>39</v>
@@ -23279,7 +23328,7 @@
     </row>
     <row r="706" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H706" s="61" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="I706" s="4" t="s">
         <v>39</v>
@@ -23307,7 +23356,7 @@
     </row>
     <row r="707" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H707" s="61" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="I707" s="4" t="s">
         <v>39</v>
@@ -23332,7 +23381,7 @@
     </row>
     <row r="708" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H708" s="61" t="s">
-        <v>1390</v>
+        <v>1387</v>
       </c>
       <c r="I708" s="4" t="s">
         <v>39</v>
@@ -23668,7 +23717,7 @@
     </row>
     <row r="722" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H722" s="61" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="I722" s="4" t="s">
         <v>39</v>
@@ -23698,7 +23747,7 @@
     </row>
     <row r="723" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H723" s="61" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="I723" s="4" t="s">
         <v>39</v>
@@ -23722,14 +23771,14 @@
         <v>95</v>
       </c>
       <c r="T723" s="65" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="V723" s="20"/>
       <c r="W723" s="4"/>
     </row>
     <row r="724" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H724" s="61" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="I724" s="4" t="s">
         <v>39</v>
@@ -23754,7 +23803,7 @@
     </row>
     <row r="725" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H725" s="61" t="s">
-        <v>1391</v>
+        <v>1388</v>
       </c>
       <c r="I725" s="4" t="s">
         <v>39</v>
@@ -23822,7 +23871,7 @@
         <v>72</v>
       </c>
       <c r="N727" s="20" t="s">
-        <v>1325</v>
+        <v>1323</v>
       </c>
       <c r="P727" s="18" t="s">
         <v>66</v>
@@ -23835,13 +23884,13 @@
     </row>
     <row r="728" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E728" s="4" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="F728" s="4" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="H728" s="61" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="I728" s="4" t="s">
         <v>40</v>
@@ -23869,13 +23918,13 @@
     </row>
     <row r="729" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E729" s="4" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="F729" s="4" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="H729" s="61" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="I729" s="4" t="s">
         <v>40</v>
@@ -23900,13 +23949,13 @@
     </row>
     <row r="730" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E730" s="4" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="F730" s="4" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="H730" s="61" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="I730" s="4" t="s">
         <v>40</v>
@@ -23936,13 +23985,13 @@
     </row>
     <row r="731" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E731" s="4" t="s">
-        <v>1420</v>
+        <v>1417</v>
       </c>
       <c r="F731" s="4" t="s">
-        <v>1421</v>
+        <v>1418</v>
       </c>
       <c r="H731" s="61" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="I731" s="4" t="s">
         <v>40</v>
@@ -23970,7 +24019,7 @@
     </row>
     <row r="732" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H732" s="61" t="s">
-        <v>1392</v>
+        <v>1389</v>
       </c>
       <c r="I732" s="4" t="s">
         <v>40</v>
@@ -24747,7 +24796,7 @@
     </row>
     <row r="763" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H763" s="61" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="I763" s="4" t="s">
         <v>40</v>
@@ -24777,7 +24826,7 @@
     </row>
     <row r="764" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H764" s="61" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="I764" s="4" t="s">
         <v>40</v>
@@ -24802,7 +24851,7 @@
     </row>
     <row r="765" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H765" s="61" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="I765" s="4" t="s">
         <v>40</v>
@@ -24827,7 +24876,7 @@
     </row>
     <row r="766" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H766" s="61" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="I766" s="4" t="s">
         <v>40</v>
@@ -24852,7 +24901,7 @@
     </row>
     <row r="767" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H767" s="61" t="s">
-        <v>1393</v>
+        <v>1390</v>
       </c>
       <c r="I767" s="4" t="s">
         <v>40</v>
@@ -25509,7 +25558,7 @@
         <v>66</v>
       </c>
       <c r="N793" s="20" t="s">
-        <v>1326</v>
+        <v>1324</v>
       </c>
       <c r="P793" s="18" t="s">
         <v>66</v>
@@ -25595,7 +25644,7 @@
     </row>
     <row r="797" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H797" s="61" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="I797" s="4" t="s">
         <v>41</v>
@@ -25620,7 +25669,7 @@
     </row>
     <row r="798" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H798" s="61" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="I798" s="4" t="s">
         <v>41</v>
@@ -25648,7 +25697,7 @@
     </row>
     <row r="799" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H799" s="61" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="I799" s="4" t="s">
         <v>41</v>
@@ -25673,13 +25722,13 @@
     </row>
     <row r="800" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B800" s="4" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="G800" s="4" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="H800" s="61" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="I800" s="4" t="s">
         <v>41</v>
@@ -25697,25 +25746,25 @@
         <v>73</v>
       </c>
       <c r="N800" s="21" t="s">
-        <v>1414</v>
+        <v>1411</v>
       </c>
       <c r="O800" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V800" s="20" t="s">
-        <v>1417</v>
+        <v>1414</v>
       </c>
       <c r="W800" s="4"/>
     </row>
     <row r="801" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B801" s="4" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="G801" s="4" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="H801" s="61" t="s">
-        <v>1394</v>
+        <v>1391</v>
       </c>
       <c r="I801" s="4" t="s">
         <v>41</v>
@@ -25745,10 +25794,10 @@
     </row>
     <row r="802" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B802" s="4" t="s">
-        <v>1427</v>
+        <v>1424</v>
       </c>
       <c r="G802" s="4" t="s">
-        <v>1426</v>
+        <v>1423</v>
       </c>
       <c r="H802" s="26"/>
       <c r="I802" s="4" t="s">
@@ -26017,7 +26066,7 @@
         <v>85</v>
       </c>
       <c r="N812" s="20" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="P812" s="18" t="s">
         <v>66</v>
@@ -26871,7 +26920,7 @@
         <v>35</v>
       </c>
       <c r="N847" s="70" t="s">
-        <v>1448</v>
+        <v>1445</v>
       </c>
       <c r="O847" s="11" t="s">
         <v>21</v>
@@ -27790,7 +27839,7 @@
         <v>73</v>
       </c>
       <c r="N885" s="20" t="s">
-        <v>1327</v>
+        <v>1325</v>
       </c>
       <c r="P885" s="18" t="s">
         <v>66</v>
@@ -30234,7 +30283,7 @@
         <v>101</v>
       </c>
       <c r="N986" s="20" t="s">
-        <v>1328</v>
+        <v>1326</v>
       </c>
       <c r="P986" s="18" t="s">
         <v>66</v>
@@ -30411,7 +30460,7 @@
     </row>
     <row r="993" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H993" s="61" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="I993" s="21" t="s">
         <v>45</v>
@@ -30436,7 +30485,7 @@
     </row>
     <row r="994" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H994" s="61" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="I994" s="21" t="s">
         <v>45</v>
@@ -30466,7 +30515,7 @@
     </row>
     <row r="995" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H995" s="61" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="I995" s="21" t="s">
         <v>45</v>
@@ -30494,7 +30543,7 @@
     </row>
     <row r="996" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H996" s="61" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="I996" s="21" t="s">
         <v>45</v>
@@ -30519,7 +30568,7 @@
     </row>
     <row r="997" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H997" s="61" t="s">
-        <v>1395</v>
+        <v>1392</v>
       </c>
       <c r="I997" s="21" t="s">
         <v>45</v>
@@ -30954,7 +31003,7 @@
         <v>94</v>
       </c>
       <c r="T1014" s="18" t="s">
-        <v>1415</v>
+        <v>1412</v>
       </c>
       <c r="V1014" s="20"/>
       <c r="W1014" s="4"/>
@@ -31771,7 +31820,7 @@
         <v>179</v>
       </c>
       <c r="E1049" s="4" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="H1049" s="26"/>
       <c r="I1049" s="4" t="s">
@@ -31801,7 +31850,7 @@
         <v>179</v>
       </c>
       <c r="E1050" s="4" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="H1050" s="26"/>
       <c r="I1050" s="4" t="s">
@@ -32014,7 +32063,7 @@
     </row>
     <row r="1059" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1059" s="61" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="I1059" s="4" t="s">
         <v>46</v>
@@ -32039,7 +32088,7 @@
     </row>
     <row r="1060" spans="2:23" ht="18" x14ac:dyDescent="0.25">
       <c r="H1060" s="61" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="I1060" s="4" t="s">
         <v>46</v>
@@ -32067,7 +32116,7 @@
         <v>179</v>
       </c>
       <c r="H1061" s="61" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="I1061" s="4" t="s">
         <v>46</v>
@@ -32095,7 +32144,7 @@
     </row>
     <row r="1062" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1062" s="61" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="I1062" s="4" t="s">
         <v>46</v>
@@ -32125,7 +32174,7 @@
     </row>
     <row r="1063" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1063" s="61" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="I1063" s="4" t="s">
         <v>46</v>
@@ -32158,7 +32207,7 @@
         <v>61</v>
       </c>
       <c r="H1064" s="61" t="s">
-        <v>1396</v>
+        <v>1393</v>
       </c>
       <c r="I1064" s="4" t="s">
         <v>46</v>
@@ -33466,7 +33515,7 @@
         <v>39</v>
       </c>
       <c r="N1115" s="71" t="s">
-        <v>1449</v>
+        <v>1446</v>
       </c>
       <c r="V1115" s="20"/>
       <c r="W1115" s="4"/>
@@ -33489,7 +33538,7 @@
         <v>40</v>
       </c>
       <c r="N1116" s="71" t="s">
-        <v>1450</v>
+        <v>1447</v>
       </c>
       <c r="V1116" s="20"/>
       <c r="W1116" s="4"/>
@@ -33852,7 +33901,7 @@
     </row>
     <row r="1132" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1132" s="61" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="I1132" s="4" t="s">
         <v>48</v>
@@ -33877,7 +33926,7 @@
     </row>
     <row r="1133" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1133" s="61" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="I1133" s="4" t="s">
         <v>48</v>
@@ -33902,7 +33951,7 @@
     </row>
     <row r="1134" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1134" s="61" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="I1134" s="4" t="s">
         <v>48</v>
@@ -33930,7 +33979,7 @@
         <v>60</v>
       </c>
       <c r="H1135" s="61" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="I1135" s="4" t="s">
         <v>48</v>
@@ -33959,7 +34008,7 @@
         <v>60</v>
       </c>
       <c r="H1136" s="61" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="I1136" s="4" t="s">
         <v>48</v>
@@ -33984,7 +34033,7 @@
     </row>
     <row r="1137" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1137" s="61" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="I1137" s="4" t="s">
         <v>48</v>
@@ -34009,7 +34058,7 @@
     </row>
     <row r="1138" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1138" s="61" t="s">
-        <v>1397</v>
+        <v>1394</v>
       </c>
       <c r="I1138" s="4" t="s">
         <v>48</v>
@@ -34268,7 +34317,7 @@
         <v>21</v>
       </c>
       <c r="V1148" s="71" t="s">
-        <v>1451</v>
+        <v>1448</v>
       </c>
       <c r="W1148" s="4"/>
     </row>
@@ -35137,7 +35186,7 @@
     </row>
     <row r="1184" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1184" s="61" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="I1184" s="4" t="s">
         <v>49</v>
@@ -35162,7 +35211,7 @@
     </row>
     <row r="1185" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1185" s="61" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="I1185" s="4" t="s">
         <v>49</v>
@@ -35187,7 +35236,7 @@
     </row>
     <row r="1186" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1186" s="61" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="I1186" s="4" t="s">
         <v>49</v>
@@ -35215,7 +35264,7 @@
     </row>
     <row r="1187" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1187" s="61" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="I1187" s="4" t="s">
         <v>49</v>
@@ -35243,7 +35292,7 @@
         <v>61</v>
       </c>
       <c r="H1188" s="61" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="I1188" s="4" t="s">
         <v>49</v>
@@ -35269,7 +35318,7 @@
     </row>
     <row r="1189" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1189" s="61" t="s">
-        <v>1398</v>
+        <v>1395</v>
       </c>
       <c r="I1189" s="4" t="s">
         <v>49</v>
@@ -35370,7 +35419,7 @@
     </row>
     <row r="1193" spans="2:23" ht="18" x14ac:dyDescent="0.25">
       <c r="C1193" s="4" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="H1193" s="61" t="s">
         <v>87</v>
@@ -35403,7 +35452,7 @@
         <v>170</v>
       </c>
       <c r="C1194" s="4" t="s">
-        <v>1411</v>
+        <v>1408</v>
       </c>
       <c r="H1194" s="50" t="s">
         <v>87</v>
@@ -35433,7 +35482,7 @@
         <v>94</v>
       </c>
       <c r="T1194" s="18" t="s">
-        <v>1368</v>
+        <v>1365</v>
       </c>
       <c r="V1194" s="20" t="s">
         <v>1002</v>
@@ -36050,7 +36099,7 @@
         <v>9</v>
       </c>
       <c r="N1220" s="20" t="s">
-        <v>1329</v>
+        <v>1327</v>
       </c>
       <c r="P1220" s="18" t="s">
         <v>66</v>
@@ -36162,7 +36211,7 @@
     </row>
     <row r="1225" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1225" s="61" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="I1225" s="4" t="s">
         <v>50</v>
@@ -36187,7 +36236,7 @@
     </row>
     <row r="1226" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1226" s="61" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="I1226" s="4" t="s">
         <v>50</v>
@@ -36212,7 +36261,7 @@
     </row>
     <row r="1227" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1227" s="61" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="I1227" s="4" t="s">
         <v>50</v>
@@ -36237,7 +36286,7 @@
     </row>
     <row r="1228" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1228" s="61" t="s">
-        <v>1399</v>
+        <v>1396</v>
       </c>
       <c r="I1228" s="4" t="s">
         <v>50</v>
@@ -36307,7 +36356,7 @@
         <v>19</v>
       </c>
       <c r="N1230" s="21" t="s">
-        <v>1330</v>
+        <v>1328</v>
       </c>
       <c r="O1230" s="11" t="s">
         <v>21</v>
@@ -36316,7 +36365,7 @@
         <v>66</v>
       </c>
       <c r="V1230" s="20" t="s">
-        <v>1331</v>
+        <v>1329</v>
       </c>
       <c r="W1230" s="4"/>
     </row>
@@ -36828,7 +36877,7 @@
         <v>40</v>
       </c>
       <c r="N1251" s="20" t="s">
-        <v>1332</v>
+        <v>1330</v>
       </c>
       <c r="P1251" s="18" t="s">
         <v>66</v>
@@ -37023,7 +37072,7 @@
         <v>48</v>
       </c>
       <c r="N1259" s="20" t="s">
-        <v>1333</v>
+        <v>1331</v>
       </c>
       <c r="P1259" s="18" t="s">
         <v>66</v>
@@ -37278,7 +37327,7 @@
         <v>58</v>
       </c>
       <c r="N1269" s="21" t="s">
-        <v>1334</v>
+        <v>1332</v>
       </c>
       <c r="O1269" s="11" t="s">
         <v>23</v>
@@ -37508,7 +37557,7 @@
         <v>67</v>
       </c>
       <c r="N1278" s="20" t="s">
-        <v>1335</v>
+        <v>1333</v>
       </c>
       <c r="P1278" s="18" t="s">
         <v>66</v>
@@ -38241,7 +38290,7 @@
     </row>
     <row r="1309" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1309" s="61" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="I1309" s="4" t="s">
         <v>51</v>
@@ -38269,7 +38318,7 @@
     </row>
     <row r="1310" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1310" s="61" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="I1310" s="4" t="s">
         <v>51</v>
@@ -38297,7 +38346,7 @@
     </row>
     <row r="1311" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1311" s="61" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="I1311" s="4" t="s">
         <v>51</v>
@@ -38322,7 +38371,7 @@
     </row>
     <row r="1312" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1312" s="61" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="I1312" s="4" t="s">
         <v>52</v>
@@ -38347,7 +38396,7 @@
     </row>
     <row r="1313" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1313" s="61" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="I1313" s="4" t="s">
         <v>52</v>
@@ -38375,7 +38424,7 @@
     </row>
     <row r="1314" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1314" s="61" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="I1314" s="4" t="s">
         <v>52</v>
@@ -38400,7 +38449,7 @@
     </row>
     <row r="1315" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1315" s="61" t="s">
-        <v>1400</v>
+        <v>1397</v>
       </c>
       <c r="I1315" s="4" t="s">
         <v>52</v>
@@ -38418,7 +38467,7 @@
         <v>104</v>
       </c>
       <c r="N1315" s="20" t="s">
-        <v>1336</v>
+        <v>1334</v>
       </c>
       <c r="P1315" s="18" t="s">
         <v>66</v>
@@ -39283,7 +39332,7 @@
         <v>64</v>
       </c>
       <c r="H1351" s="21" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="I1351" s="4" t="s">
         <v>53</v>
@@ -39311,7 +39360,7 @@
         <v>64</v>
       </c>
       <c r="H1352" s="21" t="s">
-        <v>1401</v>
+        <v>1398</v>
       </c>
       <c r="I1352" s="4" t="s">
         <v>53</v>
@@ -39564,7 +39613,7 @@
         <v>10</v>
       </c>
       <c r="N1360" s="20" t="s">
-        <v>1337</v>
+        <v>1335</v>
       </c>
       <c r="P1360" s="18" t="s">
         <v>66</v>
@@ -39691,7 +39740,7 @@
         <v>64</v>
       </c>
       <c r="H1365" s="21" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="I1365" s="4" t="s">
         <v>53</v>
@@ -39719,7 +39768,7 @@
         <v>64</v>
       </c>
       <c r="H1366" s="21" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="I1366" s="4" t="s">
         <v>53</v>
@@ -39747,7 +39796,7 @@
         <v>64</v>
       </c>
       <c r="H1367" s="21" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="I1367" s="4" t="s">
         <v>53</v>
@@ -39775,7 +39824,7 @@
         <v>64</v>
       </c>
       <c r="H1368" s="21" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="I1368" s="4" t="s">
         <v>53</v>
@@ -39803,7 +39852,7 @@
         <v>64</v>
       </c>
       <c r="H1369" s="21" t="s">
-        <v>1402</v>
+        <v>1399</v>
       </c>
       <c r="I1369" s="4" t="s">
         <v>53</v>
@@ -39821,7 +39870,7 @@
         <v>19</v>
       </c>
       <c r="N1369" s="20" t="s">
-        <v>1338</v>
+        <v>1336</v>
       </c>
       <c r="P1369" s="18" t="s">
         <v>66</v>
@@ -40037,7 +40086,7 @@
         <v>27</v>
       </c>
       <c r="N1377" s="20" t="s">
-        <v>1339</v>
+        <v>1337</v>
       </c>
       <c r="P1377" s="18" t="s">
         <v>66</v>
@@ -40295,7 +40344,7 @@
         <v>36</v>
       </c>
       <c r="N1386" s="20" t="s">
-        <v>1340</v>
+        <v>1338</v>
       </c>
       <c r="P1386" s="18" t="s">
         <v>66</v>
@@ -40578,8 +40627,8 @@
       <c r="M1396" s="7">
         <v>46</v>
       </c>
-      <c r="N1396" s="20" t="s">
-        <v>1341</v>
+      <c r="N1396" s="71" t="s">
+        <v>1449</v>
       </c>
       <c r="P1396" s="18" t="s">
         <v>66</v>
@@ -40712,7 +40761,7 @@
         <v>64</v>
       </c>
       <c r="H1401" s="21" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="I1401" s="4" t="s">
         <v>54</v>
@@ -40741,7 +40790,7 @@
         <v>64</v>
       </c>
       <c r="H1402" s="21" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="I1402" s="4" t="s">
         <v>54</v>
@@ -40772,7 +40821,7 @@
         <v>64</v>
       </c>
       <c r="H1403" s="21" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="I1403" s="4" t="s">
         <v>54</v>
@@ -40800,7 +40849,7 @@
         <v>64</v>
       </c>
       <c r="H1404" s="21" t="s">
-        <v>1403</v>
+        <v>1400</v>
       </c>
       <c r="I1404" s="4" t="s">
         <v>54</v>
@@ -40824,7 +40873,7 @@
         <v>94</v>
       </c>
       <c r="T1404" s="57" t="s">
-        <v>1369</v>
+        <v>1366</v>
       </c>
       <c r="V1404" s="20"/>
       <c r="W1404" s="4"/>
@@ -40931,7 +40980,7 @@
         <v>58</v>
       </c>
       <c r="N1408" s="20" t="s">
-        <v>1416</v>
+        <v>1413</v>
       </c>
       <c r="P1408" s="18" t="s">
         <v>66</v>
@@ -41231,7 +41280,7 @@
         <v>68</v>
       </c>
       <c r="N1418" s="21" t="s">
-        <v>1342</v>
+        <v>1339</v>
       </c>
       <c r="O1418" s="11" t="s">
         <v>21</v>
@@ -41240,7 +41289,7 @@
         <v>66</v>
       </c>
       <c r="V1418" s="20" t="s">
-        <v>1343</v>
+        <v>1340</v>
       </c>
       <c r="W1418" s="4"/>
     </row>
@@ -41533,7 +41582,7 @@
         <v>79</v>
       </c>
       <c r="N1429" s="20" t="s">
-        <v>1344</v>
+        <v>1341</v>
       </c>
       <c r="P1429" s="18" t="s">
         <v>66</v>
@@ -41600,7 +41649,7 @@
         <v>64</v>
       </c>
       <c r="H1432" s="61" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="I1432" s="4" t="s">
         <v>54</v>
@@ -41631,7 +41680,7 @@
         <v>64</v>
       </c>
       <c r="H1433" s="61" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="I1433" s="4" t="s">
         <v>54</v>
@@ -41659,7 +41708,7 @@
         <v>64</v>
       </c>
       <c r="H1434" s="61" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="I1434" s="4" t="s">
         <v>54</v>
@@ -41690,7 +41739,7 @@
         <v>64</v>
       </c>
       <c r="H1435" s="61" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="I1435" s="4" t="s">
         <v>54</v>
@@ -41718,7 +41767,7 @@
         <v>64</v>
       </c>
       <c r="H1436" s="61" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="I1436" s="4" t="s">
         <v>54</v>
@@ -41752,7 +41801,7 @@
         <v>64</v>
       </c>
       <c r="H1437" s="61" t="s">
-        <v>1404</v>
+        <v>1401</v>
       </c>
       <c r="I1437" s="4" t="s">
         <v>54</v>
@@ -41796,8 +41845,8 @@
       <c r="M1438" s="7">
         <v>88</v>
       </c>
-      <c r="N1438" s="20" t="s">
-        <v>1156</v>
+      <c r="N1438" s="71" t="s">
+        <v>1450</v>
       </c>
       <c r="V1438" s="20"/>
       <c r="W1438" s="4"/>
@@ -41886,7 +41935,7 @@
         <v>91</v>
       </c>
       <c r="N1441" s="20" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="V1441" s="20"/>
       <c r="W1441" s="4"/>
@@ -41912,7 +41961,7 @@
         <v>92</v>
       </c>
       <c r="N1442" s="20" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="V1442" s="20"/>
       <c r="W1442" s="4"/>
@@ -41938,7 +41987,7 @@
         <v>93</v>
       </c>
       <c r="N1443" s="20" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="V1443" s="20"/>
       <c r="W1443" s="4"/>
@@ -41964,7 +42013,7 @@
         <v>94</v>
       </c>
       <c r="N1444" s="20" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="V1444" s="20"/>
       <c r="W1444" s="4"/>
@@ -41990,7 +42039,7 @@
         <v>95</v>
       </c>
       <c r="N1445" s="20" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="V1445" s="20"/>
       <c r="W1445" s="4"/>
@@ -42045,7 +42094,7 @@
         <v>97</v>
       </c>
       <c r="N1447" s="20" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="S1447" s="4"/>
       <c r="V1447" s="20"/>
@@ -42104,7 +42153,7 @@
         <v>99</v>
       </c>
       <c r="N1449" s="20" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="V1449" s="20"/>
       <c r="W1449" s="4"/>
@@ -42156,7 +42205,7 @@
         <v>101</v>
       </c>
       <c r="N1451" s="20" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="V1451" s="20"/>
       <c r="W1451" s="4"/>
@@ -42182,13 +42231,13 @@
         <v>102</v>
       </c>
       <c r="N1452" s="21" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="O1452" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1452" s="20" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="W1452" s="4"/>
     </row>
@@ -42213,7 +42262,7 @@
         <v>103</v>
       </c>
       <c r="N1453" s="20" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="V1453" s="20"/>
       <c r="W1453" s="4"/>
@@ -42265,7 +42314,7 @@
         <v>105</v>
       </c>
       <c r="N1455" s="20" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="V1455" s="20"/>
       <c r="W1455" s="4"/>
@@ -42291,7 +42340,7 @@
         <v>106</v>
       </c>
       <c r="N1456" s="20" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="V1456" s="20"/>
       <c r="W1456" s="4"/>
@@ -42317,7 +42366,7 @@
         <v>107</v>
       </c>
       <c r="N1457" s="20" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="V1457" s="20"/>
       <c r="W1457" s="4"/>
@@ -42343,7 +42392,7 @@
         <v>108</v>
       </c>
       <c r="N1458" s="20" t="s">
-        <v>1345</v>
+        <v>1342</v>
       </c>
       <c r="P1458" s="18" t="s">
         <v>66</v>
@@ -42400,7 +42449,7 @@
         <v>110</v>
       </c>
       <c r="N1460" s="20" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="V1460" s="20"/>
       <c r="W1460" s="4"/>
@@ -42426,13 +42475,13 @@
         <v>111</v>
       </c>
       <c r="N1461" s="21" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="O1461" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1461" s="20" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="W1461" s="4"/>
     </row>
@@ -42483,7 +42532,7 @@
         <v>113</v>
       </c>
       <c r="N1463" s="20" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="V1463" s="20"/>
       <c r="W1463" s="4"/>
@@ -42509,7 +42558,7 @@
         <v>114</v>
       </c>
       <c r="N1464" s="20" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="U1464" s="48" t="s">
         <v>70</v>
@@ -42567,7 +42616,7 @@
         <v>116</v>
       </c>
       <c r="N1466" s="20" t="s">
-        <v>1435</v>
+        <v>1432</v>
       </c>
       <c r="V1466" s="20"/>
       <c r="W1466" s="4"/>
@@ -42625,7 +42674,7 @@
         <v>118</v>
       </c>
       <c r="N1468" s="20" t="s">
-        <v>1346</v>
+        <v>1343</v>
       </c>
       <c r="P1468" s="18" t="s">
         <v>66</v>
@@ -42643,7 +42692,7 @@
         <v>64</v>
       </c>
       <c r="D1469" s="10" t="s">
-        <v>1418</v>
+        <v>1415</v>
       </c>
       <c r="H1469" s="26"/>
       <c r="I1469" s="4" t="s">
@@ -42662,7 +42711,7 @@
         <v>119</v>
       </c>
       <c r="N1469" s="20" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="S1469" s="32" t="s">
         <v>73</v>
@@ -42780,13 +42829,13 @@
         <v>123</v>
       </c>
       <c r="N1473" s="21" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="O1473" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1473" s="20" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="W1473" s="4"/>
     </row>
@@ -42811,13 +42860,13 @@
         <v>124</v>
       </c>
       <c r="N1474" s="21" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="O1474" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1474" s="20" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="W1474" s="4"/>
     </row>
@@ -42894,7 +42943,7 @@
         <v>127</v>
       </c>
       <c r="N1477" s="20" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="V1477" s="20"/>
       <c r="W1477" s="4"/>
@@ -42972,7 +43021,7 @@
         <v>130</v>
       </c>
       <c r="N1480" s="20" t="s">
-        <v>1347</v>
+        <v>1344</v>
       </c>
       <c r="P1480" s="18" t="s">
         <v>66</v>
@@ -43003,7 +43052,7 @@
         <v>131</v>
       </c>
       <c r="N1481" s="20" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="V1481" s="20"/>
       <c r="W1481" s="4"/>
@@ -43029,7 +43078,7 @@
         <v>132</v>
       </c>
       <c r="N1482" s="20" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="V1482" s="20"/>
       <c r="W1482" s="4"/>
@@ -43055,7 +43104,7 @@
         <v>133</v>
       </c>
       <c r="N1483" s="20" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="V1483" s="20"/>
       <c r="W1483" s="4"/>
@@ -43081,13 +43130,13 @@
         <v>134</v>
       </c>
       <c r="N1484" s="21" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="O1484" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1484" s="20" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="W1484" s="4"/>
     </row>
@@ -43164,7 +43213,7 @@
         <v>137</v>
       </c>
       <c r="N1487" s="20" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="V1487" s="20"/>
       <c r="W1487" s="4"/>
@@ -43190,13 +43239,13 @@
         <v>138</v>
       </c>
       <c r="N1488" s="21" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="O1488" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1488" s="20" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="W1488" s="4"/>
     </row>
@@ -43273,7 +43322,7 @@
         <v>141</v>
       </c>
       <c r="N1491" s="21" t="s">
-        <v>1438</v>
+        <v>1435</v>
       </c>
       <c r="P1491" s="18" t="s">
         <v>66</v>
@@ -43359,13 +43408,13 @@
         <v>144</v>
       </c>
       <c r="N1494" s="21" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="O1494" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1494" s="20" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="W1494" s="4"/>
     </row>
@@ -43390,7 +43439,7 @@
         <v>145</v>
       </c>
       <c r="N1495" s="20" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="V1495" s="20"/>
       <c r="W1495" s="4"/>
@@ -43419,7 +43468,7 @@
         <v>146</v>
       </c>
       <c r="N1496" s="20" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="S1496" s="4"/>
       <c r="V1496" s="20"/>
@@ -43501,7 +43550,7 @@
         <v>149</v>
       </c>
       <c r="N1499" s="20" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="V1499" s="20"/>
       <c r="W1499" s="4"/>
@@ -43527,7 +43576,7 @@
         <v>150</v>
       </c>
       <c r="N1500" s="20" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="V1500" s="20"/>
       <c r="W1500" s="4"/>
@@ -43579,7 +43628,7 @@
         <v>152</v>
       </c>
       <c r="N1502" s="20" t="s">
-        <v>1348</v>
+        <v>1345</v>
       </c>
       <c r="P1502" s="18" t="s">
         <v>66</v>
@@ -43610,13 +43659,13 @@
         <v>153</v>
       </c>
       <c r="N1503" s="21" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="O1503" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1503" s="20" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="W1503" s="4"/>
     </row>
@@ -43667,13 +43716,13 @@
         <v>155</v>
       </c>
       <c r="N1505" s="21" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="O1505" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1505" s="20" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="W1505" s="4"/>
     </row>
@@ -43698,7 +43747,7 @@
         <v>156</v>
       </c>
       <c r="N1506" s="20" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="U1506" s="48"/>
       <c r="V1506" s="20"/>
@@ -43759,7 +43808,7 @@
         <v>158</v>
       </c>
       <c r="N1508" s="20" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="V1508" s="20"/>
       <c r="W1508" s="4"/>
@@ -43785,7 +43834,7 @@
         <v>159</v>
       </c>
       <c r="N1509" s="20" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="V1509" s="20"/>
       <c r="W1509" s="4"/>
@@ -43840,7 +43889,7 @@
         <v>161</v>
       </c>
       <c r="N1511" s="20" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="P1511" s="18" t="s">
         <v>66</v>
@@ -43923,7 +43972,7 @@
         <v>164</v>
       </c>
       <c r="N1514" s="20" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="V1514" s="20"/>
       <c r="W1514" s="4"/>
@@ -43978,7 +44027,7 @@
         <v>166</v>
       </c>
       <c r="N1516" s="20" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="V1516" s="20"/>
       <c r="W1516" s="4"/>
@@ -43988,7 +44037,7 @@
         <v>64</v>
       </c>
       <c r="H1517" s="61" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="I1517" s="4" t="s">
         <v>56</v>
@@ -44019,7 +44068,7 @@
         <v>64</v>
       </c>
       <c r="H1518" s="61" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="I1518" s="4" t="s">
         <v>56</v>
@@ -44037,7 +44086,7 @@
         <v>168</v>
       </c>
       <c r="N1518" s="21" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="V1518" s="20"/>
       <c r="W1518" s="4"/>
@@ -44048,7 +44097,7 @@
         <v>64</v>
       </c>
       <c r="H1519" s="61" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="I1519" s="4" t="s">
         <v>56</v>
@@ -44066,7 +44115,7 @@
         <v>169</v>
       </c>
       <c r="N1519" s="21" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="O1519" s="11" t="s">
         <v>21</v>
@@ -44078,7 +44127,7 @@
         <v>178</v>
       </c>
       <c r="V1519" s="20" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="W1519" s="4"/>
     </row>
@@ -44087,7 +44136,7 @@
         <v>64</v>
       </c>
       <c r="H1520" s="61" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="I1520" s="4" t="s">
         <v>56</v>
@@ -44105,7 +44154,7 @@
         <v>170</v>
       </c>
       <c r="N1520" s="20" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="V1520" s="20"/>
       <c r="W1520" s="4"/>
@@ -44115,7 +44164,7 @@
         <v>64</v>
       </c>
       <c r="H1521" s="61" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="I1521" s="4" t="s">
         <v>56</v>
@@ -44146,7 +44195,7 @@
         <v>64</v>
       </c>
       <c r="H1522" s="61" t="s">
-        <v>1405</v>
+        <v>1402</v>
       </c>
       <c r="I1522" s="4" t="s">
         <v>56</v>
@@ -44164,7 +44213,7 @@
         <v>172</v>
       </c>
       <c r="N1522" s="20" t="s">
-        <v>1349</v>
+        <v>1346</v>
       </c>
       <c r="P1522" s="18" t="s">
         <v>66</v>
@@ -44195,7 +44244,7 @@
         <v>173</v>
       </c>
       <c r="N1523" s="20" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="V1523" s="20"/>
       <c r="W1523" s="4"/>
@@ -44249,13 +44298,13 @@
         <v>175</v>
       </c>
       <c r="N1525" s="21" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="O1525" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1525" s="20" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="W1525" s="4"/>
     </row>
@@ -44264,7 +44313,7 @@
         <v>64</v>
       </c>
       <c r="D1526" s="10" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="H1526" s="50" t="s">
         <v>90</v>
@@ -44285,7 +44334,7 @@
         <v>176</v>
       </c>
       <c r="N1526" s="20" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="S1526" s="2" t="s">
         <v>97</v>
@@ -44301,7 +44350,7 @@
         <v>64</v>
       </c>
       <c r="D1527" s="10" t="s">
-        <v>1412</v>
+        <v>1409</v>
       </c>
       <c r="H1527" s="50" t="s">
         <v>90</v>
@@ -44354,7 +44403,7 @@
         <v>178</v>
       </c>
       <c r="N1528" s="20" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="V1528" s="20"/>
       <c r="W1528" s="4"/>
@@ -44379,7 +44428,7 @@
         <v>179</v>
       </c>
       <c r="N1529" s="20" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="V1529" s="20"/>
       <c r="W1529" s="4"/>
@@ -44404,7 +44453,7 @@
         <v>180</v>
       </c>
       <c r="N1530" s="20" t="s">
-        <v>1350</v>
+        <v>1347</v>
       </c>
       <c r="P1530" s="18" t="s">
         <v>66</v>
@@ -44484,13 +44533,13 @@
         <v>183</v>
       </c>
       <c r="N1533" s="21" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="O1533" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1533" s="20" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="W1533" s="4"/>
     </row>
@@ -44514,14 +44563,14 @@
         <v>184</v>
       </c>
       <c r="N1534" s="21" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="O1534" s="11" t="s">
         <v>21</v>
       </c>
       <c r="T1534" s="29"/>
       <c r="V1534" s="20" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="W1534" s="4"/>
     </row>
@@ -44573,13 +44622,13 @@
         <v>186</v>
       </c>
       <c r="N1536" s="21" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="O1536" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="V1536" s="20" t="s">
-        <v>1216</v>
+      <c r="V1536" s="71" t="s">
+        <v>1451</v>
       </c>
       <c r="W1536" s="4"/>
     </row>
@@ -44603,13 +44652,13 @@
         <v>187</v>
       </c>
       <c r="N1537" s="21" t="s">
-        <v>1217</v>
+        <v>1215</v>
       </c>
       <c r="O1537" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1537" s="20" t="s">
-        <v>1218</v>
+        <v>1216</v>
       </c>
       <c r="W1537" s="4"/>
     </row>
@@ -44633,7 +44682,7 @@
         <v>188</v>
       </c>
       <c r="N1538" s="20" t="s">
-        <v>1351</v>
+        <v>1348</v>
       </c>
       <c r="P1538" s="18" t="s">
         <v>66</v>
@@ -44688,7 +44737,7 @@
         <v>190</v>
       </c>
       <c r="N1540" s="20" t="s">
-        <v>1219</v>
+        <v>1217</v>
       </c>
       <c r="V1540" s="20"/>
       <c r="W1540" s="4"/>
@@ -44713,7 +44762,7 @@
         <v>191</v>
       </c>
       <c r="N1541" s="20" t="s">
-        <v>1220</v>
+        <v>1218</v>
       </c>
       <c r="V1541" s="20"/>
       <c r="W1541" s="4"/>
@@ -44863,7 +44912,7 @@
         <v>197</v>
       </c>
       <c r="N1547" s="20" t="s">
-        <v>1221</v>
+        <v>1219</v>
       </c>
       <c r="V1547" s="20"/>
       <c r="W1547" s="4"/>
@@ -44888,7 +44937,7 @@
         <v>198</v>
       </c>
       <c r="N1548" s="20" t="s">
-        <v>1352</v>
+        <v>1349</v>
       </c>
       <c r="P1548" s="18" t="s">
         <v>66</v>
@@ -44943,7 +44992,7 @@
         <v>200</v>
       </c>
       <c r="N1550" s="20" t="s">
-        <v>1222</v>
+        <v>1220</v>
       </c>
       <c r="V1550" s="20"/>
       <c r="W1550" s="4"/>
@@ -44968,7 +45017,7 @@
         <v>201</v>
       </c>
       <c r="N1551" s="20" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="V1551" s="20"/>
       <c r="W1551" s="4"/>
@@ -44993,13 +45042,13 @@
         <v>202</v>
       </c>
       <c r="N1552" s="21" t="s">
-        <v>1224</v>
+        <v>1222</v>
       </c>
       <c r="O1552" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1552" s="20" t="s">
-        <v>1225</v>
+        <v>1223</v>
       </c>
       <c r="W1552" s="4"/>
     </row>
@@ -45073,7 +45122,7 @@
         <v>205</v>
       </c>
       <c r="N1555" s="20" t="s">
-        <v>1226</v>
+        <v>1224</v>
       </c>
       <c r="V1555" s="20"/>
       <c r="W1555" s="4"/>
@@ -45098,7 +45147,7 @@
         <v>206</v>
       </c>
       <c r="N1556" s="20" t="s">
-        <v>1227</v>
+        <v>1225</v>
       </c>
       <c r="V1556" s="20"/>
       <c r="W1556" s="4"/>
@@ -45151,7 +45200,7 @@
         <v>208</v>
       </c>
       <c r="N1558" s="20" t="s">
-        <v>1353</v>
+        <v>1350</v>
       </c>
       <c r="P1558" s="18" t="s">
         <v>66</v>
@@ -45271,7 +45320,7 @@
         <v>212</v>
       </c>
       <c r="N1562" s="20" t="s">
-        <v>1228</v>
+        <v>1226</v>
       </c>
       <c r="V1562" s="20"/>
       <c r="W1562" s="4"/>
@@ -45296,7 +45345,7 @@
         <v>213</v>
       </c>
       <c r="N1563" s="20" t="s">
-        <v>1229</v>
+        <v>1227</v>
       </c>
       <c r="V1563" s="20"/>
       <c r="W1563" s="4"/>
@@ -45324,7 +45373,7 @@
         <v>214</v>
       </c>
       <c r="N1564" s="20" t="s">
-        <v>1230</v>
+        <v>1228</v>
       </c>
       <c r="S1564" s="2" t="s">
         <v>94</v>
@@ -45355,7 +45404,7 @@
         <v>215</v>
       </c>
       <c r="N1565" s="20" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="V1565" s="20"/>
       <c r="W1565" s="4"/>
@@ -45380,13 +45429,13 @@
         <v>216</v>
       </c>
       <c r="N1566" s="21" t="s">
-        <v>1231</v>
+        <v>1229</v>
       </c>
       <c r="O1566" s="11" t="s">
         <v>20</v>
       </c>
       <c r="V1566" s="20" t="s">
-        <v>1232</v>
+        <v>1230</v>
       </c>
       <c r="W1566" s="4"/>
     </row>
@@ -45410,7 +45459,7 @@
         <v>217</v>
       </c>
       <c r="N1567" s="20" t="s">
-        <v>1354</v>
+        <v>1351</v>
       </c>
       <c r="P1567" s="18" t="s">
         <v>66</v>
@@ -45441,7 +45490,7 @@
         <v>218</v>
       </c>
       <c r="N1568" s="21" t="s">
-        <v>1233</v>
+        <v>1231</v>
       </c>
       <c r="O1568" s="11" t="s">
         <v>21</v>
@@ -45451,7 +45500,7 @@
         <v>93</v>
       </c>
       <c r="V1568" s="20" t="s">
-        <v>1234</v>
+        <v>1232</v>
       </c>
       <c r="W1568" s="4"/>
     </row>
@@ -45475,7 +45524,7 @@
         <v>219</v>
       </c>
       <c r="N1569" s="21" t="s">
-        <v>1235</v>
+        <v>1233</v>
       </c>
       <c r="V1569" s="20"/>
       <c r="W1569" s="4"/>
@@ -45500,7 +45549,7 @@
         <v>220</v>
       </c>
       <c r="N1570" s="21" t="s">
-        <v>1236</v>
+        <v>1234</v>
       </c>
       <c r="O1570" s="11" t="s">
         <v>21</v>
@@ -45508,7 +45557,7 @@
       <c r="T1570" s="29"/>
       <c r="U1570" s="20"/>
       <c r="V1570" s="20" t="s">
-        <v>1237</v>
+        <v>1235</v>
       </c>
       <c r="W1570" s="4"/>
     </row>
@@ -45532,7 +45581,7 @@
         <v>221</v>
       </c>
       <c r="N1571" s="20" t="s">
-        <v>1238</v>
+        <v>1236</v>
       </c>
       <c r="T1571" s="29"/>
       <c r="U1571" s="23" t="s">
@@ -45561,7 +45610,7 @@
         <v>222</v>
       </c>
       <c r="N1572" s="20" t="s">
-        <v>1239</v>
+        <v>1237</v>
       </c>
       <c r="V1572" s="20"/>
       <c r="W1572" s="4"/>
@@ -45586,7 +45635,7 @@
         <v>223</v>
       </c>
       <c r="N1573" s="20" t="s">
-        <v>1355</v>
+        <v>1352</v>
       </c>
       <c r="P1573" s="18" t="s">
         <v>66</v>
@@ -45641,7 +45690,7 @@
         <v>225</v>
       </c>
       <c r="N1575" s="20" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="V1575" s="20"/>
       <c r="W1575" s="4"/>
@@ -45666,7 +45715,7 @@
         <v>226</v>
       </c>
       <c r="N1576" s="20" t="s">
-        <v>1241</v>
+        <v>1239</v>
       </c>
       <c r="V1576" s="20"/>
       <c r="W1576" s="4"/>
@@ -45676,7 +45725,7 @@
         <v>64</v>
       </c>
       <c r="H1577" s="61" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="I1577" s="4" t="s">
         <v>57</v>
@@ -45694,13 +45743,13 @@
         <v>227</v>
       </c>
       <c r="N1577" s="21" t="s">
-        <v>1242</v>
+        <v>1240</v>
       </c>
       <c r="O1577" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1577" s="20" t="s">
-        <v>1243</v>
+        <v>1241</v>
       </c>
       <c r="W1577" s="4"/>
     </row>
@@ -45709,7 +45758,7 @@
         <v>64</v>
       </c>
       <c r="H1578" s="61" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="I1578" s="4" t="s">
         <v>57</v>
@@ -45737,7 +45786,7 @@
         <v>64</v>
       </c>
       <c r="H1579" s="61" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="I1579" s="4" t="s">
         <v>57</v>
@@ -45765,7 +45814,7 @@
         <v>64</v>
       </c>
       <c r="H1580" s="61" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="I1580" s="4" t="s">
         <v>57</v>
@@ -45793,7 +45842,7 @@
         <v>64</v>
       </c>
       <c r="H1581" s="61" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="I1581" s="4" t="s">
         <v>57</v>
@@ -45821,7 +45870,7 @@
         <v>64</v>
       </c>
       <c r="H1582" s="61" t="s">
-        <v>1406</v>
+        <v>1403</v>
       </c>
       <c r="I1582" s="4" t="s">
         <v>57</v>
@@ -45839,7 +45888,7 @@
         <v>232</v>
       </c>
       <c r="N1582" s="20" t="s">
-        <v>1356</v>
+        <v>1353</v>
       </c>
       <c r="P1582" s="18" t="s">
         <v>66</v>
@@ -45894,7 +45943,7 @@
         <v>234</v>
       </c>
       <c r="N1584" s="20" t="s">
-        <v>1240</v>
+        <v>1238</v>
       </c>
       <c r="V1584" s="20"/>
       <c r="W1584" s="4"/>
@@ -45919,7 +45968,7 @@
         <v>235</v>
       </c>
       <c r="N1585" s="20" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="V1585" s="20"/>
       <c r="W1585" s="4"/>
@@ -45932,7 +45981,7 @@
         <v>179</v>
       </c>
       <c r="E1586" s="4" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="I1586" s="4" t="s">
         <v>57</v>
@@ -45964,7 +46013,7 @@
         <v>179</v>
       </c>
       <c r="E1587" s="4" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="I1587" s="4" t="s">
         <v>57</v>
@@ -46010,7 +46059,7 @@
         <v>238</v>
       </c>
       <c r="N1588" s="20" t="s">
-        <v>1245</v>
+        <v>1243</v>
       </c>
       <c r="V1588" s="20"/>
       <c r="W1588" s="4"/>
@@ -46035,7 +46084,7 @@
         <v>239</v>
       </c>
       <c r="N1589" s="20" t="s">
-        <v>1246</v>
+        <v>1244</v>
       </c>
       <c r="U1589" s="32" t="s">
         <v>68</v>
@@ -46063,13 +46112,13 @@
         <v>240</v>
       </c>
       <c r="N1590" s="21" t="s">
-        <v>1247</v>
+        <v>1245</v>
       </c>
       <c r="O1590" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1590" s="20" t="s">
-        <v>1248</v>
+        <v>1246</v>
       </c>
       <c r="W1590" s="4"/>
     </row>
@@ -46093,7 +46142,7 @@
         <v>241</v>
       </c>
       <c r="N1591" s="20" t="s">
-        <v>1357</v>
+        <v>1354</v>
       </c>
       <c r="P1591" s="18" t="s">
         <v>66</v>
@@ -46109,7 +46158,7 @@
         <v>64</v>
       </c>
       <c r="H1592" s="61" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="I1592" s="4" t="s">
         <v>57</v>
@@ -46127,7 +46176,7 @@
         <v>242</v>
       </c>
       <c r="N1592" s="20" t="s">
-        <v>1249</v>
+        <v>1247</v>
       </c>
       <c r="V1592" s="20"/>
       <c r="W1592" s="4"/>
@@ -46137,10 +46186,10 @@
         <v>64</v>
       </c>
       <c r="D1593" s="10" t="s">
-        <v>1413</v>
+        <v>1410</v>
       </c>
       <c r="H1593" s="4" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="I1593" s="4" t="s">
         <v>57</v>
@@ -46164,7 +46213,7 @@
         <v>95</v>
       </c>
       <c r="T1593" s="18" t="s">
-        <v>1370</v>
+        <v>1367</v>
       </c>
       <c r="V1593" s="20"/>
       <c r="W1593" s="4"/>
@@ -46174,7 +46223,7 @@
         <v>64</v>
       </c>
       <c r="H1594" s="61" t="s">
-        <v>1407</v>
+        <v>1404</v>
       </c>
       <c r="I1594" s="4" t="s">
         <v>57</v>
@@ -46192,13 +46241,13 @@
         <v>244</v>
       </c>
       <c r="N1594" s="21" t="s">
-        <v>1250</v>
+        <v>1248</v>
       </c>
       <c r="O1594" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1594" s="20" t="s">
-        <v>1251</v>
+        <v>1249</v>
       </c>
       <c r="W1594" s="4"/>
     </row>
@@ -46222,13 +46271,13 @@
         <v>245</v>
       </c>
       <c r="N1595" s="21" t="s">
-        <v>1252</v>
+        <v>1250</v>
       </c>
       <c r="O1595" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1595" s="20" t="s">
-        <v>1253</v>
+        <v>1251</v>
       </c>
       <c r="W1595" s="4"/>
     </row>
@@ -46252,7 +46301,7 @@
         <v>246</v>
       </c>
       <c r="N1596" s="20" t="s">
-        <v>1254</v>
+        <v>1252</v>
       </c>
       <c r="V1596" s="20"/>
       <c r="W1596" s="4"/>
@@ -46262,7 +46311,7 @@
         <v>64</v>
       </c>
       <c r="H1597" s="61" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="I1597" s="4" t="s">
         <v>57</v>
@@ -46290,10 +46339,10 @@
         <v>64</v>
       </c>
       <c r="G1598" s="4" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="H1598" s="61" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="I1598" s="4" t="s">
         <v>57</v>
@@ -46311,23 +46360,23 @@
         <v>248</v>
       </c>
       <c r="N1598" s="20" t="s">
-        <v>1255</v>
+        <v>1253</v>
       </c>
       <c r="V1598" s="20"/>
       <c r="W1598" s="4"/>
     </row>
     <row r="1599" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1599" s="4" t="s">
-        <v>1433</v>
+        <v>1430</v>
       </c>
       <c r="C1599" s="4" t="s">
         <v>64</v>
       </c>
       <c r="G1599" s="4" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="H1599" s="61" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="I1599" s="4" t="s">
         <v>57</v>
@@ -46358,10 +46407,10 @@
         <v>64</v>
       </c>
       <c r="G1600" s="4" t="s">
-        <v>1429</v>
+        <v>1426</v>
       </c>
       <c r="H1600" s="61" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="I1600" s="4" t="s">
         <v>57</v>
@@ -46379,7 +46428,7 @@
         <v>250</v>
       </c>
       <c r="N1600" s="20" t="s">
-        <v>1256</v>
+        <v>1254</v>
       </c>
       <c r="V1600" s="20"/>
       <c r="W1600" s="4"/>
@@ -46389,7 +46438,7 @@
         <v>64</v>
       </c>
       <c r="H1601" s="61" t="s">
-        <v>1408</v>
+        <v>1405</v>
       </c>
       <c r="I1601" s="4" t="s">
         <v>58</v>
@@ -46407,7 +46456,7 @@
         <v>251</v>
       </c>
       <c r="N1601" s="20" t="s">
-        <v>1358</v>
+        <v>1355</v>
       </c>
       <c r="P1601" s="18" t="s">
         <v>66</v>
@@ -46437,7 +46486,7 @@
         <v>252</v>
       </c>
       <c r="N1602" s="20" t="s">
-        <v>1257</v>
+        <v>1255</v>
       </c>
       <c r="V1602" s="20"/>
       <c r="W1602" s="4"/>
@@ -46487,13 +46536,13 @@
         <v>254</v>
       </c>
       <c r="N1604" s="21" t="s">
-        <v>1258</v>
+        <v>1256</v>
       </c>
       <c r="O1604" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1604" s="20" t="s">
-        <v>1259</v>
+        <v>1257</v>
       </c>
       <c r="W1604" s="4"/>
     </row>
@@ -46517,7 +46566,7 @@
         <v>255</v>
       </c>
       <c r="N1605" s="20" t="s">
-        <v>1260</v>
+        <v>1258</v>
       </c>
       <c r="V1605" s="20"/>
       <c r="W1605" s="4"/>
@@ -46567,13 +46616,13 @@
         <v>257</v>
       </c>
       <c r="N1607" s="21" t="s">
-        <v>1439</v>
+        <v>1436</v>
       </c>
       <c r="O1607" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1607" s="21" t="s">
-        <v>1440</v>
+        <v>1437</v>
       </c>
       <c r="W1607" s="4"/>
     </row>
@@ -46597,7 +46646,7 @@
         <v>258</v>
       </c>
       <c r="N1608" s="20" t="s">
-        <v>1261</v>
+        <v>1259</v>
       </c>
       <c r="V1608" s="20"/>
       <c r="W1608" s="4"/>
@@ -46625,7 +46674,7 @@
         <v>259</v>
       </c>
       <c r="N1609" s="20" t="s">
-        <v>1359</v>
+        <v>1356</v>
       </c>
       <c r="P1609" s="18" t="s">
         <v>66</v>
@@ -46656,7 +46705,7 @@
         <v>260</v>
       </c>
       <c r="N1610" s="20" t="s">
-        <v>1262</v>
+        <v>1260</v>
       </c>
       <c r="V1610" s="20"/>
       <c r="W1610" s="4"/>
@@ -46681,7 +46730,7 @@
         <v>261</v>
       </c>
       <c r="N1611" s="20" t="s">
-        <v>1263</v>
+        <v>1261</v>
       </c>
       <c r="V1611" s="20"/>
       <c r="W1611" s="4"/>
@@ -46706,7 +46755,7 @@
         <v>262</v>
       </c>
       <c r="N1612" s="20" t="s">
-        <v>1264</v>
+        <v>1262</v>
       </c>
       <c r="V1612" s="20"/>
       <c r="W1612" s="4"/>
@@ -46731,13 +46780,13 @@
         <v>263</v>
       </c>
       <c r="N1613" s="21" t="s">
-        <v>1265</v>
+        <v>1263</v>
       </c>
       <c r="O1613" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1613" s="20" t="s">
-        <v>1266</v>
+        <v>1264</v>
       </c>
       <c r="W1613" s="4"/>
     </row>
@@ -46761,7 +46810,7 @@
         <v>264</v>
       </c>
       <c r="N1614" s="20" t="s">
-        <v>1267</v>
+        <v>1265</v>
       </c>
       <c r="V1614" s="20"/>
       <c r="W1614" s="4"/>
@@ -46811,7 +46860,7 @@
         <v>266</v>
       </c>
       <c r="N1616" s="20" t="s">
-        <v>1360</v>
+        <v>1357</v>
       </c>
       <c r="P1616" s="18" t="s">
         <v>66</v>
@@ -46826,7 +46875,7 @@
         <v>64</v>
       </c>
       <c r="H1617" s="61" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="I1617" s="4" t="s">
         <v>58</v>
@@ -46844,7 +46893,7 @@
         <v>267</v>
       </c>
       <c r="N1617" s="20" t="s">
-        <v>1268</v>
+        <v>1266</v>
       </c>
       <c r="V1617" s="20"/>
       <c r="W1617" s="4"/>
@@ -46857,10 +46906,10 @@
         <v>179</v>
       </c>
       <c r="E1618" s="4" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="H1618" s="61" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="I1618" s="4" t="s">
         <v>58</v>
@@ -46892,10 +46941,10 @@
         <v>179</v>
       </c>
       <c r="E1619" s="4" t="s">
-        <v>1422</v>
+        <v>1419</v>
       </c>
       <c r="H1619" s="61" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="I1619" s="4" t="s">
         <v>58</v>
@@ -46926,7 +46975,7 @@
         <v>64</v>
       </c>
       <c r="H1620" s="61" t="s">
-        <v>1409</v>
+        <v>1406</v>
       </c>
       <c r="I1620" s="4" t="s">
         <v>58</v>
@@ -46944,13 +46993,13 @@
         <v>270</v>
       </c>
       <c r="N1620" s="21" t="s">
-        <v>1269</v>
+        <v>1267</v>
       </c>
       <c r="O1620" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1620" s="20" t="s">
-        <v>1270</v>
+        <v>1268</v>
       </c>
       <c r="W1620" s="4"/>
     </row>
@@ -46974,7 +47023,7 @@
         <v>271</v>
       </c>
       <c r="N1621" s="20" t="s">
-        <v>1271</v>
+        <v>1269</v>
       </c>
       <c r="V1621" s="20"/>
       <c r="W1621" s="4"/>
@@ -47027,7 +47076,7 @@
         <v>273</v>
       </c>
       <c r="N1623" s="20" t="s">
-        <v>1272</v>
+        <v>1270</v>
       </c>
       <c r="V1623" s="20"/>
       <c r="W1623" s="4"/>
@@ -47052,7 +47101,7 @@
         <v>274</v>
       </c>
       <c r="N1624" s="20" t="s">
-        <v>1273</v>
+        <v>1271</v>
       </c>
       <c r="V1624" s="20"/>
       <c r="W1624" s="4"/>
@@ -47077,7 +47126,7 @@
         <v>275</v>
       </c>
       <c r="N1625" s="20" t="s">
-        <v>1361</v>
+        <v>1358</v>
       </c>
       <c r="P1625" s="18" t="s">
         <v>66</v>
@@ -47107,7 +47156,7 @@
         <v>276</v>
       </c>
       <c r="N1626" s="20" t="s">
-        <v>1274</v>
+        <v>1272</v>
       </c>
       <c r="U1626" s="48"/>
       <c r="V1626" s="20"/>
@@ -47133,7 +47182,7 @@
         <v>277</v>
       </c>
       <c r="N1627" s="20" t="s">
-        <v>1275</v>
+        <v>1273</v>
       </c>
       <c r="U1627" s="48" t="s">
         <v>93</v>
@@ -47239,7 +47288,7 @@
         <v>281</v>
       </c>
       <c r="N1631" s="20" t="s">
-        <v>1276</v>
+        <v>1274</v>
       </c>
       <c r="V1631" s="20"/>
       <c r="W1631" s="4"/>
@@ -47264,7 +47313,7 @@
         <v>282</v>
       </c>
       <c r="N1632" s="20" t="s">
-        <v>1277</v>
+        <v>1275</v>
       </c>
       <c r="V1632" s="20"/>
       <c r="W1632" s="4"/>
@@ -47289,14 +47338,14 @@
         <v>283</v>
       </c>
       <c r="N1633" s="21" t="s">
-        <v>1278</v>
+        <v>1276</v>
       </c>
       <c r="O1633" s="11" t="s">
         <v>21</v>
       </c>
       <c r="U1633" s="48"/>
       <c r="V1633" s="20" t="s">
-        <v>1279</v>
+        <v>1277</v>
       </c>
       <c r="W1633" s="4"/>
     </row>
@@ -47320,7 +47369,7 @@
         <v>284</v>
       </c>
       <c r="N1634" s="20" t="s">
-        <v>1362</v>
+        <v>1359</v>
       </c>
       <c r="P1634" s="18" t="s">
         <v>66</v>
@@ -47353,13 +47402,13 @@
         <v>285</v>
       </c>
       <c r="N1635" s="21" t="s">
-        <v>1280</v>
+        <v>1278</v>
       </c>
       <c r="O1635" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1635" s="20" t="s">
-        <v>1281</v>
+        <v>1279</v>
       </c>
       <c r="W1635" s="4"/>
     </row>
@@ -47383,7 +47432,7 @@
         <v>286</v>
       </c>
       <c r="N1636" s="20" t="s">
-        <v>1282</v>
+        <v>1280</v>
       </c>
       <c r="V1636" s="20"/>
       <c r="W1636" s="4"/>
@@ -47461,7 +47510,7 @@
         <v>289</v>
       </c>
       <c r="N1639" s="20" t="s">
-        <v>1283</v>
+        <v>1281</v>
       </c>
       <c r="V1639" s="20"/>
       <c r="W1639" s="4"/>
@@ -47486,7 +47535,7 @@
         <v>290</v>
       </c>
       <c r="N1640" s="20" t="s">
-        <v>1284</v>
+        <v>1282</v>
       </c>
       <c r="V1640" s="20"/>
       <c r="W1640" s="4"/>
@@ -47539,7 +47588,7 @@
         <v>292</v>
       </c>
       <c r="N1642" s="20" t="s">
-        <v>1285</v>
+        <v>1283</v>
       </c>
       <c r="V1642" s="20"/>
       <c r="W1642" s="4"/>
@@ -47594,7 +47643,7 @@
         <v>294</v>
       </c>
       <c r="N1644" s="20" t="s">
-        <v>1286</v>
+        <v>1284</v>
       </c>
       <c r="U1644" s="48"/>
       <c r="V1644" s="20"/>
@@ -47648,13 +47697,13 @@
         <v>296</v>
       </c>
       <c r="N1646" s="21" t="s">
-        <v>1287</v>
+        <v>1285</v>
       </c>
       <c r="O1646" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1646" s="20" t="s">
-        <v>1288</v>
+        <v>1286</v>
       </c>
       <c r="W1646" s="4"/>
     </row>
@@ -47678,13 +47727,13 @@
         <v>297</v>
       </c>
       <c r="N1647" s="21" t="s">
-        <v>1289</v>
+        <v>1287</v>
       </c>
       <c r="O1647" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1647" s="20" t="s">
-        <v>1290</v>
+        <v>1288</v>
       </c>
       <c r="W1647" s="4"/>
     </row>
@@ -47708,7 +47757,7 @@
         <v>298</v>
       </c>
       <c r="N1648" s="20" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="V1648" s="20"/>
       <c r="W1648" s="4"/>
@@ -47758,7 +47807,7 @@
         <v>300</v>
       </c>
       <c r="N1650" s="20" t="s">
-        <v>1291</v>
+        <v>1289</v>
       </c>
       <c r="V1650" s="20"/>
       <c r="W1650" s="4"/>
@@ -47783,7 +47832,7 @@
         <v>301</v>
       </c>
       <c r="N1651" s="20" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="V1651" s="20"/>
       <c r="W1651" s="4"/>
@@ -47808,7 +47857,7 @@
         <v>302</v>
       </c>
       <c r="N1652" s="20" t="s">
-        <v>1292</v>
+        <v>1290</v>
       </c>
       <c r="V1652" s="20"/>
       <c r="W1652" s="4"/>
@@ -47858,7 +47907,7 @@
         <v>304</v>
       </c>
       <c r="N1654" s="20" t="s">
-        <v>1363</v>
+        <v>1360</v>
       </c>
       <c r="P1654" s="18" t="s">
         <v>66</v>
@@ -47916,7 +47965,7 @@
         <v>306</v>
       </c>
       <c r="N1656" s="20" t="s">
-        <v>1293</v>
+        <v>1291</v>
       </c>
       <c r="V1656" s="20"/>
       <c r="W1656" s="4"/>
@@ -47941,7 +47990,7 @@
         <v>307</v>
       </c>
       <c r="N1657" s="20" t="s">
-        <v>1294</v>
+        <v>1292</v>
       </c>
       <c r="V1657" s="20"/>
       <c r="W1657" s="4"/>
@@ -47966,7 +48015,7 @@
         <v>308</v>
       </c>
       <c r="N1658" s="20" t="s">
-        <v>1295</v>
+        <v>1293</v>
       </c>
       <c r="V1658" s="20"/>
       <c r="W1658" s="4"/>
@@ -48066,7 +48115,7 @@
         <v>312</v>
       </c>
       <c r="N1662" s="20" t="s">
-        <v>1296</v>
+        <v>1294</v>
       </c>
       <c r="V1662" s="20"/>
       <c r="W1662" s="4"/>
@@ -48091,7 +48140,7 @@
         <v>313</v>
       </c>
       <c r="N1663" s="21" t="s">
-        <v>1364</v>
+        <v>1361</v>
       </c>
       <c r="O1663" s="11" t="s">
         <v>21</v>
@@ -48100,7 +48149,7 @@
         <v>66</v>
       </c>
       <c r="V1663" s="20" t="s">
-        <v>1365</v>
+        <v>1362</v>
       </c>
       <c r="W1663" s="4"/>
     </row>
@@ -48152,7 +48201,7 @@
         <v>315</v>
       </c>
       <c r="N1665" s="20" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="V1665" s="20"/>
       <c r="W1665" s="4"/>
@@ -48177,7 +48226,7 @@
         <v>316</v>
       </c>
       <c r="N1666" s="20" t="s">
-        <v>1298</v>
+        <v>1296</v>
       </c>
       <c r="V1666" s="20"/>
       <c r="W1666" s="4"/>
@@ -48202,7 +48251,7 @@
         <v>317</v>
       </c>
       <c r="N1667" s="20" t="s">
-        <v>1299</v>
+        <v>1297</v>
       </c>
       <c r="V1667" s="20"/>
       <c r="W1667" s="4"/>
@@ -48227,13 +48276,13 @@
         <v>318</v>
       </c>
       <c r="N1668" s="21" t="s">
-        <v>1300</v>
+        <v>1298</v>
       </c>
       <c r="O1668" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1668" s="20" t="s">
-        <v>1301</v>
+        <v>1299</v>
       </c>
       <c r="W1668" s="4"/>
     </row>
@@ -48257,7 +48306,7 @@
         <v>319</v>
       </c>
       <c r="N1669" s="20" t="s">
-        <v>1302</v>
+        <v>1300</v>
       </c>
       <c r="V1669" s="20"/>
       <c r="W1669" s="4"/>
@@ -48282,7 +48331,7 @@
         <v>320</v>
       </c>
       <c r="N1670" s="21" t="s">
-        <v>1303</v>
+        <v>1301</v>
       </c>
       <c r="O1670" s="11" t="s">
         <v>23</v>
@@ -48312,7 +48361,7 @@
         <v>321</v>
       </c>
       <c r="N1671" s="20" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="V1671" s="20"/>
       <c r="W1671" s="4"/>
@@ -48337,7 +48386,7 @@
         <v>322</v>
       </c>
       <c r="N1672" s="21" t="s">
-        <v>1366</v>
+        <v>1363</v>
       </c>
       <c r="O1672" s="11" t="s">
         <v>21</v>
@@ -48346,7 +48395,7 @@
         <v>66</v>
       </c>
       <c r="V1672" s="20" t="s">
-        <v>1367</v>
+        <v>1364</v>
       </c>
       <c r="W1672" s="4"/>
     </row>
@@ -48380,10 +48429,10 @@
         <v>64</v>
       </c>
       <c r="D1674" s="10" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="G1674" s="4" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="I1674" s="4" t="s">
         <v>59</v>
@@ -48401,7 +48450,7 @@
         <v>324</v>
       </c>
       <c r="N1674" s="20" t="s">
-        <v>1305</v>
+        <v>1303</v>
       </c>
       <c r="V1674" s="20"/>
       <c r="W1674" s="4"/>
@@ -48411,10 +48460,10 @@
         <v>64</v>
       </c>
       <c r="D1675" s="10" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="G1675" s="4" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="I1675" s="4" t="s">
         <v>59</v>
@@ -48445,10 +48494,10 @@
         <v>64</v>
       </c>
       <c r="D1676" s="10" t="s">
-        <v>1424</v>
+        <v>1421</v>
       </c>
       <c r="G1676" s="4" t="s">
-        <v>1425</v>
+        <v>1422</v>
       </c>
       <c r="I1676" s="4" t="s">
         <v>59</v>
@@ -48466,7 +48515,7 @@
         <v>326</v>
       </c>
       <c r="N1676" s="20" t="s">
-        <v>1306</v>
+        <v>1304</v>
       </c>
       <c r="S1676" s="2" t="s">
         <v>97</v>
@@ -48522,13 +48571,13 @@
         <v>328</v>
       </c>
       <c r="N1678" s="21" t="s">
-        <v>1307</v>
+        <v>1305</v>
       </c>
       <c r="O1678" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1678" s="20" t="s">
-        <v>1308</v>
+        <v>1306</v>
       </c>
       <c r="W1678" s="4"/>
     </row>
@@ -48537,7 +48586,7 @@
         <v>64</v>
       </c>
       <c r="H1679" s="61" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="I1679" s="4" t="s">
         <v>59</v>
@@ -48555,7 +48604,7 @@
         <v>329</v>
       </c>
       <c r="N1679" s="20" t="s">
-        <v>1304</v>
+        <v>1302</v>
       </c>
       <c r="V1679" s="20"/>
       <c r="W1679" s="4"/>
@@ -48565,7 +48614,7 @@
         <v>64</v>
       </c>
       <c r="H1680" s="61" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="I1680" s="4" t="s">
         <v>59</v>
@@ -48583,7 +48632,7 @@
         <v>330</v>
       </c>
       <c r="N1680" s="20" t="s">
-        <v>1309</v>
+        <v>1307</v>
       </c>
       <c r="V1680" s="20"/>
       <c r="W1680" s="4"/>
@@ -48593,7 +48642,7 @@
         <v>64</v>
       </c>
       <c r="H1681" s="61" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="I1681" s="4" t="s">
         <v>59</v>
@@ -48626,7 +48675,7 @@
         <v>64</v>
       </c>
       <c r="H1682" s="61" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="I1682" s="4" t="s">
         <v>59</v>
@@ -48644,7 +48693,7 @@
         <v>332</v>
       </c>
       <c r="N1682" s="20" t="s">
-        <v>1310</v>
+        <v>1308</v>
       </c>
       <c r="V1682" s="20"/>
       <c r="W1682" s="4"/>
@@ -48654,7 +48703,7 @@
         <v>64</v>
       </c>
       <c r="H1683" s="61" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="I1683" s="4" t="s">
         <v>59</v>
@@ -48672,7 +48721,7 @@
         <v>333</v>
       </c>
       <c r="N1683" s="20" t="s">
-        <v>1311</v>
+        <v>1309</v>
       </c>
       <c r="V1683" s="20"/>
       <c r="W1683" s="4"/>
@@ -48682,7 +48731,7 @@
         <v>64</v>
       </c>
       <c r="H1684" s="61" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="I1684" s="4" t="s">
         <v>59</v>
@@ -48710,7 +48759,7 @@
         <v>64</v>
       </c>
       <c r="H1685" s="61" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="I1685" s="4" t="s">
         <v>59</v>
@@ -48741,7 +48790,7 @@
         <v>64</v>
       </c>
       <c r="H1686" s="61" t="s">
-        <v>1410</v>
+        <v>1407</v>
       </c>
       <c r="I1686" s="4" t="s">
         <v>59</v>
@@ -48759,7 +48808,7 @@
         <v>336</v>
       </c>
       <c r="N1686" s="20" t="s">
-        <v>1312</v>
+        <v>1310</v>
       </c>
       <c r="V1686" s="20"/>
       <c r="W1686" s="4"/>
@@ -48784,7 +48833,7 @@
         <v>337</v>
       </c>
       <c r="N1687" s="20" t="s">
-        <v>1313</v>
+        <v>1311</v>
       </c>
       <c r="V1687" s="20"/>
       <c r="W1687" s="4"/>
@@ -48834,7 +48883,7 @@
         <v>339</v>
       </c>
       <c r="N1689" s="20" t="s">
-        <v>1314</v>
+        <v>1312</v>
       </c>
       <c r="V1689" s="20"/>
       <c r="W1689" s="4"/>
@@ -48859,14 +48908,14 @@
         <v>340</v>
       </c>
       <c r="N1690" s="21" t="s">
-        <v>1315</v>
+        <v>1313</v>
       </c>
       <c r="O1690" s="11" t="s">
         <v>21</v>
       </c>
       <c r="U1690" s="20"/>
       <c r="V1690" s="20" t="s">
-        <v>1316</v>
+        <v>1314</v>
       </c>
       <c r="W1690" s="4"/>
     </row>
@@ -48890,7 +48939,7 @@
         <v>341</v>
       </c>
       <c r="N1691" s="20" t="s">
-        <v>1297</v>
+        <v>1295</v>
       </c>
       <c r="P1691" s="18" t="s">
         <v>66</v>

--- a/TS Jatai Working/Padam Input Templates/TS 1.2 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 1.2 Padam Input Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{238D72B1-55DD-41D4-BD44-8D0CDCEDE955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15E366A-4DF0-4C43-9F27-EB00935A972F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5259,9 +5259,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W1691"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1527" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V1536" sqref="V1536"/>
+    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A263" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="U267" sqref="U267"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/TS Jatai Working/Padam Input Templates/TS 1.2 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 1.2 Padam Input Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A15E366A-4DF0-4C43-9F27-EB00935A972F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D14F80-83E7-4528-BBB3-3E2A3ED96DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3178,9 +3178,6 @@
     <t>irA#vatI</t>
   </si>
   <si>
-    <t>irA#vatIq itirA$ - vaqtIq</t>
-  </si>
-  <si>
     <t>dheqnuqmatI$</t>
   </si>
   <si>
@@ -4635,6 +4632,9 @@
       </rPr>
       <t>yu#pa - yAti#</t>
     </r>
+  </si>
+  <si>
+    <t>irA#vatIq itIrA$ - vaqtIq</t>
   </si>
 </sst>
 </file>
@@ -5259,9 +5259,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W1691"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A263" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="U267" sqref="U267"/>
+    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A1258" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="V1261" sqref="V1261"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5293,7 +5293,7 @@
         <v>62</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="C1" s="33" t="s">
         <v>0</v>
@@ -5347,7 +5347,7 @@
         <v>188</v>
       </c>
       <c r="T1" s="56" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="U1" s="51" t="s">
         <v>16</v>
@@ -6007,7 +6007,7 @@
         <v>18</v>
       </c>
       <c r="N19" s="70" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>21</v>
@@ -8392,7 +8392,7 @@
     </row>
     <row r="90" spans="1:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H90" s="4" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="I90" s="4" t="s">
         <v>27</v>
@@ -8435,7 +8435,7 @@
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
       <c r="H91" s="4" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="I91" s="4" t="s">
         <v>27</v>
@@ -8475,7 +8475,7 @@
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
       <c r="H92" s="4" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="I92" s="4" t="s">
         <v>27</v>
@@ -8506,7 +8506,7 @@
     </row>
     <row r="93" spans="1:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H93" s="4" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="I93" s="4" t="s">
         <v>27</v>
@@ -8646,7 +8646,7 @@
         <v>20</v>
       </c>
       <c r="V98" s="71" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="W98" s="4"/>
     </row>
@@ -8768,7 +8768,7 @@
     </row>
     <row r="104" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H104" s="4" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="I104" s="4" t="s">
         <v>27</v>
@@ -8798,7 +8798,7 @@
     </row>
     <row r="105" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H105" s="4" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="I105" s="4" t="s">
         <v>27</v>
@@ -8823,7 +8823,7 @@
     </row>
     <row r="106" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H106" s="4" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="I106" s="4" t="s">
         <v>27</v>
@@ -8848,7 +8848,7 @@
     </row>
     <row r="107" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H107" s="4" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="I107" s="4" t="s">
         <v>27</v>
@@ -8873,7 +8873,7 @@
     </row>
     <row r="108" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H108" s="4" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="I108" s="4" t="s">
         <v>27</v>
@@ -8898,7 +8898,7 @@
     </row>
     <row r="109" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H109" s="4" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="I109" s="4" t="s">
         <v>27</v>
@@ -9850,7 +9850,7 @@
     </row>
     <row r="150" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H150" s="4" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="I150" s="4" t="s">
         <v>28</v>
@@ -9875,7 +9875,7 @@
     </row>
     <row r="151" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H151" s="4" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="I151" s="4" t="s">
         <v>28</v>
@@ -9907,7 +9907,7 @@
     </row>
     <row r="152" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H152" s="4" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="I152" s="4" t="s">
         <v>28</v>
@@ -9937,7 +9937,7 @@
     </row>
     <row r="153" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H153" s="4" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="I153" s="4" t="s">
         <v>28</v>
@@ -9962,7 +9962,7 @@
     </row>
     <row r="154" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H154" s="4" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="I154" s="4" t="s">
         <v>28</v>
@@ -9992,7 +9992,7 @@
     </row>
     <row r="155" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H155" s="4" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="I155" s="4" t="s">
         <v>28</v>
@@ -10017,7 +10017,7 @@
     </row>
     <row r="156" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H156" s="4" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="I156" s="4" t="s">
         <v>28</v>
@@ -10045,7 +10045,7 @@
     </row>
     <row r="157" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H157" s="4" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="I157" s="4" t="s">
         <v>28</v>
@@ -10070,7 +10070,7 @@
     </row>
     <row r="158" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H158" s="4" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="I158" s="4" t="s">
         <v>28</v>
@@ -10100,7 +10100,7 @@
     </row>
     <row r="159" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H159" s="4" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="I159" s="4" t="s">
         <v>28</v>
@@ -10125,7 +10125,7 @@
     </row>
     <row r="160" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H160" s="4" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="I160" s="4" t="s">
         <v>29</v>
@@ -10150,7 +10150,7 @@
     </row>
     <row r="161" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H161" s="4" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="I161" s="4" t="s">
         <v>29</v>
@@ -10178,7 +10178,7 @@
     </row>
     <row r="162" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H162" s="4" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="I162" s="4" t="s">
         <v>29</v>
@@ -10203,7 +10203,7 @@
     </row>
     <row r="163" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H163" s="4" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="I163" s="4" t="s">
         <v>29</v>
@@ -10228,7 +10228,7 @@
     </row>
     <row r="164" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H164" s="4" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="I164" s="4" t="s">
         <v>29</v>
@@ -10258,7 +10258,7 @@
     </row>
     <row r="165" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H165" s="4" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="I165" s="4" t="s">
         <v>29</v>
@@ -10659,7 +10659,7 @@
     </row>
     <row r="182" spans="7:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H182" s="4" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="I182" s="4" t="s">
         <v>29</v>
@@ -10684,7 +10684,7 @@
     </row>
     <row r="183" spans="7:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H183" s="4" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="I183" s="4" t="s">
         <v>29</v>
@@ -10709,10 +10709,10 @@
     </row>
     <row r="184" spans="7:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G184" s="4" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="I184" s="4" t="s">
         <v>29</v>
@@ -10737,10 +10737,10 @@
     </row>
     <row r="185" spans="7:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G185" s="4" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="I185" s="4" t="s">
         <v>29</v>
@@ -10765,10 +10765,10 @@
     </row>
     <row r="186" spans="7:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G186" s="4" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="I186" s="4" t="s">
         <v>29</v>
@@ -10798,7 +10798,7 @@
     </row>
     <row r="187" spans="7:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H187" s="4" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="I187" s="4" t="s">
         <v>29</v>
@@ -10823,7 +10823,7 @@
     </row>
     <row r="188" spans="7:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H188" s="4" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="I188" s="4" t="s">
         <v>29</v>
@@ -10848,7 +10848,7 @@
     </row>
     <row r="189" spans="7:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H189" s="4" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="I189" s="4" t="s">
         <v>29</v>
@@ -11239,7 +11239,7 @@
         <v>96</v>
       </c>
       <c r="N205" s="71" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="V205" s="20"/>
       <c r="W205" s="4"/>
@@ -11606,7 +11606,7 @@
     </row>
     <row r="221" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H221" s="61" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="I221" s="4" t="s">
         <v>30</v>
@@ -11632,7 +11632,7 @@
     </row>
     <row r="222" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H222" s="61" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="I222" s="4" t="s">
         <v>30</v>
@@ -11658,7 +11658,7 @@
     </row>
     <row r="223" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H223" s="61" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="I223" s="4" t="s">
         <v>30</v>
@@ -11683,7 +11683,7 @@
     </row>
     <row r="224" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H224" s="61" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="I224" s="4" t="s">
         <v>30</v>
@@ -11708,7 +11708,7 @@
     </row>
     <row r="225" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H225" s="61" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="I225" s="4" t="s">
         <v>30</v>
@@ -11736,7 +11736,7 @@
     </row>
     <row r="226" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H226" s="61" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="I226" s="4" t="s">
         <v>30</v>
@@ -11767,7 +11767,7 @@
     <row r="227" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D227" s="12"/>
       <c r="H227" s="61" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="I227" s="4" t="s">
         <v>30</v>
@@ -12334,7 +12334,7 @@
         <v>11</v>
       </c>
       <c r="N250" s="20" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="P250" s="18" t="s">
         <v>66</v>
@@ -12718,7 +12718,7 @@
     </row>
     <row r="267" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E267" s="63" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="I267" s="4" t="s">
         <v>31</v>
@@ -12746,7 +12746,7 @@
     </row>
     <row r="268" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E268" s="63" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="I268" s="4" t="s">
         <v>31</v>
@@ -13049,7 +13049,7 @@
         <v>41</v>
       </c>
       <c r="N280" s="20" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="P280" s="18" t="s">
         <v>66</v>
@@ -13084,7 +13084,7 @@
     </row>
     <row r="282" spans="4:23" ht="18" x14ac:dyDescent="0.25">
       <c r="F282" s="4" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="I282" s="4" t="s">
         <v>31</v>
@@ -13113,7 +13113,7 @@
     </row>
     <row r="283" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F283" s="4" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="I283" s="4" t="s">
         <v>31</v>
@@ -13323,7 +13323,7 @@
         <v>52</v>
       </c>
       <c r="N291" s="21" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="P291" s="18" t="s">
         <v>66</v>
@@ -13677,7 +13677,7 @@
     </row>
     <row r="306" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H306" s="61" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="I306" s="4" t="s">
         <v>32</v>
@@ -13703,7 +13703,7 @@
     </row>
     <row r="307" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H307" s="61" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="I307" s="4" t="s">
         <v>32</v>
@@ -13728,7 +13728,7 @@
     </row>
     <row r="308" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H308" s="61" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="I308" s="4" t="s">
         <v>32</v>
@@ -13753,7 +13753,7 @@
     </row>
     <row r="309" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H309" s="61" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="I309" s="4" t="s">
         <v>32</v>
@@ -13781,7 +13781,7 @@
     </row>
     <row r="310" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H310" s="61" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="I310" s="4" t="s">
         <v>32</v>
@@ -13806,7 +13806,7 @@
     </row>
     <row r="311" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H311" s="61" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="I311" s="4" t="s">
         <v>32</v>
@@ -13899,7 +13899,7 @@
     </row>
     <row r="315" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H315" s="61" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="I315" s="4" t="s">
         <v>32</v>
@@ -13927,7 +13927,7 @@
     </row>
     <row r="316" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H316" s="61" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="I316" s="4" t="s">
         <v>32</v>
@@ -13953,7 +13953,7 @@
     </row>
     <row r="317" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H317" s="61" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="I317" s="4" t="s">
         <v>32</v>
@@ -13978,7 +13978,7 @@
     </row>
     <row r="318" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H318" s="61" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="I318" s="4" t="s">
         <v>32</v>
@@ -14003,7 +14003,7 @@
     </row>
     <row r="319" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H319" s="61" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="I319" s="4" t="s">
         <v>32</v>
@@ -14876,7 +14876,7 @@
     </row>
     <row r="358" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H358" s="61" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="I358" s="4" t="s">
         <v>33</v>
@@ -14901,7 +14901,7 @@
     </row>
     <row r="359" spans="2:23" ht="18" x14ac:dyDescent="0.25">
       <c r="H359" s="61" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="I359" s="4" t="s">
         <v>33</v>
@@ -14928,7 +14928,7 @@
     </row>
     <row r="360" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H360" s="61" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="I360" s="4" t="s">
         <v>33</v>
@@ -14957,7 +14957,7 @@
     </row>
     <row r="361" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H361" s="61" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="I361" s="4" t="s">
         <v>33</v>
@@ -14982,7 +14982,7 @@
     </row>
     <row r="362" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H362" s="61" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="I362" s="4" t="s">
         <v>33</v>
@@ -15077,7 +15077,7 @@
         <v>21</v>
       </c>
       <c r="V365" s="71" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="W365" s="4"/>
     </row>
@@ -15105,7 +15105,7 @@
     </row>
     <row r="367" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H367" s="61" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="I367" s="4" t="s">
         <v>33</v>
@@ -15130,7 +15130,7 @@
     </row>
     <row r="368" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H368" s="61" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="I368" s="4" t="s">
         <v>33</v>
@@ -15155,7 +15155,7 @@
     </row>
     <row r="369" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H369" s="61" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="I369" s="4" t="s">
         <v>33</v>
@@ -15180,7 +15180,7 @@
     </row>
     <row r="370" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H370" s="61" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="I370" s="4" t="s">
         <v>33</v>
@@ -15208,7 +15208,7 @@
     </row>
     <row r="371" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H371" s="61" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="I371" s="4" t="s">
         <v>33</v>
@@ -15233,7 +15233,7 @@
     </row>
     <row r="372" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H372" s="61" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="I372" s="4" t="s">
         <v>33</v>
@@ -15491,7 +15491,7 @@
     </row>
     <row r="383" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H383" s="61" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I383" s="4" t="s">
         <v>33</v>
@@ -15521,7 +15521,7 @@
     </row>
     <row r="384" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H384" s="61" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I384" s="4" t="s">
         <v>33</v>
@@ -15549,7 +15549,7 @@
         <v>180</v>
       </c>
       <c r="H385" s="61" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I385" s="4" t="s">
         <v>33</v>
@@ -15577,7 +15577,7 @@
     </row>
     <row r="386" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H386" s="61" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I386" s="4" t="s">
         <v>33</v>
@@ -15602,7 +15602,7 @@
     </row>
     <row r="387" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H387" s="61" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I387" s="4" t="s">
         <v>33</v>
@@ -15627,7 +15627,7 @@
     </row>
     <row r="388" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H388" s="61" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I388" s="4" t="s">
         <v>33</v>
@@ -15655,7 +15655,7 @@
     </row>
     <row r="389" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H389" s="61" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I389" s="4" t="s">
         <v>33</v>
@@ -15680,7 +15680,7 @@
     </row>
     <row r="390" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H390" s="61" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I390" s="4" t="s">
         <v>33</v>
@@ -15705,7 +15705,7 @@
     </row>
     <row r="391" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H391" s="61" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I391" s="4" t="s">
         <v>33</v>
@@ -15733,7 +15733,7 @@
     </row>
     <row r="392" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H392" s="61" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I392" s="4" t="s">
         <v>33</v>
@@ -15856,7 +15856,7 @@
     </row>
     <row r="397" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H397" s="61" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="I397" s="4" t="s">
         <v>33</v>
@@ -15884,7 +15884,7 @@
     </row>
     <row r="398" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H398" s="61" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="I398" s="4" t="s">
         <v>33</v>
@@ -15910,7 +15910,7 @@
     </row>
     <row r="399" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H399" s="61" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="I399" s="4" t="s">
         <v>33</v>
@@ -15935,7 +15935,7 @@
     </row>
     <row r="400" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H400" s="61" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="I400" s="4" t="s">
         <v>33</v>
@@ -16285,7 +16285,7 @@
         <v>175</v>
       </c>
       <c r="N414" s="20" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="P414" s="18" t="s">
         <v>66</v>
@@ -16429,7 +16429,7 @@
     </row>
     <row r="421" spans="6:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F421" s="4" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="I421" s="4" t="s">
         <v>34</v>
@@ -16454,7 +16454,7 @@
     </row>
     <row r="422" spans="6:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F422" s="4" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="I422" s="4" t="s">
         <v>34</v>
@@ -17081,7 +17081,7 @@
         <v>62</v>
       </c>
       <c r="H449" s="61" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="I449" s="4" t="s">
         <v>34</v>
@@ -17109,7 +17109,7 @@
         <v>62</v>
       </c>
       <c r="H450" s="61" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="I450" s="4" t="s">
         <v>34</v>
@@ -17137,7 +17137,7 @@
     </row>
     <row r="451" spans="1:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H451" s="61" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="I451" s="4" t="s">
         <v>34</v>
@@ -17162,7 +17162,7 @@
     </row>
     <row r="452" spans="1:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H452" s="61" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="I452" s="4" t="s">
         <v>34</v>
@@ -17541,7 +17541,7 @@
     </row>
     <row r="469" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H469" s="61" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="I469" s="4" t="s">
         <v>35</v>
@@ -17566,7 +17566,7 @@
     </row>
     <row r="470" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H470" s="61" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="I470" s="4" t="s">
         <v>35</v>
@@ -17592,7 +17592,7 @@
     </row>
     <row r="471" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H471" s="61" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="I471" s="4" t="s">
         <v>35</v>
@@ -17617,7 +17617,7 @@
     </row>
     <row r="472" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H472" s="61" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="I472" s="4" t="s">
         <v>35</v>
@@ -17647,7 +17647,7 @@
     </row>
     <row r="473" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H473" s="61" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="I473" s="4" t="s">
         <v>35</v>
@@ -17673,7 +17673,7 @@
     </row>
     <row r="474" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H474" s="61" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="I474" s="4" t="s">
         <v>35</v>
@@ -17713,7 +17713,7 @@
         <v>61</v>
       </c>
       <c r="N475" s="70" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="O475" s="11" t="s">
         <v>21</v>
@@ -17740,7 +17740,7 @@
         <v>62</v>
       </c>
       <c r="N476" s="70" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="O476" s="11" t="s">
         <v>21</v>
@@ -18332,7 +18332,7 @@
     </row>
     <row r="502" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H502" s="61" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="I502" s="4" t="s">
         <v>35</v>
@@ -18357,7 +18357,7 @@
     </row>
     <row r="503" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H503" s="61" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="I503" s="4" t="s">
         <v>35</v>
@@ -18382,7 +18382,7 @@
     </row>
     <row r="504" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H504" s="61" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="I504" s="4" t="s">
         <v>35</v>
@@ -18407,7 +18407,7 @@
     </row>
     <row r="505" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H505" s="61" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="I505" s="4" t="s">
         <v>35</v>
@@ -18432,7 +18432,7 @@
     </row>
     <row r="506" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H506" s="61" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="I506" s="4" t="s">
         <v>35</v>
@@ -18644,7 +18644,7 @@
         <v>181</v>
       </c>
       <c r="H515" s="61" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="I515" s="4" t="s">
         <v>35</v>
@@ -18675,7 +18675,7 @@
     </row>
     <row r="516" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H516" s="61" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="I516" s="4" t="s">
         <v>35</v>
@@ -18703,7 +18703,7 @@
     </row>
     <row r="517" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H517" s="61" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="I517" s="4" t="s">
         <v>35</v>
@@ -18728,7 +18728,7 @@
     </row>
     <row r="518" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H518" s="61" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="I518" s="4" t="s">
         <v>35</v>
@@ -18753,7 +18753,7 @@
     </row>
     <row r="519" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H519" s="61" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="I519" s="4" t="s">
         <v>35</v>
@@ -18771,7 +18771,7 @@
         <v>105</v>
       </c>
       <c r="N519" s="20" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="P519" s="18" t="s">
         <v>66</v>
@@ -19762,7 +19762,7 @@
         <v>43</v>
       </c>
       <c r="N562" s="20" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="V562" s="20"/>
       <c r="W562" s="4"/>
@@ -20094,7 +20094,7 @@
     </row>
     <row r="577" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E577" s="4" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="I577" s="4" t="s">
         <v>37</v>
@@ -20119,10 +20119,10 @@
     </row>
     <row r="578" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E578" s="4" t="s">
-        <v>1416</v>
+        <v>1415</v>
       </c>
       <c r="H578" s="61" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I578" s="4" t="s">
         <v>37</v>
@@ -20150,7 +20150,7 @@
     </row>
     <row r="579" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H579" s="61" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I579" s="4" t="s">
         <v>37</v>
@@ -20175,7 +20175,7 @@
     </row>
     <row r="580" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H580" s="61" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I580" s="4" t="s">
         <v>37</v>
@@ -20200,7 +20200,7 @@
     </row>
     <row r="581" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H581" s="61" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I581" s="4" t="s">
         <v>37</v>
@@ -20225,7 +20225,7 @@
     </row>
     <row r="582" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H582" s="61" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I582" s="4" t="s">
         <v>37</v>
@@ -20265,7 +20265,7 @@
         <v>64</v>
       </c>
       <c r="N583" s="70" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="V583" s="20"/>
       <c r="W583" s="4"/>
@@ -20614,7 +20614,7 @@
         <v>79</v>
       </c>
       <c r="N598" s="20" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="P598" s="18" t="s">
         <v>66</v>
@@ -20626,7 +20626,7 @@
     </row>
     <row r="599" spans="4:23" ht="18" x14ac:dyDescent="0.25">
       <c r="H599" s="61" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="I599" s="4" t="s">
         <v>38</v>
@@ -20655,10 +20655,10 @@
         <v>179</v>
       </c>
       <c r="G600" s="4" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="H600" s="61" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="I600" s="4" t="s">
         <v>38</v>
@@ -20687,10 +20687,10 @@
         <v>179</v>
       </c>
       <c r="G601" s="4" t="s">
-        <v>1420</v>
+        <v>1419</v>
       </c>
       <c r="H601" s="61" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="I601" s="4" t="s">
         <v>38</v>
@@ -20876,7 +20876,7 @@
     </row>
     <row r="609" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H609" s="61" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="I609" s="4" t="s">
         <v>38</v>
@@ -20901,7 +20901,7 @@
     </row>
     <row r="610" spans="4:23" ht="18" x14ac:dyDescent="0.25">
       <c r="H610" s="61" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="I610" s="4" t="s">
         <v>38</v>
@@ -20931,7 +20931,7 @@
         <v>180</v>
       </c>
       <c r="H611" s="61" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="I611" s="4" t="s">
         <v>38</v>
@@ -20964,7 +20964,7 @@
     </row>
     <row r="612" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H612" s="61" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="I612" s="4" t="s">
         <v>38</v>
@@ -20989,7 +20989,7 @@
     </row>
     <row r="613" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H613" s="61" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="I613" s="4" t="s">
         <v>38</v>
@@ -21651,7 +21651,7 @@
         <v>41</v>
       </c>
       <c r="N639" s="20" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="P639" s="18" t="s">
         <v>66</v>
@@ -21816,7 +21816,7 @@
     </row>
     <row r="646" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H646" s="61" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I646" s="4" t="s">
         <v>38</v>
@@ -21846,7 +21846,7 @@
     </row>
     <row r="647" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H647" s="61" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I647" s="4" t="s">
         <v>38</v>
@@ -21875,7 +21875,7 @@
       </c>
       <c r="D648" s="62"/>
       <c r="H648" s="61" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I648" s="4" t="s">
         <v>38</v>
@@ -21910,7 +21910,7 @@
     <row r="649" spans="2:23" ht="18" x14ac:dyDescent="0.25">
       <c r="D649" s="62"/>
       <c r="H649" s="61" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I649" s="4" t="s">
         <v>38</v>
@@ -21941,7 +21941,7 @@
     <row r="650" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D650" s="62"/>
       <c r="H650" s="61" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I650" s="4" t="s">
         <v>38</v>
@@ -22102,7 +22102,7 @@
         <v>57</v>
       </c>
       <c r="N655" s="20" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="P655" s="18" t="s">
         <v>66</v>
@@ -23278,7 +23278,7 @@
     </row>
     <row r="704" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H704" s="61" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I704" s="4" t="s">
         <v>39</v>
@@ -23303,7 +23303,7 @@
     </row>
     <row r="705" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H705" s="61" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I705" s="4" t="s">
         <v>39</v>
@@ -23328,7 +23328,7 @@
     </row>
     <row r="706" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H706" s="61" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I706" s="4" t="s">
         <v>39</v>
@@ -23356,7 +23356,7 @@
     </row>
     <row r="707" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H707" s="61" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I707" s="4" t="s">
         <v>39</v>
@@ -23381,7 +23381,7 @@
     </row>
     <row r="708" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H708" s="61" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I708" s="4" t="s">
         <v>39</v>
@@ -23717,7 +23717,7 @@
     </row>
     <row r="722" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H722" s="61" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="I722" s="4" t="s">
         <v>39</v>
@@ -23747,7 +23747,7 @@
     </row>
     <row r="723" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H723" s="61" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="I723" s="4" t="s">
         <v>39</v>
@@ -23771,14 +23771,14 @@
         <v>95</v>
       </c>
       <c r="T723" s="65" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="V723" s="20"/>
       <c r="W723" s="4"/>
     </row>
     <row r="724" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H724" s="61" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="I724" s="4" t="s">
         <v>39</v>
@@ -23803,7 +23803,7 @@
     </row>
     <row r="725" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H725" s="61" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="I725" s="4" t="s">
         <v>39</v>
@@ -23871,7 +23871,7 @@
         <v>72</v>
       </c>
       <c r="N727" s="20" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="P727" s="18" t="s">
         <v>66</v>
@@ -23884,13 +23884,13 @@
     </row>
     <row r="728" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E728" s="4" t="s">
+        <v>1416</v>
+      </c>
+      <c r="F728" s="4" t="s">
         <v>1417</v>
       </c>
-      <c r="F728" s="4" t="s">
-        <v>1418</v>
-      </c>
       <c r="H728" s="61" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="I728" s="4" t="s">
         <v>40</v>
@@ -23918,13 +23918,13 @@
     </row>
     <row r="729" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E729" s="4" t="s">
+        <v>1416</v>
+      </c>
+      <c r="F729" s="4" t="s">
         <v>1417</v>
       </c>
-      <c r="F729" s="4" t="s">
-        <v>1418</v>
-      </c>
       <c r="H729" s="61" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="I729" s="4" t="s">
         <v>40</v>
@@ -23949,13 +23949,13 @@
     </row>
     <row r="730" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E730" s="4" t="s">
+        <v>1416</v>
+      </c>
+      <c r="F730" s="4" t="s">
         <v>1417</v>
       </c>
-      <c r="F730" s="4" t="s">
-        <v>1418</v>
-      </c>
       <c r="H730" s="61" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="I730" s="4" t="s">
         <v>40</v>
@@ -23985,13 +23985,13 @@
     </row>
     <row r="731" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E731" s="4" t="s">
+        <v>1416</v>
+      </c>
+      <c r="F731" s="4" t="s">
         <v>1417</v>
       </c>
-      <c r="F731" s="4" t="s">
-        <v>1418</v>
-      </c>
       <c r="H731" s="61" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="I731" s="4" t="s">
         <v>40</v>
@@ -24019,7 +24019,7 @@
     </row>
     <row r="732" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H732" s="61" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="I732" s="4" t="s">
         <v>40</v>
@@ -24796,7 +24796,7 @@
     </row>
     <row r="763" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H763" s="61" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="I763" s="4" t="s">
         <v>40</v>
@@ -24826,7 +24826,7 @@
     </row>
     <row r="764" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H764" s="61" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="I764" s="4" t="s">
         <v>40</v>
@@ -24851,7 +24851,7 @@
     </row>
     <row r="765" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H765" s="61" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="I765" s="4" t="s">
         <v>40</v>
@@ -24876,7 +24876,7 @@
     </row>
     <row r="766" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H766" s="61" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="I766" s="4" t="s">
         <v>40</v>
@@ -24901,7 +24901,7 @@
     </row>
     <row r="767" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H767" s="61" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="I767" s="4" t="s">
         <v>40</v>
@@ -25558,7 +25558,7 @@
         <v>66</v>
       </c>
       <c r="N793" s="20" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="P793" s="18" t="s">
         <v>66</v>
@@ -25644,7 +25644,7 @@
     </row>
     <row r="797" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H797" s="61" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I797" s="4" t="s">
         <v>41</v>
@@ -25669,7 +25669,7 @@
     </row>
     <row r="798" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H798" s="61" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I798" s="4" t="s">
         <v>41</v>
@@ -25697,7 +25697,7 @@
     </row>
     <row r="799" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H799" s="61" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I799" s="4" t="s">
         <v>41</v>
@@ -25722,13 +25722,13 @@
     </row>
     <row r="800" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B800" s="4" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="G800" s="4" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="H800" s="61" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I800" s="4" t="s">
         <v>41</v>
@@ -25746,25 +25746,25 @@
         <v>73</v>
       </c>
       <c r="N800" s="21" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="O800" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V800" s="20" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="W800" s="4"/>
     </row>
     <row r="801" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B801" s="4" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="G801" s="4" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="H801" s="61" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I801" s="4" t="s">
         <v>41</v>
@@ -25794,10 +25794,10 @@
     </row>
     <row r="802" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B802" s="4" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="G802" s="4" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="H802" s="26"/>
       <c r="I802" s="4" t="s">
@@ -26066,7 +26066,7 @@
         <v>85</v>
       </c>
       <c r="N812" s="20" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="P812" s="18" t="s">
         <v>66</v>
@@ -26920,7 +26920,7 @@
         <v>35</v>
       </c>
       <c r="N847" s="70" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="O847" s="11" t="s">
         <v>21</v>
@@ -27839,7 +27839,7 @@
         <v>73</v>
       </c>
       <c r="N885" s="20" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="P885" s="18" t="s">
         <v>66</v>
@@ -30283,7 +30283,7 @@
         <v>101</v>
       </c>
       <c r="N986" s="20" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="P986" s="18" t="s">
         <v>66</v>
@@ -30460,7 +30460,7 @@
     </row>
     <row r="993" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H993" s="61" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I993" s="21" t="s">
         <v>45</v>
@@ -30485,7 +30485,7 @@
     </row>
     <row r="994" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H994" s="61" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I994" s="21" t="s">
         <v>45</v>
@@ -30515,7 +30515,7 @@
     </row>
     <row r="995" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H995" s="61" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I995" s="21" t="s">
         <v>45</v>
@@ -30543,7 +30543,7 @@
     </row>
     <row r="996" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H996" s="61" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I996" s="21" t="s">
         <v>45</v>
@@ -30568,7 +30568,7 @@
     </row>
     <row r="997" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H997" s="61" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I997" s="21" t="s">
         <v>45</v>
@@ -31003,7 +31003,7 @@
         <v>94</v>
       </c>
       <c r="T1014" s="18" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="V1014" s="20"/>
       <c r="W1014" s="4"/>
@@ -31820,7 +31820,7 @@
         <v>179</v>
       </c>
       <c r="E1049" s="4" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="H1049" s="26"/>
       <c r="I1049" s="4" t="s">
@@ -31850,7 +31850,7 @@
         <v>179</v>
       </c>
       <c r="E1050" s="4" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="H1050" s="26"/>
       <c r="I1050" s="4" t="s">
@@ -32063,7 +32063,7 @@
     </row>
     <row r="1059" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1059" s="61" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="I1059" s="4" t="s">
         <v>46</v>
@@ -32088,7 +32088,7 @@
     </row>
     <row r="1060" spans="2:23" ht="18" x14ac:dyDescent="0.25">
       <c r="H1060" s="61" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="I1060" s="4" t="s">
         <v>46</v>
@@ -32116,7 +32116,7 @@
         <v>179</v>
       </c>
       <c r="H1061" s="61" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="I1061" s="4" t="s">
         <v>46</v>
@@ -32144,7 +32144,7 @@
     </row>
     <row r="1062" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1062" s="61" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="I1062" s="4" t="s">
         <v>46</v>
@@ -32174,7 +32174,7 @@
     </row>
     <row r="1063" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1063" s="61" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="I1063" s="4" t="s">
         <v>46</v>
@@ -32207,7 +32207,7 @@
         <v>61</v>
       </c>
       <c r="H1064" s="61" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="I1064" s="4" t="s">
         <v>46</v>
@@ -33515,7 +33515,7 @@
         <v>39</v>
       </c>
       <c r="N1115" s="71" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="V1115" s="20"/>
       <c r="W1115" s="4"/>
@@ -33538,7 +33538,7 @@
         <v>40</v>
       </c>
       <c r="N1116" s="71" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="V1116" s="20"/>
       <c r="W1116" s="4"/>
@@ -33901,7 +33901,7 @@
     </row>
     <row r="1132" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1132" s="61" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I1132" s="4" t="s">
         <v>48</v>
@@ -33926,7 +33926,7 @@
     </row>
     <row r="1133" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1133" s="61" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I1133" s="4" t="s">
         <v>48</v>
@@ -33951,7 +33951,7 @@
     </row>
     <row r="1134" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1134" s="61" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I1134" s="4" t="s">
         <v>48</v>
@@ -33979,7 +33979,7 @@
         <v>60</v>
       </c>
       <c r="H1135" s="61" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I1135" s="4" t="s">
         <v>48</v>
@@ -34008,7 +34008,7 @@
         <v>60</v>
       </c>
       <c r="H1136" s="61" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I1136" s="4" t="s">
         <v>48</v>
@@ -34033,7 +34033,7 @@
     </row>
     <row r="1137" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1137" s="61" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I1137" s="4" t="s">
         <v>48</v>
@@ -34058,7 +34058,7 @@
     </row>
     <row r="1138" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1138" s="61" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I1138" s="4" t="s">
         <v>48</v>
@@ -34317,7 +34317,7 @@
         <v>21</v>
       </c>
       <c r="V1148" s="71" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="W1148" s="4"/>
     </row>
@@ -35186,7 +35186,7 @@
     </row>
     <row r="1184" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1184" s="61" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="I1184" s="4" t="s">
         <v>49</v>
@@ -35211,7 +35211,7 @@
     </row>
     <row r="1185" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1185" s="61" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="I1185" s="4" t="s">
         <v>49</v>
@@ -35236,7 +35236,7 @@
     </row>
     <row r="1186" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1186" s="61" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="I1186" s="4" t="s">
         <v>49</v>
@@ -35264,7 +35264,7 @@
     </row>
     <row r="1187" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1187" s="61" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="I1187" s="4" t="s">
         <v>49</v>
@@ -35292,7 +35292,7 @@
         <v>61</v>
       </c>
       <c r="H1188" s="61" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="I1188" s="4" t="s">
         <v>49</v>
@@ -35318,7 +35318,7 @@
     </row>
     <row r="1189" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1189" s="61" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="I1189" s="4" t="s">
         <v>49</v>
@@ -35419,7 +35419,7 @@
     </row>
     <row r="1193" spans="2:23" ht="18" x14ac:dyDescent="0.25">
       <c r="C1193" s="4" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="H1193" s="61" t="s">
         <v>87</v>
@@ -35452,7 +35452,7 @@
         <v>170</v>
       </c>
       <c r="C1194" s="4" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="H1194" s="50" t="s">
         <v>87</v>
@@ -35482,7 +35482,7 @@
         <v>94</v>
       </c>
       <c r="T1194" s="18" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="V1194" s="20" t="s">
         <v>1002</v>
@@ -36099,7 +36099,7 @@
         <v>9</v>
       </c>
       <c r="N1220" s="20" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="P1220" s="18" t="s">
         <v>66</v>
@@ -36211,7 +36211,7 @@
     </row>
     <row r="1225" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1225" s="61" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="I1225" s="4" t="s">
         <v>50</v>
@@ -36236,7 +36236,7 @@
     </row>
     <row r="1226" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1226" s="61" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="I1226" s="4" t="s">
         <v>50</v>
@@ -36261,7 +36261,7 @@
     </row>
     <row r="1227" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1227" s="61" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="I1227" s="4" t="s">
         <v>50</v>
@@ -36286,7 +36286,7 @@
     </row>
     <row r="1228" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1228" s="61" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="I1228" s="4" t="s">
         <v>50</v>
@@ -36356,7 +36356,7 @@
         <v>19</v>
       </c>
       <c r="N1230" s="21" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="O1230" s="11" t="s">
         <v>21</v>
@@ -36365,7 +36365,7 @@
         <v>66</v>
       </c>
       <c r="V1230" s="20" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="W1230" s="4"/>
     </row>
@@ -36877,7 +36877,7 @@
         <v>40</v>
       </c>
       <c r="N1251" s="20" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="P1251" s="18" t="s">
         <v>66</v>
@@ -37072,7 +37072,7 @@
         <v>48</v>
       </c>
       <c r="N1259" s="20" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="P1259" s="18" t="s">
         <v>66</v>
@@ -37179,8 +37179,8 @@
       <c r="O1263" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="V1263" s="20" t="s">
-        <v>1049</v>
+      <c r="V1263" s="21" t="s">
+        <v>1451</v>
       </c>
       <c r="W1263" s="4"/>
     </row>
@@ -37202,13 +37202,13 @@
         <v>53</v>
       </c>
       <c r="N1264" s="21" t="s">
-        <v>1050</v>
+        <v>1049</v>
       </c>
       <c r="O1264" s="11" t="s">
         <v>20</v>
       </c>
       <c r="V1264" s="20" t="s">
-        <v>1051</v>
+        <v>1050</v>
       </c>
       <c r="W1264" s="4"/>
     </row>
@@ -37230,7 +37230,7 @@
         <v>54</v>
       </c>
       <c r="N1265" s="20" t="s">
-        <v>1052</v>
+        <v>1051</v>
       </c>
       <c r="V1265" s="20"/>
       <c r="W1265" s="4"/>
@@ -37253,7 +37253,7 @@
         <v>55</v>
       </c>
       <c r="N1266" s="20" t="s">
-        <v>1053</v>
+        <v>1052</v>
       </c>
       <c r="V1266" s="20"/>
       <c r="W1266" s="4"/>
@@ -37276,13 +37276,13 @@
         <v>56</v>
       </c>
       <c r="N1267" s="21" t="s">
-        <v>1054</v>
+        <v>1053</v>
       </c>
       <c r="O1267" s="11" t="s">
         <v>20</v>
       </c>
       <c r="V1267" s="20" t="s">
-        <v>1055</v>
+        <v>1054</v>
       </c>
       <c r="W1267" s="4"/>
     </row>
@@ -37304,7 +37304,7 @@
         <v>57</v>
       </c>
       <c r="N1268" s="20" t="s">
-        <v>1056</v>
+        <v>1055</v>
       </c>
       <c r="V1268" s="20"/>
       <c r="W1268" s="4"/>
@@ -37327,7 +37327,7 @@
         <v>58</v>
       </c>
       <c r="N1269" s="21" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="O1269" s="11" t="s">
         <v>23</v>
@@ -37384,7 +37384,7 @@
         <v>60</v>
       </c>
       <c r="N1271" s="20" t="s">
-        <v>1057</v>
+        <v>1056</v>
       </c>
       <c r="V1271" s="20"/>
       <c r="W1271" s="4"/>
@@ -37407,7 +37407,7 @@
         <v>61</v>
       </c>
       <c r="N1272" s="21" t="s">
-        <v>1058</v>
+        <v>1057</v>
       </c>
       <c r="O1272" s="11" t="s">
         <v>23</v>
@@ -37488,7 +37488,7 @@
         <v>64</v>
       </c>
       <c r="N1275" s="20" t="s">
-        <v>1059</v>
+        <v>1058</v>
       </c>
       <c r="V1275" s="20"/>
       <c r="W1275" s="4"/>
@@ -37534,7 +37534,7 @@
         <v>66</v>
       </c>
       <c r="N1277" s="20" t="s">
-        <v>1060</v>
+        <v>1059</v>
       </c>
       <c r="V1277" s="20"/>
       <c r="W1277" s="4"/>
@@ -37557,7 +37557,7 @@
         <v>67</v>
       </c>
       <c r="N1278" s="20" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="P1278" s="18" t="s">
         <v>66</v>
@@ -37585,7 +37585,7 @@
         <v>68</v>
       </c>
       <c r="N1279" s="21" t="s">
-        <v>1061</v>
+        <v>1060</v>
       </c>
       <c r="O1279" s="11" t="s">
         <v>23</v>
@@ -37662,7 +37662,7 @@
         <v>71</v>
       </c>
       <c r="N1282" s="20" t="s">
-        <v>1062</v>
+        <v>1061</v>
       </c>
       <c r="V1282" s="20"/>
       <c r="W1282" s="4"/>
@@ -37685,7 +37685,7 @@
         <v>72</v>
       </c>
       <c r="N1283" s="21" t="s">
-        <v>1063</v>
+        <v>1062</v>
       </c>
       <c r="O1283" s="11" t="s">
         <v>23</v>
@@ -37713,7 +37713,7 @@
         <v>73</v>
       </c>
       <c r="N1284" s="20" t="s">
-        <v>1064</v>
+        <v>1063</v>
       </c>
       <c r="V1284" s="20"/>
       <c r="W1284" s="4"/>
@@ -37759,7 +37759,7 @@
         <v>75</v>
       </c>
       <c r="N1286" s="20" t="s">
-        <v>1065</v>
+        <v>1064</v>
       </c>
       <c r="V1286" s="20"/>
       <c r="W1286" s="4"/>
@@ -37805,7 +37805,7 @@
         <v>77</v>
       </c>
       <c r="N1288" s="20" t="s">
-        <v>1066</v>
+        <v>1065</v>
       </c>
       <c r="V1288" s="20"/>
       <c r="W1288" s="4"/>
@@ -37828,7 +37828,7 @@
         <v>78</v>
       </c>
       <c r="N1289" s="20" t="s">
-        <v>1067</v>
+        <v>1066</v>
       </c>
       <c r="V1289" s="20"/>
       <c r="W1289" s="4"/>
@@ -37851,7 +37851,7 @@
         <v>79</v>
       </c>
       <c r="N1290" s="20" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="S1290" s="24"/>
       <c r="T1290" s="18"/>
@@ -37879,7 +37879,7 @@
         <v>80</v>
       </c>
       <c r="N1291" s="20" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="S1291" s="24"/>
       <c r="V1291" s="20"/>
@@ -37949,7 +37949,7 @@
         <v>83</v>
       </c>
       <c r="N1294" s="20" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="V1294" s="20"/>
       <c r="W1294" s="4"/>
@@ -37975,7 +37975,7 @@
         <v>84</v>
       </c>
       <c r="N1295" s="20" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="V1295" s="20"/>
       <c r="W1295" s="4"/>
@@ -38021,7 +38021,7 @@
         <v>86</v>
       </c>
       <c r="N1297" s="20" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="V1297" s="20"/>
       <c r="W1297" s="4"/>
@@ -38090,7 +38090,7 @@
         <v>89</v>
       </c>
       <c r="N1300" s="20" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="V1300" s="20"/>
       <c r="W1300" s="4"/>
@@ -38113,7 +38113,7 @@
         <v>90</v>
       </c>
       <c r="N1301" s="20" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="T1301" s="18"/>
       <c r="V1301" s="20"/>
@@ -38160,7 +38160,7 @@
         <v>92</v>
       </c>
       <c r="N1303" s="20" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="V1303" s="20"/>
       <c r="W1303" s="4"/>
@@ -38209,7 +38209,7 @@
         <v>94</v>
       </c>
       <c r="N1305" s="20" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="V1305" s="20"/>
       <c r="W1305" s="4"/>
@@ -38232,7 +38232,7 @@
         <v>95</v>
       </c>
       <c r="N1306" s="20" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="V1306" s="20"/>
       <c r="W1306" s="4"/>
@@ -38255,13 +38255,13 @@
         <v>96</v>
       </c>
       <c r="N1307" s="21" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="O1307" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1307" s="20" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="W1307" s="4"/>
     </row>
@@ -38283,14 +38283,14 @@
         <v>97</v>
       </c>
       <c r="N1308" s="20" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="V1308" s="20"/>
       <c r="W1308" s="4"/>
     </row>
     <row r="1309" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1309" s="61" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="I1309" s="4" t="s">
         <v>51</v>
@@ -38318,7 +38318,7 @@
     </row>
     <row r="1310" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1310" s="61" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="I1310" s="4" t="s">
         <v>51</v>
@@ -38346,7 +38346,7 @@
     </row>
     <row r="1311" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1311" s="61" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="I1311" s="4" t="s">
         <v>51</v>
@@ -38371,7 +38371,7 @@
     </row>
     <row r="1312" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1312" s="61" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="I1312" s="4" t="s">
         <v>52</v>
@@ -38389,14 +38389,14 @@
         <v>101</v>
       </c>
       <c r="N1312" s="20" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="V1312" s="20"/>
       <c r="W1312" s="4"/>
     </row>
     <row r="1313" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1313" s="61" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="I1313" s="4" t="s">
         <v>52</v>
@@ -38424,7 +38424,7 @@
     </row>
     <row r="1314" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1314" s="61" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="I1314" s="4" t="s">
         <v>52</v>
@@ -38449,7 +38449,7 @@
     </row>
     <row r="1315" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1315" s="61" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="I1315" s="4" t="s">
         <v>52</v>
@@ -38467,7 +38467,7 @@
         <v>104</v>
       </c>
       <c r="N1315" s="20" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="P1315" s="18" t="s">
         <v>66</v>
@@ -38518,7 +38518,7 @@
         <v>106</v>
       </c>
       <c r="N1317" s="20" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="V1317" s="20"/>
       <c r="W1317" s="4"/>
@@ -38541,7 +38541,7 @@
         <v>107</v>
       </c>
       <c r="N1318" s="20" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="V1318" s="21"/>
       <c r="W1318" s="4"/>
@@ -38590,7 +38590,7 @@
         <v>109</v>
       </c>
       <c r="N1320" s="20" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="V1320" s="20"/>
       <c r="W1320" s="4"/>
@@ -38636,7 +38636,7 @@
         <v>111</v>
       </c>
       <c r="N1322" s="20" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="V1322" s="20"/>
       <c r="W1322" s="4"/>
@@ -38659,13 +38659,13 @@
         <v>112</v>
       </c>
       <c r="N1323" s="21" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="O1323" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1323" s="20" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="W1323" s="4"/>
     </row>
@@ -38687,7 +38687,7 @@
         <v>113</v>
       </c>
       <c r="N1324" s="20" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="V1324" s="20"/>
       <c r="W1324" s="4"/>
@@ -38737,7 +38737,7 @@
         <v>115</v>
       </c>
       <c r="N1326" s="20" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="U1326" s="48" t="s">
         <v>68</v>
@@ -38763,13 +38763,13 @@
         <v>116</v>
       </c>
       <c r="N1327" s="21" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="O1327" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1327" s="20" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="W1327" s="4"/>
     </row>
@@ -38791,13 +38791,13 @@
         <v>117</v>
       </c>
       <c r="N1328" s="21" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="O1328" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1328" s="20" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="W1328" s="4"/>
     </row>
@@ -38819,13 +38819,13 @@
         <v>118</v>
       </c>
       <c r="N1329" s="21" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="O1329" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1329" s="20" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="W1329" s="4"/>
     </row>
@@ -38870,13 +38870,13 @@
         <v>120</v>
       </c>
       <c r="N1331" s="21" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="O1331" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1331" s="20" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="W1331" s="4"/>
     </row>
@@ -38921,7 +38921,7 @@
         <v>122</v>
       </c>
       <c r="N1333" s="20" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="V1333" s="20"/>
       <c r="W1333" s="4"/>
@@ -38990,7 +38990,7 @@
         <v>125</v>
       </c>
       <c r="N1336" s="20" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="V1336" s="20"/>
       <c r="W1336" s="4"/>
@@ -39059,7 +39059,7 @@
         <v>128</v>
       </c>
       <c r="N1339" s="21" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="O1339" s="11" t="s">
         <v>23</v>
@@ -39133,7 +39133,7 @@
         <v>131</v>
       </c>
       <c r="N1342" s="20" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="V1342" s="20"/>
       <c r="W1342" s="4"/>
@@ -39202,7 +39202,7 @@
         <v>134</v>
       </c>
       <c r="N1345" s="20" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="V1345" s="20"/>
       <c r="W1345" s="4"/>
@@ -39248,7 +39248,7 @@
         <v>136</v>
       </c>
       <c r="N1347" s="20" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="V1347" s="20"/>
       <c r="W1347" s="4"/>
@@ -39332,7 +39332,7 @@
         <v>64</v>
       </c>
       <c r="H1351" s="21" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="I1351" s="4" t="s">
         <v>53</v>
@@ -39350,7 +39350,7 @@
         <v>1</v>
       </c>
       <c r="N1351" s="20" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="V1351" s="20"/>
       <c r="W1351" s="4"/>
@@ -39360,7 +39360,7 @@
         <v>64</v>
       </c>
       <c r="H1352" s="21" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="I1352" s="4" t="s">
         <v>53</v>
@@ -39378,7 +39378,7 @@
         <v>2</v>
       </c>
       <c r="N1352" s="20" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="V1352" s="20"/>
       <c r="W1352" s="4"/>
@@ -39404,13 +39404,13 @@
         <v>3</v>
       </c>
       <c r="N1353" s="21" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="O1353" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1353" s="20" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="W1353" s="4"/>
     </row>
@@ -39435,7 +39435,7 @@
         <v>4</v>
       </c>
       <c r="N1354" s="20" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="V1354" s="20"/>
       <c r="W1354" s="4"/>
@@ -39461,7 +39461,7 @@
         <v>5</v>
       </c>
       <c r="N1355" s="20" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="V1355" s="20"/>
       <c r="W1355" s="4"/>
@@ -39489,7 +39489,7 @@
         <v>6</v>
       </c>
       <c r="N1356" s="20" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="V1356" s="20"/>
       <c r="W1356" s="4"/>
@@ -39517,7 +39517,7 @@
         <v>7</v>
       </c>
       <c r="N1357" s="20" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="V1357" s="20"/>
       <c r="W1357" s="4"/>
@@ -39545,7 +39545,7 @@
         <v>8</v>
       </c>
       <c r="N1358" s="20" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="T1358" s="29"/>
       <c r="V1358" s="20"/>
@@ -39574,7 +39574,7 @@
         <v>9</v>
       </c>
       <c r="N1359" s="21" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="O1359" s="11" t="s">
         <v>21</v>
@@ -39586,7 +39586,7 @@
         <v>174</v>
       </c>
       <c r="V1359" s="20" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="W1359" s="4"/>
     </row>
@@ -39613,7 +39613,7 @@
         <v>10</v>
       </c>
       <c r="N1360" s="20" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="P1360" s="18" t="s">
         <v>66</v>
@@ -39644,7 +39644,7 @@
         <v>11</v>
       </c>
       <c r="N1361" s="20" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="V1361" s="20"/>
       <c r="W1361" s="4"/>
@@ -39699,13 +39699,13 @@
         <v>13</v>
       </c>
       <c r="N1363" s="21" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="O1363" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1363" s="20" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="W1363" s="4"/>
     </row>
@@ -39730,7 +39730,7 @@
         <v>14</v>
       </c>
       <c r="N1364" s="20" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="V1364" s="20"/>
       <c r="W1364" s="4"/>
@@ -39740,7 +39740,7 @@
         <v>64</v>
       </c>
       <c r="H1365" s="21" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="I1365" s="4" t="s">
         <v>53</v>
@@ -39758,7 +39758,7 @@
         <v>15</v>
       </c>
       <c r="N1365" s="20" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="V1365" s="20"/>
       <c r="W1365" s="4"/>
@@ -39768,7 +39768,7 @@
         <v>64</v>
       </c>
       <c r="H1366" s="21" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="I1366" s="4" t="s">
         <v>53</v>
@@ -39796,7 +39796,7 @@
         <v>64</v>
       </c>
       <c r="H1367" s="21" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="I1367" s="4" t="s">
         <v>53</v>
@@ -39814,7 +39814,7 @@
         <v>17</v>
       </c>
       <c r="N1367" s="20" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="V1367" s="20"/>
       <c r="W1367" s="4"/>
@@ -39824,7 +39824,7 @@
         <v>64</v>
       </c>
       <c r="H1368" s="21" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="I1368" s="4" t="s">
         <v>53</v>
@@ -39842,7 +39842,7 @@
         <v>18</v>
       </c>
       <c r="N1368" s="20" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="V1368" s="20"/>
       <c r="W1368" s="4"/>
@@ -39852,7 +39852,7 @@
         <v>64</v>
       </c>
       <c r="H1369" s="21" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="I1369" s="4" t="s">
         <v>53</v>
@@ -39870,7 +39870,7 @@
         <v>19</v>
       </c>
       <c r="N1369" s="20" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="P1369" s="18" t="s">
         <v>66</v>
@@ -39927,7 +39927,7 @@
         <v>21</v>
       </c>
       <c r="N1371" s="20" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="V1371" s="20"/>
       <c r="W1371" s="4"/>
@@ -39953,7 +39953,7 @@
         <v>22</v>
       </c>
       <c r="N1372" s="20" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="V1372" s="20"/>
       <c r="W1372" s="4"/>
@@ -39979,7 +39979,7 @@
         <v>23</v>
       </c>
       <c r="N1373" s="20" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="V1373" s="20"/>
       <c r="W1373" s="4"/>
@@ -40034,7 +40034,7 @@
         <v>25</v>
       </c>
       <c r="N1375" s="20" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="V1375" s="20"/>
       <c r="W1375" s="4"/>
@@ -40060,7 +40060,7 @@
         <v>26</v>
       </c>
       <c r="N1376" s="20" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="V1376" s="20"/>
       <c r="W1376" s="4"/>
@@ -40086,7 +40086,7 @@
         <v>27</v>
       </c>
       <c r="N1377" s="20" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="P1377" s="18" t="s">
         <v>66</v>
@@ -40117,7 +40117,7 @@
         <v>28</v>
       </c>
       <c r="N1378" s="20" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="O1378" s="2"/>
       <c r="T1378" s="29"/>
@@ -40174,7 +40174,7 @@
         <v>30</v>
       </c>
       <c r="N1380" s="20" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="V1380" s="20"/>
       <c r="W1380" s="4"/>
@@ -40200,7 +40200,7 @@
         <v>31</v>
       </c>
       <c r="N1381" s="20" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="S1381" s="23"/>
       <c r="T1381" s="29"/>
@@ -40228,7 +40228,7 @@
         <v>32</v>
       </c>
       <c r="N1382" s="21" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="O1382" s="11" t="s">
         <v>21</v>
@@ -40238,7 +40238,7 @@
         <v>70</v>
       </c>
       <c r="V1382" s="20" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="W1382" s="4"/>
     </row>
@@ -40292,7 +40292,7 @@
         <v>34</v>
       </c>
       <c r="N1384" s="20" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="V1384" s="20"/>
       <c r="W1384" s="4"/>
@@ -40318,7 +40318,7 @@
         <v>35</v>
       </c>
       <c r="N1385" s="20" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="V1385" s="20"/>
       <c r="W1385" s="4"/>
@@ -40344,7 +40344,7 @@
         <v>36</v>
       </c>
       <c r="N1386" s="20" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="P1386" s="18" t="s">
         <v>66</v>
@@ -40375,7 +40375,7 @@
         <v>37</v>
       </c>
       <c r="N1387" s="21" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="O1387" s="11" t="s">
         <v>22</v>
@@ -40404,7 +40404,7 @@
         <v>38</v>
       </c>
       <c r="N1388" s="20" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="V1388" s="20"/>
       <c r="W1388" s="4"/>
@@ -40459,7 +40459,7 @@
         <v>40</v>
       </c>
       <c r="N1390" s="20" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="V1390" s="20"/>
       <c r="W1390" s="4"/>
@@ -40485,13 +40485,13 @@
         <v>41</v>
       </c>
       <c r="N1391" s="21" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="O1391" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1391" s="20" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="W1391" s="4"/>
     </row>
@@ -40516,7 +40516,7 @@
         <v>42</v>
       </c>
       <c r="N1392" s="20" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="S1392" s="2" t="s">
         <v>63</v>
@@ -40545,7 +40545,7 @@
         <v>43</v>
       </c>
       <c r="N1393" s="20" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="V1393" s="20"/>
       <c r="W1393" s="4"/>
@@ -40571,7 +40571,7 @@
         <v>44</v>
       </c>
       <c r="N1394" s="20" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="T1394" s="29"/>
       <c r="V1394" s="20"/>
@@ -40598,7 +40598,7 @@
         <v>45</v>
       </c>
       <c r="N1395" s="20" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="T1395" s="29"/>
       <c r="U1395" s="32" t="s">
@@ -40628,7 +40628,7 @@
         <v>46</v>
       </c>
       <c r="N1396" s="71" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="P1396" s="18" t="s">
         <v>66</v>
@@ -40714,7 +40714,7 @@
         <v>49</v>
       </c>
       <c r="N1399" s="20" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="O1399" s="2"/>
       <c r="T1399" s="29"/>
@@ -40742,7 +40742,7 @@
         <v>50</v>
       </c>
       <c r="N1400" s="21" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="O1400" s="2" t="s">
         <v>21</v>
@@ -40752,7 +40752,7 @@
         <v>75</v>
       </c>
       <c r="V1400" s="20" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="W1400" s="4"/>
     </row>
@@ -40761,7 +40761,7 @@
         <v>64</v>
       </c>
       <c r="H1401" s="21" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="I1401" s="4" t="s">
         <v>54</v>
@@ -40790,7 +40790,7 @@
         <v>64</v>
       </c>
       <c r="H1402" s="21" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="I1402" s="4" t="s">
         <v>54</v>
@@ -40808,7 +40808,7 @@
         <v>52</v>
       </c>
       <c r="N1402" s="20" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="U1402" s="23" t="s">
         <v>91</v>
@@ -40821,7 +40821,7 @@
         <v>64</v>
       </c>
       <c r="H1403" s="21" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="I1403" s="4" t="s">
         <v>54</v>
@@ -40849,7 +40849,7 @@
         <v>64</v>
       </c>
       <c r="H1404" s="21" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="I1404" s="4" t="s">
         <v>54</v>
@@ -40867,13 +40867,13 @@
         <v>54</v>
       </c>
       <c r="N1404" s="21" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="S1404" s="23" t="s">
         <v>94</v>
       </c>
       <c r="T1404" s="57" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="V1404" s="20"/>
       <c r="W1404" s="4"/>
@@ -40925,7 +40925,7 @@
         <v>56</v>
       </c>
       <c r="N1406" s="20" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="V1406" s="20"/>
       <c r="W1406" s="4"/>
@@ -40980,7 +40980,7 @@
         <v>58</v>
       </c>
       <c r="N1408" s="20" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="P1408" s="18" t="s">
         <v>66</v>
@@ -41070,7 +41070,7 @@
         <v>61</v>
       </c>
       <c r="N1411" s="20" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="V1411" s="20"/>
       <c r="W1411" s="4"/>
@@ -41098,7 +41098,7 @@
         <v>62</v>
       </c>
       <c r="N1412" s="21" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="O1412" s="11" t="s">
         <v>22</v>
@@ -41160,7 +41160,7 @@
         <v>64</v>
       </c>
       <c r="N1414" s="20" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="V1414" s="20"/>
       <c r="W1414" s="4"/>
@@ -41219,7 +41219,7 @@
         <v>66</v>
       </c>
       <c r="N1416" s="20" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="S1416" s="45" t="s">
         <v>71</v>
@@ -41254,7 +41254,7 @@
         <v>67</v>
       </c>
       <c r="N1417" s="20" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="V1417" s="20"/>
       <c r="W1417" s="4"/>
@@ -41280,7 +41280,7 @@
         <v>68</v>
       </c>
       <c r="N1418" s="21" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="O1418" s="11" t="s">
         <v>21</v>
@@ -41289,7 +41289,7 @@
         <v>66</v>
       </c>
       <c r="V1418" s="20" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="W1418" s="4"/>
     </row>
@@ -41366,7 +41366,7 @@
         <v>71</v>
       </c>
       <c r="N1421" s="20" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="U1421" s="48" t="s">
         <v>68</v>
@@ -41395,13 +41395,13 @@
         <v>72</v>
       </c>
       <c r="N1422" s="21" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="O1422" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1422" s="20" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="W1422" s="4"/>
     </row>
@@ -41426,7 +41426,7 @@
         <v>73</v>
       </c>
       <c r="N1423" s="20" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="V1423" s="20"/>
       <c r="W1423" s="4"/>
@@ -41452,7 +41452,7 @@
         <v>74</v>
       </c>
       <c r="N1424" s="20" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="V1424" s="20"/>
       <c r="W1424" s="4"/>
@@ -41504,7 +41504,7 @@
         <v>76</v>
       </c>
       <c r="N1426" s="20" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="V1426" s="20"/>
       <c r="W1426" s="4"/>
@@ -41530,7 +41530,7 @@
         <v>77</v>
       </c>
       <c r="N1427" s="20" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="V1427" s="20"/>
       <c r="W1427" s="4"/>
@@ -41556,7 +41556,7 @@
         <v>78</v>
       </c>
       <c r="N1428" s="20" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="V1428" s="20"/>
       <c r="W1428" s="4"/>
@@ -41582,7 +41582,7 @@
         <v>79</v>
       </c>
       <c r="N1429" s="20" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="P1429" s="18" t="s">
         <v>66</v>
@@ -41649,7 +41649,7 @@
         <v>64</v>
       </c>
       <c r="H1432" s="61" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="I1432" s="4" t="s">
         <v>54</v>
@@ -41667,7 +41667,7 @@
         <v>82</v>
       </c>
       <c r="N1432" s="20" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="O1432" s="11" t="s">
         <v>22</v>
@@ -41680,7 +41680,7 @@
         <v>64</v>
       </c>
       <c r="H1433" s="61" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="I1433" s="4" t="s">
         <v>54</v>
@@ -41698,7 +41698,7 @@
         <v>83</v>
       </c>
       <c r="N1433" s="20" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="V1433" s="20"/>
       <c r="W1433" s="4"/>
@@ -41708,7 +41708,7 @@
         <v>64</v>
       </c>
       <c r="H1434" s="61" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="I1434" s="4" t="s">
         <v>54</v>
@@ -41739,7 +41739,7 @@
         <v>64</v>
       </c>
       <c r="H1435" s="61" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="I1435" s="4" t="s">
         <v>54</v>
@@ -41767,7 +41767,7 @@
         <v>64</v>
       </c>
       <c r="H1436" s="61" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="I1436" s="4" t="s">
         <v>54</v>
@@ -41785,7 +41785,7 @@
         <v>86</v>
       </c>
       <c r="N1436" s="20" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="S1436" s="23" t="s">
         <v>94</v>
@@ -41801,7 +41801,7 @@
         <v>64</v>
       </c>
       <c r="H1437" s="61" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="I1437" s="4" t="s">
         <v>54</v>
@@ -41819,7 +41819,7 @@
         <v>87</v>
       </c>
       <c r="N1437" s="20" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="T1437" s="29"/>
       <c r="V1437" s="20"/>
@@ -41846,7 +41846,7 @@
         <v>88</v>
       </c>
       <c r="N1438" s="71" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="V1438" s="20"/>
       <c r="W1438" s="4"/>
@@ -41935,7 +41935,7 @@
         <v>91</v>
       </c>
       <c r="N1441" s="20" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="V1441" s="20"/>
       <c r="W1441" s="4"/>
@@ -41961,7 +41961,7 @@
         <v>92</v>
       </c>
       <c r="N1442" s="20" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="V1442" s="20"/>
       <c r="W1442" s="4"/>
@@ -41987,7 +41987,7 @@
         <v>93</v>
       </c>
       <c r="N1443" s="20" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="V1443" s="20"/>
       <c r="W1443" s="4"/>
@@ -42013,7 +42013,7 @@
         <v>94</v>
       </c>
       <c r="N1444" s="20" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="V1444" s="20"/>
       <c r="W1444" s="4"/>
@@ -42039,7 +42039,7 @@
         <v>95</v>
       </c>
       <c r="N1445" s="20" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="V1445" s="20"/>
       <c r="W1445" s="4"/>
@@ -42094,7 +42094,7 @@
         <v>97</v>
       </c>
       <c r="N1447" s="20" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="S1447" s="4"/>
       <c r="V1447" s="20"/>
@@ -42153,7 +42153,7 @@
         <v>99</v>
       </c>
       <c r="N1449" s="20" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="V1449" s="20"/>
       <c r="W1449" s="4"/>
@@ -42205,7 +42205,7 @@
         <v>101</v>
       </c>
       <c r="N1451" s="20" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="V1451" s="20"/>
       <c r="W1451" s="4"/>
@@ -42231,13 +42231,13 @@
         <v>102</v>
       </c>
       <c r="N1452" s="21" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="O1452" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1452" s="20" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="W1452" s="4"/>
     </row>
@@ -42262,7 +42262,7 @@
         <v>103</v>
       </c>
       <c r="N1453" s="20" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="V1453" s="20"/>
       <c r="W1453" s="4"/>
@@ -42314,7 +42314,7 @@
         <v>105</v>
       </c>
       <c r="N1455" s="20" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="V1455" s="20"/>
       <c r="W1455" s="4"/>
@@ -42340,7 +42340,7 @@
         <v>106</v>
       </c>
       <c r="N1456" s="20" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="V1456" s="20"/>
       <c r="W1456" s="4"/>
@@ -42366,7 +42366,7 @@
         <v>107</v>
       </c>
       <c r="N1457" s="20" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="V1457" s="20"/>
       <c r="W1457" s="4"/>
@@ -42392,7 +42392,7 @@
         <v>108</v>
       </c>
       <c r="N1458" s="20" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="P1458" s="18" t="s">
         <v>66</v>
@@ -42449,7 +42449,7 @@
         <v>110</v>
       </c>
       <c r="N1460" s="20" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="V1460" s="20"/>
       <c r="W1460" s="4"/>
@@ -42475,13 +42475,13 @@
         <v>111</v>
       </c>
       <c r="N1461" s="21" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="O1461" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1461" s="20" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="W1461" s="4"/>
     </row>
@@ -42532,7 +42532,7 @@
         <v>113</v>
       </c>
       <c r="N1463" s="20" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="V1463" s="20"/>
       <c r="W1463" s="4"/>
@@ -42558,7 +42558,7 @@
         <v>114</v>
       </c>
       <c r="N1464" s="20" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="U1464" s="48" t="s">
         <v>70</v>
@@ -42616,7 +42616,7 @@
         <v>116</v>
       </c>
       <c r="N1466" s="20" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="V1466" s="20"/>
       <c r="W1466" s="4"/>
@@ -42674,7 +42674,7 @@
         <v>118</v>
       </c>
       <c r="N1468" s="20" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="P1468" s="18" t="s">
         <v>66</v>
@@ -42692,7 +42692,7 @@
         <v>64</v>
       </c>
       <c r="D1469" s="10" t="s">
-        <v>1415</v>
+        <v>1414</v>
       </c>
       <c r="H1469" s="26"/>
       <c r="I1469" s="4" t="s">
@@ -42711,7 +42711,7 @@
         <v>119</v>
       </c>
       <c r="N1469" s="20" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="S1469" s="32" t="s">
         <v>73</v>
@@ -42829,13 +42829,13 @@
         <v>123</v>
       </c>
       <c r="N1473" s="21" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="O1473" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1473" s="20" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="W1473" s="4"/>
     </row>
@@ -42860,13 +42860,13 @@
         <v>124</v>
       </c>
       <c r="N1474" s="21" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="O1474" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1474" s="20" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="W1474" s="4"/>
     </row>
@@ -42943,7 +42943,7 @@
         <v>127</v>
       </c>
       <c r="N1477" s="20" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="V1477" s="20"/>
       <c r="W1477" s="4"/>
@@ -43021,7 +43021,7 @@
         <v>130</v>
       </c>
       <c r="N1480" s="20" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="P1480" s="18" t="s">
         <v>66</v>
@@ -43052,7 +43052,7 @@
         <v>131</v>
       </c>
       <c r="N1481" s="20" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="V1481" s="20"/>
       <c r="W1481" s="4"/>
@@ -43078,7 +43078,7 @@
         <v>132</v>
       </c>
       <c r="N1482" s="20" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="V1482" s="20"/>
       <c r="W1482" s="4"/>
@@ -43104,7 +43104,7 @@
         <v>133</v>
       </c>
       <c r="N1483" s="20" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="V1483" s="20"/>
       <c r="W1483" s="4"/>
@@ -43130,13 +43130,13 @@
         <v>134</v>
       </c>
       <c r="N1484" s="21" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="O1484" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1484" s="20" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="W1484" s="4"/>
     </row>
@@ -43213,7 +43213,7 @@
         <v>137</v>
       </c>
       <c r="N1487" s="20" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="V1487" s="20"/>
       <c r="W1487" s="4"/>
@@ -43239,13 +43239,13 @@
         <v>138</v>
       </c>
       <c r="N1488" s="21" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="O1488" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1488" s="20" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="W1488" s="4"/>
     </row>
@@ -43322,7 +43322,7 @@
         <v>141</v>
       </c>
       <c r="N1491" s="21" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="P1491" s="18" t="s">
         <v>66</v>
@@ -43408,13 +43408,13 @@
         <v>144</v>
       </c>
       <c r="N1494" s="21" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="O1494" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1494" s="20" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="W1494" s="4"/>
     </row>
@@ -43439,7 +43439,7 @@
         <v>145</v>
       </c>
       <c r="N1495" s="20" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="V1495" s="20"/>
       <c r="W1495" s="4"/>
@@ -43468,7 +43468,7 @@
         <v>146</v>
       </c>
       <c r="N1496" s="20" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="S1496" s="4"/>
       <c r="V1496" s="20"/>
@@ -43550,7 +43550,7 @@
         <v>149</v>
       </c>
       <c r="N1499" s="20" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="V1499" s="20"/>
       <c r="W1499" s="4"/>
@@ -43576,7 +43576,7 @@
         <v>150</v>
       </c>
       <c r="N1500" s="20" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="V1500" s="20"/>
       <c r="W1500" s="4"/>
@@ -43628,7 +43628,7 @@
         <v>152</v>
       </c>
       <c r="N1502" s="20" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="P1502" s="18" t="s">
         <v>66</v>
@@ -43659,13 +43659,13 @@
         <v>153</v>
       </c>
       <c r="N1503" s="21" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="O1503" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1503" s="20" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="W1503" s="4"/>
     </row>
@@ -43716,13 +43716,13 @@
         <v>155</v>
       </c>
       <c r="N1505" s="21" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="O1505" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1505" s="20" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="W1505" s="4"/>
     </row>
@@ -43747,7 +43747,7 @@
         <v>156</v>
       </c>
       <c r="N1506" s="20" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="U1506" s="48"/>
       <c r="V1506" s="20"/>
@@ -43808,7 +43808,7 @@
         <v>158</v>
       </c>
       <c r="N1508" s="20" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="V1508" s="20"/>
       <c r="W1508" s="4"/>
@@ -43834,7 +43834,7 @@
         <v>159</v>
       </c>
       <c r="N1509" s="20" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="V1509" s="20"/>
       <c r="W1509" s="4"/>
@@ -43889,7 +43889,7 @@
         <v>161</v>
       </c>
       <c r="N1511" s="20" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="P1511" s="18" t="s">
         <v>66</v>
@@ -43972,7 +43972,7 @@
         <v>164</v>
       </c>
       <c r="N1514" s="20" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="V1514" s="20"/>
       <c r="W1514" s="4"/>
@@ -44027,7 +44027,7 @@
         <v>166</v>
       </c>
       <c r="N1516" s="20" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="V1516" s="20"/>
       <c r="W1516" s="4"/>
@@ -44037,7 +44037,7 @@
         <v>64</v>
       </c>
       <c r="H1517" s="61" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="I1517" s="4" t="s">
         <v>56</v>
@@ -44068,7 +44068,7 @@
         <v>64</v>
       </c>
       <c r="H1518" s="61" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="I1518" s="4" t="s">
         <v>56</v>
@@ -44086,7 +44086,7 @@
         <v>168</v>
       </c>
       <c r="N1518" s="21" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="V1518" s="20"/>
       <c r="W1518" s="4"/>
@@ -44097,7 +44097,7 @@
         <v>64</v>
       </c>
       <c r="H1519" s="61" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="I1519" s="4" t="s">
         <v>56</v>
@@ -44115,7 +44115,7 @@
         <v>169</v>
       </c>
       <c r="N1519" s="21" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="O1519" s="11" t="s">
         <v>21</v>
@@ -44127,7 +44127,7 @@
         <v>178</v>
       </c>
       <c r="V1519" s="20" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="W1519" s="4"/>
     </row>
@@ -44136,7 +44136,7 @@
         <v>64</v>
       </c>
       <c r="H1520" s="61" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="I1520" s="4" t="s">
         <v>56</v>
@@ -44154,7 +44154,7 @@
         <v>170</v>
       </c>
       <c r="N1520" s="20" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="V1520" s="20"/>
       <c r="W1520" s="4"/>
@@ -44164,7 +44164,7 @@
         <v>64</v>
       </c>
       <c r="H1521" s="61" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="I1521" s="4" t="s">
         <v>56</v>
@@ -44195,7 +44195,7 @@
         <v>64</v>
       </c>
       <c r="H1522" s="61" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="I1522" s="4" t="s">
         <v>56</v>
@@ -44213,7 +44213,7 @@
         <v>172</v>
       </c>
       <c r="N1522" s="20" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="P1522" s="18" t="s">
         <v>66</v>
@@ -44244,7 +44244,7 @@
         <v>173</v>
       </c>
       <c r="N1523" s="20" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="V1523" s="20"/>
       <c r="W1523" s="4"/>
@@ -44298,13 +44298,13 @@
         <v>175</v>
       </c>
       <c r="N1525" s="21" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="O1525" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1525" s="20" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="W1525" s="4"/>
     </row>
@@ -44313,7 +44313,7 @@
         <v>64</v>
       </c>
       <c r="D1526" s="10" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="H1526" s="50" t="s">
         <v>90</v>
@@ -44334,7 +44334,7 @@
         <v>176</v>
       </c>
       <c r="N1526" s="20" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="S1526" s="2" t="s">
         <v>97</v>
@@ -44350,7 +44350,7 @@
         <v>64</v>
       </c>
       <c r="D1527" s="10" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="H1527" s="50" t="s">
         <v>90</v>
@@ -44403,7 +44403,7 @@
         <v>178</v>
       </c>
       <c r="N1528" s="20" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="V1528" s="20"/>
       <c r="W1528" s="4"/>
@@ -44428,7 +44428,7 @@
         <v>179</v>
       </c>
       <c r="N1529" s="20" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="V1529" s="20"/>
       <c r="W1529" s="4"/>
@@ -44453,7 +44453,7 @@
         <v>180</v>
       </c>
       <c r="N1530" s="20" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="P1530" s="18" t="s">
         <v>66</v>
@@ -44533,13 +44533,13 @@
         <v>183</v>
       </c>
       <c r="N1533" s="21" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="O1533" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1533" s="20" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="W1533" s="4"/>
     </row>
@@ -44563,14 +44563,14 @@
         <v>184</v>
       </c>
       <c r="N1534" s="21" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="O1534" s="11" t="s">
         <v>21</v>
       </c>
       <c r="T1534" s="29"/>
       <c r="V1534" s="20" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="W1534" s="4"/>
     </row>
@@ -44622,13 +44622,13 @@
         <v>186</v>
       </c>
       <c r="N1536" s="21" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="O1536" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1536" s="71" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="W1536" s="4"/>
     </row>
@@ -44652,13 +44652,13 @@
         <v>187</v>
       </c>
       <c r="N1537" s="21" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="O1537" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1537" s="20" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="W1537" s="4"/>
     </row>
@@ -44682,7 +44682,7 @@
         <v>188</v>
       </c>
       <c r="N1538" s="20" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="P1538" s="18" t="s">
         <v>66</v>
@@ -44737,7 +44737,7 @@
         <v>190</v>
       </c>
       <c r="N1540" s="20" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="V1540" s="20"/>
       <c r="W1540" s="4"/>
@@ -44762,7 +44762,7 @@
         <v>191</v>
       </c>
       <c r="N1541" s="20" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="V1541" s="20"/>
       <c r="W1541" s="4"/>
@@ -44912,7 +44912,7 @@
         <v>197</v>
       </c>
       <c r="N1547" s="20" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="V1547" s="20"/>
       <c r="W1547" s="4"/>
@@ -44937,7 +44937,7 @@
         <v>198</v>
       </c>
       <c r="N1548" s="20" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="P1548" s="18" t="s">
         <v>66</v>
@@ -44992,7 +44992,7 @@
         <v>200</v>
       </c>
       <c r="N1550" s="20" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="V1550" s="20"/>
       <c r="W1550" s="4"/>
@@ -45017,7 +45017,7 @@
         <v>201</v>
       </c>
       <c r="N1551" s="20" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="V1551" s="20"/>
       <c r="W1551" s="4"/>
@@ -45042,13 +45042,13 @@
         <v>202</v>
       </c>
       <c r="N1552" s="21" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="O1552" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1552" s="20" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="W1552" s="4"/>
     </row>
@@ -45122,7 +45122,7 @@
         <v>205</v>
       </c>
       <c r="N1555" s="20" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="V1555" s="20"/>
       <c r="W1555" s="4"/>
@@ -45147,7 +45147,7 @@
         <v>206</v>
       </c>
       <c r="N1556" s="20" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="V1556" s="20"/>
       <c r="W1556" s="4"/>
@@ -45200,7 +45200,7 @@
         <v>208</v>
       </c>
       <c r="N1558" s="20" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="P1558" s="18" t="s">
         <v>66</v>
@@ -45320,7 +45320,7 @@
         <v>212</v>
       </c>
       <c r="N1562" s="20" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="V1562" s="20"/>
       <c r="W1562" s="4"/>
@@ -45345,7 +45345,7 @@
         <v>213</v>
       </c>
       <c r="N1563" s="20" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="V1563" s="20"/>
       <c r="W1563" s="4"/>
@@ -45373,7 +45373,7 @@
         <v>214</v>
       </c>
       <c r="N1564" s="20" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="S1564" s="2" t="s">
         <v>94</v>
@@ -45404,7 +45404,7 @@
         <v>215</v>
       </c>
       <c r="N1565" s="20" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="V1565" s="20"/>
       <c r="W1565" s="4"/>
@@ -45429,13 +45429,13 @@
         <v>216</v>
       </c>
       <c r="N1566" s="21" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="O1566" s="11" t="s">
         <v>20</v>
       </c>
       <c r="V1566" s="20" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="W1566" s="4"/>
     </row>
@@ -45459,7 +45459,7 @@
         <v>217</v>
       </c>
       <c r="N1567" s="20" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="P1567" s="18" t="s">
         <v>66</v>
@@ -45490,7 +45490,7 @@
         <v>218</v>
       </c>
       <c r="N1568" s="21" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="O1568" s="11" t="s">
         <v>21</v>
@@ -45500,7 +45500,7 @@
         <v>93</v>
       </c>
       <c r="V1568" s="20" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="W1568" s="4"/>
     </row>
@@ -45524,7 +45524,7 @@
         <v>219</v>
       </c>
       <c r="N1569" s="21" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="V1569" s="20"/>
       <c r="W1569" s="4"/>
@@ -45549,7 +45549,7 @@
         <v>220</v>
       </c>
       <c r="N1570" s="21" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="O1570" s="11" t="s">
         <v>21</v>
@@ -45557,7 +45557,7 @@
       <c r="T1570" s="29"/>
       <c r="U1570" s="20"/>
       <c r="V1570" s="20" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="W1570" s="4"/>
     </row>
@@ -45581,7 +45581,7 @@
         <v>221</v>
       </c>
       <c r="N1571" s="20" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="T1571" s="29"/>
       <c r="U1571" s="23" t="s">
@@ -45610,7 +45610,7 @@
         <v>222</v>
       </c>
       <c r="N1572" s="20" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="V1572" s="20"/>
       <c r="W1572" s="4"/>
@@ -45635,7 +45635,7 @@
         <v>223</v>
       </c>
       <c r="N1573" s="20" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="P1573" s="18" t="s">
         <v>66</v>
@@ -45690,7 +45690,7 @@
         <v>225</v>
       </c>
       <c r="N1575" s="20" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="V1575" s="20"/>
       <c r="W1575" s="4"/>
@@ -45715,7 +45715,7 @@
         <v>226</v>
       </c>
       <c r="N1576" s="20" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="V1576" s="20"/>
       <c r="W1576" s="4"/>
@@ -45725,7 +45725,7 @@
         <v>64</v>
       </c>
       <c r="H1577" s="61" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="I1577" s="4" t="s">
         <v>57</v>
@@ -45743,13 +45743,13 @@
         <v>227</v>
       </c>
       <c r="N1577" s="21" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="O1577" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1577" s="20" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="W1577" s="4"/>
     </row>
@@ -45758,7 +45758,7 @@
         <v>64</v>
       </c>
       <c r="H1578" s="61" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="I1578" s="4" t="s">
         <v>57</v>
@@ -45786,7 +45786,7 @@
         <v>64</v>
       </c>
       <c r="H1579" s="61" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="I1579" s="4" t="s">
         <v>57</v>
@@ -45814,7 +45814,7 @@
         <v>64</v>
       </c>
       <c r="H1580" s="61" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="I1580" s="4" t="s">
         <v>57</v>
@@ -45842,7 +45842,7 @@
         <v>64</v>
       </c>
       <c r="H1581" s="61" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="I1581" s="4" t="s">
         <v>57</v>
@@ -45870,7 +45870,7 @@
         <v>64</v>
       </c>
       <c r="H1582" s="61" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="I1582" s="4" t="s">
         <v>57</v>
@@ -45888,7 +45888,7 @@
         <v>232</v>
       </c>
       <c r="N1582" s="20" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="P1582" s="18" t="s">
         <v>66</v>
@@ -45943,7 +45943,7 @@
         <v>234</v>
       </c>
       <c r="N1584" s="20" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="V1584" s="20"/>
       <c r="W1584" s="4"/>
@@ -45968,7 +45968,7 @@
         <v>235</v>
       </c>
       <c r="N1585" s="20" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="V1585" s="20"/>
       <c r="W1585" s="4"/>
@@ -45981,7 +45981,7 @@
         <v>179</v>
       </c>
       <c r="E1586" s="4" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I1586" s="4" t="s">
         <v>57</v>
@@ -46013,7 +46013,7 @@
         <v>179</v>
       </c>
       <c r="E1587" s="4" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="I1587" s="4" t="s">
         <v>57</v>
@@ -46059,7 +46059,7 @@
         <v>238</v>
       </c>
       <c r="N1588" s="20" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="V1588" s="20"/>
       <c r="W1588" s="4"/>
@@ -46084,7 +46084,7 @@
         <v>239</v>
       </c>
       <c r="N1589" s="20" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="U1589" s="32" t="s">
         <v>68</v>
@@ -46112,13 +46112,13 @@
         <v>240</v>
       </c>
       <c r="N1590" s="21" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="O1590" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1590" s="20" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="W1590" s="4"/>
     </row>
@@ -46142,7 +46142,7 @@
         <v>241</v>
       </c>
       <c r="N1591" s="20" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="P1591" s="18" t="s">
         <v>66</v>
@@ -46158,7 +46158,7 @@
         <v>64</v>
       </c>
       <c r="H1592" s="61" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="I1592" s="4" t="s">
         <v>57</v>
@@ -46176,7 +46176,7 @@
         <v>242</v>
       </c>
       <c r="N1592" s="20" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="V1592" s="20"/>
       <c r="W1592" s="4"/>
@@ -46186,10 +46186,10 @@
         <v>64</v>
       </c>
       <c r="D1593" s="10" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="H1593" s="4" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="I1593" s="4" t="s">
         <v>57</v>
@@ -46213,7 +46213,7 @@
         <v>95</v>
       </c>
       <c r="T1593" s="18" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="V1593" s="20"/>
       <c r="W1593" s="4"/>
@@ -46223,7 +46223,7 @@
         <v>64</v>
       </c>
       <c r="H1594" s="61" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="I1594" s="4" t="s">
         <v>57</v>
@@ -46241,13 +46241,13 @@
         <v>244</v>
       </c>
       <c r="N1594" s="21" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="O1594" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1594" s="20" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="W1594" s="4"/>
     </row>
@@ -46271,13 +46271,13 @@
         <v>245</v>
       </c>
       <c r="N1595" s="21" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="O1595" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1595" s="20" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="W1595" s="4"/>
     </row>
@@ -46301,7 +46301,7 @@
         <v>246</v>
       </c>
       <c r="N1596" s="20" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="V1596" s="20"/>
       <c r="W1596" s="4"/>
@@ -46311,7 +46311,7 @@
         <v>64</v>
       </c>
       <c r="H1597" s="61" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="I1597" s="4" t="s">
         <v>57</v>
@@ -46339,10 +46339,10 @@
         <v>64</v>
       </c>
       <c r="G1598" s="4" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="H1598" s="61" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="I1598" s="4" t="s">
         <v>57</v>
@@ -46360,23 +46360,23 @@
         <v>248</v>
       </c>
       <c r="N1598" s="20" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="V1598" s="20"/>
       <c r="W1598" s="4"/>
     </row>
     <row r="1599" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1599" s="4" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="C1599" s="4" t="s">
         <v>64</v>
       </c>
       <c r="G1599" s="4" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="H1599" s="61" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="I1599" s="4" t="s">
         <v>57</v>
@@ -46394,7 +46394,7 @@
         <v>249</v>
       </c>
       <c r="N1599" s="20" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="S1599" s="2" t="s">
         <v>63</v>
@@ -46407,10 +46407,10 @@
         <v>64</v>
       </c>
       <c r="G1600" s="4" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="H1600" s="61" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="I1600" s="4" t="s">
         <v>57</v>
@@ -46428,7 +46428,7 @@
         <v>250</v>
       </c>
       <c r="N1600" s="20" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="V1600" s="20"/>
       <c r="W1600" s="4"/>
@@ -46438,7 +46438,7 @@
         <v>64</v>
       </c>
       <c r="H1601" s="61" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="I1601" s="4" t="s">
         <v>58</v>
@@ -46456,7 +46456,7 @@
         <v>251</v>
       </c>
       <c r="N1601" s="20" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="P1601" s="18" t="s">
         <v>66</v>
@@ -46486,7 +46486,7 @@
         <v>252</v>
       </c>
       <c r="N1602" s="20" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="V1602" s="20"/>
       <c r="W1602" s="4"/>
@@ -46536,13 +46536,13 @@
         <v>254</v>
       </c>
       <c r="N1604" s="21" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="O1604" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1604" s="20" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="W1604" s="4"/>
     </row>
@@ -46566,7 +46566,7 @@
         <v>255</v>
       </c>
       <c r="N1605" s="20" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="V1605" s="20"/>
       <c r="W1605" s="4"/>
@@ -46616,13 +46616,13 @@
         <v>257</v>
       </c>
       <c r="N1607" s="21" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="O1607" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1607" s="21" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="W1607" s="4"/>
     </row>
@@ -46646,7 +46646,7 @@
         <v>258</v>
       </c>
       <c r="N1608" s="20" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="V1608" s="20"/>
       <c r="W1608" s="4"/>
@@ -46674,7 +46674,7 @@
         <v>259</v>
       </c>
       <c r="N1609" s="20" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="P1609" s="18" t="s">
         <v>66</v>
@@ -46705,7 +46705,7 @@
         <v>260</v>
       </c>
       <c r="N1610" s="20" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="V1610" s="20"/>
       <c r="W1610" s="4"/>
@@ -46730,7 +46730,7 @@
         <v>261</v>
       </c>
       <c r="N1611" s="20" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="V1611" s="20"/>
       <c r="W1611" s="4"/>
@@ -46755,7 +46755,7 @@
         <v>262</v>
       </c>
       <c r="N1612" s="20" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="V1612" s="20"/>
       <c r="W1612" s="4"/>
@@ -46780,13 +46780,13 @@
         <v>263</v>
       </c>
       <c r="N1613" s="21" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="O1613" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1613" s="20" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="W1613" s="4"/>
     </row>
@@ -46810,7 +46810,7 @@
         <v>264</v>
       </c>
       <c r="N1614" s="20" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="V1614" s="20"/>
       <c r="W1614" s="4"/>
@@ -46860,7 +46860,7 @@
         <v>266</v>
       </c>
       <c r="N1616" s="20" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="P1616" s="18" t="s">
         <v>66</v>
@@ -46875,7 +46875,7 @@
         <v>64</v>
       </c>
       <c r="H1617" s="61" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="I1617" s="4" t="s">
         <v>58</v>
@@ -46893,7 +46893,7 @@
         <v>267</v>
       </c>
       <c r="N1617" s="20" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="V1617" s="20"/>
       <c r="W1617" s="4"/>
@@ -46906,10 +46906,10 @@
         <v>179</v>
       </c>
       <c r="E1618" s="4" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="H1618" s="61" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="I1618" s="4" t="s">
         <v>58</v>
@@ -46941,10 +46941,10 @@
         <v>179</v>
       </c>
       <c r="E1619" s="4" t="s">
-        <v>1419</v>
+        <v>1418</v>
       </c>
       <c r="H1619" s="61" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="I1619" s="4" t="s">
         <v>58</v>
@@ -46975,7 +46975,7 @@
         <v>64</v>
       </c>
       <c r="H1620" s="61" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="I1620" s="4" t="s">
         <v>58</v>
@@ -46993,13 +46993,13 @@
         <v>270</v>
       </c>
       <c r="N1620" s="21" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="O1620" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1620" s="20" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="W1620" s="4"/>
     </row>
@@ -47023,7 +47023,7 @@
         <v>271</v>
       </c>
       <c r="N1621" s="20" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="V1621" s="20"/>
       <c r="W1621" s="4"/>
@@ -47048,7 +47048,7 @@
         <v>272</v>
       </c>
       <c r="N1622" s="20" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="O1622" s="11" t="s">
         <v>22</v>
@@ -47076,7 +47076,7 @@
         <v>273</v>
       </c>
       <c r="N1623" s="20" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="V1623" s="20"/>
       <c r="W1623" s="4"/>
@@ -47101,7 +47101,7 @@
         <v>274</v>
       </c>
       <c r="N1624" s="20" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="V1624" s="20"/>
       <c r="W1624" s="4"/>
@@ -47126,7 +47126,7 @@
         <v>275</v>
       </c>
       <c r="N1625" s="20" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="P1625" s="18" t="s">
         <v>66</v>
@@ -47156,7 +47156,7 @@
         <v>276</v>
       </c>
       <c r="N1626" s="20" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="U1626" s="48"/>
       <c r="V1626" s="20"/>
@@ -47182,7 +47182,7 @@
         <v>277</v>
       </c>
       <c r="N1627" s="20" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="U1627" s="48" t="s">
         <v>93</v>
@@ -47210,7 +47210,7 @@
         <v>278</v>
       </c>
       <c r="N1628" s="20" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="V1628" s="20"/>
       <c r="W1628" s="4"/>
@@ -47288,7 +47288,7 @@
         <v>281</v>
       </c>
       <c r="N1631" s="20" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="V1631" s="20"/>
       <c r="W1631" s="4"/>
@@ -47313,7 +47313,7 @@
         <v>282</v>
       </c>
       <c r="N1632" s="20" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="V1632" s="20"/>
       <c r="W1632" s="4"/>
@@ -47338,14 +47338,14 @@
         <v>283</v>
       </c>
       <c r="N1633" s="21" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="O1633" s="11" t="s">
         <v>21</v>
       </c>
       <c r="U1633" s="48"/>
       <c r="V1633" s="20" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="W1633" s="4"/>
     </row>
@@ -47369,7 +47369,7 @@
         <v>284</v>
       </c>
       <c r="N1634" s="20" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="P1634" s="18" t="s">
         <v>66</v>
@@ -47402,13 +47402,13 @@
         <v>285</v>
       </c>
       <c r="N1635" s="21" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="O1635" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1635" s="20" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="W1635" s="4"/>
     </row>
@@ -47432,7 +47432,7 @@
         <v>286</v>
       </c>
       <c r="N1636" s="20" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="V1636" s="20"/>
       <c r="W1636" s="4"/>
@@ -47510,7 +47510,7 @@
         <v>289</v>
       </c>
       <c r="N1639" s="20" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="V1639" s="20"/>
       <c r="W1639" s="4"/>
@@ -47535,7 +47535,7 @@
         <v>290</v>
       </c>
       <c r="N1640" s="20" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="V1640" s="20"/>
       <c r="W1640" s="4"/>
@@ -47588,7 +47588,7 @@
         <v>292</v>
       </c>
       <c r="N1642" s="20" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="V1642" s="20"/>
       <c r="W1642" s="4"/>
@@ -47643,7 +47643,7 @@
         <v>294</v>
       </c>
       <c r="N1644" s="20" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="U1644" s="48"/>
       <c r="V1644" s="20"/>
@@ -47697,13 +47697,13 @@
         <v>296</v>
       </c>
       <c r="N1646" s="21" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="O1646" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1646" s="20" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="W1646" s="4"/>
     </row>
@@ -47727,13 +47727,13 @@
         <v>297</v>
       </c>
       <c r="N1647" s="21" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="O1647" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1647" s="20" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="W1647" s="4"/>
     </row>
@@ -47757,7 +47757,7 @@
         <v>298</v>
       </c>
       <c r="N1648" s="20" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="V1648" s="20"/>
       <c r="W1648" s="4"/>
@@ -47807,7 +47807,7 @@
         <v>300</v>
       </c>
       <c r="N1650" s="20" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="V1650" s="20"/>
       <c r="W1650" s="4"/>
@@ -47832,7 +47832,7 @@
         <v>301</v>
       </c>
       <c r="N1651" s="20" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="V1651" s="20"/>
       <c r="W1651" s="4"/>
@@ -47857,7 +47857,7 @@
         <v>302</v>
       </c>
       <c r="N1652" s="20" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="V1652" s="20"/>
       <c r="W1652" s="4"/>
@@ -47907,7 +47907,7 @@
         <v>304</v>
       </c>
       <c r="N1654" s="20" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="P1654" s="18" t="s">
         <v>66</v>
@@ -47965,7 +47965,7 @@
         <v>306</v>
       </c>
       <c r="N1656" s="20" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="V1656" s="20"/>
       <c r="W1656" s="4"/>
@@ -47990,7 +47990,7 @@
         <v>307</v>
       </c>
       <c r="N1657" s="20" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="V1657" s="20"/>
       <c r="W1657" s="4"/>
@@ -48015,7 +48015,7 @@
         <v>308</v>
       </c>
       <c r="N1658" s="20" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="V1658" s="20"/>
       <c r="W1658" s="4"/>
@@ -48065,7 +48065,7 @@
         <v>310</v>
       </c>
       <c r="N1660" s="20" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="V1660" s="20"/>
       <c r="W1660" s="4"/>
@@ -48115,7 +48115,7 @@
         <v>312</v>
       </c>
       <c r="N1662" s="20" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="V1662" s="20"/>
       <c r="W1662" s="4"/>
@@ -48140,7 +48140,7 @@
         <v>313</v>
       </c>
       <c r="N1663" s="21" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="O1663" s="11" t="s">
         <v>21</v>
@@ -48149,7 +48149,7 @@
         <v>66</v>
       </c>
       <c r="V1663" s="20" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="W1663" s="4"/>
     </row>
@@ -48201,7 +48201,7 @@
         <v>315</v>
       </c>
       <c r="N1665" s="20" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="V1665" s="20"/>
       <c r="W1665" s="4"/>
@@ -48226,7 +48226,7 @@
         <v>316</v>
       </c>
       <c r="N1666" s="20" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="V1666" s="20"/>
       <c r="W1666" s="4"/>
@@ -48251,7 +48251,7 @@
         <v>317</v>
       </c>
       <c r="N1667" s="20" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="V1667" s="20"/>
       <c r="W1667" s="4"/>
@@ -48276,13 +48276,13 @@
         <v>318</v>
       </c>
       <c r="N1668" s="21" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="O1668" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1668" s="20" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="W1668" s="4"/>
     </row>
@@ -48306,7 +48306,7 @@
         <v>319</v>
       </c>
       <c r="N1669" s="20" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="V1669" s="20"/>
       <c r="W1669" s="4"/>
@@ -48331,7 +48331,7 @@
         <v>320</v>
       </c>
       <c r="N1670" s="21" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="O1670" s="11" t="s">
         <v>23</v>
@@ -48361,7 +48361,7 @@
         <v>321</v>
       </c>
       <c r="N1671" s="20" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="V1671" s="20"/>
       <c r="W1671" s="4"/>
@@ -48386,7 +48386,7 @@
         <v>322</v>
       </c>
       <c r="N1672" s="21" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="O1672" s="11" t="s">
         <v>21</v>
@@ -48395,7 +48395,7 @@
         <v>66</v>
       </c>
       <c r="V1672" s="20" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="W1672" s="4"/>
     </row>
@@ -48429,10 +48429,10 @@
         <v>64</v>
       </c>
       <c r="D1674" s="10" t="s">
+        <v>1420</v>
+      </c>
+      <c r="G1674" s="4" t="s">
         <v>1421</v>
-      </c>
-      <c r="G1674" s="4" t="s">
-        <v>1422</v>
       </c>
       <c r="I1674" s="4" t="s">
         <v>59</v>
@@ -48450,7 +48450,7 @@
         <v>324</v>
       </c>
       <c r="N1674" s="20" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="V1674" s="20"/>
       <c r="W1674" s="4"/>
@@ -48460,10 +48460,10 @@
         <v>64</v>
       </c>
       <c r="D1675" s="10" t="s">
+        <v>1420</v>
+      </c>
+      <c r="G1675" s="4" t="s">
         <v>1421</v>
-      </c>
-      <c r="G1675" s="4" t="s">
-        <v>1422</v>
       </c>
       <c r="I1675" s="4" t="s">
         <v>59</v>
@@ -48494,10 +48494,10 @@
         <v>64</v>
       </c>
       <c r="D1676" s="10" t="s">
+        <v>1420</v>
+      </c>
+      <c r="G1676" s="4" t="s">
         <v>1421</v>
-      </c>
-      <c r="G1676" s="4" t="s">
-        <v>1422</v>
       </c>
       <c r="I1676" s="4" t="s">
         <v>59</v>
@@ -48515,7 +48515,7 @@
         <v>326</v>
       </c>
       <c r="N1676" s="20" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="S1676" s="2" t="s">
         <v>97</v>
@@ -48571,13 +48571,13 @@
         <v>328</v>
       </c>
       <c r="N1678" s="21" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="O1678" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1678" s="20" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="W1678" s="4"/>
     </row>
@@ -48586,7 +48586,7 @@
         <v>64</v>
       </c>
       <c r="H1679" s="61" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="I1679" s="4" t="s">
         <v>59</v>
@@ -48604,7 +48604,7 @@
         <v>329</v>
       </c>
       <c r="N1679" s="20" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="V1679" s="20"/>
       <c r="W1679" s="4"/>
@@ -48614,7 +48614,7 @@
         <v>64</v>
       </c>
       <c r="H1680" s="61" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="I1680" s="4" t="s">
         <v>59</v>
@@ -48632,7 +48632,7 @@
         <v>330</v>
       </c>
       <c r="N1680" s="20" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="V1680" s="20"/>
       <c r="W1680" s="4"/>
@@ -48642,7 +48642,7 @@
         <v>64</v>
       </c>
       <c r="H1681" s="61" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="I1681" s="4" t="s">
         <v>59</v>
@@ -48675,7 +48675,7 @@
         <v>64</v>
       </c>
       <c r="H1682" s="61" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="I1682" s="4" t="s">
         <v>59</v>
@@ -48693,7 +48693,7 @@
         <v>332</v>
       </c>
       <c r="N1682" s="20" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="V1682" s="20"/>
       <c r="W1682" s="4"/>
@@ -48703,7 +48703,7 @@
         <v>64</v>
       </c>
       <c r="H1683" s="61" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="I1683" s="4" t="s">
         <v>59</v>
@@ -48721,7 +48721,7 @@
         <v>333</v>
       </c>
       <c r="N1683" s="20" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="V1683" s="20"/>
       <c r="W1683" s="4"/>
@@ -48731,7 +48731,7 @@
         <v>64</v>
       </c>
       <c r="H1684" s="61" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="I1684" s="4" t="s">
         <v>59</v>
@@ -48759,7 +48759,7 @@
         <v>64</v>
       </c>
       <c r="H1685" s="61" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="I1685" s="4" t="s">
         <v>59</v>
@@ -48790,7 +48790,7 @@
         <v>64</v>
       </c>
       <c r="H1686" s="61" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="I1686" s="4" t="s">
         <v>59</v>
@@ -48808,7 +48808,7 @@
         <v>336</v>
       </c>
       <c r="N1686" s="20" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="V1686" s="20"/>
       <c r="W1686" s="4"/>
@@ -48833,7 +48833,7 @@
         <v>337</v>
       </c>
       <c r="N1687" s="20" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="V1687" s="20"/>
       <c r="W1687" s="4"/>
@@ -48858,7 +48858,7 @@
         <v>338</v>
       </c>
       <c r="N1688" s="20" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="V1688" s="20"/>
       <c r="W1688" s="4"/>
@@ -48883,7 +48883,7 @@
         <v>339</v>
       </c>
       <c r="N1689" s="20" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="V1689" s="20"/>
       <c r="W1689" s="4"/>
@@ -48908,14 +48908,14 @@
         <v>340</v>
       </c>
       <c r="N1690" s="21" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="O1690" s="11" t="s">
         <v>21</v>
       </c>
       <c r="U1690" s="20"/>
       <c r="V1690" s="20" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="W1690" s="4"/>
     </row>
@@ -48939,7 +48939,7 @@
         <v>341</v>
       </c>
       <c r="N1691" s="20" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="P1691" s="18" t="s">
         <v>66</v>

--- a/TS Jatai Working/Padam Input Templates/TS 1.2 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 1.2 Padam Input Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77D14F80-83E7-4528-BBB3-3E2A3ED96DB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDFD208E-A188-40A9-9B4D-C70DBB392A05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -5259,9 +5259,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:W1691"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A1258" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V1261" sqref="V1261"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A585" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F586" sqref="F586"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -20494,8 +20494,8 @@
       <c r="M593" s="7">
         <v>74</v>
       </c>
-      <c r="N593" s="20" t="s">
-        <v>287</v>
+      <c r="N593" s="21" t="s">
+        <v>201</v>
       </c>
       <c r="V593" s="20"/>
       <c r="W593" s="4"/>

--- a/TS Jatai Working/Padam Input Templates/TS 1.2 Padam Input Template.xlsx
+++ b/TS Jatai Working/Padam Input Templates/TS 1.2 Padam Input Template.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28925"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\ALL IMP DATA\GitHub\texts\TS Jatai Working\Padam Input Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91255968-5C89-4ACD-90BB-1F83E61E26A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E467D7BB-B8B1-443A-BBCF-EEE38D8FE789}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3232,9 +3232,6 @@
     <t>raqmeqthAqm</t>
   </si>
   <si>
-    <t>var.Shmann#</t>
-  </si>
-  <si>
     <t>vAq</t>
   </si>
   <si>
@@ -4635,6 +4632,9 @@
   </si>
   <si>
     <t>uqBaqyata#SSIrShNI</t>
+  </si>
+  <si>
+    <t>varShmann#</t>
   </si>
 </sst>
 </file>
@@ -5260,8 +5260,8 @@
   <dimension ref="A1:W1691"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A464" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="V472" sqref="V472"/>
+      <pane ySplit="1" topLeftCell="A1281" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N1291" sqref="N1291"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13" defaultRowHeight="18.95" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -5293,7 +5293,7 @@
         <v>62</v>
       </c>
       <c r="B1" s="35" t="s">
-        <v>1431</v>
+        <v>1430</v>
       </c>
       <c r="C1" s="33" t="s">
         <v>0</v>
@@ -5347,7 +5347,7 @@
         <v>188</v>
       </c>
       <c r="T1" s="56" t="s">
-        <v>1429</v>
+        <v>1428</v>
       </c>
       <c r="U1" s="51" t="s">
         <v>16</v>
@@ -6007,7 +6007,7 @@
         <v>18</v>
       </c>
       <c r="N19" s="70" t="s">
-        <v>1436</v>
+        <v>1435</v>
       </c>
       <c r="O19" s="2" t="s">
         <v>21</v>
@@ -8392,7 +8392,7 @@
     </row>
     <row r="90" spans="1:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H90" s="4" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="I90" s="4" t="s">
         <v>27</v>
@@ -8435,7 +8435,7 @@
       <c r="F91" s="5"/>
       <c r="G91" s="5"/>
       <c r="H91" s="4" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="I91" s="4" t="s">
         <v>27</v>
@@ -8475,7 +8475,7 @@
       <c r="F92" s="5"/>
       <c r="G92" s="5"/>
       <c r="H92" s="4" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="I92" s="4" t="s">
         <v>27</v>
@@ -8506,7 +8506,7 @@
     </row>
     <row r="93" spans="1:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H93" s="4" t="s">
-        <v>1366</v>
+        <v>1365</v>
       </c>
       <c r="I93" s="4" t="s">
         <v>27</v>
@@ -8646,7 +8646,7 @@
         <v>20</v>
       </c>
       <c r="V98" s="71" t="s">
-        <v>1437</v>
+        <v>1436</v>
       </c>
       <c r="W98" s="4"/>
     </row>
@@ -8768,7 +8768,7 @@
     </row>
     <row r="104" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H104" s="4" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="I104" s="4" t="s">
         <v>27</v>
@@ -8798,7 +8798,7 @@
     </row>
     <row r="105" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H105" s="4" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="I105" s="4" t="s">
         <v>27</v>
@@ -8823,7 +8823,7 @@
     </row>
     <row r="106" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H106" s="4" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="I106" s="4" t="s">
         <v>27</v>
@@ -8848,7 +8848,7 @@
     </row>
     <row r="107" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H107" s="4" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="I107" s="4" t="s">
         <v>27</v>
@@ -8873,7 +8873,7 @@
     </row>
     <row r="108" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H108" s="4" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="I108" s="4" t="s">
         <v>27</v>
@@ -8898,7 +8898,7 @@
     </row>
     <row r="109" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H109" s="4" t="s">
-        <v>1367</v>
+        <v>1366</v>
       </c>
       <c r="I109" s="4" t="s">
         <v>27</v>
@@ -9850,7 +9850,7 @@
     </row>
     <row r="150" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H150" s="4" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="I150" s="4" t="s">
         <v>28</v>
@@ -9875,7 +9875,7 @@
     </row>
     <row r="151" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H151" s="4" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="I151" s="4" t="s">
         <v>28</v>
@@ -9907,7 +9907,7 @@
     </row>
     <row r="152" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H152" s="4" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="I152" s="4" t="s">
         <v>28</v>
@@ -9937,7 +9937,7 @@
     </row>
     <row r="153" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H153" s="4" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="I153" s="4" t="s">
         <v>28</v>
@@ -9962,7 +9962,7 @@
     </row>
     <row r="154" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H154" s="4" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="I154" s="4" t="s">
         <v>28</v>
@@ -9992,7 +9992,7 @@
     </row>
     <row r="155" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H155" s="4" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="I155" s="4" t="s">
         <v>28</v>
@@ -10017,7 +10017,7 @@
     </row>
     <row r="156" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H156" s="4" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="I156" s="4" t="s">
         <v>28</v>
@@ -10045,7 +10045,7 @@
     </row>
     <row r="157" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H157" s="4" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="I157" s="4" t="s">
         <v>28</v>
@@ -10070,7 +10070,7 @@
     </row>
     <row r="158" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H158" s="4" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="I158" s="4" t="s">
         <v>28</v>
@@ -10100,7 +10100,7 @@
     </row>
     <row r="159" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H159" s="4" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="I159" s="4" t="s">
         <v>28</v>
@@ -10125,7 +10125,7 @@
     </row>
     <row r="160" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H160" s="4" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="I160" s="4" t="s">
         <v>29</v>
@@ -10150,7 +10150,7 @@
     </row>
     <row r="161" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H161" s="4" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="I161" s="4" t="s">
         <v>29</v>
@@ -10178,7 +10178,7 @@
     </row>
     <row r="162" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H162" s="4" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="I162" s="4" t="s">
         <v>29</v>
@@ -10203,7 +10203,7 @@
     </row>
     <row r="163" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H163" s="4" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="I163" s="4" t="s">
         <v>29</v>
@@ -10228,7 +10228,7 @@
     </row>
     <row r="164" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H164" s="4" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="I164" s="4" t="s">
         <v>29</v>
@@ -10258,7 +10258,7 @@
     </row>
     <row r="165" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H165" s="4" t="s">
-        <v>1368</v>
+        <v>1367</v>
       </c>
       <c r="I165" s="4" t="s">
         <v>29</v>
@@ -10659,7 +10659,7 @@
     </row>
     <row r="182" spans="7:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H182" s="4" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="I182" s="4" t="s">
         <v>29</v>
@@ -10684,7 +10684,7 @@
     </row>
     <row r="183" spans="7:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H183" s="4" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="I183" s="4" t="s">
         <v>29</v>
@@ -10709,10 +10709,10 @@
     </row>
     <row r="184" spans="7:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G184" s="4" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="I184" s="4" t="s">
         <v>29</v>
@@ -10737,10 +10737,10 @@
     </row>
     <row r="185" spans="7:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G185" s="4" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="I185" s="4" t="s">
         <v>29</v>
@@ -10765,10 +10765,10 @@
     </row>
     <row r="186" spans="7:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G186" s="4" t="s">
-        <v>1423</v>
+        <v>1422</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="I186" s="4" t="s">
         <v>29</v>
@@ -10798,7 +10798,7 @@
     </row>
     <row r="187" spans="7:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H187" s="4" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="I187" s="4" t="s">
         <v>29</v>
@@ -10823,7 +10823,7 @@
     </row>
     <row r="188" spans="7:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H188" s="4" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="I188" s="4" t="s">
         <v>29</v>
@@ -10848,7 +10848,7 @@
     </row>
     <row r="189" spans="7:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H189" s="4" t="s">
-        <v>1369</v>
+        <v>1368</v>
       </c>
       <c r="I189" s="4" t="s">
         <v>29</v>
@@ -11239,7 +11239,7 @@
         <v>96</v>
       </c>
       <c r="N205" s="71" t="s">
-        <v>1438</v>
+        <v>1437</v>
       </c>
       <c r="V205" s="20"/>
       <c r="W205" s="4"/>
@@ -11606,7 +11606,7 @@
     </row>
     <row r="221" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H221" s="61" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="I221" s="4" t="s">
         <v>30</v>
@@ -11632,7 +11632,7 @@
     </row>
     <row r="222" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H222" s="61" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="I222" s="4" t="s">
         <v>30</v>
@@ -11658,7 +11658,7 @@
     </row>
     <row r="223" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H223" s="61" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="I223" s="4" t="s">
         <v>30</v>
@@ -11683,7 +11683,7 @@
     </row>
     <row r="224" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H224" s="61" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="I224" s="4" t="s">
         <v>30</v>
@@ -11708,7 +11708,7 @@
     </row>
     <row r="225" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H225" s="61" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="I225" s="4" t="s">
         <v>30</v>
@@ -11736,7 +11736,7 @@
     </row>
     <row r="226" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H226" s="61" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="I226" s="4" t="s">
         <v>30</v>
@@ -11767,7 +11767,7 @@
     <row r="227" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D227" s="12"/>
       <c r="H227" s="61" t="s">
-        <v>1370</v>
+        <v>1369</v>
       </c>
       <c r="I227" s="4" t="s">
         <v>30</v>
@@ -12334,7 +12334,7 @@
         <v>11</v>
       </c>
       <c r="N250" s="20" t="s">
-        <v>1313</v>
+        <v>1312</v>
       </c>
       <c r="P250" s="18" t="s">
         <v>66</v>
@@ -12718,7 +12718,7 @@
     </row>
     <row r="267" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E267" s="63" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="I267" s="4" t="s">
         <v>31</v>
@@ -12746,7 +12746,7 @@
     </row>
     <row r="268" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E268" s="63" t="s">
-        <v>1425</v>
+        <v>1424</v>
       </c>
       <c r="I268" s="4" t="s">
         <v>31</v>
@@ -13049,7 +13049,7 @@
         <v>41</v>
       </c>
       <c r="N280" s="20" t="s">
-        <v>1314</v>
+        <v>1313</v>
       </c>
       <c r="P280" s="18" t="s">
         <v>66</v>
@@ -13084,7 +13084,7 @@
     </row>
     <row r="282" spans="4:23" ht="18" x14ac:dyDescent="0.25">
       <c r="F282" s="4" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="I282" s="4" t="s">
         <v>31</v>
@@ -13113,7 +13113,7 @@
     </row>
     <row r="283" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F283" s="4" t="s">
-        <v>1427</v>
+        <v>1426</v>
       </c>
       <c r="I283" s="4" t="s">
         <v>31</v>
@@ -13323,7 +13323,7 @@
         <v>52</v>
       </c>
       <c r="N291" s="21" t="s">
-        <v>1315</v>
+        <v>1314</v>
       </c>
       <c r="P291" s="18" t="s">
         <v>66</v>
@@ -13677,7 +13677,7 @@
     </row>
     <row r="306" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H306" s="61" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="I306" s="4" t="s">
         <v>32</v>
@@ -13703,7 +13703,7 @@
     </row>
     <row r="307" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H307" s="61" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="I307" s="4" t="s">
         <v>32</v>
@@ -13728,7 +13728,7 @@
     </row>
     <row r="308" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H308" s="61" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="I308" s="4" t="s">
         <v>32</v>
@@ -13753,7 +13753,7 @@
     </row>
     <row r="309" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H309" s="61" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="I309" s="4" t="s">
         <v>32</v>
@@ -13781,7 +13781,7 @@
     </row>
     <row r="310" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H310" s="61" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="I310" s="4" t="s">
         <v>32</v>
@@ -13806,7 +13806,7 @@
     </row>
     <row r="311" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H311" s="61" t="s">
-        <v>1371</v>
+        <v>1370</v>
       </c>
       <c r="I311" s="4" t="s">
         <v>32</v>
@@ -13899,7 +13899,7 @@
     </row>
     <row r="315" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H315" s="61" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="I315" s="4" t="s">
         <v>32</v>
@@ -13927,7 +13927,7 @@
     </row>
     <row r="316" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H316" s="61" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="I316" s="4" t="s">
         <v>32</v>
@@ -13953,7 +13953,7 @@
     </row>
     <row r="317" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H317" s="61" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="I317" s="4" t="s">
         <v>32</v>
@@ -13978,7 +13978,7 @@
     </row>
     <row r="318" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H318" s="61" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="I318" s="4" t="s">
         <v>32</v>
@@ -14003,7 +14003,7 @@
     </row>
     <row r="319" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H319" s="61" t="s">
-        <v>1372</v>
+        <v>1371</v>
       </c>
       <c r="I319" s="4" t="s">
         <v>32</v>
@@ -14876,7 +14876,7 @@
     </row>
     <row r="358" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H358" s="61" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="I358" s="4" t="s">
         <v>33</v>
@@ -14901,7 +14901,7 @@
     </row>
     <row r="359" spans="2:23" ht="18" x14ac:dyDescent="0.25">
       <c r="H359" s="61" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="I359" s="4" t="s">
         <v>33</v>
@@ -14928,7 +14928,7 @@
     </row>
     <row r="360" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H360" s="61" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="I360" s="4" t="s">
         <v>33</v>
@@ -14957,7 +14957,7 @@
     </row>
     <row r="361" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H361" s="61" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="I361" s="4" t="s">
         <v>33</v>
@@ -14982,7 +14982,7 @@
     </row>
     <row r="362" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H362" s="61" t="s">
-        <v>1373</v>
+        <v>1372</v>
       </c>
       <c r="I362" s="4" t="s">
         <v>33</v>
@@ -15077,7 +15077,7 @@
         <v>21</v>
       </c>
       <c r="V365" s="71" t="s">
-        <v>1439</v>
+        <v>1438</v>
       </c>
       <c r="W365" s="4"/>
     </row>
@@ -15105,7 +15105,7 @@
     </row>
     <row r="367" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H367" s="61" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="I367" s="4" t="s">
         <v>33</v>
@@ -15130,7 +15130,7 @@
     </row>
     <row r="368" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H368" s="61" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="I368" s="4" t="s">
         <v>33</v>
@@ -15155,7 +15155,7 @@
     </row>
     <row r="369" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H369" s="61" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="I369" s="4" t="s">
         <v>33</v>
@@ -15180,7 +15180,7 @@
     </row>
     <row r="370" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H370" s="61" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="I370" s="4" t="s">
         <v>33</v>
@@ -15208,7 +15208,7 @@
     </row>
     <row r="371" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H371" s="61" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="I371" s="4" t="s">
         <v>33</v>
@@ -15233,7 +15233,7 @@
     </row>
     <row r="372" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H372" s="61" t="s">
-        <v>1374</v>
+        <v>1373</v>
       </c>
       <c r="I372" s="4" t="s">
         <v>33</v>
@@ -15491,7 +15491,7 @@
     </row>
     <row r="383" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H383" s="61" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="I383" s="4" t="s">
         <v>33</v>
@@ -15521,7 +15521,7 @@
     </row>
     <row r="384" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H384" s="61" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="I384" s="4" t="s">
         <v>33</v>
@@ -15549,7 +15549,7 @@
         <v>180</v>
       </c>
       <c r="H385" s="61" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="I385" s="4" t="s">
         <v>33</v>
@@ -15577,7 +15577,7 @@
     </row>
     <row r="386" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H386" s="61" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="I386" s="4" t="s">
         <v>33</v>
@@ -15602,7 +15602,7 @@
     </row>
     <row r="387" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H387" s="61" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="I387" s="4" t="s">
         <v>33</v>
@@ -15627,7 +15627,7 @@
     </row>
     <row r="388" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H388" s="61" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="I388" s="4" t="s">
         <v>33</v>
@@ -15655,7 +15655,7 @@
     </row>
     <row r="389" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H389" s="61" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="I389" s="4" t="s">
         <v>33</v>
@@ -15680,7 +15680,7 @@
     </row>
     <row r="390" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H390" s="61" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="I390" s="4" t="s">
         <v>33</v>
@@ -15705,7 +15705,7 @@
     </row>
     <row r="391" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H391" s="61" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="I391" s="4" t="s">
         <v>33</v>
@@ -15733,7 +15733,7 @@
     </row>
     <row r="392" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H392" s="61" t="s">
-        <v>1375</v>
+        <v>1374</v>
       </c>
       <c r="I392" s="4" t="s">
         <v>33</v>
@@ -15856,7 +15856,7 @@
     </row>
     <row r="397" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H397" s="61" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="I397" s="4" t="s">
         <v>33</v>
@@ -15884,7 +15884,7 @@
     </row>
     <row r="398" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H398" s="61" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="I398" s="4" t="s">
         <v>33</v>
@@ -15910,7 +15910,7 @@
     </row>
     <row r="399" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H399" s="61" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="I399" s="4" t="s">
         <v>33</v>
@@ -15935,7 +15935,7 @@
     </row>
     <row r="400" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H400" s="61" t="s">
-        <v>1376</v>
+        <v>1375</v>
       </c>
       <c r="I400" s="4" t="s">
         <v>33</v>
@@ -16285,7 +16285,7 @@
         <v>175</v>
       </c>
       <c r="N414" s="20" t="s">
-        <v>1316</v>
+        <v>1315</v>
       </c>
       <c r="P414" s="18" t="s">
         <v>66</v>
@@ -16429,7 +16429,7 @@
     </row>
     <row r="421" spans="6:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F421" s="4" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="I421" s="4" t="s">
         <v>34</v>
@@ -16454,7 +16454,7 @@
     </row>
     <row r="422" spans="6:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F422" s="4" t="s">
-        <v>1426</v>
+        <v>1425</v>
       </c>
       <c r="I422" s="4" t="s">
         <v>34</v>
@@ -17081,7 +17081,7 @@
         <v>62</v>
       </c>
       <c r="H449" s="61" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I449" s="4" t="s">
         <v>34</v>
@@ -17109,7 +17109,7 @@
         <v>62</v>
       </c>
       <c r="H450" s="61" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I450" s="4" t="s">
         <v>34</v>
@@ -17137,7 +17137,7 @@
     </row>
     <row r="451" spans="1:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H451" s="61" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I451" s="4" t="s">
         <v>34</v>
@@ -17162,7 +17162,7 @@
     </row>
     <row r="452" spans="1:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H452" s="61" t="s">
-        <v>1377</v>
+        <v>1376</v>
       </c>
       <c r="I452" s="4" t="s">
         <v>34</v>
@@ -17541,7 +17541,7 @@
     </row>
     <row r="469" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H469" s="61" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="I469" s="4" t="s">
         <v>35</v>
@@ -17566,7 +17566,7 @@
     </row>
     <row r="470" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H470" s="61" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="I470" s="4" t="s">
         <v>35</v>
@@ -17592,7 +17592,7 @@
     </row>
     <row r="471" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H471" s="61" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="I471" s="4" t="s">
         <v>35</v>
@@ -17617,7 +17617,7 @@
     </row>
     <row r="472" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H472" s="61" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="I472" s="4" t="s">
         <v>35</v>
@@ -17635,7 +17635,7 @@
         <v>58</v>
       </c>
       <c r="N472" s="21" t="s">
-        <v>1451</v>
+        <v>1450</v>
       </c>
       <c r="O472" s="11" t="s">
         <v>21</v>
@@ -17647,7 +17647,7 @@
     </row>
     <row r="473" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H473" s="61" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="I473" s="4" t="s">
         <v>35</v>
@@ -17673,7 +17673,7 @@
     </row>
     <row r="474" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H474" s="61" t="s">
-        <v>1378</v>
+        <v>1377</v>
       </c>
       <c r="I474" s="4" t="s">
         <v>35</v>
@@ -17713,7 +17713,7 @@
         <v>61</v>
       </c>
       <c r="N475" s="70" t="s">
-        <v>1440</v>
+        <v>1439</v>
       </c>
       <c r="O475" s="11" t="s">
         <v>21</v>
@@ -17740,7 +17740,7 @@
         <v>62</v>
       </c>
       <c r="N476" s="70" t="s">
-        <v>1441</v>
+        <v>1440</v>
       </c>
       <c r="O476" s="11" t="s">
         <v>21</v>
@@ -18332,7 +18332,7 @@
     </row>
     <row r="502" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H502" s="61" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="I502" s="4" t="s">
         <v>35</v>
@@ -18357,7 +18357,7 @@
     </row>
     <row r="503" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H503" s="61" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="I503" s="4" t="s">
         <v>35</v>
@@ -18382,7 +18382,7 @@
     </row>
     <row r="504" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H504" s="61" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="I504" s="4" t="s">
         <v>35</v>
@@ -18407,7 +18407,7 @@
     </row>
     <row r="505" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H505" s="61" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="I505" s="4" t="s">
         <v>35</v>
@@ -18432,7 +18432,7 @@
     </row>
     <row r="506" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H506" s="61" t="s">
-        <v>1379</v>
+        <v>1378</v>
       </c>
       <c r="I506" s="4" t="s">
         <v>35</v>
@@ -18644,7 +18644,7 @@
         <v>181</v>
       </c>
       <c r="H515" s="61" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="I515" s="4" t="s">
         <v>35</v>
@@ -18675,7 +18675,7 @@
     </row>
     <row r="516" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H516" s="61" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="I516" s="4" t="s">
         <v>35</v>
@@ -18703,7 +18703,7 @@
     </row>
     <row r="517" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H517" s="61" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="I517" s="4" t="s">
         <v>35</v>
@@ -18728,7 +18728,7 @@
     </row>
     <row r="518" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H518" s="61" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="I518" s="4" t="s">
         <v>35</v>
@@ -18753,7 +18753,7 @@
     </row>
     <row r="519" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H519" s="61" t="s">
-        <v>1380</v>
+        <v>1379</v>
       </c>
       <c r="I519" s="4" t="s">
         <v>35</v>
@@ -18771,7 +18771,7 @@
         <v>105</v>
       </c>
       <c r="N519" s="20" t="s">
-        <v>1317</v>
+        <v>1316</v>
       </c>
       <c r="P519" s="18" t="s">
         <v>66</v>
@@ -19762,7 +19762,7 @@
         <v>43</v>
       </c>
       <c r="N562" s="20" t="s">
-        <v>1432</v>
+        <v>1431</v>
       </c>
       <c r="V562" s="20"/>
       <c r="W562" s="4"/>
@@ -20094,7 +20094,7 @@
     </row>
     <row r="577" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E577" s="4" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="I577" s="4" t="s">
         <v>37</v>
@@ -20119,10 +20119,10 @@
     </row>
     <row r="578" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E578" s="4" t="s">
-        <v>1414</v>
+        <v>1413</v>
       </c>
       <c r="H578" s="61" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="I578" s="4" t="s">
         <v>37</v>
@@ -20150,7 +20150,7 @@
     </row>
     <row r="579" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H579" s="61" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="I579" s="4" t="s">
         <v>37</v>
@@ -20175,7 +20175,7 @@
     </row>
     <row r="580" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H580" s="61" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="I580" s="4" t="s">
         <v>37</v>
@@ -20200,7 +20200,7 @@
     </row>
     <row r="581" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H581" s="61" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="I581" s="4" t="s">
         <v>37</v>
@@ -20225,7 +20225,7 @@
     </row>
     <row r="582" spans="5:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H582" s="61" t="s">
-        <v>1381</v>
+        <v>1380</v>
       </c>
       <c r="I582" s="4" t="s">
         <v>37</v>
@@ -20265,7 +20265,7 @@
         <v>64</v>
       </c>
       <c r="N583" s="70" t="s">
-        <v>1442</v>
+        <v>1441</v>
       </c>
       <c r="V583" s="20"/>
       <c r="W583" s="4"/>
@@ -20614,7 +20614,7 @@
         <v>79</v>
       </c>
       <c r="N598" s="20" t="s">
-        <v>1318</v>
+        <v>1317</v>
       </c>
       <c r="P598" s="18" t="s">
         <v>66</v>
@@ -20626,7 +20626,7 @@
     </row>
     <row r="599" spans="4:23" ht="18" x14ac:dyDescent="0.25">
       <c r="H599" s="61" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="I599" s="4" t="s">
         <v>38</v>
@@ -20655,10 +20655,10 @@
         <v>179</v>
       </c>
       <c r="G600" s="4" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="H600" s="61" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="I600" s="4" t="s">
         <v>38</v>
@@ -20687,10 +20687,10 @@
         <v>179</v>
       </c>
       <c r="G601" s="4" t="s">
-        <v>1418</v>
+        <v>1417</v>
       </c>
       <c r="H601" s="61" t="s">
-        <v>1382</v>
+        <v>1381</v>
       </c>
       <c r="I601" s="4" t="s">
         <v>38</v>
@@ -20876,7 +20876,7 @@
     </row>
     <row r="609" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H609" s="61" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I609" s="4" t="s">
         <v>38</v>
@@ -20901,7 +20901,7 @@
     </row>
     <row r="610" spans="4:23" ht="18" x14ac:dyDescent="0.25">
       <c r="H610" s="61" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I610" s="4" t="s">
         <v>38</v>
@@ -20931,7 +20931,7 @@
         <v>180</v>
       </c>
       <c r="H611" s="61" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I611" s="4" t="s">
         <v>38</v>
@@ -20964,7 +20964,7 @@
     </row>
     <row r="612" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H612" s="61" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I612" s="4" t="s">
         <v>38</v>
@@ -20989,7 +20989,7 @@
     </row>
     <row r="613" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H613" s="61" t="s">
-        <v>1383</v>
+        <v>1382</v>
       </c>
       <c r="I613" s="4" t="s">
         <v>38</v>
@@ -21651,7 +21651,7 @@
         <v>41</v>
       </c>
       <c r="N639" s="20" t="s">
-        <v>1319</v>
+        <v>1318</v>
       </c>
       <c r="P639" s="18" t="s">
         <v>66</v>
@@ -21816,7 +21816,7 @@
     </row>
     <row r="646" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H646" s="61" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="I646" s="4" t="s">
         <v>38</v>
@@ -21846,7 +21846,7 @@
     </row>
     <row r="647" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H647" s="61" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="I647" s="4" t="s">
         <v>38</v>
@@ -21875,7 +21875,7 @@
       </c>
       <c r="D648" s="62"/>
       <c r="H648" s="61" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="I648" s="4" t="s">
         <v>38</v>
@@ -21910,7 +21910,7 @@
     <row r="649" spans="2:23" ht="18" x14ac:dyDescent="0.25">
       <c r="D649" s="62"/>
       <c r="H649" s="61" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="I649" s="4" t="s">
         <v>38</v>
@@ -21941,7 +21941,7 @@
     <row r="650" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="D650" s="62"/>
       <c r="H650" s="61" t="s">
-        <v>1384</v>
+        <v>1383</v>
       </c>
       <c r="I650" s="4" t="s">
         <v>38</v>
@@ -22102,7 +22102,7 @@
         <v>57</v>
       </c>
       <c r="N655" s="20" t="s">
-        <v>1320</v>
+        <v>1319</v>
       </c>
       <c r="P655" s="18" t="s">
         <v>66</v>
@@ -23278,7 +23278,7 @@
     </row>
     <row r="704" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H704" s="61" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="I704" s="4" t="s">
         <v>39</v>
@@ -23303,7 +23303,7 @@
     </row>
     <row r="705" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H705" s="61" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="I705" s="4" t="s">
         <v>39</v>
@@ -23328,7 +23328,7 @@
     </row>
     <row r="706" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H706" s="61" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="I706" s="4" t="s">
         <v>39</v>
@@ -23356,7 +23356,7 @@
     </row>
     <row r="707" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H707" s="61" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="I707" s="4" t="s">
         <v>39</v>
@@ -23381,7 +23381,7 @@
     </row>
     <row r="708" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H708" s="61" t="s">
-        <v>1385</v>
+        <v>1384</v>
       </c>
       <c r="I708" s="4" t="s">
         <v>39</v>
@@ -23717,7 +23717,7 @@
     </row>
     <row r="722" spans="2:23" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H722" s="61" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I722" s="4" t="s">
         <v>39</v>
@@ -23747,7 +23747,7 @@
     </row>
     <row r="723" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H723" s="61" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I723" s="4" t="s">
         <v>39</v>
@@ -23771,14 +23771,14 @@
         <v>95</v>
       </c>
       <c r="T723" s="65" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="V723" s="20"/>
       <c r="W723" s="4"/>
     </row>
     <row r="724" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H724" s="61" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I724" s="4" t="s">
         <v>39</v>
@@ -23803,7 +23803,7 @@
     </row>
     <row r="725" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H725" s="61" t="s">
-        <v>1386</v>
+        <v>1385</v>
       </c>
       <c r="I725" s="4" t="s">
         <v>39</v>
@@ -23871,7 +23871,7 @@
         <v>72</v>
       </c>
       <c r="N727" s="20" t="s">
-        <v>1321</v>
+        <v>1320</v>
       </c>
       <c r="P727" s="18" t="s">
         <v>66</v>
@@ -23884,13 +23884,13 @@
     </row>
     <row r="728" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E728" s="4" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F728" s="4" t="s">
         <v>1415</v>
       </c>
-      <c r="F728" s="4" t="s">
-        <v>1416</v>
-      </c>
       <c r="H728" s="61" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I728" s="4" t="s">
         <v>40</v>
@@ -23918,13 +23918,13 @@
     </row>
     <row r="729" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E729" s="4" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F729" s="4" t="s">
         <v>1415</v>
       </c>
-      <c r="F729" s="4" t="s">
-        <v>1416</v>
-      </c>
       <c r="H729" s="61" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I729" s="4" t="s">
         <v>40</v>
@@ -23949,13 +23949,13 @@
     </row>
     <row r="730" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E730" s="4" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F730" s="4" t="s">
         <v>1415</v>
       </c>
-      <c r="F730" s="4" t="s">
-        <v>1416</v>
-      </c>
       <c r="H730" s="61" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I730" s="4" t="s">
         <v>40</v>
@@ -23985,13 +23985,13 @@
     </row>
     <row r="731" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="E731" s="4" t="s">
+        <v>1414</v>
+      </c>
+      <c r="F731" s="4" t="s">
         <v>1415</v>
       </c>
-      <c r="F731" s="4" t="s">
-        <v>1416</v>
-      </c>
       <c r="H731" s="61" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I731" s="4" t="s">
         <v>40</v>
@@ -24019,7 +24019,7 @@
     </row>
     <row r="732" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H732" s="61" t="s">
-        <v>1387</v>
+        <v>1386</v>
       </c>
       <c r="I732" s="4" t="s">
         <v>40</v>
@@ -24796,7 +24796,7 @@
     </row>
     <row r="763" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H763" s="61" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="I763" s="4" t="s">
         <v>40</v>
@@ -24826,7 +24826,7 @@
     </row>
     <row r="764" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H764" s="61" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="I764" s="4" t="s">
         <v>40</v>
@@ -24851,7 +24851,7 @@
     </row>
     <row r="765" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H765" s="61" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="I765" s="4" t="s">
         <v>40</v>
@@ -24876,7 +24876,7 @@
     </row>
     <row r="766" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H766" s="61" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="I766" s="4" t="s">
         <v>40</v>
@@ -24901,7 +24901,7 @@
     </row>
     <row r="767" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H767" s="61" t="s">
-        <v>1388</v>
+        <v>1387</v>
       </c>
       <c r="I767" s="4" t="s">
         <v>40</v>
@@ -25558,7 +25558,7 @@
         <v>66</v>
       </c>
       <c r="N793" s="20" t="s">
-        <v>1322</v>
+        <v>1321</v>
       </c>
       <c r="P793" s="18" t="s">
         <v>66</v>
@@ -25644,7 +25644,7 @@
     </row>
     <row r="797" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H797" s="61" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="I797" s="4" t="s">
         <v>41</v>
@@ -25669,7 +25669,7 @@
     </row>
     <row r="798" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H798" s="61" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="I798" s="4" t="s">
         <v>41</v>
@@ -25697,7 +25697,7 @@
     </row>
     <row r="799" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H799" s="61" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="I799" s="4" t="s">
         <v>41</v>
@@ -25722,13 +25722,13 @@
     </row>
     <row r="800" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B800" s="4" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="G800" s="4" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H800" s="61" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="I800" s="4" t="s">
         <v>41</v>
@@ -25746,25 +25746,25 @@
         <v>73</v>
       </c>
       <c r="N800" s="21" t="s">
-        <v>1409</v>
+        <v>1408</v>
       </c>
       <c r="O800" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V800" s="20" t="s">
-        <v>1412</v>
+        <v>1411</v>
       </c>
       <c r="W800" s="4"/>
     </row>
     <row r="801" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B801" s="4" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="G801" s="4" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H801" s="61" t="s">
-        <v>1389</v>
+        <v>1388</v>
       </c>
       <c r="I801" s="4" t="s">
         <v>41</v>
@@ -25794,10 +25794,10 @@
     </row>
     <row r="802" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B802" s="4" t="s">
-        <v>1422</v>
+        <v>1421</v>
       </c>
       <c r="G802" s="4" t="s">
-        <v>1421</v>
+        <v>1420</v>
       </c>
       <c r="H802" s="26"/>
       <c r="I802" s="4" t="s">
@@ -26066,7 +26066,7 @@
         <v>85</v>
       </c>
       <c r="N812" s="20" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="P812" s="18" t="s">
         <v>66</v>
@@ -26920,7 +26920,7 @@
         <v>35</v>
       </c>
       <c r="N847" s="70" t="s">
-        <v>1443</v>
+        <v>1442</v>
       </c>
       <c r="O847" s="11" t="s">
         <v>21</v>
@@ -27839,7 +27839,7 @@
         <v>73</v>
       </c>
       <c r="N885" s="20" t="s">
-        <v>1323</v>
+        <v>1322</v>
       </c>
       <c r="P885" s="18" t="s">
         <v>66</v>
@@ -30283,7 +30283,7 @@
         <v>101</v>
       </c>
       <c r="N986" s="20" t="s">
-        <v>1324</v>
+        <v>1323</v>
       </c>
       <c r="P986" s="18" t="s">
         <v>66</v>
@@ -30460,7 +30460,7 @@
     </row>
     <row r="993" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H993" s="61" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="I993" s="21" t="s">
         <v>45</v>
@@ -30485,7 +30485,7 @@
     </row>
     <row r="994" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H994" s="61" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="I994" s="21" t="s">
         <v>45</v>
@@ -30515,7 +30515,7 @@
     </row>
     <row r="995" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H995" s="61" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="I995" s="21" t="s">
         <v>45</v>
@@ -30543,7 +30543,7 @@
     </row>
     <row r="996" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H996" s="61" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="I996" s="21" t="s">
         <v>45</v>
@@ -30568,7 +30568,7 @@
     </row>
     <row r="997" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H997" s="61" t="s">
-        <v>1390</v>
+        <v>1389</v>
       </c>
       <c r="I997" s="21" t="s">
         <v>45</v>
@@ -31003,7 +31003,7 @@
         <v>94</v>
       </c>
       <c r="T1014" s="18" t="s">
-        <v>1410</v>
+        <v>1409</v>
       </c>
       <c r="V1014" s="20"/>
       <c r="W1014" s="4"/>
@@ -31820,7 +31820,7 @@
         <v>179</v>
       </c>
       <c r="E1049" s="4" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="H1049" s="26"/>
       <c r="I1049" s="4" t="s">
@@ -31850,7 +31850,7 @@
         <v>179</v>
       </c>
       <c r="E1050" s="4" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="H1050" s="26"/>
       <c r="I1050" s="4" t="s">
@@ -32063,7 +32063,7 @@
     </row>
     <row r="1059" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1059" s="61" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I1059" s="4" t="s">
         <v>46</v>
@@ -32088,7 +32088,7 @@
     </row>
     <row r="1060" spans="2:23" ht="18" x14ac:dyDescent="0.25">
       <c r="H1060" s="61" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I1060" s="4" t="s">
         <v>46</v>
@@ -32116,7 +32116,7 @@
         <v>179</v>
       </c>
       <c r="H1061" s="61" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I1061" s="4" t="s">
         <v>46</v>
@@ -32144,7 +32144,7 @@
     </row>
     <row r="1062" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1062" s="61" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I1062" s="4" t="s">
         <v>46</v>
@@ -32174,7 +32174,7 @@
     </row>
     <row r="1063" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1063" s="61" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I1063" s="4" t="s">
         <v>46</v>
@@ -32207,7 +32207,7 @@
         <v>61</v>
       </c>
       <c r="H1064" s="61" t="s">
-        <v>1391</v>
+        <v>1390</v>
       </c>
       <c r="I1064" s="4" t="s">
         <v>46</v>
@@ -33515,7 +33515,7 @@
         <v>39</v>
       </c>
       <c r="N1115" s="71" t="s">
-        <v>1444</v>
+        <v>1443</v>
       </c>
       <c r="V1115" s="20"/>
       <c r="W1115" s="4"/>
@@ -33538,7 +33538,7 @@
         <v>40</v>
       </c>
       <c r="N1116" s="71" t="s">
-        <v>1445</v>
+        <v>1444</v>
       </c>
       <c r="V1116" s="20"/>
       <c r="W1116" s="4"/>
@@ -33901,7 +33901,7 @@
     </row>
     <row r="1132" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1132" s="61" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I1132" s="4" t="s">
         <v>48</v>
@@ -33926,7 +33926,7 @@
     </row>
     <row r="1133" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1133" s="61" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I1133" s="4" t="s">
         <v>48</v>
@@ -33951,7 +33951,7 @@
     </row>
     <row r="1134" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1134" s="61" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I1134" s="4" t="s">
         <v>48</v>
@@ -33979,7 +33979,7 @@
         <v>60</v>
       </c>
       <c r="H1135" s="61" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I1135" s="4" t="s">
         <v>48</v>
@@ -34008,7 +34008,7 @@
         <v>60</v>
       </c>
       <c r="H1136" s="61" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I1136" s="4" t="s">
         <v>48</v>
@@ -34033,7 +34033,7 @@
     </row>
     <row r="1137" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1137" s="61" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I1137" s="4" t="s">
         <v>48</v>
@@ -34058,7 +34058,7 @@
     </row>
     <row r="1138" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1138" s="61" t="s">
-        <v>1392</v>
+        <v>1391</v>
       </c>
       <c r="I1138" s="4" t="s">
         <v>48</v>
@@ -34317,7 +34317,7 @@
         <v>21</v>
       </c>
       <c r="V1148" s="71" t="s">
-        <v>1446</v>
+        <v>1445</v>
       </c>
       <c r="W1148" s="4"/>
     </row>
@@ -35186,7 +35186,7 @@
     </row>
     <row r="1184" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1184" s="61" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="I1184" s="4" t="s">
         <v>49</v>
@@ -35211,7 +35211,7 @@
     </row>
     <row r="1185" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1185" s="61" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="I1185" s="4" t="s">
         <v>49</v>
@@ -35236,7 +35236,7 @@
     </row>
     <row r="1186" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1186" s="61" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="I1186" s="4" t="s">
         <v>49</v>
@@ -35264,7 +35264,7 @@
     </row>
     <row r="1187" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1187" s="61" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="I1187" s="4" t="s">
         <v>49</v>
@@ -35292,7 +35292,7 @@
         <v>61</v>
       </c>
       <c r="H1188" s="61" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="I1188" s="4" t="s">
         <v>49</v>
@@ -35318,7 +35318,7 @@
     </row>
     <row r="1189" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1189" s="61" t="s">
-        <v>1393</v>
+        <v>1392</v>
       </c>
       <c r="I1189" s="4" t="s">
         <v>49</v>
@@ -35419,7 +35419,7 @@
     </row>
     <row r="1193" spans="2:23" ht="18" x14ac:dyDescent="0.25">
       <c r="C1193" s="4" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="H1193" s="61" t="s">
         <v>87</v>
@@ -35452,7 +35452,7 @@
         <v>170</v>
       </c>
       <c r="C1194" s="4" t="s">
-        <v>1406</v>
+        <v>1405</v>
       </c>
       <c r="H1194" s="50" t="s">
         <v>87</v>
@@ -35482,7 +35482,7 @@
         <v>94</v>
       </c>
       <c r="T1194" s="18" t="s">
-        <v>1363</v>
+        <v>1362</v>
       </c>
       <c r="V1194" s="20" t="s">
         <v>1001</v>
@@ -36099,7 +36099,7 @@
         <v>9</v>
       </c>
       <c r="N1220" s="20" t="s">
-        <v>1325</v>
+        <v>1324</v>
       </c>
       <c r="P1220" s="18" t="s">
         <v>66</v>
@@ -36211,7 +36211,7 @@
     </row>
     <row r="1225" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1225" s="61" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I1225" s="4" t="s">
         <v>50</v>
@@ -36236,7 +36236,7 @@
     </row>
     <row r="1226" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1226" s="61" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I1226" s="4" t="s">
         <v>50</v>
@@ -36261,7 +36261,7 @@
     </row>
     <row r="1227" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1227" s="61" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I1227" s="4" t="s">
         <v>50</v>
@@ -36286,7 +36286,7 @@
     </row>
     <row r="1228" spans="8:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1228" s="61" t="s">
-        <v>1394</v>
+        <v>1393</v>
       </c>
       <c r="I1228" s="4" t="s">
         <v>50</v>
@@ -36356,7 +36356,7 @@
         <v>19</v>
       </c>
       <c r="N1230" s="21" t="s">
-        <v>1326</v>
+        <v>1325</v>
       </c>
       <c r="O1230" s="11" t="s">
         <v>21</v>
@@ -36365,7 +36365,7 @@
         <v>66</v>
       </c>
       <c r="V1230" s="20" t="s">
-        <v>1327</v>
+        <v>1326</v>
       </c>
       <c r="W1230" s="4"/>
     </row>
@@ -36877,7 +36877,7 @@
         <v>40</v>
       </c>
       <c r="N1251" s="20" t="s">
-        <v>1328</v>
+        <v>1327</v>
       </c>
       <c r="P1251" s="18" t="s">
         <v>66</v>
@@ -37072,7 +37072,7 @@
         <v>48</v>
       </c>
       <c r="N1259" s="20" t="s">
-        <v>1329</v>
+        <v>1328</v>
       </c>
       <c r="P1259" s="18" t="s">
         <v>66</v>
@@ -37180,7 +37180,7 @@
         <v>20</v>
       </c>
       <c r="V1263" s="21" t="s">
-        <v>1450</v>
+        <v>1449</v>
       </c>
       <c r="W1263" s="4"/>
     </row>
@@ -37327,7 +37327,7 @@
         <v>58</v>
       </c>
       <c r="N1269" s="21" t="s">
-        <v>1330</v>
+        <v>1329</v>
       </c>
       <c r="O1269" s="11" t="s">
         <v>23</v>
@@ -37557,7 +37557,7 @@
         <v>67</v>
       </c>
       <c r="N1278" s="20" t="s">
-        <v>1331</v>
+        <v>1330</v>
       </c>
       <c r="P1278" s="18" t="s">
         <v>66</v>
@@ -37878,8 +37878,8 @@
       <c r="M1291" s="7">
         <v>80</v>
       </c>
-      <c r="N1291" s="20" t="s">
-        <v>1067</v>
+      <c r="N1291" s="21" t="s">
+        <v>1451</v>
       </c>
       <c r="S1291" s="24"/>
       <c r="V1291" s="20"/>
@@ -37949,7 +37949,7 @@
         <v>83</v>
       </c>
       <c r="N1294" s="20" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="V1294" s="20"/>
       <c r="W1294" s="4"/>
@@ -37975,7 +37975,7 @@
         <v>84</v>
       </c>
       <c r="N1295" s="20" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="V1295" s="20"/>
       <c r="W1295" s="4"/>
@@ -38021,7 +38021,7 @@
         <v>86</v>
       </c>
       <c r="N1297" s="20" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="V1297" s="20"/>
       <c r="W1297" s="4"/>
@@ -38090,7 +38090,7 @@
         <v>89</v>
       </c>
       <c r="N1300" s="20" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="V1300" s="20"/>
       <c r="W1300" s="4"/>
@@ -38113,7 +38113,7 @@
         <v>90</v>
       </c>
       <c r="N1301" s="20" t="s">
-        <v>1069</v>
+        <v>1068</v>
       </c>
       <c r="T1301" s="18"/>
       <c r="V1301" s="20"/>
@@ -38160,7 +38160,7 @@
         <v>92</v>
       </c>
       <c r="N1303" s="20" t="s">
-        <v>1068</v>
+        <v>1067</v>
       </c>
       <c r="V1303" s="20"/>
       <c r="W1303" s="4"/>
@@ -38209,7 +38209,7 @@
         <v>94</v>
       </c>
       <c r="N1305" s="20" t="s">
-        <v>1070</v>
+        <v>1069</v>
       </c>
       <c r="V1305" s="20"/>
       <c r="W1305" s="4"/>
@@ -38232,7 +38232,7 @@
         <v>95</v>
       </c>
       <c r="N1306" s="20" t="s">
-        <v>1071</v>
+        <v>1070</v>
       </c>
       <c r="V1306" s="20"/>
       <c r="W1306" s="4"/>
@@ -38255,13 +38255,13 @@
         <v>96</v>
       </c>
       <c r="N1307" s="21" t="s">
-        <v>1072</v>
+        <v>1071</v>
       </c>
       <c r="O1307" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1307" s="20" t="s">
-        <v>1073</v>
+        <v>1072</v>
       </c>
       <c r="W1307" s="4"/>
     </row>
@@ -38283,14 +38283,14 @@
         <v>97</v>
       </c>
       <c r="N1308" s="20" t="s">
-        <v>1074</v>
+        <v>1073</v>
       </c>
       <c r="V1308" s="20"/>
       <c r="W1308" s="4"/>
     </row>
     <row r="1309" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1309" s="61" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="I1309" s="4" t="s">
         <v>51</v>
@@ -38318,7 +38318,7 @@
     </row>
     <row r="1310" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1310" s="61" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="I1310" s="4" t="s">
         <v>51</v>
@@ -38346,7 +38346,7 @@
     </row>
     <row r="1311" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1311" s="61" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="I1311" s="4" t="s">
         <v>51</v>
@@ -38371,7 +38371,7 @@
     </row>
     <row r="1312" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1312" s="61" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="I1312" s="4" t="s">
         <v>52</v>
@@ -38389,14 +38389,14 @@
         <v>101</v>
       </c>
       <c r="N1312" s="20" t="s">
-        <v>1075</v>
+        <v>1074</v>
       </c>
       <c r="V1312" s="20"/>
       <c r="W1312" s="4"/>
     </row>
     <row r="1313" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1313" s="61" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="I1313" s="4" t="s">
         <v>52</v>
@@ -38424,7 +38424,7 @@
     </row>
     <row r="1314" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1314" s="61" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="I1314" s="4" t="s">
         <v>52</v>
@@ -38449,7 +38449,7 @@
     </row>
     <row r="1315" spans="4:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="H1315" s="61" t="s">
-        <v>1395</v>
+        <v>1394</v>
       </c>
       <c r="I1315" s="4" t="s">
         <v>52</v>
@@ -38467,7 +38467,7 @@
         <v>104</v>
       </c>
       <c r="N1315" s="20" t="s">
-        <v>1332</v>
+        <v>1331</v>
       </c>
       <c r="P1315" s="18" t="s">
         <v>66</v>
@@ -38518,7 +38518,7 @@
         <v>106</v>
       </c>
       <c r="N1317" s="20" t="s">
-        <v>1076</v>
+        <v>1075</v>
       </c>
       <c r="V1317" s="20"/>
       <c r="W1317" s="4"/>
@@ -38541,7 +38541,7 @@
         <v>107</v>
       </c>
       <c r="N1318" s="20" t="s">
-        <v>1077</v>
+        <v>1076</v>
       </c>
       <c r="V1318" s="21"/>
       <c r="W1318" s="4"/>
@@ -38590,7 +38590,7 @@
         <v>109</v>
       </c>
       <c r="N1320" s="20" t="s">
-        <v>1078</v>
+        <v>1077</v>
       </c>
       <c r="V1320" s="20"/>
       <c r="W1320" s="4"/>
@@ -38636,7 +38636,7 @@
         <v>111</v>
       </c>
       <c r="N1322" s="20" t="s">
-        <v>1079</v>
+        <v>1078</v>
       </c>
       <c r="V1322" s="20"/>
       <c r="W1322" s="4"/>
@@ -38659,13 +38659,13 @@
         <v>112</v>
       </c>
       <c r="N1323" s="21" t="s">
-        <v>1080</v>
+        <v>1079</v>
       </c>
       <c r="O1323" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1323" s="20" t="s">
-        <v>1081</v>
+        <v>1080</v>
       </c>
       <c r="W1323" s="4"/>
     </row>
@@ -38687,7 +38687,7 @@
         <v>113</v>
       </c>
       <c r="N1324" s="20" t="s">
-        <v>1082</v>
+        <v>1081</v>
       </c>
       <c r="V1324" s="20"/>
       <c r="W1324" s="4"/>
@@ -38737,7 +38737,7 @@
         <v>115</v>
       </c>
       <c r="N1326" s="20" t="s">
-        <v>1083</v>
+        <v>1082</v>
       </c>
       <c r="U1326" s="48" t="s">
         <v>68</v>
@@ -38763,13 +38763,13 @@
         <v>116</v>
       </c>
       <c r="N1327" s="21" t="s">
-        <v>1084</v>
+        <v>1083</v>
       </c>
       <c r="O1327" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1327" s="20" t="s">
-        <v>1085</v>
+        <v>1084</v>
       </c>
       <c r="W1327" s="4"/>
     </row>
@@ -38791,13 +38791,13 @@
         <v>117</v>
       </c>
       <c r="N1328" s="21" t="s">
-        <v>1086</v>
+        <v>1085</v>
       </c>
       <c r="O1328" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1328" s="20" t="s">
-        <v>1087</v>
+        <v>1086</v>
       </c>
       <c r="W1328" s="4"/>
     </row>
@@ -38819,13 +38819,13 @@
         <v>118</v>
       </c>
       <c r="N1329" s="21" t="s">
-        <v>1088</v>
+        <v>1087</v>
       </c>
       <c r="O1329" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1329" s="20" t="s">
-        <v>1089</v>
+        <v>1088</v>
       </c>
       <c r="W1329" s="4"/>
     </row>
@@ -38870,13 +38870,13 @@
         <v>120</v>
       </c>
       <c r="N1331" s="21" t="s">
-        <v>1090</v>
+        <v>1089</v>
       </c>
       <c r="O1331" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1331" s="20" t="s">
-        <v>1091</v>
+        <v>1090</v>
       </c>
       <c r="W1331" s="4"/>
     </row>
@@ -38921,7 +38921,7 @@
         <v>122</v>
       </c>
       <c r="N1333" s="20" t="s">
-        <v>1092</v>
+        <v>1091</v>
       </c>
       <c r="V1333" s="20"/>
       <c r="W1333" s="4"/>
@@ -38990,7 +38990,7 @@
         <v>125</v>
       </c>
       <c r="N1336" s="20" t="s">
-        <v>1093</v>
+        <v>1092</v>
       </c>
       <c r="V1336" s="20"/>
       <c r="W1336" s="4"/>
@@ -39059,7 +39059,7 @@
         <v>128</v>
       </c>
       <c r="N1339" s="21" t="s">
-        <v>1094</v>
+        <v>1093</v>
       </c>
       <c r="O1339" s="11" t="s">
         <v>23</v>
@@ -39133,7 +39133,7 @@
         <v>131</v>
       </c>
       <c r="N1342" s="20" t="s">
-        <v>1095</v>
+        <v>1094</v>
       </c>
       <c r="V1342" s="20"/>
       <c r="W1342" s="4"/>
@@ -39202,7 +39202,7 @@
         <v>134</v>
       </c>
       <c r="N1345" s="20" t="s">
-        <v>1096</v>
+        <v>1095</v>
       </c>
       <c r="V1345" s="20"/>
       <c r="W1345" s="4"/>
@@ -39248,7 +39248,7 @@
         <v>136</v>
       </c>
       <c r="N1347" s="20" t="s">
-        <v>1097</v>
+        <v>1096</v>
       </c>
       <c r="V1347" s="20"/>
       <c r="W1347" s="4"/>
@@ -39332,7 +39332,7 @@
         <v>64</v>
       </c>
       <c r="H1351" s="21" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="I1351" s="4" t="s">
         <v>53</v>
@@ -39350,7 +39350,7 @@
         <v>1</v>
       </c>
       <c r="N1351" s="20" t="s">
-        <v>1098</v>
+        <v>1097</v>
       </c>
       <c r="V1351" s="20"/>
       <c r="W1351" s="4"/>
@@ -39360,7 +39360,7 @@
         <v>64</v>
       </c>
       <c r="H1352" s="21" t="s">
-        <v>1396</v>
+        <v>1395</v>
       </c>
       <c r="I1352" s="4" t="s">
         <v>53</v>
@@ -39378,7 +39378,7 @@
         <v>2</v>
       </c>
       <c r="N1352" s="20" t="s">
-        <v>1099</v>
+        <v>1098</v>
       </c>
       <c r="V1352" s="20"/>
       <c r="W1352" s="4"/>
@@ -39404,13 +39404,13 @@
         <v>3</v>
       </c>
       <c r="N1353" s="21" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="O1353" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1353" s="20" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="W1353" s="4"/>
     </row>
@@ -39435,7 +39435,7 @@
         <v>4</v>
       </c>
       <c r="N1354" s="20" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="V1354" s="20"/>
       <c r="W1354" s="4"/>
@@ -39461,7 +39461,7 @@
         <v>5</v>
       </c>
       <c r="N1355" s="20" t="s">
-        <v>1103</v>
+        <v>1102</v>
       </c>
       <c r="V1355" s="20"/>
       <c r="W1355" s="4"/>
@@ -39489,7 +39489,7 @@
         <v>6</v>
       </c>
       <c r="N1356" s="20" t="s">
-        <v>1104</v>
+        <v>1103</v>
       </c>
       <c r="V1356" s="20"/>
       <c r="W1356" s="4"/>
@@ -39517,7 +39517,7 @@
         <v>7</v>
       </c>
       <c r="N1357" s="20" t="s">
-        <v>1105</v>
+        <v>1104</v>
       </c>
       <c r="V1357" s="20"/>
       <c r="W1357" s="4"/>
@@ -39545,7 +39545,7 @@
         <v>8</v>
       </c>
       <c r="N1358" s="20" t="s">
-        <v>1106</v>
+        <v>1105</v>
       </c>
       <c r="T1358" s="29"/>
       <c r="V1358" s="20"/>
@@ -39574,7 +39574,7 @@
         <v>9</v>
       </c>
       <c r="N1359" s="21" t="s">
-        <v>1107</v>
+        <v>1106</v>
       </c>
       <c r="O1359" s="11" t="s">
         <v>21</v>
@@ -39586,7 +39586,7 @@
         <v>174</v>
       </c>
       <c r="V1359" s="20" t="s">
-        <v>1108</v>
+        <v>1107</v>
       </c>
       <c r="W1359" s="4"/>
     </row>
@@ -39613,7 +39613,7 @@
         <v>10</v>
       </c>
       <c r="N1360" s="20" t="s">
-        <v>1333</v>
+        <v>1332</v>
       </c>
       <c r="P1360" s="18" t="s">
         <v>66</v>
@@ -39644,7 +39644,7 @@
         <v>11</v>
       </c>
       <c r="N1361" s="20" t="s">
-        <v>1109</v>
+        <v>1108</v>
       </c>
       <c r="V1361" s="20"/>
       <c r="W1361" s="4"/>
@@ -39699,13 +39699,13 @@
         <v>13</v>
       </c>
       <c r="N1363" s="21" t="s">
-        <v>1100</v>
+        <v>1099</v>
       </c>
       <c r="O1363" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1363" s="20" t="s">
-        <v>1101</v>
+        <v>1100</v>
       </c>
       <c r="W1363" s="4"/>
     </row>
@@ -39730,7 +39730,7 @@
         <v>14</v>
       </c>
       <c r="N1364" s="20" t="s">
-        <v>1110</v>
+        <v>1109</v>
       </c>
       <c r="V1364" s="20"/>
       <c r="W1364" s="4"/>
@@ -39740,7 +39740,7 @@
         <v>64</v>
       </c>
       <c r="H1365" s="21" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="I1365" s="4" t="s">
         <v>53</v>
@@ -39758,7 +39758,7 @@
         <v>15</v>
       </c>
       <c r="N1365" s="20" t="s">
-        <v>1111</v>
+        <v>1110</v>
       </c>
       <c r="V1365" s="20"/>
       <c r="W1365" s="4"/>
@@ -39768,7 +39768,7 @@
         <v>64</v>
       </c>
       <c r="H1366" s="21" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="I1366" s="4" t="s">
         <v>53</v>
@@ -39796,7 +39796,7 @@
         <v>64</v>
       </c>
       <c r="H1367" s="21" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="I1367" s="4" t="s">
         <v>53</v>
@@ -39814,7 +39814,7 @@
         <v>17</v>
       </c>
       <c r="N1367" s="20" t="s">
-        <v>1112</v>
+        <v>1111</v>
       </c>
       <c r="V1367" s="20"/>
       <c r="W1367" s="4"/>
@@ -39824,7 +39824,7 @@
         <v>64</v>
       </c>
       <c r="H1368" s="21" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="I1368" s="4" t="s">
         <v>53</v>
@@ -39842,7 +39842,7 @@
         <v>18</v>
       </c>
       <c r="N1368" s="20" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="V1368" s="20"/>
       <c r="W1368" s="4"/>
@@ -39852,7 +39852,7 @@
         <v>64</v>
       </c>
       <c r="H1369" s="21" t="s">
-        <v>1397</v>
+        <v>1396</v>
       </c>
       <c r="I1369" s="4" t="s">
         <v>53</v>
@@ -39870,7 +39870,7 @@
         <v>19</v>
       </c>
       <c r="N1369" s="20" t="s">
-        <v>1334</v>
+        <v>1333</v>
       </c>
       <c r="P1369" s="18" t="s">
         <v>66</v>
@@ -39927,7 +39927,7 @@
         <v>21</v>
       </c>
       <c r="N1371" s="20" t="s">
-        <v>1114</v>
+        <v>1113</v>
       </c>
       <c r="V1371" s="20"/>
       <c r="W1371" s="4"/>
@@ -39953,7 +39953,7 @@
         <v>22</v>
       </c>
       <c r="N1372" s="20" t="s">
-        <v>1115</v>
+        <v>1114</v>
       </c>
       <c r="V1372" s="20"/>
       <c r="W1372" s="4"/>
@@ -39979,7 +39979,7 @@
         <v>23</v>
       </c>
       <c r="N1373" s="20" t="s">
-        <v>1116</v>
+        <v>1115</v>
       </c>
       <c r="V1373" s="20"/>
       <c r="W1373" s="4"/>
@@ -40034,7 +40034,7 @@
         <v>25</v>
       </c>
       <c r="N1375" s="20" t="s">
-        <v>1117</v>
+        <v>1116</v>
       </c>
       <c r="V1375" s="20"/>
       <c r="W1375" s="4"/>
@@ -40060,7 +40060,7 @@
         <v>26</v>
       </c>
       <c r="N1376" s="20" t="s">
-        <v>1118</v>
+        <v>1117</v>
       </c>
       <c r="V1376" s="20"/>
       <c r="W1376" s="4"/>
@@ -40086,7 +40086,7 @@
         <v>27</v>
       </c>
       <c r="N1377" s="20" t="s">
-        <v>1335</v>
+        <v>1334</v>
       </c>
       <c r="P1377" s="18" t="s">
         <v>66</v>
@@ -40117,7 +40117,7 @@
         <v>28</v>
       </c>
       <c r="N1378" s="20" t="s">
-        <v>1119</v>
+        <v>1118</v>
       </c>
       <c r="O1378" s="2"/>
       <c r="T1378" s="29"/>
@@ -40174,7 +40174,7 @@
         <v>30</v>
       </c>
       <c r="N1380" s="20" t="s">
-        <v>1120</v>
+        <v>1119</v>
       </c>
       <c r="V1380" s="20"/>
       <c r="W1380" s="4"/>
@@ -40200,7 +40200,7 @@
         <v>31</v>
       </c>
       <c r="N1381" s="20" t="s">
-        <v>1121</v>
+        <v>1120</v>
       </c>
       <c r="S1381" s="23"/>
       <c r="T1381" s="29"/>
@@ -40228,7 +40228,7 @@
         <v>32</v>
       </c>
       <c r="N1382" s="21" t="s">
-        <v>1122</v>
+        <v>1121</v>
       </c>
       <c r="O1382" s="11" t="s">
         <v>21</v>
@@ -40238,7 +40238,7 @@
         <v>70</v>
       </c>
       <c r="V1382" s="20" t="s">
-        <v>1123</v>
+        <v>1122</v>
       </c>
       <c r="W1382" s="4"/>
     </row>
@@ -40292,7 +40292,7 @@
         <v>34</v>
       </c>
       <c r="N1384" s="20" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="V1384" s="20"/>
       <c r="W1384" s="4"/>
@@ -40318,7 +40318,7 @@
         <v>35</v>
       </c>
       <c r="N1385" s="20" t="s">
-        <v>1125</v>
+        <v>1124</v>
       </c>
       <c r="V1385" s="20"/>
       <c r="W1385" s="4"/>
@@ -40344,7 +40344,7 @@
         <v>36</v>
       </c>
       <c r="N1386" s="20" t="s">
-        <v>1336</v>
+        <v>1335</v>
       </c>
       <c r="P1386" s="18" t="s">
         <v>66</v>
@@ -40375,7 +40375,7 @@
         <v>37</v>
       </c>
       <c r="N1387" s="21" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="O1387" s="11" t="s">
         <v>22</v>
@@ -40404,7 +40404,7 @@
         <v>38</v>
       </c>
       <c r="N1388" s="20" t="s">
-        <v>1127</v>
+        <v>1126</v>
       </c>
       <c r="V1388" s="20"/>
       <c r="W1388" s="4"/>
@@ -40459,7 +40459,7 @@
         <v>40</v>
       </c>
       <c r="N1390" s="20" t="s">
-        <v>1124</v>
+        <v>1123</v>
       </c>
       <c r="V1390" s="20"/>
       <c r="W1390" s="4"/>
@@ -40485,13 +40485,13 @@
         <v>41</v>
       </c>
       <c r="N1391" s="21" t="s">
-        <v>1128</v>
+        <v>1127</v>
       </c>
       <c r="O1391" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1391" s="20" t="s">
-        <v>1129</v>
+        <v>1128</v>
       </c>
       <c r="W1391" s="4"/>
     </row>
@@ -40516,7 +40516,7 @@
         <v>42</v>
       </c>
       <c r="N1392" s="20" t="s">
-        <v>1130</v>
+        <v>1129</v>
       </c>
       <c r="S1392" s="2" t="s">
         <v>63</v>
@@ -40545,7 +40545,7 @@
         <v>43</v>
       </c>
       <c r="N1393" s="20" t="s">
-        <v>1131</v>
+        <v>1130</v>
       </c>
       <c r="V1393" s="20"/>
       <c r="W1393" s="4"/>
@@ -40571,7 +40571,7 @@
         <v>44</v>
       </c>
       <c r="N1394" s="20" t="s">
-        <v>1132</v>
+        <v>1131</v>
       </c>
       <c r="T1394" s="29"/>
       <c r="V1394" s="20"/>
@@ -40598,7 +40598,7 @@
         <v>45</v>
       </c>
       <c r="N1395" s="20" t="s">
-        <v>1133</v>
+        <v>1132</v>
       </c>
       <c r="T1395" s="29"/>
       <c r="U1395" s="32" t="s">
@@ -40628,7 +40628,7 @@
         <v>46</v>
       </c>
       <c r="N1396" s="71" t="s">
-        <v>1447</v>
+        <v>1446</v>
       </c>
       <c r="P1396" s="18" t="s">
         <v>66</v>
@@ -40714,7 +40714,7 @@
         <v>49</v>
       </c>
       <c r="N1399" s="20" t="s">
-        <v>1134</v>
+        <v>1133</v>
       </c>
       <c r="O1399" s="2"/>
       <c r="T1399" s="29"/>
@@ -40742,7 +40742,7 @@
         <v>50</v>
       </c>
       <c r="N1400" s="21" t="s">
-        <v>1135</v>
+        <v>1134</v>
       </c>
       <c r="O1400" s="2" t="s">
         <v>21</v>
@@ -40752,7 +40752,7 @@
         <v>75</v>
       </c>
       <c r="V1400" s="20" t="s">
-        <v>1136</v>
+        <v>1135</v>
       </c>
       <c r="W1400" s="4"/>
     </row>
@@ -40761,7 +40761,7 @@
         <v>64</v>
       </c>
       <c r="H1401" s="21" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="I1401" s="4" t="s">
         <v>54</v>
@@ -40790,7 +40790,7 @@
         <v>64</v>
       </c>
       <c r="H1402" s="21" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="I1402" s="4" t="s">
         <v>54</v>
@@ -40808,7 +40808,7 @@
         <v>52</v>
       </c>
       <c r="N1402" s="20" t="s">
-        <v>1137</v>
+        <v>1136</v>
       </c>
       <c r="U1402" s="23" t="s">
         <v>91</v>
@@ -40821,7 +40821,7 @@
         <v>64</v>
       </c>
       <c r="H1403" s="21" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="I1403" s="4" t="s">
         <v>54</v>
@@ -40849,7 +40849,7 @@
         <v>64</v>
       </c>
       <c r="H1404" s="21" t="s">
-        <v>1398</v>
+        <v>1397</v>
       </c>
       <c r="I1404" s="4" t="s">
         <v>54</v>
@@ -40867,13 +40867,13 @@
         <v>54</v>
       </c>
       <c r="N1404" s="21" t="s">
-        <v>1138</v>
+        <v>1137</v>
       </c>
       <c r="S1404" s="23" t="s">
         <v>94</v>
       </c>
       <c r="T1404" s="57" t="s">
-        <v>1364</v>
+        <v>1363</v>
       </c>
       <c r="V1404" s="20"/>
       <c r="W1404" s="4"/>
@@ -40925,7 +40925,7 @@
         <v>56</v>
       </c>
       <c r="N1406" s="20" t="s">
-        <v>1139</v>
+        <v>1138</v>
       </c>
       <c r="V1406" s="20"/>
       <c r="W1406" s="4"/>
@@ -40980,7 +40980,7 @@
         <v>58</v>
       </c>
       <c r="N1408" s="20" t="s">
-        <v>1411</v>
+        <v>1410</v>
       </c>
       <c r="P1408" s="18" t="s">
         <v>66</v>
@@ -41070,7 +41070,7 @@
         <v>61</v>
       </c>
       <c r="N1411" s="20" t="s">
-        <v>1140</v>
+        <v>1139</v>
       </c>
       <c r="V1411" s="20"/>
       <c r="W1411" s="4"/>
@@ -41098,7 +41098,7 @@
         <v>62</v>
       </c>
       <c r="N1412" s="21" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="O1412" s="11" t="s">
         <v>22</v>
@@ -41160,7 +41160,7 @@
         <v>64</v>
       </c>
       <c r="N1414" s="20" t="s">
-        <v>1141</v>
+        <v>1140</v>
       </c>
       <c r="V1414" s="20"/>
       <c r="W1414" s="4"/>
@@ -41219,7 +41219,7 @@
         <v>66</v>
       </c>
       <c r="N1416" s="20" t="s">
-        <v>1142</v>
+        <v>1141</v>
       </c>
       <c r="S1416" s="45" t="s">
         <v>71</v>
@@ -41254,7 +41254,7 @@
         <v>67</v>
       </c>
       <c r="N1417" s="20" t="s">
-        <v>1143</v>
+        <v>1142</v>
       </c>
       <c r="V1417" s="20"/>
       <c r="W1417" s="4"/>
@@ -41280,7 +41280,7 @@
         <v>68</v>
       </c>
       <c r="N1418" s="21" t="s">
-        <v>1337</v>
+        <v>1336</v>
       </c>
       <c r="O1418" s="11" t="s">
         <v>21</v>
@@ -41289,7 +41289,7 @@
         <v>66</v>
       </c>
       <c r="V1418" s="20" t="s">
-        <v>1338</v>
+        <v>1337</v>
       </c>
       <c r="W1418" s="4"/>
     </row>
@@ -41366,7 +41366,7 @@
         <v>71</v>
       </c>
       <c r="N1421" s="20" t="s">
-        <v>1144</v>
+        <v>1143</v>
       </c>
       <c r="U1421" s="48" t="s">
         <v>68</v>
@@ -41395,13 +41395,13 @@
         <v>72</v>
       </c>
       <c r="N1422" s="21" t="s">
-        <v>1145</v>
+        <v>1144</v>
       </c>
       <c r="O1422" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1422" s="20" t="s">
-        <v>1146</v>
+        <v>1145</v>
       </c>
       <c r="W1422" s="4"/>
     </row>
@@ -41426,7 +41426,7 @@
         <v>73</v>
       </c>
       <c r="N1423" s="20" t="s">
-        <v>1147</v>
+        <v>1146</v>
       </c>
       <c r="V1423" s="20"/>
       <c r="W1423" s="4"/>
@@ -41452,7 +41452,7 @@
         <v>74</v>
       </c>
       <c r="N1424" s="20" t="s">
-        <v>1148</v>
+        <v>1147</v>
       </c>
       <c r="V1424" s="20"/>
       <c r="W1424" s="4"/>
@@ -41504,7 +41504,7 @@
         <v>76</v>
       </c>
       <c r="N1426" s="20" t="s">
-        <v>1149</v>
+        <v>1148</v>
       </c>
       <c r="V1426" s="20"/>
       <c r="W1426" s="4"/>
@@ -41530,7 +41530,7 @@
         <v>77</v>
       </c>
       <c r="N1427" s="20" t="s">
-        <v>1150</v>
+        <v>1149</v>
       </c>
       <c r="V1427" s="20"/>
       <c r="W1427" s="4"/>
@@ -41556,7 +41556,7 @@
         <v>78</v>
       </c>
       <c r="N1428" s="20" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="V1428" s="20"/>
       <c r="W1428" s="4"/>
@@ -41582,7 +41582,7 @@
         <v>79</v>
       </c>
       <c r="N1429" s="20" t="s">
-        <v>1339</v>
+        <v>1338</v>
       </c>
       <c r="P1429" s="18" t="s">
         <v>66</v>
@@ -41649,7 +41649,7 @@
         <v>64</v>
       </c>
       <c r="H1432" s="61" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="I1432" s="4" t="s">
         <v>54</v>
@@ -41667,7 +41667,7 @@
         <v>82</v>
       </c>
       <c r="N1432" s="20" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="O1432" s="11" t="s">
         <v>22</v>
@@ -41680,7 +41680,7 @@
         <v>64</v>
       </c>
       <c r="H1433" s="61" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="I1433" s="4" t="s">
         <v>54</v>
@@ -41698,7 +41698,7 @@
         <v>83</v>
       </c>
       <c r="N1433" s="20" t="s">
-        <v>1151</v>
+        <v>1150</v>
       </c>
       <c r="V1433" s="20"/>
       <c r="W1433" s="4"/>
@@ -41708,7 +41708,7 @@
         <v>64</v>
       </c>
       <c r="H1434" s="61" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="I1434" s="4" t="s">
         <v>54</v>
@@ -41739,7 +41739,7 @@
         <v>64</v>
       </c>
       <c r="H1435" s="61" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="I1435" s="4" t="s">
         <v>54</v>
@@ -41767,7 +41767,7 @@
         <v>64</v>
       </c>
       <c r="H1436" s="61" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="I1436" s="4" t="s">
         <v>54</v>
@@ -41785,7 +41785,7 @@
         <v>86</v>
       </c>
       <c r="N1436" s="20" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="S1436" s="23" t="s">
         <v>94</v>
@@ -41801,7 +41801,7 @@
         <v>64</v>
       </c>
       <c r="H1437" s="61" t="s">
-        <v>1399</v>
+        <v>1398</v>
       </c>
       <c r="I1437" s="4" t="s">
         <v>54</v>
@@ -41819,7 +41819,7 @@
         <v>87</v>
       </c>
       <c r="N1437" s="20" t="s">
-        <v>1153</v>
+        <v>1152</v>
       </c>
       <c r="T1437" s="29"/>
       <c r="V1437" s="20"/>
@@ -41846,7 +41846,7 @@
         <v>88</v>
       </c>
       <c r="N1438" s="71" t="s">
-        <v>1448</v>
+        <v>1447</v>
       </c>
       <c r="V1438" s="20"/>
       <c r="W1438" s="4"/>
@@ -41935,7 +41935,7 @@
         <v>91</v>
       </c>
       <c r="N1441" s="20" t="s">
-        <v>1154</v>
+        <v>1153</v>
       </c>
       <c r="V1441" s="20"/>
       <c r="W1441" s="4"/>
@@ -41961,7 +41961,7 @@
         <v>92</v>
       </c>
       <c r="N1442" s="20" t="s">
-        <v>1155</v>
+        <v>1154</v>
       </c>
       <c r="V1442" s="20"/>
       <c r="W1442" s="4"/>
@@ -41987,7 +41987,7 @@
         <v>93</v>
       </c>
       <c r="N1443" s="20" t="s">
-        <v>1156</v>
+        <v>1155</v>
       </c>
       <c r="V1443" s="20"/>
       <c r="W1443" s="4"/>
@@ -42013,7 +42013,7 @@
         <v>94</v>
       </c>
       <c r="N1444" s="20" t="s">
-        <v>1157</v>
+        <v>1156</v>
       </c>
       <c r="V1444" s="20"/>
       <c r="W1444" s="4"/>
@@ -42039,7 +42039,7 @@
         <v>95</v>
       </c>
       <c r="N1445" s="20" t="s">
-        <v>1158</v>
+        <v>1157</v>
       </c>
       <c r="V1445" s="20"/>
       <c r="W1445" s="4"/>
@@ -42094,7 +42094,7 @@
         <v>97</v>
       </c>
       <c r="N1447" s="20" t="s">
-        <v>1159</v>
+        <v>1158</v>
       </c>
       <c r="S1447" s="4"/>
       <c r="V1447" s="20"/>
@@ -42153,7 +42153,7 @@
         <v>99</v>
       </c>
       <c r="N1449" s="20" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="V1449" s="20"/>
       <c r="W1449" s="4"/>
@@ -42205,7 +42205,7 @@
         <v>101</v>
       </c>
       <c r="N1451" s="20" t="s">
-        <v>1161</v>
+        <v>1160</v>
       </c>
       <c r="V1451" s="20"/>
       <c r="W1451" s="4"/>
@@ -42231,13 +42231,13 @@
         <v>102</v>
       </c>
       <c r="N1452" s="21" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="O1452" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1452" s="20" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="W1452" s="4"/>
     </row>
@@ -42262,7 +42262,7 @@
         <v>103</v>
       </c>
       <c r="N1453" s="20" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="V1453" s="20"/>
       <c r="W1453" s="4"/>
@@ -42314,7 +42314,7 @@
         <v>105</v>
       </c>
       <c r="N1455" s="20" t="s">
-        <v>1165</v>
+        <v>1164</v>
       </c>
       <c r="V1455" s="20"/>
       <c r="W1455" s="4"/>
@@ -42340,7 +42340,7 @@
         <v>106</v>
       </c>
       <c r="N1456" s="20" t="s">
-        <v>1166</v>
+        <v>1165</v>
       </c>
       <c r="V1456" s="20"/>
       <c r="W1456" s="4"/>
@@ -42366,7 +42366,7 @@
         <v>107</v>
       </c>
       <c r="N1457" s="20" t="s">
-        <v>1167</v>
+        <v>1166</v>
       </c>
       <c r="V1457" s="20"/>
       <c r="W1457" s="4"/>
@@ -42392,7 +42392,7 @@
         <v>108</v>
       </c>
       <c r="N1458" s="20" t="s">
-        <v>1340</v>
+        <v>1339</v>
       </c>
       <c r="P1458" s="18" t="s">
         <v>66</v>
@@ -42449,7 +42449,7 @@
         <v>110</v>
       </c>
       <c r="N1460" s="20" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="V1460" s="20"/>
       <c r="W1460" s="4"/>
@@ -42475,13 +42475,13 @@
         <v>111</v>
       </c>
       <c r="N1461" s="21" t="s">
-        <v>1169</v>
+        <v>1168</v>
       </c>
       <c r="O1461" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1461" s="20" t="s">
-        <v>1170</v>
+        <v>1169</v>
       </c>
       <c r="W1461" s="4"/>
     </row>
@@ -42532,7 +42532,7 @@
         <v>113</v>
       </c>
       <c r="N1463" s="20" t="s">
-        <v>1171</v>
+        <v>1170</v>
       </c>
       <c r="V1463" s="20"/>
       <c r="W1463" s="4"/>
@@ -42558,7 +42558,7 @@
         <v>114</v>
       </c>
       <c r="N1464" s="20" t="s">
-        <v>1172</v>
+        <v>1171</v>
       </c>
       <c r="U1464" s="48" t="s">
         <v>70</v>
@@ -42616,7 +42616,7 @@
         <v>116</v>
       </c>
       <c r="N1466" s="20" t="s">
-        <v>1430</v>
+        <v>1429</v>
       </c>
       <c r="V1466" s="20"/>
       <c r="W1466" s="4"/>
@@ -42674,7 +42674,7 @@
         <v>118</v>
       </c>
       <c r="N1468" s="20" t="s">
-        <v>1341</v>
+        <v>1340</v>
       </c>
       <c r="P1468" s="18" t="s">
         <v>66</v>
@@ -42692,7 +42692,7 @@
         <v>64</v>
       </c>
       <c r="D1469" s="10" t="s">
-        <v>1413</v>
+        <v>1412</v>
       </c>
       <c r="H1469" s="26"/>
       <c r="I1469" s="4" t="s">
@@ -42711,7 +42711,7 @@
         <v>119</v>
       </c>
       <c r="N1469" s="20" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="S1469" s="32" t="s">
         <v>73</v>
@@ -42829,13 +42829,13 @@
         <v>123</v>
       </c>
       <c r="N1473" s="21" t="s">
-        <v>1173</v>
+        <v>1172</v>
       </c>
       <c r="O1473" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1473" s="20" t="s">
-        <v>1174</v>
+        <v>1173</v>
       </c>
       <c r="W1473" s="4"/>
     </row>
@@ -42860,13 +42860,13 @@
         <v>124</v>
       </c>
       <c r="N1474" s="21" t="s">
-        <v>1175</v>
+        <v>1174</v>
       </c>
       <c r="O1474" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1474" s="20" t="s">
-        <v>1176</v>
+        <v>1175</v>
       </c>
       <c r="W1474" s="4"/>
     </row>
@@ -42943,7 +42943,7 @@
         <v>127</v>
       </c>
       <c r="N1477" s="20" t="s">
-        <v>1177</v>
+        <v>1176</v>
       </c>
       <c r="V1477" s="20"/>
       <c r="W1477" s="4"/>
@@ -43021,7 +43021,7 @@
         <v>130</v>
       </c>
       <c r="N1480" s="20" t="s">
-        <v>1342</v>
+        <v>1341</v>
       </c>
       <c r="P1480" s="18" t="s">
         <v>66</v>
@@ -43052,7 +43052,7 @@
         <v>131</v>
       </c>
       <c r="N1481" s="20" t="s">
-        <v>1178</v>
+        <v>1177</v>
       </c>
       <c r="V1481" s="20"/>
       <c r="W1481" s="4"/>
@@ -43078,7 +43078,7 @@
         <v>132</v>
       </c>
       <c r="N1482" s="20" t="s">
-        <v>1179</v>
+        <v>1178</v>
       </c>
       <c r="V1482" s="20"/>
       <c r="W1482" s="4"/>
@@ -43104,7 +43104,7 @@
         <v>133</v>
       </c>
       <c r="N1483" s="20" t="s">
-        <v>1180</v>
+        <v>1179</v>
       </c>
       <c r="V1483" s="20"/>
       <c r="W1483" s="4"/>
@@ -43130,13 +43130,13 @@
         <v>134</v>
       </c>
       <c r="N1484" s="21" t="s">
-        <v>1181</v>
+        <v>1180</v>
       </c>
       <c r="O1484" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1484" s="20" t="s">
-        <v>1182</v>
+        <v>1181</v>
       </c>
       <c r="W1484" s="4"/>
     </row>
@@ -43213,7 +43213,7 @@
         <v>137</v>
       </c>
       <c r="N1487" s="20" t="s">
-        <v>1168</v>
+        <v>1167</v>
       </c>
       <c r="V1487" s="20"/>
       <c r="W1487" s="4"/>
@@ -43239,13 +43239,13 @@
         <v>138</v>
       </c>
       <c r="N1488" s="21" t="s">
-        <v>1183</v>
+        <v>1182</v>
       </c>
       <c r="O1488" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1488" s="20" t="s">
-        <v>1184</v>
+        <v>1183</v>
       </c>
       <c r="W1488" s="4"/>
     </row>
@@ -43322,7 +43322,7 @@
         <v>141</v>
       </c>
       <c r="N1491" s="21" t="s">
-        <v>1433</v>
+        <v>1432</v>
       </c>
       <c r="P1491" s="18" t="s">
         <v>66</v>
@@ -43408,13 +43408,13 @@
         <v>144</v>
       </c>
       <c r="N1494" s="21" t="s">
-        <v>1162</v>
+        <v>1161</v>
       </c>
       <c r="O1494" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1494" s="20" t="s">
-        <v>1163</v>
+        <v>1162</v>
       </c>
       <c r="W1494" s="4"/>
     </row>
@@ -43439,7 +43439,7 @@
         <v>145</v>
       </c>
       <c r="N1495" s="20" t="s">
-        <v>1185</v>
+        <v>1184</v>
       </c>
       <c r="V1495" s="20"/>
       <c r="W1495" s="4"/>
@@ -43468,7 +43468,7 @@
         <v>146</v>
       </c>
       <c r="N1496" s="20" t="s">
-        <v>1186</v>
+        <v>1185</v>
       </c>
       <c r="S1496" s="4"/>
       <c r="V1496" s="20"/>
@@ -43550,7 +43550,7 @@
         <v>149</v>
       </c>
       <c r="N1499" s="20" t="s">
-        <v>1187</v>
+        <v>1186</v>
       </c>
       <c r="V1499" s="20"/>
       <c r="W1499" s="4"/>
@@ -43576,7 +43576,7 @@
         <v>150</v>
       </c>
       <c r="N1500" s="20" t="s">
-        <v>1188</v>
+        <v>1187</v>
       </c>
       <c r="V1500" s="20"/>
       <c r="W1500" s="4"/>
@@ -43628,7 +43628,7 @@
         <v>152</v>
       </c>
       <c r="N1502" s="20" t="s">
-        <v>1343</v>
+        <v>1342</v>
       </c>
       <c r="P1502" s="18" t="s">
         <v>66</v>
@@ -43659,13 +43659,13 @@
         <v>153</v>
       </c>
       <c r="N1503" s="21" t="s">
-        <v>1189</v>
+        <v>1188</v>
       </c>
       <c r="O1503" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1503" s="20" t="s">
-        <v>1190</v>
+        <v>1189</v>
       </c>
       <c r="W1503" s="4"/>
     </row>
@@ -43716,13 +43716,13 @@
         <v>155</v>
       </c>
       <c r="N1505" s="21" t="s">
-        <v>1191</v>
+        <v>1190</v>
       </c>
       <c r="O1505" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1505" s="20" t="s">
-        <v>1192</v>
+        <v>1191</v>
       </c>
       <c r="W1505" s="4"/>
     </row>
@@ -43747,7 +43747,7 @@
         <v>156</v>
       </c>
       <c r="N1506" s="20" t="s">
-        <v>1193</v>
+        <v>1192</v>
       </c>
       <c r="U1506" s="48"/>
       <c r="V1506" s="20"/>
@@ -43808,7 +43808,7 @@
         <v>158</v>
       </c>
       <c r="N1508" s="20" t="s">
-        <v>1194</v>
+        <v>1193</v>
       </c>
       <c r="V1508" s="20"/>
       <c r="W1508" s="4"/>
@@ -43834,7 +43834,7 @@
         <v>159</v>
       </c>
       <c r="N1509" s="20" t="s">
-        <v>1195</v>
+        <v>1194</v>
       </c>
       <c r="V1509" s="20"/>
       <c r="W1509" s="4"/>
@@ -43889,7 +43889,7 @@
         <v>161</v>
       </c>
       <c r="N1511" s="20" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="P1511" s="18" t="s">
         <v>66</v>
@@ -43972,7 +43972,7 @@
         <v>164</v>
       </c>
       <c r="N1514" s="20" t="s">
-        <v>1196</v>
+        <v>1195</v>
       </c>
       <c r="V1514" s="20"/>
       <c r="W1514" s="4"/>
@@ -44027,7 +44027,7 @@
         <v>166</v>
       </c>
       <c r="N1516" s="20" t="s">
-        <v>1197</v>
+        <v>1196</v>
       </c>
       <c r="V1516" s="20"/>
       <c r="W1516" s="4"/>
@@ -44037,7 +44037,7 @@
         <v>64</v>
       </c>
       <c r="H1517" s="61" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="I1517" s="4" t="s">
         <v>56</v>
@@ -44068,7 +44068,7 @@
         <v>64</v>
       </c>
       <c r="H1518" s="61" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="I1518" s="4" t="s">
         <v>56</v>
@@ -44086,7 +44086,7 @@
         <v>168</v>
       </c>
       <c r="N1518" s="21" t="s">
-        <v>1198</v>
+        <v>1197</v>
       </c>
       <c r="V1518" s="20"/>
       <c r="W1518" s="4"/>
@@ -44097,7 +44097,7 @@
         <v>64</v>
       </c>
       <c r="H1519" s="61" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="I1519" s="4" t="s">
         <v>56</v>
@@ -44115,7 +44115,7 @@
         <v>169</v>
       </c>
       <c r="N1519" s="21" t="s">
-        <v>1199</v>
+        <v>1198</v>
       </c>
       <c r="O1519" s="11" t="s">
         <v>21</v>
@@ -44127,7 +44127,7 @@
         <v>178</v>
       </c>
       <c r="V1519" s="20" t="s">
-        <v>1200</v>
+        <v>1199</v>
       </c>
       <c r="W1519" s="4"/>
     </row>
@@ -44136,7 +44136,7 @@
         <v>64</v>
       </c>
       <c r="H1520" s="61" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="I1520" s="4" t="s">
         <v>56</v>
@@ -44154,7 +44154,7 @@
         <v>170</v>
       </c>
       <c r="N1520" s="20" t="s">
-        <v>1201</v>
+        <v>1200</v>
       </c>
       <c r="V1520" s="20"/>
       <c r="W1520" s="4"/>
@@ -44164,7 +44164,7 @@
         <v>64</v>
       </c>
       <c r="H1521" s="61" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="I1521" s="4" t="s">
         <v>56</v>
@@ -44195,7 +44195,7 @@
         <v>64</v>
       </c>
       <c r="H1522" s="61" t="s">
-        <v>1400</v>
+        <v>1399</v>
       </c>
       <c r="I1522" s="4" t="s">
         <v>56</v>
@@ -44213,7 +44213,7 @@
         <v>172</v>
       </c>
       <c r="N1522" s="20" t="s">
-        <v>1344</v>
+        <v>1343</v>
       </c>
       <c r="P1522" s="18" t="s">
         <v>66</v>
@@ -44244,7 +44244,7 @@
         <v>173</v>
       </c>
       <c r="N1523" s="20" t="s">
-        <v>1202</v>
+        <v>1201</v>
       </c>
       <c r="V1523" s="20"/>
       <c r="W1523" s="4"/>
@@ -44298,13 +44298,13 @@
         <v>175</v>
       </c>
       <c r="N1525" s="21" t="s">
-        <v>1203</v>
+        <v>1202</v>
       </c>
       <c r="O1525" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1525" s="20" t="s">
-        <v>1204</v>
+        <v>1203</v>
       </c>
       <c r="W1525" s="4"/>
     </row>
@@ -44313,7 +44313,7 @@
         <v>64</v>
       </c>
       <c r="D1526" s="10" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="H1526" s="50" t="s">
         <v>90</v>
@@ -44334,7 +44334,7 @@
         <v>176</v>
       </c>
       <c r="N1526" s="20" t="s">
-        <v>1205</v>
+        <v>1204</v>
       </c>
       <c r="S1526" s="2" t="s">
         <v>97</v>
@@ -44350,7 +44350,7 @@
         <v>64</v>
       </c>
       <c r="D1527" s="10" t="s">
-        <v>1407</v>
+        <v>1406</v>
       </c>
       <c r="H1527" s="50" t="s">
         <v>90</v>
@@ -44403,7 +44403,7 @@
         <v>178</v>
       </c>
       <c r="N1528" s="20" t="s">
-        <v>1206</v>
+        <v>1205</v>
       </c>
       <c r="V1528" s="20"/>
       <c r="W1528" s="4"/>
@@ -44428,7 +44428,7 @@
         <v>179</v>
       </c>
       <c r="N1529" s="20" t="s">
-        <v>1207</v>
+        <v>1206</v>
       </c>
       <c r="V1529" s="20"/>
       <c r="W1529" s="4"/>
@@ -44453,7 +44453,7 @@
         <v>180</v>
       </c>
       <c r="N1530" s="20" t="s">
-        <v>1345</v>
+        <v>1344</v>
       </c>
       <c r="P1530" s="18" t="s">
         <v>66</v>
@@ -44533,13 +44533,13 @@
         <v>183</v>
       </c>
       <c r="N1533" s="21" t="s">
-        <v>1208</v>
+        <v>1207</v>
       </c>
       <c r="O1533" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1533" s="20" t="s">
-        <v>1209</v>
+        <v>1208</v>
       </c>
       <c r="W1533" s="4"/>
     </row>
@@ -44563,14 +44563,14 @@
         <v>184</v>
       </c>
       <c r="N1534" s="21" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="O1534" s="11" t="s">
         <v>21</v>
       </c>
       <c r="T1534" s="29"/>
       <c r="V1534" s="20" t="s">
-        <v>1211</v>
+        <v>1210</v>
       </c>
       <c r="W1534" s="4"/>
     </row>
@@ -44622,13 +44622,13 @@
         <v>186</v>
       </c>
       <c r="N1536" s="21" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="O1536" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1536" s="71" t="s">
-        <v>1449</v>
+        <v>1448</v>
       </c>
       <c r="W1536" s="4"/>
     </row>
@@ -44652,13 +44652,13 @@
         <v>187</v>
       </c>
       <c r="N1537" s="21" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="O1537" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1537" s="20" t="s">
-        <v>1214</v>
+        <v>1213</v>
       </c>
       <c r="W1537" s="4"/>
     </row>
@@ -44682,7 +44682,7 @@
         <v>188</v>
       </c>
       <c r="N1538" s="20" t="s">
-        <v>1346</v>
+        <v>1345</v>
       </c>
       <c r="P1538" s="18" t="s">
         <v>66</v>
@@ -44737,7 +44737,7 @@
         <v>190</v>
       </c>
       <c r="N1540" s="20" t="s">
-        <v>1215</v>
+        <v>1214</v>
       </c>
       <c r="V1540" s="20"/>
       <c r="W1540" s="4"/>
@@ -44762,7 +44762,7 @@
         <v>191</v>
       </c>
       <c r="N1541" s="20" t="s">
-        <v>1216</v>
+        <v>1215</v>
       </c>
       <c r="V1541" s="20"/>
       <c r="W1541" s="4"/>
@@ -44912,7 +44912,7 @@
         <v>197</v>
       </c>
       <c r="N1547" s="20" t="s">
-        <v>1217</v>
+        <v>1216</v>
       </c>
       <c r="V1547" s="20"/>
       <c r="W1547" s="4"/>
@@ -44937,7 +44937,7 @@
         <v>198</v>
       </c>
       <c r="N1548" s="20" t="s">
-        <v>1347</v>
+        <v>1346</v>
       </c>
       <c r="P1548" s="18" t="s">
         <v>66</v>
@@ -44992,7 +44992,7 @@
         <v>200</v>
       </c>
       <c r="N1550" s="20" t="s">
-        <v>1218</v>
+        <v>1217</v>
       </c>
       <c r="V1550" s="20"/>
       <c r="W1550" s="4"/>
@@ -45017,7 +45017,7 @@
         <v>201</v>
       </c>
       <c r="N1551" s="20" t="s">
-        <v>1219</v>
+        <v>1218</v>
       </c>
       <c r="V1551" s="20"/>
       <c r="W1551" s="4"/>
@@ -45042,13 +45042,13 @@
         <v>202</v>
       </c>
       <c r="N1552" s="21" t="s">
-        <v>1220</v>
+        <v>1219</v>
       </c>
       <c r="O1552" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1552" s="20" t="s">
-        <v>1221</v>
+        <v>1220</v>
       </c>
       <c r="W1552" s="4"/>
     </row>
@@ -45122,7 +45122,7 @@
         <v>205</v>
       </c>
       <c r="N1555" s="20" t="s">
-        <v>1222</v>
+        <v>1221</v>
       </c>
       <c r="V1555" s="20"/>
       <c r="W1555" s="4"/>
@@ -45147,7 +45147,7 @@
         <v>206</v>
       </c>
       <c r="N1556" s="20" t="s">
-        <v>1223</v>
+        <v>1222</v>
       </c>
       <c r="V1556" s="20"/>
       <c r="W1556" s="4"/>
@@ -45200,7 +45200,7 @@
         <v>208</v>
       </c>
       <c r="N1558" s="20" t="s">
-        <v>1348</v>
+        <v>1347</v>
       </c>
       <c r="P1558" s="18" t="s">
         <v>66</v>
@@ -45320,7 +45320,7 @@
         <v>212</v>
       </c>
       <c r="N1562" s="20" t="s">
-        <v>1224</v>
+        <v>1223</v>
       </c>
       <c r="V1562" s="20"/>
       <c r="W1562" s="4"/>
@@ -45345,7 +45345,7 @@
         <v>213</v>
       </c>
       <c r="N1563" s="20" t="s">
-        <v>1225</v>
+        <v>1224</v>
       </c>
       <c r="V1563" s="20"/>
       <c r="W1563" s="4"/>
@@ -45373,7 +45373,7 @@
         <v>214</v>
       </c>
       <c r="N1564" s="20" t="s">
-        <v>1226</v>
+        <v>1225</v>
       </c>
       <c r="S1564" s="2" t="s">
         <v>94</v>
@@ -45404,7 +45404,7 @@
         <v>215</v>
       </c>
       <c r="N1565" s="20" t="s">
-        <v>1164</v>
+        <v>1163</v>
       </c>
       <c r="V1565" s="20"/>
       <c r="W1565" s="4"/>
@@ -45429,13 +45429,13 @@
         <v>216</v>
       </c>
       <c r="N1566" s="21" t="s">
-        <v>1227</v>
+        <v>1226</v>
       </c>
       <c r="O1566" s="11" t="s">
         <v>20</v>
       </c>
       <c r="V1566" s="20" t="s">
-        <v>1228</v>
+        <v>1227</v>
       </c>
       <c r="W1566" s="4"/>
     </row>
@@ -45459,7 +45459,7 @@
         <v>217</v>
       </c>
       <c r="N1567" s="20" t="s">
-        <v>1349</v>
+        <v>1348</v>
       </c>
       <c r="P1567" s="18" t="s">
         <v>66</v>
@@ -45490,7 +45490,7 @@
         <v>218</v>
       </c>
       <c r="N1568" s="21" t="s">
-        <v>1229</v>
+        <v>1228</v>
       </c>
       <c r="O1568" s="11" t="s">
         <v>21</v>
@@ -45500,7 +45500,7 @@
         <v>93</v>
       </c>
       <c r="V1568" s="20" t="s">
-        <v>1230</v>
+        <v>1229</v>
       </c>
       <c r="W1568" s="4"/>
     </row>
@@ -45524,7 +45524,7 @@
         <v>219</v>
       </c>
       <c r="N1569" s="21" t="s">
-        <v>1231</v>
+        <v>1230</v>
       </c>
       <c r="V1569" s="20"/>
       <c r="W1569" s="4"/>
@@ -45549,7 +45549,7 @@
         <v>220</v>
       </c>
       <c r="N1570" s="21" t="s">
-        <v>1232</v>
+        <v>1231</v>
       </c>
       <c r="O1570" s="11" t="s">
         <v>21</v>
@@ -45557,7 +45557,7 @@
       <c r="T1570" s="29"/>
       <c r="U1570" s="20"/>
       <c r="V1570" s="20" t="s">
-        <v>1233</v>
+        <v>1232</v>
       </c>
       <c r="W1570" s="4"/>
     </row>
@@ -45581,7 +45581,7 @@
         <v>221</v>
       </c>
       <c r="N1571" s="20" t="s">
-        <v>1234</v>
+        <v>1233</v>
       </c>
       <c r="T1571" s="29"/>
       <c r="U1571" s="23" t="s">
@@ -45610,7 +45610,7 @@
         <v>222</v>
       </c>
       <c r="N1572" s="20" t="s">
-        <v>1235</v>
+        <v>1234</v>
       </c>
       <c r="V1572" s="20"/>
       <c r="W1572" s="4"/>
@@ -45635,7 +45635,7 @@
         <v>223</v>
       </c>
       <c r="N1573" s="20" t="s">
-        <v>1350</v>
+        <v>1349</v>
       </c>
       <c r="P1573" s="18" t="s">
         <v>66</v>
@@ -45690,7 +45690,7 @@
         <v>225</v>
       </c>
       <c r="N1575" s="20" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="V1575" s="20"/>
       <c r="W1575" s="4"/>
@@ -45715,7 +45715,7 @@
         <v>226</v>
       </c>
       <c r="N1576" s="20" t="s">
-        <v>1237</v>
+        <v>1236</v>
       </c>
       <c r="V1576" s="20"/>
       <c r="W1576" s="4"/>
@@ -45725,7 +45725,7 @@
         <v>64</v>
       </c>
       <c r="H1577" s="61" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="I1577" s="4" t="s">
         <v>57</v>
@@ -45743,13 +45743,13 @@
         <v>227</v>
       </c>
       <c r="N1577" s="21" t="s">
-        <v>1238</v>
+        <v>1237</v>
       </c>
       <c r="O1577" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1577" s="20" t="s">
-        <v>1239</v>
+        <v>1238</v>
       </c>
       <c r="W1577" s="4"/>
     </row>
@@ -45758,7 +45758,7 @@
         <v>64</v>
       </c>
       <c r="H1578" s="61" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="I1578" s="4" t="s">
         <v>57</v>
@@ -45786,7 +45786,7 @@
         <v>64</v>
       </c>
       <c r="H1579" s="61" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="I1579" s="4" t="s">
         <v>57</v>
@@ -45814,7 +45814,7 @@
         <v>64</v>
       </c>
       <c r="H1580" s="61" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="I1580" s="4" t="s">
         <v>57</v>
@@ -45842,7 +45842,7 @@
         <v>64</v>
       </c>
       <c r="H1581" s="61" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="I1581" s="4" t="s">
         <v>57</v>
@@ -45870,7 +45870,7 @@
         <v>64</v>
       </c>
       <c r="H1582" s="61" t="s">
-        <v>1401</v>
+        <v>1400</v>
       </c>
       <c r="I1582" s="4" t="s">
         <v>57</v>
@@ -45888,7 +45888,7 @@
         <v>232</v>
       </c>
       <c r="N1582" s="20" t="s">
-        <v>1351</v>
+        <v>1350</v>
       </c>
       <c r="P1582" s="18" t="s">
         <v>66</v>
@@ -45943,7 +45943,7 @@
         <v>234</v>
       </c>
       <c r="N1584" s="20" t="s">
-        <v>1236</v>
+        <v>1235</v>
       </c>
       <c r="V1584" s="20"/>
       <c r="W1584" s="4"/>
@@ -45968,7 +45968,7 @@
         <v>235</v>
       </c>
       <c r="N1585" s="20" t="s">
-        <v>1240</v>
+        <v>1239</v>
       </c>
       <c r="V1585" s="20"/>
       <c r="W1585" s="4"/>
@@ -45981,7 +45981,7 @@
         <v>179</v>
       </c>
       <c r="E1586" s="4" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="I1586" s="4" t="s">
         <v>57</v>
@@ -46013,7 +46013,7 @@
         <v>179</v>
       </c>
       <c r="E1587" s="4" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="I1587" s="4" t="s">
         <v>57</v>
@@ -46059,7 +46059,7 @@
         <v>238</v>
       </c>
       <c r="N1588" s="20" t="s">
-        <v>1241</v>
+        <v>1240</v>
       </c>
       <c r="V1588" s="20"/>
       <c r="W1588" s="4"/>
@@ -46084,7 +46084,7 @@
         <v>239</v>
       </c>
       <c r="N1589" s="20" t="s">
-        <v>1242</v>
+        <v>1241</v>
       </c>
       <c r="U1589" s="32" t="s">
         <v>68</v>
@@ -46112,13 +46112,13 @@
         <v>240</v>
       </c>
       <c r="N1590" s="21" t="s">
-        <v>1243</v>
+        <v>1242</v>
       </c>
       <c r="O1590" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1590" s="20" t="s">
-        <v>1244</v>
+        <v>1243</v>
       </c>
       <c r="W1590" s="4"/>
     </row>
@@ -46142,7 +46142,7 @@
         <v>241</v>
       </c>
       <c r="N1591" s="20" t="s">
-        <v>1352</v>
+        <v>1351</v>
       </c>
       <c r="P1591" s="18" t="s">
         <v>66</v>
@@ -46158,7 +46158,7 @@
         <v>64</v>
       </c>
       <c r="H1592" s="61" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="I1592" s="4" t="s">
         <v>57</v>
@@ -46176,7 +46176,7 @@
         <v>242</v>
       </c>
       <c r="N1592" s="20" t="s">
-        <v>1245</v>
+        <v>1244</v>
       </c>
       <c r="V1592" s="20"/>
       <c r="W1592" s="4"/>
@@ -46186,10 +46186,10 @@
         <v>64</v>
       </c>
       <c r="D1593" s="10" t="s">
-        <v>1408</v>
+        <v>1407</v>
       </c>
       <c r="H1593" s="4" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="I1593" s="4" t="s">
         <v>57</v>
@@ -46213,7 +46213,7 @@
         <v>95</v>
       </c>
       <c r="T1593" s="18" t="s">
-        <v>1365</v>
+        <v>1364</v>
       </c>
       <c r="V1593" s="20"/>
       <c r="W1593" s="4"/>
@@ -46223,7 +46223,7 @@
         <v>64</v>
       </c>
       <c r="H1594" s="61" t="s">
-        <v>1402</v>
+        <v>1401</v>
       </c>
       <c r="I1594" s="4" t="s">
         <v>57</v>
@@ -46241,13 +46241,13 @@
         <v>244</v>
       </c>
       <c r="N1594" s="21" t="s">
-        <v>1246</v>
+        <v>1245</v>
       </c>
       <c r="O1594" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1594" s="20" t="s">
-        <v>1247</v>
+        <v>1246</v>
       </c>
       <c r="W1594" s="4"/>
     </row>
@@ -46271,13 +46271,13 @@
         <v>245</v>
       </c>
       <c r="N1595" s="21" t="s">
-        <v>1248</v>
+        <v>1247</v>
       </c>
       <c r="O1595" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1595" s="20" t="s">
-        <v>1249</v>
+        <v>1248</v>
       </c>
       <c r="W1595" s="4"/>
     </row>
@@ -46301,7 +46301,7 @@
         <v>246</v>
       </c>
       <c r="N1596" s="20" t="s">
-        <v>1250</v>
+        <v>1249</v>
       </c>
       <c r="V1596" s="20"/>
       <c r="W1596" s="4"/>
@@ -46311,7 +46311,7 @@
         <v>64</v>
       </c>
       <c r="H1597" s="61" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="I1597" s="4" t="s">
         <v>57</v>
@@ -46339,10 +46339,10 @@
         <v>64</v>
       </c>
       <c r="G1598" s="4" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="H1598" s="61" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="I1598" s="4" t="s">
         <v>57</v>
@@ -46360,23 +46360,23 @@
         <v>248</v>
       </c>
       <c r="N1598" s="20" t="s">
-        <v>1251</v>
+        <v>1250</v>
       </c>
       <c r="V1598" s="20"/>
       <c r="W1598" s="4"/>
     </row>
     <row r="1599" spans="2:23" ht="18.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1599" s="4" t="s">
-        <v>1428</v>
+        <v>1427</v>
       </c>
       <c r="C1599" s="4" t="s">
         <v>64</v>
       </c>
       <c r="G1599" s="4" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="H1599" s="61" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="I1599" s="4" t="s">
         <v>57</v>
@@ -46394,7 +46394,7 @@
         <v>249</v>
       </c>
       <c r="N1599" s="20" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="S1599" s="2" t="s">
         <v>63</v>
@@ -46407,10 +46407,10 @@
         <v>64</v>
       </c>
       <c r="G1600" s="4" t="s">
-        <v>1424</v>
+        <v>1423</v>
       </c>
       <c r="H1600" s="61" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="I1600" s="4" t="s">
         <v>57</v>
@@ -46428,7 +46428,7 @@
         <v>250</v>
       </c>
       <c r="N1600" s="20" t="s">
-        <v>1252</v>
+        <v>1251</v>
       </c>
       <c r="V1600" s="20"/>
       <c r="W1600" s="4"/>
@@ -46438,7 +46438,7 @@
         <v>64</v>
       </c>
       <c r="H1601" s="61" t="s">
-        <v>1403</v>
+        <v>1402</v>
       </c>
       <c r="I1601" s="4" t="s">
         <v>58</v>
@@ -46456,7 +46456,7 @@
         <v>251</v>
       </c>
       <c r="N1601" s="20" t="s">
-        <v>1353</v>
+        <v>1352</v>
       </c>
       <c r="P1601" s="18" t="s">
         <v>66</v>
@@ -46486,7 +46486,7 @@
         <v>252</v>
       </c>
       <c r="N1602" s="20" t="s">
-        <v>1253</v>
+        <v>1252</v>
       </c>
       <c r="V1602" s="20"/>
       <c r="W1602" s="4"/>
@@ -46536,13 +46536,13 @@
         <v>254</v>
       </c>
       <c r="N1604" s="21" t="s">
-        <v>1254</v>
+        <v>1253</v>
       </c>
       <c r="O1604" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1604" s="20" t="s">
-        <v>1255</v>
+        <v>1254</v>
       </c>
       <c r="W1604" s="4"/>
     </row>
@@ -46566,7 +46566,7 @@
         <v>255</v>
       </c>
       <c r="N1605" s="20" t="s">
-        <v>1256</v>
+        <v>1255</v>
       </c>
       <c r="V1605" s="20"/>
       <c r="W1605" s="4"/>
@@ -46616,13 +46616,13 @@
         <v>257</v>
       </c>
       <c r="N1607" s="21" t="s">
-        <v>1434</v>
+        <v>1433</v>
       </c>
       <c r="O1607" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1607" s="21" t="s">
-        <v>1435</v>
+        <v>1434</v>
       </c>
       <c r="W1607" s="4"/>
     </row>
@@ -46646,7 +46646,7 @@
         <v>258</v>
       </c>
       <c r="N1608" s="20" t="s">
-        <v>1257</v>
+        <v>1256</v>
       </c>
       <c r="V1608" s="20"/>
       <c r="W1608" s="4"/>
@@ -46674,7 +46674,7 @@
         <v>259</v>
       </c>
       <c r="N1609" s="20" t="s">
-        <v>1354</v>
+        <v>1353</v>
       </c>
       <c r="P1609" s="18" t="s">
         <v>66</v>
@@ -46705,7 +46705,7 @@
         <v>260</v>
       </c>
       <c r="N1610" s="20" t="s">
-        <v>1258</v>
+        <v>1257</v>
       </c>
       <c r="V1610" s="20"/>
       <c r="W1610" s="4"/>
@@ -46730,7 +46730,7 @@
         <v>261</v>
       </c>
       <c r="N1611" s="20" t="s">
-        <v>1259</v>
+        <v>1258</v>
       </c>
       <c r="V1611" s="20"/>
       <c r="W1611" s="4"/>
@@ -46755,7 +46755,7 @@
         <v>262</v>
       </c>
       <c r="N1612" s="20" t="s">
-        <v>1260</v>
+        <v>1259</v>
       </c>
       <c r="V1612" s="20"/>
       <c r="W1612" s="4"/>
@@ -46780,13 +46780,13 @@
         <v>263</v>
       </c>
       <c r="N1613" s="21" t="s">
-        <v>1261</v>
+        <v>1260</v>
       </c>
       <c r="O1613" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1613" s="20" t="s">
-        <v>1262</v>
+        <v>1261</v>
       </c>
       <c r="W1613" s="4"/>
     </row>
@@ -46810,7 +46810,7 @@
         <v>264</v>
       </c>
       <c r="N1614" s="20" t="s">
-        <v>1263</v>
+        <v>1262</v>
       </c>
       <c r="V1614" s="20"/>
       <c r="W1614" s="4"/>
@@ -46860,7 +46860,7 @@
         <v>266</v>
       </c>
       <c r="N1616" s="20" t="s">
-        <v>1355</v>
+        <v>1354</v>
       </c>
       <c r="P1616" s="18" t="s">
         <v>66</v>
@@ -46875,7 +46875,7 @@
         <v>64</v>
       </c>
       <c r="H1617" s="61" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="I1617" s="4" t="s">
         <v>58</v>
@@ -46893,7 +46893,7 @@
         <v>267</v>
       </c>
       <c r="N1617" s="20" t="s">
-        <v>1264</v>
+        <v>1263</v>
       </c>
       <c r="V1617" s="20"/>
       <c r="W1617" s="4"/>
@@ -46906,10 +46906,10 @@
         <v>179</v>
       </c>
       <c r="E1618" s="4" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="H1618" s="61" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="I1618" s="4" t="s">
         <v>58</v>
@@ -46941,10 +46941,10 @@
         <v>179</v>
       </c>
       <c r="E1619" s="4" t="s">
-        <v>1417</v>
+        <v>1416</v>
       </c>
       <c r="H1619" s="61" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="I1619" s="4" t="s">
         <v>58</v>
@@ -46975,7 +46975,7 @@
         <v>64</v>
       </c>
       <c r="H1620" s="61" t="s">
-        <v>1404</v>
+        <v>1403</v>
       </c>
       <c r="I1620" s="4" t="s">
         <v>58</v>
@@ -46993,13 +46993,13 @@
         <v>270</v>
       </c>
       <c r="N1620" s="21" t="s">
-        <v>1265</v>
+        <v>1264</v>
       </c>
       <c r="O1620" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1620" s="20" t="s">
-        <v>1266</v>
+        <v>1265</v>
       </c>
       <c r="W1620" s="4"/>
     </row>
@@ -47023,7 +47023,7 @@
         <v>271</v>
       </c>
       <c r="N1621" s="20" t="s">
-        <v>1267</v>
+        <v>1266</v>
       </c>
       <c r="V1621" s="20"/>
       <c r="W1621" s="4"/>
@@ -47048,7 +47048,7 @@
         <v>272</v>
       </c>
       <c r="N1622" s="20" t="s">
-        <v>1126</v>
+        <v>1125</v>
       </c>
       <c r="O1622" s="11" t="s">
         <v>22</v>
@@ -47076,7 +47076,7 @@
         <v>273</v>
       </c>
       <c r="N1623" s="20" t="s">
-        <v>1268</v>
+        <v>1267</v>
       </c>
       <c r="V1623" s="20"/>
       <c r="W1623" s="4"/>
@@ -47101,7 +47101,7 @@
         <v>274</v>
       </c>
       <c r="N1624" s="20" t="s">
-        <v>1269</v>
+        <v>1268</v>
       </c>
       <c r="V1624" s="20"/>
       <c r="W1624" s="4"/>
@@ -47126,7 +47126,7 @@
         <v>275</v>
       </c>
       <c r="N1625" s="20" t="s">
-        <v>1356</v>
+        <v>1355</v>
       </c>
       <c r="P1625" s="18" t="s">
         <v>66</v>
@@ -47156,7 +47156,7 @@
         <v>276</v>
       </c>
       <c r="N1626" s="20" t="s">
-        <v>1270</v>
+        <v>1269</v>
       </c>
       <c r="U1626" s="48"/>
       <c r="V1626" s="20"/>
@@ -47182,7 +47182,7 @@
         <v>277</v>
       </c>
       <c r="N1627" s="20" t="s">
-        <v>1271</v>
+        <v>1270</v>
       </c>
       <c r="U1627" s="48" t="s">
         <v>93</v>
@@ -47210,7 +47210,7 @@
         <v>278</v>
       </c>
       <c r="N1628" s="20" t="s">
-        <v>1113</v>
+        <v>1112</v>
       </c>
       <c r="V1628" s="20"/>
       <c r="W1628" s="4"/>
@@ -47288,7 +47288,7 @@
         <v>281</v>
       </c>
       <c r="N1631" s="20" t="s">
-        <v>1272</v>
+        <v>1271</v>
       </c>
       <c r="V1631" s="20"/>
       <c r="W1631" s="4"/>
@@ -47313,7 +47313,7 @@
         <v>282</v>
       </c>
       <c r="N1632" s="20" t="s">
-        <v>1273</v>
+        <v>1272</v>
       </c>
       <c r="V1632" s="20"/>
       <c r="W1632" s="4"/>
@@ -47338,14 +47338,14 @@
         <v>283</v>
       </c>
       <c r="N1633" s="21" t="s">
-        <v>1274</v>
+        <v>1273</v>
       </c>
       <c r="O1633" s="11" t="s">
         <v>21</v>
       </c>
       <c r="U1633" s="48"/>
       <c r="V1633" s="20" t="s">
-        <v>1275</v>
+        <v>1274</v>
       </c>
       <c r="W1633" s="4"/>
     </row>
@@ -47369,7 +47369,7 @@
         <v>284</v>
       </c>
       <c r="N1634" s="20" t="s">
-        <v>1357</v>
+        <v>1356</v>
       </c>
       <c r="P1634" s="18" t="s">
         <v>66</v>
@@ -47402,13 +47402,13 @@
         <v>285</v>
       </c>
       <c r="N1635" s="21" t="s">
-        <v>1276</v>
+        <v>1275</v>
       </c>
       <c r="O1635" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1635" s="20" t="s">
-        <v>1277</v>
+        <v>1276</v>
       </c>
       <c r="W1635" s="4"/>
     </row>
@@ -47432,7 +47432,7 @@
         <v>286</v>
       </c>
       <c r="N1636" s="20" t="s">
-        <v>1278</v>
+        <v>1277</v>
       </c>
       <c r="V1636" s="20"/>
       <c r="W1636" s="4"/>
@@ -47510,7 +47510,7 @@
         <v>289</v>
       </c>
       <c r="N1639" s="20" t="s">
-        <v>1279</v>
+        <v>1278</v>
       </c>
       <c r="V1639" s="20"/>
       <c r="W1639" s="4"/>
@@ -47535,7 +47535,7 @@
         <v>290</v>
       </c>
       <c r="N1640" s="20" t="s">
-        <v>1280</v>
+        <v>1279</v>
       </c>
       <c r="V1640" s="20"/>
       <c r="W1640" s="4"/>
@@ -47588,7 +47588,7 @@
         <v>292</v>
       </c>
       <c r="N1642" s="20" t="s">
-        <v>1281</v>
+        <v>1280</v>
       </c>
       <c r="V1642" s="20"/>
       <c r="W1642" s="4"/>
@@ -47643,7 +47643,7 @@
         <v>294</v>
       </c>
       <c r="N1644" s="20" t="s">
-        <v>1282</v>
+        <v>1281</v>
       </c>
       <c r="U1644" s="48"/>
       <c r="V1644" s="20"/>
@@ -47697,13 +47697,13 @@
         <v>296</v>
       </c>
       <c r="N1646" s="21" t="s">
-        <v>1283</v>
+        <v>1282</v>
       </c>
       <c r="O1646" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1646" s="20" t="s">
-        <v>1284</v>
+        <v>1283</v>
       </c>
       <c r="W1646" s="4"/>
     </row>
@@ -47727,13 +47727,13 @@
         <v>297</v>
       </c>
       <c r="N1647" s="21" t="s">
-        <v>1285</v>
+        <v>1284</v>
       </c>
       <c r="O1647" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1647" s="20" t="s">
-        <v>1286</v>
+        <v>1285</v>
       </c>
       <c r="W1647" s="4"/>
     </row>
@@ -47757,7 +47757,7 @@
         <v>298</v>
       </c>
       <c r="N1648" s="20" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="V1648" s="20"/>
       <c r="W1648" s="4"/>
@@ -47807,7 +47807,7 @@
         <v>300</v>
       </c>
       <c r="N1650" s="20" t="s">
-        <v>1287</v>
+        <v>1286</v>
       </c>
       <c r="V1650" s="20"/>
       <c r="W1650" s="4"/>
@@ -47832,7 +47832,7 @@
         <v>301</v>
       </c>
       <c r="N1651" s="20" t="s">
-        <v>1160</v>
+        <v>1159</v>
       </c>
       <c r="V1651" s="20"/>
       <c r="W1651" s="4"/>
@@ -47857,7 +47857,7 @@
         <v>302</v>
       </c>
       <c r="N1652" s="20" t="s">
-        <v>1288</v>
+        <v>1287</v>
       </c>
       <c r="V1652" s="20"/>
       <c r="W1652" s="4"/>
@@ -47907,7 +47907,7 @@
         <v>304</v>
       </c>
       <c r="N1654" s="20" t="s">
-        <v>1358</v>
+        <v>1357</v>
       </c>
       <c r="P1654" s="18" t="s">
         <v>66</v>
@@ -47965,7 +47965,7 @@
         <v>306</v>
       </c>
       <c r="N1656" s="20" t="s">
-        <v>1289</v>
+        <v>1288</v>
       </c>
       <c r="V1656" s="20"/>
       <c r="W1656" s="4"/>
@@ -47990,7 +47990,7 @@
         <v>307</v>
       </c>
       <c r="N1657" s="20" t="s">
-        <v>1290</v>
+        <v>1289</v>
       </c>
       <c r="V1657" s="20"/>
       <c r="W1657" s="4"/>
@@ -48015,7 +48015,7 @@
         <v>308</v>
       </c>
       <c r="N1658" s="20" t="s">
-        <v>1291</v>
+        <v>1290</v>
       </c>
       <c r="V1658" s="20"/>
       <c r="W1658" s="4"/>
@@ -48065,7 +48065,7 @@
         <v>310</v>
       </c>
       <c r="N1660" s="20" t="s">
-        <v>1152</v>
+        <v>1151</v>
       </c>
       <c r="V1660" s="20"/>
       <c r="W1660" s="4"/>
@@ -48115,7 +48115,7 @@
         <v>312</v>
       </c>
       <c r="N1662" s="20" t="s">
-        <v>1292</v>
+        <v>1291</v>
       </c>
       <c r="V1662" s="20"/>
       <c r="W1662" s="4"/>
@@ -48140,7 +48140,7 @@
         <v>313</v>
       </c>
       <c r="N1663" s="21" t="s">
-        <v>1359</v>
+        <v>1358</v>
       </c>
       <c r="O1663" s="11" t="s">
         <v>21</v>
@@ -48149,7 +48149,7 @@
         <v>66</v>
       </c>
       <c r="V1663" s="20" t="s">
-        <v>1360</v>
+        <v>1359</v>
       </c>
       <c r="W1663" s="4"/>
     </row>
@@ -48201,7 +48201,7 @@
         <v>315</v>
       </c>
       <c r="N1665" s="20" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="V1665" s="20"/>
       <c r="W1665" s="4"/>
@@ -48226,7 +48226,7 @@
         <v>316</v>
       </c>
       <c r="N1666" s="20" t="s">
-        <v>1294</v>
+        <v>1293</v>
       </c>
       <c r="V1666" s="20"/>
       <c r="W1666" s="4"/>
@@ -48251,7 +48251,7 @@
         <v>317</v>
       </c>
       <c r="N1667" s="20" t="s">
-        <v>1295</v>
+        <v>1294</v>
       </c>
       <c r="V1667" s="20"/>
       <c r="W1667" s="4"/>
@@ -48276,13 +48276,13 @@
         <v>318</v>
       </c>
       <c r="N1668" s="21" t="s">
-        <v>1296</v>
+        <v>1295</v>
       </c>
       <c r="O1668" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1668" s="20" t="s">
-        <v>1297</v>
+        <v>1296</v>
       </c>
       <c r="W1668" s="4"/>
     </row>
@@ -48306,7 +48306,7 @@
         <v>319</v>
       </c>
       <c r="N1669" s="20" t="s">
-        <v>1298</v>
+        <v>1297</v>
       </c>
       <c r="V1669" s="20"/>
       <c r="W1669" s="4"/>
@@ -48331,7 +48331,7 @@
         <v>320</v>
       </c>
       <c r="N1670" s="21" t="s">
-        <v>1299</v>
+        <v>1298</v>
       </c>
       <c r="O1670" s="11" t="s">
         <v>23</v>
@@ -48361,7 +48361,7 @@
         <v>321</v>
       </c>
       <c r="N1671" s="20" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="V1671" s="20"/>
       <c r="W1671" s="4"/>
@@ -48386,7 +48386,7 @@
         <v>322</v>
       </c>
       <c r="N1672" s="21" t="s">
-        <v>1361</v>
+        <v>1360</v>
       </c>
       <c r="O1672" s="11" t="s">
         <v>21</v>
@@ -48395,7 +48395,7 @@
         <v>66</v>
       </c>
       <c r="V1672" s="20" t="s">
-        <v>1362</v>
+        <v>1361</v>
       </c>
       <c r="W1672" s="4"/>
     </row>
@@ -48429,10 +48429,10 @@
         <v>64</v>
       </c>
       <c r="D1674" s="10" t="s">
+        <v>1418</v>
+      </c>
+      <c r="G1674" s="4" t="s">
         <v>1419</v>
-      </c>
-      <c r="G1674" s="4" t="s">
-        <v>1420</v>
       </c>
       <c r="I1674" s="4" t="s">
         <v>59</v>
@@ -48450,7 +48450,7 @@
         <v>324</v>
       </c>
       <c r="N1674" s="20" t="s">
-        <v>1301</v>
+        <v>1300</v>
       </c>
       <c r="V1674" s="20"/>
       <c r="W1674" s="4"/>
@@ -48460,10 +48460,10 @@
         <v>64</v>
       </c>
       <c r="D1675" s="10" t="s">
+        <v>1418</v>
+      </c>
+      <c r="G1675" s="4" t="s">
         <v>1419</v>
-      </c>
-      <c r="G1675" s="4" t="s">
-        <v>1420</v>
       </c>
       <c r="I1675" s="4" t="s">
         <v>59</v>
@@ -48494,10 +48494,10 @@
         <v>64</v>
       </c>
       <c r="D1676" s="10" t="s">
+        <v>1418</v>
+      </c>
+      <c r="G1676" s="4" t="s">
         <v>1419</v>
-      </c>
-      <c r="G1676" s="4" t="s">
-        <v>1420</v>
       </c>
       <c r="I1676" s="4" t="s">
         <v>59</v>
@@ -48515,7 +48515,7 @@
         <v>326</v>
       </c>
       <c r="N1676" s="20" t="s">
-        <v>1302</v>
+        <v>1301</v>
       </c>
       <c r="S1676" s="2" t="s">
         <v>97</v>
@@ -48571,13 +48571,13 @@
         <v>328</v>
       </c>
       <c r="N1678" s="21" t="s">
-        <v>1303</v>
+        <v>1302</v>
       </c>
       <c r="O1678" s="11" t="s">
         <v>21</v>
       </c>
       <c r="V1678" s="20" t="s">
-        <v>1304</v>
+        <v>1303</v>
       </c>
       <c r="W1678" s="4"/>
     </row>
@@ -48586,7 +48586,7 @@
         <v>64</v>
       </c>
       <c r="H1679" s="61" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="I1679" s="4" t="s">
         <v>59</v>
@@ -48604,7 +48604,7 @@
         <v>329</v>
       </c>
       <c r="N1679" s="20" t="s">
-        <v>1300</v>
+        <v>1299</v>
       </c>
       <c r="V1679" s="20"/>
       <c r="W1679" s="4"/>
@@ -48614,7 +48614,7 @@
         <v>64</v>
       </c>
       <c r="H1680" s="61" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="I1680" s="4" t="s">
         <v>59</v>
@@ -48632,7 +48632,7 @@
         <v>330</v>
       </c>
       <c r="N1680" s="20" t="s">
-        <v>1305</v>
+        <v>1304</v>
       </c>
       <c r="V1680" s="20"/>
       <c r="W1680" s="4"/>
@@ -48642,7 +48642,7 @@
         <v>64</v>
       </c>
       <c r="H1681" s="61" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="I1681" s="4" t="s">
         <v>59</v>
@@ -48675,7 +48675,7 @@
         <v>64</v>
       </c>
       <c r="H1682" s="61" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="I1682" s="4" t="s">
         <v>59</v>
@@ -48693,7 +48693,7 @@
         <v>332</v>
       </c>
       <c r="N1682" s="20" t="s">
-        <v>1306</v>
+        <v>1305</v>
       </c>
       <c r="V1682" s="20"/>
       <c r="W1682" s="4"/>
@@ -48703,7 +48703,7 @@
         <v>64</v>
       </c>
       <c r="H1683" s="61" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="I1683" s="4" t="s">
         <v>59</v>
@@ -48721,7 +48721,7 @@
         <v>333</v>
       </c>
       <c r="N1683" s="20" t="s">
-        <v>1307</v>
+        <v>1306</v>
       </c>
       <c r="V1683" s="20"/>
       <c r="W1683" s="4"/>
@@ -48731,7 +48731,7 @@
         <v>64</v>
       </c>
       <c r="H1684" s="61" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="I1684" s="4" t="s">
         <v>59</v>
@@ -48759,7 +48759,7 @@
         <v>64</v>
       </c>
       <c r="H1685" s="61" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="I1685" s="4" t="s">
         <v>59</v>
@@ -48790,7 +48790,7 @@
         <v>64</v>
       </c>
       <c r="H1686" s="61" t="s">
-        <v>1405</v>
+        <v>1404</v>
       </c>
       <c r="I1686" s="4" t="s">
         <v>59</v>
@@ -48808,7 +48808,7 @@
         <v>336</v>
       </c>
       <c r="N1686" s="20" t="s">
-        <v>1308</v>
+        <v>1307</v>
       </c>
       <c r="V1686" s="20"/>
       <c r="W1686" s="4"/>
@@ -48833,7 +48833,7 @@
         <v>337</v>
       </c>
       <c r="N1687" s="20" t="s">
-        <v>1309</v>
+        <v>1308</v>
       </c>
       <c r="V1687" s="20"/>
       <c r="W1687" s="4"/>
@@ -48858,7 +48858,7 @@
         <v>338</v>
       </c>
       <c r="N1688" s="20" t="s">
-        <v>1102</v>
+        <v>1101</v>
       </c>
       <c r="V1688" s="20"/>
       <c r="W1688" s="4"/>
@@ -48883,7 +48883,7 @@
         <v>339</v>
       </c>
       <c r="N1689" s="20" t="s">
-        <v>1310</v>
+        <v>1309</v>
       </c>
       <c r="V1689" s="20"/>
       <c r="W1689" s="4"/>
@@ -48908,14 +48908,14 @@
         <v>340</v>
       </c>
       <c r="N1690" s="21" t="s">
-        <v>1311</v>
+        <v>1310</v>
       </c>
       <c r="O1690" s="11" t="s">
         <v>21</v>
       </c>
       <c r="U1690" s="20"/>
       <c r="V1690" s="20" t="s">
-        <v>1312</v>
+        <v>1311</v>
       </c>
       <c r="W1690" s="4"/>
     </row>
@@ -48939,7 +48939,7 @@
         <v>341</v>
       </c>
       <c r="N1691" s="20" t="s">
-        <v>1293</v>
+        <v>1292</v>
       </c>
       <c r="P1691" s="18" t="s">
         <v>66</v>
